--- a/Ex quest.xlsx
+++ b/Ex quest.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="43" xr6:coauthVersionMax="44" xr10:uidLastSave="{4640BEF4-A9C1-4524-9D9E-D3A5F66BA452}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6FA3813F-3A0E-4E93-BEBE-8FDC1404D636}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Raw" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$1:$M$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Raw!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="483">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -209,21 +209,6 @@
   </si>
   <si>
     <t xml:space="preserve">水闇属性ユニット限定 【EX極・水闇】水晶に心撃たれて </t>
-  </si>
-  <si>
-    <t xml:space="preserve">高難易度クエスト 〈七つの大罪〉 EX1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">高難易度クエスト 〈七つの大罪〉 EX2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">高難易度クエスト 〈七つの大罪〉 EX3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">高難易度クエスト 〈七つの大罪〉 EX4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">高難易度クエスト 〈七つの大罪〉 EX5 </t>
   </si>
   <si>
     <t xml:space="preserve">高難易度クエスト 【EX】Happy Happy Crazy Wedding! </t>
@@ -1442,7 +1427,76 @@
     <t>海の頂上決戦 [超絶地獄級]</t>
   </si>
   <si>
-    <t>Name (formatted) - last updated 25/08/2019</t>
+    <t>高難易度クエスト 【EX極】九死に一緒のアンダンテ</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 【地獄級】九死に一緒のアンダンテ</t>
+  </si>
+  <si>
+    <t>九死に一緒のアンダンテ [地獄級]</t>
+  </si>
+  <si>
+    <t>九死に一緒のアンダンテ [極]</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 【地獄級】七色琥珀のサンセリフ</t>
+  </si>
+  <si>
+    <t>七色琥珀のサンセリフ [地獄級]</t>
+  </si>
+  <si>
+    <t>【地獄級】コンティニュー不可 【地獄級】Harvest Moonの約束</t>
+  </si>
+  <si>
+    <t>超高難易度クエスト 【EX極】Harvest Moonの約束</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 【EX】Harvest Moonの約束</t>
+  </si>
+  <si>
+    <t>Harvest Moonの約束 [地獄級]</t>
+  </si>
+  <si>
+    <t>Harvest Moonの約束 [極]</t>
+  </si>
+  <si>
+    <t>Harvest Moonの約束</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 22/09/2019</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 〈七つの大罪〉EX7[エスカノール武具獲得]</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 〈七つの大罪〉EX6[マーリン武具獲得]</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 〈七つの大罪〉 EX1[メリオダス武具獲得]</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 〈七つの大罪〉 EX2[ディアンヌ武具獲得]</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 〈七つの大罪〉 EX3[キング武具獲得]</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 〈七つの大罪〉 EX4[バン武具獲得]</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 〈七つの大罪〉 EX5[ゴウセル武具獲得]</t>
+  </si>
+  <si>
+    <t>七つの大罪 [EX6]</t>
+  </si>
+  <si>
+    <t>七つの大罪 [EX7]</t>
+  </si>
+  <si>
+    <t>超高難易度クエスト 〈七つの大罪〉 EX極2</t>
+  </si>
+  <si>
+    <t>七つの大罪 [EX極2]</t>
   </si>
 </sst>
 </file>
@@ -1569,7 +1623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1586,12 +1640,57 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2070,11 +2169,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M235"/>
+  <dimension ref="A1:M244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H177" sqref="H177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2097,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2110,38 +2209,38 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1006)</f>
-        <v>火 92</v>
+        <v>火 116</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1006)</f>
-        <v>水 90</v>
+        <v>水 115</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1006)</f>
-        <v>風 70</v>
+        <v>風 100</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1006)</f>
-        <v>雷 70</v>
+        <v>雷 98</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1006)</f>
-        <v>光 90</v>
+        <v>光 112</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1006)</f>
-        <v>暗 73</v>
+        <v>暗 101</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C2" s="2">
         <v>50</v>
@@ -2162,16 +2261,16 @@
       <c r="K2" s="10"/>
       <c r="L2" s="11"/>
       <c r="M2" s="12">
-        <f>IF(ISNUMBER(AVERAGE(G2:L2)),AVERAGE(G2:L2),"")</f>
+        <f t="shared" ref="M2:M27" si="0">IF(ISNUMBER(AVERAGE(G2:L2)),AVERAGE(G2:L2),"")</f>
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C3" s="2">
         <v>50</v>
@@ -2183,23 +2282,35 @@
         <v>4</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12" t="str">
-        <f t="shared" ref="M3:M27" si="0">IF(ISNUMBER(AVERAGE(G3:L3)),AVERAGE(G3:L3),"")</f>
-        <v/>
+      <c r="G3" s="6">
+        <v>113</v>
+      </c>
+      <c r="H3" s="7">
+        <v>112</v>
+      </c>
+      <c r="I3" s="8">
+        <v>97</v>
+      </c>
+      <c r="J3" s="9">
+        <v>96</v>
+      </c>
+      <c r="K3" s="10">
+        <v>109</v>
+      </c>
+      <c r="L3" s="11">
+        <v>99</v>
+      </c>
+      <c r="M3" s="12">
+        <f t="shared" si="0"/>
+        <v>104.33333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C4" s="2">
         <v>50</v>
@@ -2220,10 +2331,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C5" s="2">
         <v>40</v>
@@ -2244,10 +2355,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2">
         <v>40</v>
@@ -2286,7 +2397,7 @@
         <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C7" s="2">
         <v>35</v>
@@ -2307,7 +2418,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C8" s="2">
         <v>40</v>
@@ -2328,7 +2439,7 @@
         <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C9" s="2">
         <v>35</v>
@@ -2349,7 +2460,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C10" s="2">
         <v>40</v>
@@ -2370,7 +2481,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C11" s="2">
         <v>35</v>
@@ -2391,7 +2502,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C12" s="2">
         <v>40</v>
@@ -2412,7 +2523,7 @@
         <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C13" s="2">
         <v>35</v>
@@ -2433,7 +2544,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C14" s="2">
         <v>40</v>
@@ -2451,10 +2562,10 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C15" s="2">
         <v>40</v>
@@ -2472,10 +2583,10 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C16" s="2">
         <v>50</v>
@@ -2493,10 +2604,10 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2">
         <v>40</v>
@@ -2514,10 +2625,10 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2">
         <v>50</v>
@@ -2535,10 +2646,10 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2">
         <v>40</v>
@@ -2556,10 +2667,10 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2">
         <v>50</v>
@@ -2577,10 +2688,10 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C21" s="2">
         <v>40</v>
@@ -2598,10 +2709,10 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C22" s="2">
         <v>50</v>
@@ -2619,10 +2730,10 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C23" s="2">
         <v>40</v>
@@ -2658,10 +2769,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C24" s="2">
         <v>50</v>
@@ -2682,10 +2793,10 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C25" s="2">
         <v>40</v>
@@ -2721,10 +2832,10 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C26" s="2">
         <v>50</v>
@@ -2745,10 +2856,10 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C27" s="2">
         <v>60</v>
@@ -2772,10 +2883,10 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C28" s="2">
         <v>60</v>
@@ -2793,10 +2904,10 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C29" s="2">
         <v>60</v>
@@ -2814,10 +2925,10 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C30" s="2">
         <v>60</v>
@@ -2835,10 +2946,10 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C31" s="2">
         <v>60</v>
@@ -2856,10 +2967,10 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C32" s="2">
         <v>60</v>
@@ -2877,10 +2988,10 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C33" s="2">
         <v>60</v>
@@ -2898,10 +3009,10 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C34" s="2">
         <v>40</v>
@@ -2915,20 +3026,32 @@
       <c r="G34" s="6">
         <v>66</v>
       </c>
+      <c r="H34" s="7">
+        <v>100</v>
+      </c>
+      <c r="I34" s="8">
+        <v>83</v>
+      </c>
+      <c r="J34" s="9">
+        <v>83</v>
+      </c>
       <c r="K34" s="10">
         <v>64</v>
       </c>
+      <c r="L34" s="11">
+        <v>85</v>
+      </c>
       <c r="M34" s="12">
-        <f>AVERAGE(G34:L34)</f>
-        <v>65</v>
+        <f t="shared" ref="M34:M65" si="1">AVERAGE(G34:L34)</f>
+        <v>80.166666666666671</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>157</v>
+        <v>470</v>
       </c>
       <c r="C35" s="2">
         <v>40</v>
@@ -2940,34 +3063,34 @@
         <v>4</v>
       </c>
       <c r="G35" s="6">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="H35" s="7">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="I35" s="8">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="J35" s="9">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="K35" s="10">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="L35" s="11">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="M35" s="12">
-        <f>AVERAGE(G35:L35)</f>
-        <v>37.666666666666664</v>
+        <f t="shared" si="1"/>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>424</v>
+        <v>468</v>
       </c>
       <c r="C36" s="2">
         <v>50</v>
@@ -2979,58 +3102,70 @@
         <v>4</v>
       </c>
       <c r="G36" s="6">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="H36" s="7">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="I36" s="8">
-        <v>38</v>
-      </c>
-      <c r="J36" s="9">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="K36" s="10">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="L36" s="11">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="M36" s="12">
-        <f>AVERAGE(G36:L36)</f>
-        <v>38.666666666666664</v>
+        <f t="shared" si="1"/>
+        <v>97.8</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>466</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>158</v>
+        <v>469</v>
       </c>
       <c r="C37" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D37" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G37" s="6">
+        <v>103</v>
+      </c>
+      <c r="H37" s="7">
+        <v>104</v>
+      </c>
+      <c r="I37" s="8">
+        <v>86</v>
+      </c>
+      <c r="J37" s="9">
+        <v>86</v>
+      </c>
       <c r="K37" s="10">
-        <v>76</v>
+        <v>103</v>
+      </c>
+      <c r="L37" s="11">
+        <v>88</v>
       </c>
       <c r="M37" s="12">
-        <f>AVERAGE(G37:L37)</f>
-        <v>76</v>
+        <f t="shared" si="1"/>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>66</v>
+        <v>417</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C38" s="2">
         <v>40</v>
@@ -3041,20 +3176,35 @@
       <c r="E38" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G38" s="6">
+        <v>41</v>
+      </c>
+      <c r="H38" s="7">
+        <v>37</v>
+      </c>
+      <c r="I38" s="8">
+        <v>37</v>
+      </c>
+      <c r="J38" s="9">
+        <v>37</v>
+      </c>
+      <c r="K38" s="10">
+        <v>38</v>
+      </c>
       <c r="L38" s="11">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="M38" s="12">
-        <f>AVERAGE(G38:L38)</f>
-        <v>58</v>
+        <f t="shared" si="1"/>
+        <v>37.666666666666664</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>123</v>
+        <v>418</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>294</v>
+        <v>419</v>
       </c>
       <c r="C39" s="2">
         <v>50</v>
@@ -3065,77 +3215,86 @@
       <c r="E39" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G39" s="6">
+        <v>42</v>
+      </c>
       <c r="H39" s="7">
-        <v>63</v>
+        <v>38</v>
+      </c>
+      <c r="I39" s="8">
+        <v>38</v>
+      </c>
+      <c r="J39" s="9">
+        <v>38</v>
+      </c>
+      <c r="K39" s="10">
+        <v>39</v>
+      </c>
+      <c r="L39" s="11">
+        <v>37</v>
       </c>
       <c r="M39" s="12">
-        <f>AVERAGE(G39:L39)</f>
-        <v>63</v>
+        <f t="shared" si="1"/>
+        <v>38.666666666666664</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="C40" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K40" s="10">
-        <v>85</v>
-      </c>
-      <c r="L40" s="11">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M40" s="12">
-        <f>AVERAGE(G40:L40)</f>
-        <v>76.5</v>
+        <f t="shared" si="1"/>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="C41" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="6">
-        <v>86</v>
-      </c>
       <c r="L41" s="11">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="M41" s="12">
-        <f>AVERAGE(G41:L41)</f>
-        <v>77.5</v>
+        <f t="shared" si="1"/>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="C42" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D42" s="2">
         <v>500</v>
@@ -3144,22 +3303,22 @@
         <v>4</v>
       </c>
       <c r="H42" s="7">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M42" s="12">
-        <f>AVERAGE(G42:L42)</f>
-        <v>52</v>
+        <f t="shared" si="1"/>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>268</v>
+        <v>191</v>
       </c>
       <c r="C43" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D43" s="2">
         <v>500</v>
@@ -3167,20 +3326,23 @@
       <c r="E43" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="6">
-        <v>65</v>
+      <c r="K43" s="10">
+        <v>85</v>
+      </c>
+      <c r="L43" s="11">
+        <v>68</v>
       </c>
       <c r="M43" s="12">
-        <f>AVERAGE(G43:L43)</f>
-        <v>65</v>
+        <f t="shared" si="1"/>
+        <v>76.5</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>295</v>
+        <v>192</v>
       </c>
       <c r="C44" s="2">
         <v>50</v>
@@ -3191,80 +3353,71 @@
       <c r="E44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="7">
-        <v>53</v>
+      <c r="G44" s="6">
+        <v>86</v>
+      </c>
+      <c r="L44" s="11">
+        <v>69</v>
       </c>
       <c r="M44" s="12">
-        <f>AVERAGE(G44:L44)</f>
-        <v>53</v>
+        <f t="shared" si="1"/>
+        <v>77.5</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>418</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>419</v>
+        <v>262</v>
       </c>
       <c r="C45" s="2">
         <v>40</v>
       </c>
       <c r="D45" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="6">
-        <v>38</v>
-      </c>
       <c r="H45" s="7">
-        <v>34</v>
-      </c>
-      <c r="I45" s="8">
-        <v>34</v>
-      </c>
-      <c r="J45" s="9">
-        <v>34</v>
-      </c>
-      <c r="K45" s="10">
-        <v>36</v>
-      </c>
-      <c r="L45" s="11">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="M45" s="12">
-        <f>AVERAGE(G45:L45)</f>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>180</v>
+        <v>263</v>
       </c>
       <c r="C46" s="2">
         <v>40</v>
       </c>
       <c r="D46" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M46" s="12" t="e">
-        <f>AVERAGE(G46:L46)</f>
-        <v>#DIV/0!</v>
+      <c r="G46" s="6">
+        <v>65</v>
+      </c>
+      <c r="M46" s="12">
+        <f t="shared" si="1"/>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="C47" s="2">
         <v>50</v>
@@ -3275,17 +3428,20 @@
       <c r="E47" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="12" t="e">
-        <f>AVERAGE(G47:L47)</f>
-        <v>#DIV/0!</v>
+      <c r="H47" s="7">
+        <v>53</v>
+      </c>
+      <c r="M47" s="12">
+        <f t="shared" si="1"/>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>112</v>
+        <v>413</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="C48" s="2">
         <v>40</v>
@@ -3296,17 +3452,35 @@
       <c r="E48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="12" t="e">
-        <f>AVERAGE(G48:L48)</f>
-        <v>#DIV/0!</v>
+      <c r="G48" s="6">
+        <v>38</v>
+      </c>
+      <c r="H48" s="7">
+        <v>34</v>
+      </c>
+      <c r="I48" s="8">
+        <v>34</v>
+      </c>
+      <c r="J48" s="9">
+        <v>34</v>
+      </c>
+      <c r="K48" s="10">
+        <v>36</v>
+      </c>
+      <c r="L48" s="11">
+        <v>34</v>
+      </c>
+      <c r="M48" s="12">
+        <f t="shared" si="1"/>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C49" s="2">
         <v>40</v>
@@ -3318,37 +3492,37 @@
         <v>4</v>
       </c>
       <c r="M49" s="12" t="e">
-        <f>AVERAGE(G49:L49)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>183</v>
+        <v>264</v>
       </c>
       <c r="C50" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D50" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M50" s="12" t="e">
-        <f>AVERAGE(G50:L50)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C51" s="2">
         <v>40</v>
@@ -3360,16 +3534,16 @@
         <v>4</v>
       </c>
       <c r="M51" s="12" t="e">
-        <f>AVERAGE(G51:L51)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C52" s="2">
         <v>40</v>
@@ -3381,16 +3555,16 @@
         <v>4</v>
       </c>
       <c r="M52" s="12" t="e">
-        <f>AVERAGE(G52:L52)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="C53" s="2">
         <v>40</v>
@@ -3401,80 +3575,62 @@
       <c r="E53" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G53" s="6">
-        <v>84</v>
-      </c>
-      <c r="M53" s="12">
-        <f>AVERAGE(G53:L53)</f>
-        <v>84</v>
+      <c r="M53" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>271</v>
+        <v>179</v>
       </c>
       <c r="C54" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D54" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M54" s="12" t="e">
-        <f>AVERAGE(G54:L54)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>272</v>
+        <v>180</v>
       </c>
       <c r="C55" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D55" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G55" s="6">
-        <v>85</v>
-      </c>
-      <c r="H55" s="7">
-        <v>82</v>
-      </c>
-      <c r="I55" s="8">
-        <v>66</v>
-      </c>
-      <c r="K55" s="10">
-        <v>84</v>
-      </c>
-      <c r="L55" s="11">
-        <v>67</v>
-      </c>
-      <c r="M55" s="12">
-        <f>AVERAGE(G55:L55)</f>
-        <v>76.8</v>
+      <c r="M55" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>444</v>
+        <v>62</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>445</v>
+        <v>155</v>
       </c>
       <c r="C56" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D56" s="2">
         <v>400</v>
@@ -3483,112 +3639,118 @@
         <v>4</v>
       </c>
       <c r="G56" s="6">
-        <v>52</v>
-      </c>
-      <c r="H56" s="7">
-        <v>47</v>
-      </c>
-      <c r="I56" s="8">
-        <v>47</v>
-      </c>
-      <c r="J56" s="9">
-        <v>49</v>
-      </c>
-      <c r="K56" s="10">
-        <v>59</v>
-      </c>
-      <c r="L56" s="11">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="M56" s="12">
-        <f>AVERAGE(G56:L56)</f>
-        <v>50.166666666666664</v>
+        <f t="shared" si="1"/>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="C57" s="2">
         <v>50</v>
       </c>
       <c r="D57" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J57" s="9">
-        <v>54</v>
-      </c>
-      <c r="K57" s="10">
-        <v>66</v>
-      </c>
-      <c r="L57" s="11">
-        <v>52</v>
-      </c>
-      <c r="M57" s="12">
-        <f>AVERAGE(G57:L57)</f>
-        <v>57.333333333333336</v>
+      <c r="M57" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="C58" s="2">
         <v>50</v>
       </c>
       <c r="D58" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G58" s="6">
+        <v>85</v>
+      </c>
+      <c r="H58" s="7">
+        <v>82</v>
+      </c>
+      <c r="I58" s="8">
+        <v>66</v>
+      </c>
       <c r="K58" s="10">
-        <v>65</v>
+        <v>84</v>
+      </c>
+      <c r="L58" s="11">
+        <v>67</v>
       </c>
       <c r="M58" s="12">
-        <f>AVERAGE(G58:L58)</f>
-        <v>65</v>
+        <f t="shared" si="1"/>
+        <v>76.8</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>88</v>
+        <v>439</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>270</v>
+        <v>440</v>
       </c>
       <c r="C59" s="2">
         <v>50</v>
       </c>
       <c r="D59" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="12" t="e">
-        <f>AVERAGE(G59:L59)</f>
-        <v>#DIV/0!</v>
+      <c r="G59" s="6">
+        <v>52</v>
+      </c>
+      <c r="H59" s="7">
+        <v>47</v>
+      </c>
+      <c r="I59" s="8">
+        <v>47</v>
+      </c>
+      <c r="J59" s="9">
+        <v>49</v>
+      </c>
+      <c r="K59" s="10">
+        <v>59</v>
+      </c>
+      <c r="L59" s="11">
+        <v>47</v>
+      </c>
+      <c r="M59" s="12">
+        <f t="shared" si="1"/>
+        <v>50.166666666666664</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>399</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>400</v>
+        <v>224</v>
       </c>
       <c r="C60" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D60" s="2">
         <v>400</v>
@@ -3597,37 +3759,37 @@
         <v>4</v>
       </c>
       <c r="G60" s="6">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="H60" s="7">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="I60" s="8">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="J60" s="9">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="K60" s="10">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="L60" s="11">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="M60" s="12">
-        <f>AVERAGE(G60:L60)</f>
-        <v>24.333333333333332</v>
+        <f t="shared" si="1"/>
+        <v>75.166666666666671</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>440</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>441</v>
+        <v>291</v>
       </c>
       <c r="C61" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D61" s="2">
         <v>400</v>
@@ -3636,145 +3798,175 @@
         <v>4</v>
       </c>
       <c r="G61" s="6">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="H61" s="7">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="I61" s="8">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="J61" s="9">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="K61" s="10">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L61" s="11">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="M61" s="12">
-        <f>AVERAGE(G61:L61)</f>
-        <v>48.833333333333336</v>
+        <f t="shared" si="1"/>
+        <v>85.5</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>425</v>
+        <v>83</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>426</v>
+        <v>265</v>
       </c>
       <c r="C62" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D62" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="6">
-        <v>43</v>
-      </c>
-      <c r="H62" s="7">
-        <v>1</v>
-      </c>
-      <c r="I62" s="8">
-        <v>39</v>
-      </c>
-      <c r="J62" s="9">
-        <v>39</v>
-      </c>
-      <c r="K62" s="10">
-        <v>40</v>
-      </c>
-      <c r="L62" s="11">
-        <v>38</v>
-      </c>
-      <c r="M62" s="12">
-        <f>AVERAGE(G62:L62)</f>
-        <v>33.333333333333336</v>
+      <c r="M62" s="12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>124</v>
+        <v>394</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>297</v>
+        <v>395</v>
       </c>
       <c r="C63" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D63" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G63" s="6">
-        <v>58</v>
+        <v>25</v>
+      </c>
+      <c r="H63" s="7">
+        <v>24</v>
+      </c>
+      <c r="I63" s="8">
+        <v>24</v>
+      </c>
+      <c r="J63" s="9">
+        <v>24</v>
+      </c>
+      <c r="K63" s="10">
+        <v>25</v>
       </c>
       <c r="L63" s="11">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="M63" s="12">
-        <f>AVERAGE(G63:L63)</f>
-        <v>54</v>
+        <f t="shared" si="1"/>
+        <v>24.333333333333332</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>95</v>
+        <v>435</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>273</v>
+        <v>436</v>
       </c>
       <c r="C64" s="2">
         <v>40</v>
       </c>
       <c r="D64" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M64" s="12" t="e">
-        <f>AVERAGE(G64:L64)</f>
-        <v>#DIV/0!</v>
+      <c r="G64" s="6">
+        <v>51</v>
+      </c>
+      <c r="H64" s="7">
+        <v>46</v>
+      </c>
+      <c r="I64" s="8">
+        <v>46</v>
+      </c>
+      <c r="J64" s="9">
+        <v>47</v>
+      </c>
+      <c r="K64" s="10">
+        <v>57</v>
+      </c>
+      <c r="L64" s="11">
+        <v>46</v>
+      </c>
+      <c r="M64" s="12">
+        <f t="shared" si="1"/>
+        <v>48.833333333333336</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>96</v>
+        <v>420</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>274</v>
+        <v>421</v>
       </c>
       <c r="C65" s="2">
         <v>40</v>
       </c>
       <c r="D65" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M65" s="12" t="e">
-        <f>AVERAGE(G65:L65)</f>
-        <v>#DIV/0!</v>
+      <c r="G65" s="6">
+        <v>43</v>
+      </c>
+      <c r="H65" s="7">
+        <v>1</v>
+      </c>
+      <c r="I65" s="8">
+        <v>39</v>
+      </c>
+      <c r="J65" s="9">
+        <v>39</v>
+      </c>
+      <c r="K65" s="10">
+        <v>40</v>
+      </c>
+      <c r="L65" s="11">
+        <v>38</v>
+      </c>
+      <c r="M65" s="12">
+        <f t="shared" si="1"/>
+        <v>33.333333333333336</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="C66" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D66" s="2">
         <v>500</v>
@@ -3782,17 +3974,23 @@
       <c r="E66" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M66" s="12" t="e">
-        <f>AVERAGE(G66:L66)</f>
-        <v>#DIV/0!</v>
+      <c r="G66" s="6">
+        <v>58</v>
+      </c>
+      <c r="L66" s="11">
+        <v>50</v>
+      </c>
+      <c r="M66" s="12">
+        <f t="shared" ref="M66:M97" si="2">AVERAGE(G66:L66)</f>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C67" s="2">
         <v>40</v>
@@ -3804,16 +4002,16 @@
         <v>4</v>
       </c>
       <c r="M67" s="12" t="e">
-        <f>AVERAGE(G67:L67)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C68" s="2">
         <v>40</v>
@@ -3825,19 +4023,19 @@
         <v>4</v>
       </c>
       <c r="M68" s="12" t="e">
-        <f>AVERAGE(G68:L68)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>209</v>
+        <v>270</v>
       </c>
       <c r="C69" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D69" s="2">
         <v>500</v>
@@ -3846,94 +4044,58 @@
         <v>4</v>
       </c>
       <c r="M69" s="12" t="e">
-        <f>AVERAGE(G69:L69)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>391</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>392</v>
+        <v>271</v>
       </c>
       <c r="C70" s="2">
         <v>40</v>
       </c>
       <c r="D70" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G70" s="6">
-        <v>21</v>
-      </c>
-      <c r="H70" s="7">
-        <v>20</v>
-      </c>
-      <c r="I70" s="8">
-        <v>20</v>
-      </c>
-      <c r="J70" s="9">
-        <v>20</v>
-      </c>
-      <c r="K70" s="10">
-        <v>20</v>
-      </c>
-      <c r="L70" s="11">
-        <v>20</v>
-      </c>
-      <c r="M70" s="12">
-        <f>AVERAGE(G70:L70)</f>
-        <v>20.166666666666668</v>
+      <c r="M70" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="C71" s="2">
         <v>40</v>
       </c>
       <c r="D71" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G71" s="6">
-        <v>89</v>
-      </c>
-      <c r="H71" s="7">
-        <v>87</v>
-      </c>
-      <c r="I71" s="8">
-        <v>58</v>
-      </c>
-      <c r="J71" s="9">
-        <v>68</v>
-      </c>
-      <c r="K71" s="10">
-        <v>88</v>
-      </c>
-      <c r="L71" s="11">
-        <v>53</v>
-      </c>
-      <c r="M71" s="12">
-        <f>AVERAGE(G71:L71)</f>
-        <v>73.833333333333329</v>
+      <c r="M71" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C72" s="2">
         <v>50</v>
@@ -3944,41 +4106,56 @@
       <c r="E72" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L72" s="11">
-        <v>59</v>
-      </c>
-      <c r="M72" s="12">
-        <f>AVERAGE(G72:L72)</f>
-        <v>59</v>
+      <c r="M72" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C73" s="2">
+        <v>40</v>
+      </c>
+      <c r="D73" s="2">
+        <v>400</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" s="6">
         <v>21</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C73" s="2">
-        <v>50</v>
-      </c>
-      <c r="D73" s="2">
-        <v>500</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M73" s="12" t="e">
-        <f>AVERAGE(G73:L73)</f>
-        <v>#DIV/0!</v>
+      <c r="H73" s="7">
+        <v>20</v>
+      </c>
+      <c r="I73" s="8">
+        <v>20</v>
+      </c>
+      <c r="J73" s="9">
+        <v>20</v>
+      </c>
+      <c r="K73" s="10">
+        <v>20</v>
+      </c>
+      <c r="L73" s="11">
+        <v>20</v>
+      </c>
+      <c r="M73" s="12">
+        <f t="shared" si="2"/>
+        <v>20.166666666666668</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="C74" s="2">
         <v>40</v>
@@ -3989,62 +4166,80 @@
       <c r="E74" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M74" s="12" t="e">
-        <f>AVERAGE(G74:L74)</f>
-        <v>#DIV/0!</v>
+      <c r="G74" s="6">
+        <v>89</v>
+      </c>
+      <c r="H74" s="7">
+        <v>87</v>
+      </c>
+      <c r="I74" s="8">
+        <v>58</v>
+      </c>
+      <c r="J74" s="9">
+        <v>68</v>
+      </c>
+      <c r="K74" s="10">
+        <v>88</v>
+      </c>
+      <c r="L74" s="11">
+        <v>53</v>
+      </c>
+      <c r="M74" s="12">
+        <f t="shared" si="2"/>
+        <v>73.833333333333329</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C75" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D75" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M75" s="12" t="e">
-        <f>AVERAGE(G75:L75)</f>
-        <v>#DIV/0!</v>
+      <c r="L75" s="11">
+        <v>59</v>
+      </c>
+      <c r="M75" s="12">
+        <f t="shared" si="2"/>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C76" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D76" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G76" s="6">
-        <v>36</v>
-      </c>
-      <c r="M76" s="12">
-        <f>AVERAGE(G76:L76)</f>
-        <v>36</v>
+      <c r="M76" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C77" s="2">
         <v>40</v>
@@ -4056,37 +4251,37 @@
         <v>4</v>
       </c>
       <c r="M77" s="12" t="e">
-        <f>AVERAGE(G77:L77)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C78" s="2">
         <v>40</v>
       </c>
       <c r="D78" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M78" s="12" t="e">
-        <f>AVERAGE(G78:L78)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>415</v>
+        <v>18</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>416</v>
+        <v>209</v>
       </c>
       <c r="C79" s="2">
         <v>40</v>
@@ -4098,34 +4293,19 @@
         <v>4</v>
       </c>
       <c r="G79" s="6">
-        <v>35</v>
-      </c>
-      <c r="H79" s="7">
-        <v>32</v>
-      </c>
-      <c r="I79" s="8">
-        <v>32</v>
-      </c>
-      <c r="J79" s="9">
-        <v>32</v>
-      </c>
-      <c r="K79" s="10">
-        <v>33</v>
-      </c>
-      <c r="L79" s="11">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M79" s="12">
-        <f>AVERAGE(G79:L79)</f>
-        <v>32.666666666666664</v>
+        <f t="shared" si="2"/>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C80" s="2">
         <v>40</v>
@@ -4136,59 +4316,38 @@
       <c r="E80" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K80" s="10">
-        <v>34</v>
-      </c>
-      <c r="M80" s="12">
-        <f>AVERAGE(G80:L80)</f>
-        <v>34</v>
+      <c r="M80" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>434</v>
+        <v>19</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>435</v>
+        <v>211</v>
       </c>
       <c r="C81" s="2">
         <v>40</v>
       </c>
       <c r="D81" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G81" s="6">
-        <v>48</v>
-      </c>
-      <c r="H81" s="7">
-        <v>43</v>
-      </c>
-      <c r="I81" s="8">
-        <v>43</v>
-      </c>
-      <c r="J81" s="9">
-        <v>44</v>
-      </c>
-      <c r="K81" s="10">
-        <v>53</v>
-      </c>
-      <c r="L81" s="11">
-        <v>43</v>
-      </c>
-      <c r="M81" s="12">
-        <f>AVERAGE(G81:L81)</f>
-        <v>45.666666666666664</v>
+      <c r="M81" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
       <c r="C82" s="2">
         <v>40</v>
@@ -4200,34 +4359,34 @@
         <v>4</v>
       </c>
       <c r="G82" s="6">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H82" s="7">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I82" s="8">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J82" s="9">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="K82" s="10">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="L82" s="11">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M82" s="12">
-        <f>AVERAGE(G82:L82)</f>
-        <v>47.833333333333336</v>
+        <f t="shared" si="2"/>
+        <v>32.666666666666664</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>450</v>
+        <v>28</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>451</v>
+        <v>212</v>
       </c>
       <c r="C83" s="2">
         <v>40</v>
@@ -4238,20 +4397,20 @@
       <c r="E83" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="8">
-        <v>54</v>
+      <c r="K83" s="10">
+        <v>34</v>
       </c>
       <c r="M83" s="12">
-        <f>AVERAGE(G83:L83)</f>
-        <v>54</v>
+        <f t="shared" si="2"/>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>30</v>
+        <v>429</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>218</v>
+        <v>430</v>
       </c>
       <c r="C84" s="2">
         <v>40</v>
@@ -4262,20 +4421,35 @@
       <c r="E84" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G84" s="6">
+        <v>48</v>
+      </c>
       <c r="H84" s="7">
-        <v>64</v>
+        <v>43</v>
+      </c>
+      <c r="I84" s="8">
+        <v>43</v>
+      </c>
+      <c r="J84" s="9">
+        <v>44</v>
+      </c>
+      <c r="K84" s="10">
+        <v>53</v>
+      </c>
+      <c r="L84" s="11">
+        <v>43</v>
       </c>
       <c r="M84" s="12">
-        <f>AVERAGE(G84:L84)</f>
-        <v>64</v>
+        <f t="shared" si="2"/>
+        <v>45.666666666666664</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>13</v>
+        <v>433</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>219</v>
+        <v>434</v>
       </c>
       <c r="C85" s="2">
         <v>40</v>
@@ -4287,19 +4461,34 @@
         <v>4</v>
       </c>
       <c r="G85" s="6">
-        <v>72</v>
+        <v>50</v>
+      </c>
+      <c r="H85" s="7">
+        <v>45</v>
+      </c>
+      <c r="I85" s="8">
+        <v>45</v>
+      </c>
+      <c r="J85" s="9">
+        <v>46</v>
+      </c>
+      <c r="K85" s="10">
+        <v>56</v>
+      </c>
+      <c r="L85" s="11">
+        <v>45</v>
       </c>
       <c r="M85" s="12">
-        <f>AVERAGE(G85:L85)</f>
-        <v>72</v>
+        <f t="shared" si="2"/>
+        <v>47.833333333333336</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>27</v>
+        <v>445</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>220</v>
+        <v>446</v>
       </c>
       <c r="C86" s="2">
         <v>40</v>
@@ -4310,20 +4499,20 @@
       <c r="E86" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G86" s="6">
-        <v>73</v>
+      <c r="I86" s="8">
+        <v>54</v>
       </c>
       <c r="M86" s="12">
-        <f>AVERAGE(G86:L86)</f>
-        <v>73</v>
+        <f t="shared" si="2"/>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C87" s="2">
         <v>40</v>
@@ -4334,26 +4523,20 @@
       <c r="E87" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I87" s="8">
+      <c r="H87" s="7">
         <v>64</v>
       </c>
-      <c r="J87" s="9">
-        <v>63</v>
-      </c>
-      <c r="K87" s="10">
-        <v>78</v>
-      </c>
       <c r="M87" s="12">
-        <f>AVERAGE(G87:L87)</f>
-        <v>68.333333333333329</v>
+        <f t="shared" si="2"/>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C88" s="2">
         <v>40</v>
@@ -4364,86 +4547,116 @@
       <c r="E88" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L88" s="11">
-        <v>65</v>
+      <c r="G88" s="6">
+        <v>72</v>
       </c>
       <c r="M88" s="12">
-        <f>AVERAGE(G88:L88)</f>
-        <v>65</v>
+        <f t="shared" si="2"/>
+        <v>72</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C89" s="2">
         <v>40</v>
       </c>
       <c r="D89" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M89" s="12" t="e">
-        <f>AVERAGE(G89:L89)</f>
-        <v>#DIV/0!</v>
+      <c r="G89" s="6">
+        <v>73</v>
+      </c>
+      <c r="M89" s="12">
+        <f t="shared" si="2"/>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C90" s="2">
         <v>40</v>
       </c>
       <c r="D90" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M90" s="12" t="e">
-        <f>AVERAGE(G90:L90)</f>
-        <v>#DIV/0!</v>
+      <c r="I90" s="8">
+        <v>64</v>
+      </c>
+      <c r="J90" s="9">
+        <v>63</v>
+      </c>
+      <c r="K90" s="10">
+        <v>78</v>
+      </c>
+      <c r="M90" s="12">
+        <f t="shared" si="2"/>
+        <v>68.333333333333329</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C91" s="2">
         <v>40</v>
       </c>
       <c r="D91" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="12" t="e">
-        <f>AVERAGE(G91:L91)</f>
-        <v>#DIV/0!</v>
+      <c r="G91" s="6">
+        <v>114</v>
+      </c>
+      <c r="H91" s="7">
+        <v>113</v>
+      </c>
+      <c r="I91" s="8">
+        <v>98</v>
+      </c>
+      <c r="J91" s="9">
+        <v>97</v>
+      </c>
+      <c r="K91" s="10">
+        <v>110</v>
+      </c>
+      <c r="L91" s="11">
+        <v>65</v>
+      </c>
+      <c r="M91" s="12">
+        <f t="shared" si="2"/>
+        <v>99.5</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C92" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D92" s="2">
         <v>500</v>
@@ -4452,19 +4665,19 @@
         <v>4</v>
       </c>
       <c r="M92" s="12" t="e">
-        <f>AVERAGE(G92:L92)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>350</v>
+        <v>218</v>
       </c>
       <c r="C93" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D93" s="2">
         <v>500</v>
@@ -4472,53 +4685,38 @@
       <c r="E93" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H93" s="7">
-        <v>76</v>
-      </c>
-      <c r="I93" s="8">
-        <v>63</v>
-      </c>
-      <c r="L93" s="11">
-        <v>62</v>
-      </c>
-      <c r="M93" s="12">
-        <f>AVERAGE(G93:L93)</f>
-        <v>67</v>
+      <c r="M93" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C94" s="2">
         <v>40</v>
       </c>
       <c r="D94" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="6">
-        <v>69</v>
-      </c>
-      <c r="H94" s="7">
-        <v>55</v>
-      </c>
-      <c r="M94" s="12">
-        <f>AVERAGE(G94:L94)</f>
-        <v>62</v>
+      <c r="M94" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>298</v>
+        <v>220</v>
       </c>
       <c r="C95" s="2">
         <v>50</v>
@@ -4529,95 +4727,125 @@
       <c r="E95" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G95" s="6">
-        <v>67</v>
-      </c>
-      <c r="M95" s="12">
-        <f>AVERAGE(G95:L95)</f>
-        <v>67</v>
+      <c r="M95" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>278</v>
+        <v>345</v>
       </c>
       <c r="C96" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D96" s="2">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K96" s="10">
-        <v>70</v>
+      <c r="H96" s="7">
+        <v>76</v>
+      </c>
+      <c r="I96" s="8">
+        <v>63</v>
+      </c>
+      <c r="L96" s="11">
+        <v>62</v>
       </c>
       <c r="M96" s="12">
-        <f>AVERAGE(G96:L96)</f>
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="C97" s="2">
         <v>40</v>
       </c>
       <c r="D97" s="2">
-        <v>11000</v>
+        <v>400</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G97" s="6">
+        <v>69</v>
+      </c>
+      <c r="H97" s="7">
+        <v>55</v>
+      </c>
+      <c r="I97" s="8">
+        <v>73</v>
+      </c>
+      <c r="J97" s="9">
+        <v>73</v>
+      </c>
       <c r="K97" s="10">
-        <v>71</v>
+        <v>93</v>
+      </c>
+      <c r="L97" s="11">
+        <v>76</v>
       </c>
       <c r="M97" s="12">
-        <f>AVERAGE(G97:L97)</f>
-        <v>71</v>
+        <f t="shared" si="2"/>
+        <v>73.166666666666671</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="C98" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D98" s="2">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G98" s="6">
+        <v>67</v>
+      </c>
       <c r="H98" s="7">
+        <v>92</v>
+      </c>
+      <c r="I98" s="8">
         <v>74</v>
       </c>
+      <c r="J98" s="9">
+        <v>74</v>
+      </c>
       <c r="K98" s="10">
-        <v>72</v>
+        <v>94</v>
+      </c>
+      <c r="L98" s="11">
+        <v>77</v>
       </c>
       <c r="M98" s="12">
-        <f>AVERAGE(G98:L98)</f>
-        <v>73</v>
+        <f t="shared" ref="M98:M104" si="3">AVERAGE(G98:L98)</f>
+        <v>79.666666666666671</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>62</v>
+        <v>474</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C99" s="2">
         <v>40</v>
@@ -4628,20 +4856,35 @@
       <c r="E99" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G99" s="6">
+        <v>106</v>
+      </c>
+      <c r="H99" s="7">
+        <v>106</v>
+      </c>
+      <c r="I99" s="8">
+        <v>89</v>
+      </c>
+      <c r="J99" s="9">
+        <v>88</v>
+      </c>
       <c r="K99" s="10">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="L99" s="11">
+        <v>91</v>
       </c>
       <c r="M99" s="12">
-        <f>AVERAGE(G99:L99)</f>
-        <v>73</v>
+        <f t="shared" si="3"/>
+        <v>91.666666666666671</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>63</v>
+        <v>475</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C100" s="2">
         <v>40</v>
@@ -4652,263 +4895,308 @@
       <c r="E100" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G100" s="6">
+        <v>107</v>
+      </c>
+      <c r="H100" s="7">
+        <v>107</v>
+      </c>
+      <c r="I100" s="8">
+        <v>90</v>
+      </c>
+      <c r="J100" s="9">
+        <v>89</v>
+      </c>
       <c r="K100" s="10">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="L100" s="11">
+        <v>92</v>
       </c>
       <c r="M100" s="12">
-        <f>AVERAGE(G100:L100)</f>
-        <v>74</v>
+        <f t="shared" si="3"/>
+        <v>92.666666666666671</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>121</v>
+        <v>476</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C101" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D101" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G101" s="6">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="H101" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I101" s="8">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="J101" s="9">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="K101" s="10">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L101" s="11">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="M101" s="12">
-        <f>AVERAGE(G101:L101)</f>
-        <v>69.166666666666671</v>
+        <f t="shared" si="3"/>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>355</v>
+        <v>477</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>356</v>
+        <v>276</v>
       </c>
       <c r="C102" s="2">
         <v>40</v>
       </c>
       <c r="D102" s="2">
-        <v>500</v>
+        <v>11000</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G102" s="6">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="H102" s="7">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="I102" s="8">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="J102" s="9">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="K102" s="10">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="L102" s="11">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="M102" s="12">
-        <f>AVERAGE(G102:L102)</f>
-        <v>1.1666666666666667</v>
+        <f t="shared" si="3"/>
+        <v>94.5</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>359</v>
+        <v>478</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>360</v>
+        <v>277</v>
       </c>
       <c r="C103" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D103" s="2">
-        <v>500</v>
+        <v>11000</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G103" s="6">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="H103" s="7">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="I103" s="8">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="J103" s="9">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="K103" s="10">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="L103" s="11">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="M103" s="12">
-        <f>AVERAGE(G103:L103)</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>95.5</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>357</v>
+        <v>473</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>358</v>
+        <v>479</v>
       </c>
       <c r="C104" s="2">
         <v>40</v>
       </c>
       <c r="D104" s="2">
-        <v>500</v>
+        <v>11000</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G104" s="6">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="H104" s="7">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="I104" s="8">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="J104" s="9">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="K104" s="10">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="L104" s="11">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="M104" s="12">
-        <f>AVERAGE(G104:L104)</f>
-        <v>2.8333333333333335</v>
+        <f t="shared" si="3"/>
+        <v>100.66666666666667</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="1" t="s">
-        <v>361</v>
+        <v>472</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>362</v>
+        <v>480</v>
       </c>
       <c r="C105" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D105" s="2">
-        <v>500</v>
+        <v>11000</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G105" s="6">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="H105" s="7">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="I105" s="8">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="J105" s="9">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="K105" s="10">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="L105" s="11">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="M105" s="12">
-        <f>AVERAGE(G105:L105)</f>
-        <v>4</v>
+        <f t="shared" ref="M105:M138" si="4">AVERAGE(G105:L105)</f>
+        <v>102.5</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="C106" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D106" s="2">
-        <v>400</v>
+        <v>14000</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G106" s="6">
+        <v>80</v>
+      </c>
+      <c r="H106" s="7">
+        <v>75</v>
+      </c>
       <c r="I106" s="8">
-        <v>56</v>
+        <v>62</v>
+      </c>
+      <c r="J106" s="9">
+        <v>62</v>
+      </c>
+      <c r="K106" s="10">
+        <v>75</v>
+      </c>
+      <c r="L106" s="11">
+        <v>61</v>
       </c>
       <c r="M106" s="12">
-        <f>AVERAGE(G106:L106)</f>
-        <v>56</v>
+        <f t="shared" si="4"/>
+        <v>69.166666666666671</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
-        <v>54</v>
+        <v>481</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>236</v>
+        <v>482</v>
       </c>
       <c r="C107" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D107" s="2">
-        <v>400</v>
+        <v>14000</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G107" s="6">
+        <v>116</v>
+      </c>
+      <c r="H107" s="7">
+        <v>114</v>
+      </c>
       <c r="I107" s="8">
-        <v>57</v>
+        <v>99</v>
+      </c>
+      <c r="J107" s="9">
+        <v>98</v>
+      </c>
+      <c r="K107" s="10">
+        <v>111</v>
+      </c>
+      <c r="L107" s="11">
+        <v>100</v>
       </c>
       <c r="M107" s="12">
-        <f>AVERAGE(G107:L107)</f>
-        <v>57</v>
+        <f t="shared" si="4"/>
+        <v>106.33333333333333</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="1" t="s">
-        <v>71</v>
+        <v>463</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>237</v>
+        <v>464</v>
       </c>
       <c r="C108" s="2">
         <v>40</v>
@@ -4919,53 +5207,59 @@
       <c r="E108" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K108" s="10">
-        <v>80</v>
+      <c r="H108" s="7">
+        <v>102</v>
       </c>
       <c r="M108" s="12">
-        <f>AVERAGE(G108:L108)</f>
-        <v>80</v>
+        <f t="shared" si="4"/>
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="1" t="s">
-        <v>452</v>
+        <v>350</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>453</v>
+        <v>351</v>
       </c>
       <c r="C109" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D109" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G109" s="6">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="H109" s="7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I109" s="8">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="J109" s="9">
-        <v>51</v>
+        <v>1</v>
+      </c>
+      <c r="K109" s="10">
+        <v>1</v>
+      </c>
+      <c r="L109" s="11">
+        <v>1</v>
       </c>
       <c r="M109" s="12">
-        <f>AVERAGE(G109:L109)</f>
-        <v>52.25</v>
+        <f t="shared" si="4"/>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="1" t="s">
-        <v>143</v>
+        <v>354</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>299</v>
+        <v>355</v>
       </c>
       <c r="C110" s="2">
         <v>50</v>
@@ -4977,133 +5271,136 @@
         <v>4</v>
       </c>
       <c r="G110" s="6">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="H110" s="7">
-        <v>72</v>
+        <v>2</v>
+      </c>
+      <c r="I110" s="8">
+        <v>2</v>
+      </c>
+      <c r="J110" s="9">
+        <v>2</v>
       </c>
       <c r="K110" s="10">
-        <v>79</v>
+        <v>3</v>
+      </c>
+      <c r="L110" s="11">
+        <v>2</v>
       </c>
       <c r="M110" s="12">
-        <f>AVERAGE(G110:L110)</f>
-        <v>71.666666666666671</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="1" t="s">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>238</v>
+        <v>353</v>
       </c>
       <c r="C111" s="2">
         <v>40</v>
       </c>
       <c r="D111" s="2">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G111" s="6">
+        <v>3</v>
+      </c>
       <c r="H111" s="7">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="I111" s="8">
-        <v>60</v>
+        <v>3</v>
+      </c>
+      <c r="J111" s="9">
+        <v>3</v>
       </c>
       <c r="K111" s="10">
-        <v>82</v>
+        <v>2</v>
+      </c>
+      <c r="L111" s="11">
+        <v>3</v>
       </c>
       <c r="M111" s="12">
-        <f>AVERAGE(G111:L111)</f>
-        <v>66</v>
+        <f t="shared" si="4"/>
+        <v>2.8333333333333335</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="1" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="C112" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D112" s="2">
-        <v>135</v>
+        <v>500</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G112" s="6">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H112" s="7">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I112" s="8">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="J112" s="9">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="K112" s="10">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="L112" s="11">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="M112" s="12">
-        <f>AVERAGE(G112:L112)</f>
-        <v>22.333333333333332</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="1" t="s">
-        <v>397</v>
+        <v>51</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>398</v>
+        <v>230</v>
       </c>
       <c r="C113" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D113" s="2">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G113" s="6">
-        <v>24</v>
-      </c>
-      <c r="H113" s="7">
-        <v>23</v>
-      </c>
       <c r="I113" s="8">
-        <v>23</v>
-      </c>
-      <c r="J113" s="9">
-        <v>23</v>
-      </c>
-      <c r="K113" s="10">
-        <v>24</v>
-      </c>
-      <c r="L113" s="11">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M113" s="12">
-        <f>AVERAGE(G113:L113)</f>
-        <v>23.333333333333332</v>
+        <f t="shared" si="4"/>
+        <v>56</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="1" t="s">
-        <v>387</v>
+        <v>54</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>388</v>
+        <v>231</v>
       </c>
       <c r="C114" s="2">
         <v>40</v>
@@ -5114,77 +5411,47 @@
       <c r="E114" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G114" s="6">
-        <v>19</v>
-      </c>
-      <c r="H114" s="7">
-        <v>18</v>
-      </c>
       <c r="I114" s="8">
-        <v>18</v>
-      </c>
-      <c r="J114" s="9">
-        <v>18</v>
-      </c>
-      <c r="K114" s="10">
-        <v>18</v>
-      </c>
-      <c r="L114" s="11">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="M114" s="12">
-        <f>AVERAGE(G114:L114)</f>
-        <v>18.166666666666668</v>
+        <f t="shared" si="4"/>
+        <v>57</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="1" t="s">
-        <v>389</v>
+        <v>66</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>390</v>
+        <v>232</v>
       </c>
       <c r="C115" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D115" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G115" s="6">
-        <v>20</v>
-      </c>
-      <c r="H115" s="7">
-        <v>19</v>
-      </c>
-      <c r="I115" s="8">
-        <v>19</v>
-      </c>
-      <c r="J115" s="9">
-        <v>19</v>
-      </c>
       <c r="K115" s="10">
-        <v>19</v>
-      </c>
-      <c r="L115" s="11">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="M115" s="12">
-        <f>AVERAGE(G115:L115)</f>
-        <v>19.166666666666668</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="1" t="s">
-        <v>107</v>
+        <v>460</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>239</v>
+        <v>461</v>
       </c>
       <c r="C116" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D116" s="2">
         <v>400</v>
@@ -5193,19 +5460,19 @@
         <v>4</v>
       </c>
       <c r="M116" s="12" t="e">
-        <f>AVERAGE(G116:L116)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="1" t="s">
-        <v>149</v>
+        <v>459</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>300</v>
+        <v>462</v>
       </c>
       <c r="C117" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D117" s="2">
         <v>400</v>
@@ -5213,20 +5480,35 @@
       <c r="E117" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G117" s="6">
+        <v>96</v>
+      </c>
+      <c r="H117" s="7">
+        <v>94</v>
+      </c>
+      <c r="I117" s="8">
+        <v>77</v>
+      </c>
+      <c r="J117" s="9">
+        <v>79</v>
+      </c>
       <c r="K117" s="10">
-        <v>69</v>
+        <v>97</v>
+      </c>
+      <c r="L117" s="11">
+        <v>81</v>
       </c>
       <c r="M117" s="12">
-        <f>AVERAGE(G117:L117)</f>
-        <v>69</v>
+        <f t="shared" si="4"/>
+        <v>87.333333333333329</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="1" t="s">
-        <v>108</v>
+        <v>447</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>240</v>
+        <v>448</v>
       </c>
       <c r="C118" s="2">
         <v>50</v>
@@ -5237,152 +5519,206 @@
       <c r="E118" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M118" s="12" t="e">
-        <f>AVERAGE(G118:L118)</f>
-        <v>#DIV/0!</v>
+      <c r="G118" s="6">
+        <v>57</v>
+      </c>
+      <c r="H118" s="7">
+        <v>50</v>
+      </c>
+      <c r="I118" s="8">
+        <v>51</v>
+      </c>
+      <c r="J118" s="9">
+        <v>51</v>
+      </c>
+      <c r="M118" s="12">
+        <f t="shared" si="4"/>
+        <v>52.25</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C119" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D119" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M119" s="12" t="e">
-        <f>AVERAGE(G119:L119)</f>
-        <v>#DIV/0!</v>
+      <c r="G119" s="6">
+        <v>64</v>
+      </c>
+      <c r="H119" s="7">
+        <v>72</v>
+      </c>
+      <c r="K119" s="10">
+        <v>79</v>
+      </c>
+      <c r="M119" s="12">
+        <f t="shared" si="4"/>
+        <v>71.666666666666671</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C120" s="2">
         <v>40</v>
       </c>
       <c r="D120" s="2">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G120" s="6">
-        <v>68</v>
+      <c r="H120" s="7">
+        <v>56</v>
+      </c>
+      <c r="I120" s="8">
+        <v>60</v>
+      </c>
+      <c r="K120" s="10">
+        <v>82</v>
       </c>
       <c r="M120" s="12">
-        <f>AVERAGE(G120:L120)</f>
-        <v>68</v>
+        <f t="shared" si="4"/>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="1" t="s">
-        <v>454</v>
+        <v>390</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>455</v>
+        <v>391</v>
       </c>
       <c r="C121" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D121" s="2">
-        <v>400</v>
+        <v>135</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G121" s="6">
-        <v>55</v>
+        <v>23</v>
+      </c>
+      <c r="H121" s="7">
+        <v>22</v>
       </c>
       <c r="I121" s="8">
-        <v>49</v>
+        <v>22</v>
+      </c>
+      <c r="J121" s="9">
+        <v>22</v>
+      </c>
+      <c r="K121" s="10">
+        <v>23</v>
+      </c>
+      <c r="L121" s="11">
+        <v>22</v>
       </c>
       <c r="M121" s="12">
-        <f>AVERAGE(G121:L121)</f>
-        <v>52</v>
+        <f t="shared" si="4"/>
+        <v>22.333333333333332</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="1" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="C122" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D122" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G122" s="6">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="H122" s="7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="I122" s="8">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="J122" s="9">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="K122" s="10">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="L122" s="11">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="M122" s="12">
-        <f>AVERAGE(G122:L122)</f>
-        <v>5.333333333333333</v>
+        <f t="shared" si="4"/>
+        <v>23.333333333333332</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="1" t="s">
-        <v>177</v>
+        <v>382</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>302</v>
+        <v>383</v>
       </c>
       <c r="C123" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D123" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G123" s="6">
+        <v>19</v>
+      </c>
       <c r="H123" s="7">
-        <v>69</v>
+        <v>18</v>
+      </c>
+      <c r="I123" s="8">
+        <v>18</v>
+      </c>
+      <c r="J123" s="9">
+        <v>18</v>
+      </c>
+      <c r="K123" s="10">
+        <v>18</v>
+      </c>
+      <c r="L123" s="11">
+        <v>18</v>
       </c>
       <c r="M123" s="12">
-        <f>AVERAGE(G123:L123)</f>
-        <v>69</v>
+        <f t="shared" si="4"/>
+        <v>18.166666666666668</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="1" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="C124" s="2">
         <v>50</v>
@@ -5394,34 +5730,34 @@
         <v>4</v>
       </c>
       <c r="G124" s="6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H124" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I124" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J124" s="9">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K124" s="10">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="L124" s="11">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M124" s="12">
-        <f>AVERAGE(G124:L124)</f>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>19.166666666666668</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="1" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C125" s="2">
         <v>50</v>
@@ -5433,16 +5769,16 @@
         <v>4</v>
       </c>
       <c r="M125" s="12" t="e">
-        <f>AVERAGE(G125:L125)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C126" s="2">
         <v>60</v>
@@ -5453,116 +5789,113 @@
       <c r="E126" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I126" s="8">
-        <v>50</v>
+      <c r="K126" s="10">
+        <v>69</v>
       </c>
       <c r="M126" s="12">
-        <f>AVERAGE(G126:L126)</f>
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>69</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="1" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="C127" s="2">
         <v>50</v>
       </c>
       <c r="D127" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G127" s="6">
-        <v>6</v>
-      </c>
-      <c r="H127" s="7">
-        <v>84</v>
-      </c>
-      <c r="M127" s="12">
-        <f>AVERAGE(G127:L127)</f>
-        <v>45</v>
+      <c r="M127" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="1" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C128" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D128" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M128" s="12" t="e">
-        <f>AVERAGE(G128:L128)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>287</v>
+        <v>236</v>
       </c>
       <c r="C129" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D129" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G129" s="6">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="M129" s="12">
-        <f>AVERAGE(G129:L129)</f>
-        <v>81</v>
+        <f t="shared" si="4"/>
+        <v>68</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="1" t="s">
-        <v>172</v>
+        <v>449</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>179</v>
+        <v>450</v>
       </c>
       <c r="C130" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D130" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J130" s="9">
-        <v>65</v>
+      <c r="G130" s="6">
+        <v>55</v>
+      </c>
+      <c r="I130" s="8">
+        <v>49</v>
       </c>
       <c r="M130" s="12">
-        <f>AVERAGE(G130:L130)</f>
-        <v>65</v>
+        <f t="shared" si="4"/>
+        <v>52</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="1" t="s">
-        <v>46</v>
+        <v>358</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>243</v>
+        <v>359</v>
       </c>
       <c r="C131" s="2">
         <v>40</v>
@@ -5573,59 +5906,59 @@
       <c r="E131" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G131" s="6">
+        <v>7</v>
+      </c>
+      <c r="H131" s="7">
+        <v>5</v>
+      </c>
+      <c r="I131" s="8">
+        <v>5</v>
+      </c>
+      <c r="J131" s="9">
+        <v>5</v>
+      </c>
+      <c r="K131" s="10">
+        <v>5</v>
+      </c>
       <c r="L131" s="11">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="M131" s="12">
-        <f>AVERAGE(G131:L131)</f>
-        <v>66</v>
+        <f t="shared" si="4"/>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="1" t="s">
-        <v>369</v>
+        <v>172</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>370</v>
+        <v>297</v>
       </c>
       <c r="C132" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D132" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G132" s="6">
-        <v>10</v>
-      </c>
       <c r="H132" s="7">
-        <v>9</v>
-      </c>
-      <c r="I132" s="8">
-        <v>8</v>
-      </c>
-      <c r="J132" s="9">
-        <v>9</v>
-      </c>
-      <c r="K132" s="10">
-        <v>8</v>
-      </c>
-      <c r="L132" s="11">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="M132" s="12">
-        <f>AVERAGE(G132:L132)</f>
-        <v>8.6666666666666661</v>
+        <f t="shared" si="4"/>
+        <v>69</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="1" t="s">
-        <v>32</v>
+        <v>366</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>304</v>
+        <v>367</v>
       </c>
       <c r="C133" s="2">
         <v>50</v>
@@ -5636,23 +5969,38 @@
       <c r="E133" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G133" s="6">
+        <v>8</v>
+      </c>
+      <c r="H133" s="7">
+        <v>7</v>
+      </c>
+      <c r="I133" s="8">
+        <v>9</v>
+      </c>
       <c r="J133" s="9">
-        <v>50</v>
+        <v>6</v>
+      </c>
+      <c r="K133" s="10">
+        <v>9</v>
+      </c>
+      <c r="L133" s="11">
+        <v>9</v>
       </c>
       <c r="M133" s="12">
-        <f>AVERAGE(G133:L133)</f>
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C134" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D134" s="2">
         <v>400</v>
@@ -5660,23 +6008,20 @@
       <c r="E134" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L134" s="11">
-        <v>57</v>
-      </c>
-      <c r="M134" s="12">
-        <f>AVERAGE(G134:L134)</f>
-        <v>57</v>
+      <c r="M134" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="C135" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D135" s="2">
         <v>400</v>
@@ -5684,56 +6029,59 @@
       <c r="E135" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M135" s="12" t="e">
-        <f>AVERAGE(G135:L135)</f>
-        <v>#DIV/0!</v>
+      <c r="I135" s="8">
+        <v>50</v>
+      </c>
+      <c r="M135" s="12">
+        <f t="shared" si="4"/>
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="1" t="s">
-        <v>413</v>
+        <v>42</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>414</v>
+        <v>280</v>
       </c>
       <c r="C136" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D136" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G136" s="6">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H136" s="7">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="I136" s="8">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="J136" s="9">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="K136" s="10">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="L136" s="11">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="M136" s="12">
-        <f>AVERAGE(G136:L136)</f>
-        <v>31.666666666666668</v>
+        <f t="shared" si="4"/>
+        <v>84.166666666666671</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="C137" s="2">
         <v>50</v>
@@ -5744,92 +6092,107 @@
       <c r="E137" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M137" s="12" t="e">
-        <f>AVERAGE(G137:L137)</f>
-        <v>#DIV/0!</v>
+      <c r="G137" s="6">
+        <v>97</v>
+      </c>
+      <c r="H137" s="7">
+        <v>95</v>
+      </c>
+      <c r="I137" s="8">
+        <v>78</v>
+      </c>
+      <c r="J137" s="9">
+        <v>80</v>
+      </c>
+      <c r="K137" s="10">
+        <v>98</v>
+      </c>
+      <c r="L137" s="11">
+        <v>82</v>
+      </c>
+      <c r="M137" s="12">
+        <f t="shared" si="4"/>
+        <v>88.333333333333329</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="C138" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D138" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M138" s="12" t="e">
-        <f>AVERAGE(G138:L138)</f>
-        <v>#DIV/0!</v>
+      <c r="G138" s="6">
+        <v>81</v>
+      </c>
+      <c r="M138" s="12">
+        <f t="shared" si="4"/>
+        <v>81</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C139" s="1">
-        <v>10</v>
-      </c>
-      <c r="D139" s="1">
-        <v>500</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
-      <c r="L139" s="1"/>
-      <c r="M139" s="12" t="e">
-        <f>AVERAGE(G139:L139)</f>
-        <v>#DIV/0!</v>
+        <v>167</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C139" s="2">
+        <v>50</v>
+      </c>
+      <c r="D139" s="2">
+        <v>500</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J139" s="9">
+        <v>65</v>
+      </c>
+      <c r="M139" s="12">
+        <f t="shared" ref="M139:M170" si="5">AVERAGE(G139:L139)</f>
+        <v>65</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C140" s="1">
-        <v>10</v>
-      </c>
-      <c r="D140" s="1">
-        <v>500</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="12" t="e">
-        <f>AVERAGE(G140:L140)</f>
-        <v>#DIV/0!</v>
+        <v>46</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C140" s="2">
+        <v>40</v>
+      </c>
+      <c r="D140" s="2">
+        <v>400</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L140" s="11">
+        <v>66</v>
+      </c>
+      <c r="M140" s="12">
+        <f t="shared" si="5"/>
+        <v>66</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C141" s="2">
         <v>40</v>
@@ -5841,148 +6204,133 @@
         <v>4</v>
       </c>
       <c r="G141" s="6">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H141" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I141" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J141" s="9">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K141" s="10">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="L141" s="11">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="M141" s="12">
-        <f>AVERAGE(G141:L141)</f>
-        <v>17.166666666666668</v>
+        <f t="shared" si="5"/>
+        <v>8.6666666666666661</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>165</v>
+        <v>299</v>
       </c>
       <c r="C142" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D142" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G142" s="6">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="H142" s="7">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I142" s="8">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J142" s="9">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="K142" s="10">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="L142" s="11">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="M142" s="12">
-        <f>AVERAGE(G142:L142)</f>
-        <v>77</v>
+        <f t="shared" si="5"/>
+        <v>84.833333333333329</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="C143" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D143" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G143" s="6">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H143" s="7">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I143" s="8">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="J143" s="9">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K143" s="10">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="L143" s="11">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="M143" s="12">
-        <f>AVERAGE(G143:L143)</f>
-        <v>80.666666666666671</v>
+        <f t="shared" si="5"/>
+        <v>85</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>323</v>
+        <v>240</v>
       </c>
       <c r="C144" s="2">
         <v>50</v>
       </c>
       <c r="D144" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G144" s="6">
-        <v>88</v>
-      </c>
-      <c r="H144" s="7">
-        <v>86</v>
-      </c>
-      <c r="I144" s="8">
-        <v>68</v>
-      </c>
-      <c r="J144" s="9">
-        <v>67</v>
-      </c>
-      <c r="L144" s="11">
-        <v>71</v>
-      </c>
-      <c r="M144" s="12">
-        <f>AVERAGE(G144:L144)</f>
-        <v>76</v>
+      <c r="M144" s="12" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="1" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="C145" s="2">
         <v>40</v>
@@ -5994,34 +6342,34 @@
         <v>4</v>
       </c>
       <c r="G145" s="6">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H145" s="7">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="I145" s="8">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="J145" s="9">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="K145" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="L145" s="11">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M145" s="12">
-        <f>AVERAGE(G145:L145)</f>
-        <v>13.166666666666666</v>
+        <f t="shared" si="5"/>
+        <v>31.666666666666668</v>
       </c>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C146" s="2">
         <v>50</v>
@@ -6032,20 +6380,17 @@
       <c r="E146" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G146" s="6">
-        <v>63</v>
-      </c>
-      <c r="M146" s="12">
-        <f>AVERAGE(G146:L146)</f>
-        <v>63</v>
+      <c r="M146" s="12" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>352</v>
+        <v>241</v>
       </c>
       <c r="C147" s="2">
         <v>40</v>
@@ -6056,95 +6401,110 @@
       <c r="E147" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J147" s="9">
-        <v>55</v>
-      </c>
-      <c r="M147" s="12">
-        <f>AVERAGE(G147:L147)</f>
-        <v>55</v>
+      <c r="M147" s="12" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C148" s="2">
-        <v>40</v>
-      </c>
-      <c r="D148" s="2">
-        <v>400</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H148" s="7">
-        <v>54</v>
-      </c>
-      <c r="J148" s="9">
-        <v>56</v>
-      </c>
-      <c r="M148" s="12">
-        <f>AVERAGE(G148:L148)</f>
-        <v>55</v>
+        <v>165</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C148" s="1">
+        <v>10</v>
+      </c>
+      <c r="D148" s="1">
+        <v>500</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="12" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C149" s="2">
-        <v>50</v>
-      </c>
-      <c r="D149" s="2">
-        <v>500</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K149" s="10">
-        <v>86</v>
-      </c>
-      <c r="M149" s="12">
-        <f>AVERAGE(G149:L149)</f>
-        <v>86</v>
+        <v>164</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C149" s="1">
+        <v>10</v>
+      </c>
+      <c r="D149" s="1">
+        <v>500</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="12" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
-        <v>145</v>
+        <v>380</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>307</v>
+        <v>381</v>
       </c>
       <c r="C150" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D150" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G150" s="6">
+        <v>18</v>
+      </c>
+      <c r="H150" s="7">
+        <v>17</v>
+      </c>
+      <c r="I150" s="8">
+        <v>17</v>
+      </c>
+      <c r="J150" s="9">
+        <v>17</v>
+      </c>
       <c r="K150" s="10">
-        <v>67</v>
+        <v>17</v>
+      </c>
+      <c r="L150" s="11">
+        <v>17</v>
       </c>
       <c r="M150" s="12">
-        <f>AVERAGE(G150:L150)</f>
-        <v>67</v>
+        <f t="shared" si="5"/>
+        <v>17.166666666666668</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="C151" s="2">
         <v>40</v>
@@ -6155,104 +6515,149 @@
       <c r="E151" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G151" s="6">
+        <v>87</v>
+      </c>
       <c r="H151" s="7">
-        <v>14</v>
+        <v>85</v>
+      </c>
+      <c r="I151" s="8">
+        <v>67</v>
+      </c>
+      <c r="J151" s="9">
+        <v>66</v>
+      </c>
+      <c r="K151" s="10">
+        <v>87</v>
       </c>
       <c r="L151" s="11">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="M151" s="12">
-        <f>AVERAGE(G151:L151)</f>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>77</v>
       </c>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="1" t="s">
-        <v>456</v>
+        <v>159</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>457</v>
+        <v>283</v>
       </c>
       <c r="C152" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D152" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G152" s="6">
-        <v>15</v>
+        <v>92</v>
+      </c>
+      <c r="H152" s="7">
+        <v>90</v>
       </c>
       <c r="I152" s="8">
-        <v>14</v>
+        <v>70</v>
+      </c>
+      <c r="J152" s="9">
+        <v>70</v>
+      </c>
+      <c r="K152" s="10">
+        <v>90</v>
+      </c>
+      <c r="L152" s="11">
+        <v>72</v>
       </c>
       <c r="M152" s="12">
-        <f>AVERAGE(G152:L152)</f>
-        <v>14.5</v>
+        <f t="shared" si="5"/>
+        <v>80.666666666666671</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="1" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>189</v>
+        <v>318</v>
       </c>
       <c r="C153" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D153" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G153" s="6">
+        <v>88</v>
+      </c>
+      <c r="H153" s="7">
+        <v>86</v>
+      </c>
+      <c r="I153" s="8">
+        <v>68</v>
+      </c>
       <c r="J153" s="9">
-        <v>14</v>
-      </c>
-      <c r="K153" s="10">
-        <v>14</v>
+        <v>67</v>
+      </c>
+      <c r="L153" s="11">
+        <v>71</v>
       </c>
       <c r="M153" s="12">
-        <f>AVERAGE(G153:L153)</f>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>76</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="1" t="s">
-        <v>58</v>
+        <v>374</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>190</v>
+        <v>375</v>
       </c>
       <c r="C154" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D154" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G154" s="6">
+        <v>14</v>
+      </c>
       <c r="H154" s="7">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="I154" s="8">
+        <v>13</v>
+      </c>
+      <c r="J154" s="9">
+        <v>13</v>
+      </c>
+      <c r="K154" s="10">
+        <v>13</v>
       </c>
       <c r="L154" s="11">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M154" s="12">
-        <f>AVERAGE(G154:L154)</f>
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>13.166666666666666</v>
       </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="1" t="s">
-        <v>458</v>
+        <v>146</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>459</v>
+        <v>301</v>
       </c>
       <c r="C155" s="2">
         <v>50</v>
@@ -6264,88 +6669,109 @@
         <v>4</v>
       </c>
       <c r="G155" s="6">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="H155" s="7">
+        <v>101</v>
       </c>
       <c r="I155" s="8">
-        <v>52</v>
+        <v>84</v>
+      </c>
+      <c r="J155" s="9">
+        <v>84</v>
+      </c>
+      <c r="K155" s="10">
+        <v>101</v>
+      </c>
+      <c r="L155" s="11">
+        <v>86</v>
       </c>
       <c r="M155" s="12">
-        <f>AVERAGE(G155:L155)</f>
-        <v>57</v>
+        <f t="shared" si="5"/>
+        <v>86.5</v>
       </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="1" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>191</v>
+        <v>347</v>
       </c>
       <c r="C156" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D156" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J156" s="9">
-        <v>52</v>
-      </c>
-      <c r="K156" s="10">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="M156" s="12">
-        <f>AVERAGE(G156:L156)</f>
-        <v>57</v>
+        <f t="shared" si="5"/>
+        <v>55</v>
       </c>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="1" t="s">
-        <v>462</v>
+        <v>114</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="M157" s="12" t="e">
-        <f>AVERAGE(G157:L157)</f>
-        <v>#DIV/0!</v>
+        <v>181</v>
+      </c>
+      <c r="C157" s="2">
+        <v>40</v>
+      </c>
+      <c r="D157" s="2">
+        <v>400</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H157" s="7">
+        <v>54</v>
+      </c>
+      <c r="J157" s="9">
+        <v>56</v>
+      </c>
+      <c r="M157" s="12">
+        <f t="shared" si="5"/>
+        <v>55</v>
       </c>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="1" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="C158" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D158" s="2">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G158" s="6">
-        <v>54</v>
-      </c>
-      <c r="H158" s="7">
-        <v>49</v>
+      <c r="K158" s="10">
+        <v>86</v>
       </c>
       <c r="M158" s="12">
-        <f>AVERAGE(G158:L158)</f>
-        <v>51.5</v>
+        <f t="shared" si="5"/>
+        <v>86</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="1" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="C159" s="2">
         <v>50</v>
@@ -6357,25 +6783,22 @@
         <v>4</v>
       </c>
       <c r="K159" s="10">
-        <v>61</v>
-      </c>
-      <c r="L159" s="11">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="M159" s="12">
-        <f>AVERAGE(G159:L159)</f>
-        <v>55</v>
+        <f t="shared" si="5"/>
+        <v>67</v>
       </c>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="1" t="s">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>250</v>
+        <v>183</v>
       </c>
       <c r="C160" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D160" s="2">
         <v>400</v>
@@ -6383,20 +6806,26 @@
       <c r="E160" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M160" s="12" t="e">
-        <f>AVERAGE(G160:L160)</f>
-        <v>#DIV/0!</v>
+      <c r="H160" s="7">
+        <v>14</v>
+      </c>
+      <c r="L160" s="11">
+        <v>14</v>
+      </c>
+      <c r="M160" s="12">
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="1" t="s">
-        <v>110</v>
+        <v>451</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>251</v>
+        <v>452</v>
       </c>
       <c r="C161" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D161" s="2">
         <v>400</v>
@@ -6404,20 +6833,23 @@
       <c r="E161" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G161" s="6">
+        <v>15</v>
+      </c>
       <c r="I161" s="8">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="M161" s="12">
-        <f>AVERAGE(G161:L161)</f>
-        <v>61</v>
+        <f t="shared" si="5"/>
+        <v>14.5</v>
       </c>
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="1" t="s">
-        <v>381</v>
+        <v>148</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>382</v>
+        <v>184</v>
       </c>
       <c r="C162" s="2">
         <v>40</v>
@@ -6428,35 +6860,23 @@
       <c r="E162" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G162" s="6">
-        <v>16</v>
-      </c>
-      <c r="H162" s="7">
-        <v>15</v>
-      </c>
-      <c r="I162" s="8">
-        <v>15</v>
-      </c>
       <c r="J162" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K162" s="10">
-        <v>15</v>
-      </c>
-      <c r="L162" s="11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M162" s="12">
-        <f>AVERAGE(G162:L162)</f>
-        <v>15.166666666666666</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="1" t="s">
-        <v>383</v>
+        <v>58</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>384</v>
+        <v>185</v>
       </c>
       <c r="C163" s="2">
         <v>50</v>
@@ -6467,35 +6887,23 @@
       <c r="E163" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G163" s="6">
-        <v>17</v>
-      </c>
       <c r="H163" s="7">
-        <v>16</v>
-      </c>
-      <c r="I163" s="8">
-        <v>16</v>
-      </c>
-      <c r="J163" s="9">
-        <v>16</v>
-      </c>
-      <c r="K163" s="10">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L163" s="11">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="M163" s="12">
-        <f>AVERAGE(G163:L163)</f>
-        <v>16.166666666666668</v>
+        <f t="shared" si="5"/>
+        <v>28</v>
       </c>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="1" t="s">
-        <v>25</v>
+        <v>453</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>252</v>
+        <v>454</v>
       </c>
       <c r="C164" s="2">
         <v>50</v>
@@ -6506,107 +6914,101 @@
       <c r="E164" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K164" s="10">
-        <v>77</v>
+      <c r="G164" s="6">
+        <v>62</v>
+      </c>
+      <c r="I164" s="8">
+        <v>52</v>
       </c>
       <c r="M164" s="12">
-        <f>AVERAGE(G164:L164)</f>
-        <v>77</v>
+        <f t="shared" si="5"/>
+        <v>57</v>
       </c>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="1" t="s">
-        <v>373</v>
+        <v>149</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>374</v>
+        <v>186</v>
       </c>
       <c r="C165" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D165" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G165" s="6">
-        <v>11</v>
-      </c>
-      <c r="H165" s="7">
-        <v>10</v>
-      </c>
-      <c r="I165" s="8">
-        <v>10</v>
-      </c>
       <c r="J165" s="9">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="K165" s="10">
-        <v>10</v>
-      </c>
-      <c r="L165" s="11">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="M165" s="12">
-        <f>AVERAGE(G165:L165)</f>
-        <v>10.166666666666666</v>
+        <f t="shared" si="5"/>
+        <v>57</v>
       </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="1" t="s">
-        <v>81</v>
+        <v>457</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>253</v>
+        <v>458</v>
       </c>
       <c r="C166" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D166" s="2">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G166" s="6">
-        <v>56</v>
+      <c r="J166" s="9">
+        <v>76</v>
       </c>
       <c r="M166" s="12">
-        <f>AVERAGE(G166:L166)</f>
-        <v>56</v>
+        <f t="shared" si="5"/>
+        <v>76</v>
       </c>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="1" t="s">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="C167" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D167" s="2">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J167" s="9">
-        <v>64</v>
+      <c r="G167" s="6">
+        <v>54</v>
+      </c>
+      <c r="H167" s="7">
+        <v>49</v>
       </c>
       <c r="M167" s="12">
-        <f>AVERAGE(G167:L167)</f>
-        <v>64</v>
+        <f t="shared" si="5"/>
+        <v>51.5</v>
       </c>
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="1" t="s">
-        <v>343</v>
+        <v>173</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>345</v>
+        <v>187</v>
       </c>
       <c r="C168" s="2">
         <v>50</v>
@@ -6617,23 +7019,26 @@
       <c r="E168" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H168" s="7">
-        <v>83</v>
+      <c r="K168" s="10">
+        <v>61</v>
+      </c>
+      <c r="L168" s="11">
+        <v>49</v>
       </c>
       <c r="M168" s="12">
-        <f>AVERAGE(G168:L168)</f>
-        <v>83</v>
+        <f t="shared" si="5"/>
+        <v>55</v>
       </c>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="1" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C169" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D169" s="2">
         <v>400</v>
@@ -6642,238 +7047,304 @@
         <v>4</v>
       </c>
       <c r="M169" s="12" t="e">
-        <f>AVERAGE(G169:L169)</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="1" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>316</v>
+        <v>246</v>
       </c>
       <c r="C170" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D170" s="2">
-        <v>11000</v>
+        <v>400</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G170" s="6">
-        <v>70</v>
+      <c r="I170" s="8">
+        <v>61</v>
       </c>
       <c r="M170" s="12">
-        <f>AVERAGE(G170:L170)</f>
-        <v>70</v>
+        <f t="shared" si="5"/>
+        <v>61</v>
       </c>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="1" t="s">
-        <v>5</v>
+        <v>376</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>315</v>
+        <v>377</v>
       </c>
       <c r="C171" s="2">
         <v>40</v>
       </c>
       <c r="D171" s="2">
-        <v>11000</v>
+        <v>400</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G171" s="6">
-        <v>71</v>
+        <v>16</v>
+      </c>
+      <c r="H171" s="7">
+        <v>15</v>
+      </c>
+      <c r="I171" s="8">
+        <v>15</v>
+      </c>
+      <c r="J171" s="9">
+        <v>15</v>
+      </c>
+      <c r="K171" s="10">
+        <v>15</v>
+      </c>
+      <c r="L171" s="11">
+        <v>15</v>
       </c>
       <c r="M171" s="12">
-        <f>AVERAGE(G171:L171)</f>
-        <v>71</v>
+        <f t="shared" ref="M171:M202" si="6">AVERAGE(G171:L171)</f>
+        <v>15.166666666666666</v>
       </c>
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="1" t="s">
-        <v>49</v>
+        <v>378</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="C172" s="2">
         <v>50</v>
       </c>
       <c r="D172" s="2">
-        <v>14000</v>
+        <v>500</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G172" s="6">
+        <v>17</v>
+      </c>
       <c r="H172" s="7">
-        <v>61</v>
+        <v>16</v>
+      </c>
+      <c r="I172" s="8">
+        <v>16</v>
+      </c>
+      <c r="J172" s="9">
+        <v>16</v>
+      </c>
+      <c r="K172" s="10">
+        <v>16</v>
+      </c>
+      <c r="L172" s="11">
+        <v>16</v>
       </c>
       <c r="M172" s="12">
-        <f>AVERAGE(G172:L172)</f>
-        <v>61</v>
+        <f t="shared" si="6"/>
+        <v>16.166666666666668</v>
       </c>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="1" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>322</v>
+        <v>247</v>
       </c>
       <c r="C173" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D173" s="2">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J173" s="9">
-        <v>57</v>
-      </c>
-      <c r="L173" s="11">
-        <v>56</v>
+      <c r="K173" s="10">
+        <v>77</v>
       </c>
       <c r="M173" s="12">
-        <f>AVERAGE(G173:L173)</f>
-        <v>56.5</v>
+        <f t="shared" si="6"/>
+        <v>77</v>
       </c>
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="1" t="s">
-        <v>8</v>
+        <v>368</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>321</v>
+        <v>369</v>
       </c>
       <c r="C174" s="2">
         <v>40</v>
       </c>
       <c r="D174" s="2">
-        <v>11000</v>
+        <v>400</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G174" s="6">
+        <v>11</v>
+      </c>
+      <c r="H174" s="7">
+        <v>10</v>
+      </c>
+      <c r="I174" s="8">
+        <v>10</v>
+      </c>
+      <c r="J174" s="9">
+        <v>10</v>
+      </c>
+      <c r="K174" s="10">
+        <v>10</v>
+      </c>
       <c r="L174" s="11">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="M174" s="12">
-        <f>AVERAGE(G174:L174)</f>
-        <v>54</v>
+        <f t="shared" si="6"/>
+        <v>10.166666666666666</v>
       </c>
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>320</v>
+        <v>248</v>
       </c>
       <c r="C175" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D175" s="2">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M175" s="12" t="e">
-        <f>AVERAGE(G175:L175)</f>
-        <v>#DIV/0!</v>
+      <c r="G175" s="6">
+        <v>56</v>
+      </c>
+      <c r="M175" s="12">
+        <f t="shared" si="6"/>
+        <v>56</v>
       </c>
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="1" t="s">
-        <v>52</v>
+        <v>337</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="C176" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D176" s="2">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G176" s="6">
+        <v>115</v>
+      </c>
       <c r="H176" s="7">
-        <v>60</v>
+        <v>115</v>
+      </c>
+      <c r="I176" s="8">
+        <v>100</v>
+      </c>
+      <c r="J176" s="9">
+        <v>64</v>
       </c>
       <c r="K176" s="10">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="L176" s="11">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="M176" s="12">
-        <f>AVERAGE(G176:L176)</f>
-        <v>61</v>
+        <f t="shared" si="6"/>
+        <v>101.16666666666667</v>
       </c>
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="1" t="s">
-        <v>6</v>
+        <v>338</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="C177" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D177" s="2">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G177" s="6">
+        <v>112</v>
+      </c>
       <c r="H177" s="7">
-        <v>57</v>
+        <v>83</v>
+      </c>
+      <c r="I177" s="8">
+        <v>96</v>
+      </c>
+      <c r="J177" s="9">
+        <v>95</v>
+      </c>
+      <c r="K177" s="10">
+        <v>108</v>
+      </c>
+      <c r="L177" s="11">
+        <v>98</v>
       </c>
       <c r="M177" s="12">
-        <f>AVERAGE(G177:L177)</f>
-        <v>57</v>
+        <f t="shared" si="6"/>
+        <v>98.666666666666671</v>
       </c>
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>319</v>
+        <v>249</v>
       </c>
       <c r="C178" s="2">
         <v>40</v>
       </c>
       <c r="D178" s="2">
-        <v>11000</v>
+        <v>400</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H178" s="7">
-        <v>59</v>
-      </c>
-      <c r="M178" s="12">
-        <f>AVERAGE(G178:L178)</f>
-        <v>59</v>
+      <c r="M178" s="12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C179" s="2">
         <v>40</v>
@@ -6884,323 +7355,281 @@
       <c r="E179" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H179" s="7">
-        <v>58</v>
+      <c r="G179" s="6">
+        <v>70</v>
       </c>
       <c r="M179" s="12">
-        <f>AVERAGE(G179:L179)</f>
-        <v>58</v>
+        <f t="shared" si="6"/>
+        <v>70</v>
       </c>
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="1" t="s">
-        <v>427</v>
+        <v>5</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>428</v>
+        <v>310</v>
       </c>
       <c r="C180" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D180" s="2">
-        <v>400</v>
+        <v>11000</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G180" s="6">
-        <v>39</v>
-      </c>
-      <c r="H180" s="7">
-        <v>35</v>
-      </c>
-      <c r="I180" s="8">
-        <v>35</v>
-      </c>
-      <c r="J180" s="9">
-        <v>35</v>
-      </c>
-      <c r="K180" s="10">
-        <v>41</v>
-      </c>
-      <c r="L180" s="11">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="M180" s="12">
-        <f>AVERAGE(G180:L180)</f>
-        <v>37.333333333333336</v>
+        <f t="shared" si="6"/>
+        <v>71</v>
       </c>
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>255</v>
+        <v>328</v>
       </c>
       <c r="C181" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D181" s="2">
-        <v>400</v>
+        <v>14000</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G181" s="6">
-        <v>74</v>
+      <c r="H181" s="7">
+        <v>61</v>
       </c>
       <c r="M181" s="12">
-        <f>AVERAGE(G181:L181)</f>
-        <v>74</v>
+        <f t="shared" si="6"/>
+        <v>61</v>
       </c>
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="C182" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D182" s="2">
-        <v>500</v>
+        <v>11000</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M182" s="12" t="e">
-        <f>AVERAGE(G182:L182)</f>
-        <v>#DIV/0!</v>
+      <c r="J182" s="9">
+        <v>57</v>
+      </c>
+      <c r="L182" s="11">
+        <v>56</v>
+      </c>
+      <c r="M182" s="12">
+        <f t="shared" si="6"/>
+        <v>56.5</v>
       </c>
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="1" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C183" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D183" s="2">
-        <v>500</v>
+        <v>11000</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G183" s="6">
-        <v>75</v>
+      <c r="L183" s="11">
+        <v>54</v>
       </c>
       <c r="M183" s="12">
-        <f>AVERAGE(G183:L183)</f>
-        <v>75</v>
+        <f t="shared" si="6"/>
+        <v>54</v>
       </c>
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>256</v>
+        <v>315</v>
       </c>
       <c r="C184" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D184" s="2">
-        <v>400</v>
+        <v>14000</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G184" s="6">
-        <v>90</v>
-      </c>
-      <c r="H184" s="7">
-        <v>88</v>
-      </c>
-      <c r="I184" s="8">
-        <v>69</v>
-      </c>
-      <c r="J184" s="9">
-        <v>69</v>
-      </c>
-      <c r="K184" s="10">
-        <v>89</v>
-      </c>
-      <c r="L184" s="11">
-        <v>73</v>
-      </c>
-      <c r="M184" s="12">
-        <f>AVERAGE(G184:L184)</f>
-        <v>79.666666666666671</v>
+      <c r="M184" s="12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="C185" s="2">
         <v>40</v>
       </c>
       <c r="D185" s="2">
-        <v>400</v>
+        <v>11000</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G185" s="6">
-        <v>91</v>
-      </c>
       <c r="H185" s="7">
-        <v>89</v>
+        <v>60</v>
+      </c>
+      <c r="K185" s="10">
+        <v>68</v>
+      </c>
+      <c r="L185" s="11">
+        <v>55</v>
       </c>
       <c r="M185" s="12">
-        <f>AVERAGE(G185:L185)</f>
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>61</v>
       </c>
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="1" t="s">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="C186" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D186" s="2">
-        <v>500</v>
+        <v>11000</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M186" s="12" t="e">
-        <f>AVERAGE(G186:L186)</f>
-        <v>#DIV/0!</v>
+      <c r="H186" s="7">
+        <v>57</v>
+      </c>
+      <c r="M186" s="12">
+        <f t="shared" si="6"/>
+        <v>57</v>
       </c>
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="1" t="s">
-        <v>375</v>
+        <v>53</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>376</v>
+        <v>314</v>
       </c>
       <c r="C187" s="2">
         <v>40</v>
       </c>
       <c r="D187" s="2">
-        <v>400</v>
+        <v>11000</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G187" s="6">
-        <v>12</v>
-      </c>
       <c r="H187" s="7">
-        <v>11</v>
-      </c>
-      <c r="I187" s="8">
-        <v>11</v>
-      </c>
-      <c r="J187" s="9">
-        <v>11</v>
-      </c>
-      <c r="K187" s="10">
-        <v>11</v>
-      </c>
-      <c r="L187" s="11">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="M187" s="12">
-        <f>AVERAGE(G187:L187)</f>
-        <v>11.166666666666666</v>
+        <f t="shared" si="6"/>
+        <v>59</v>
       </c>
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="1" t="s">
-        <v>446</v>
+        <v>7</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>447</v>
+        <v>313</v>
       </c>
       <c r="C188" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D188" s="2">
-        <v>600</v>
+        <v>11000</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I188" s="8">
-        <v>53</v>
-      </c>
-      <c r="J188" s="9">
-        <v>53</v>
-      </c>
-      <c r="K188" s="10">
-        <v>63</v>
+      <c r="H188" s="7">
+        <v>58</v>
       </c>
       <c r="M188" s="12">
-        <f>AVERAGE(G188:L188)</f>
-        <v>56.333333333333336</v>
+        <f t="shared" si="6"/>
+        <v>58</v>
       </c>
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="1" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="C189" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D189" s="2">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G189" s="6">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H189" s="7">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I189" s="8">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="J189" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="K189" s="10">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="L189" s="11">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="M189" s="12">
-        <f>AVERAGE(G189:L189)</f>
-        <v>12.166666666666666</v>
+        <f t="shared" si="6"/>
+        <v>37.333333333333336</v>
       </c>
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C190" s="2">
         <v>40</v>
@@ -7211,83 +7640,68 @@
       <c r="E190" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H190" s="7">
-        <v>62</v>
+      <c r="G190" s="6">
+        <v>74</v>
       </c>
       <c r="M190" s="12">
-        <f>AVERAGE(G190:L190)</f>
-        <v>62</v>
+        <f t="shared" si="6"/>
+        <v>74</v>
       </c>
     </row>
     <row r="191" spans="1:13">
       <c r="A191" s="1" t="s">
-        <v>365</v>
+        <v>17</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>366</v>
+        <v>298</v>
       </c>
       <c r="C191" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D191" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G191" s="6">
-        <v>5</v>
-      </c>
-      <c r="H191" s="7">
-        <v>6</v>
-      </c>
-      <c r="I191" s="8">
-        <v>6</v>
-      </c>
-      <c r="J191" s="9">
-        <v>7</v>
-      </c>
-      <c r="K191" s="10">
-        <v>6</v>
-      </c>
-      <c r="L191" s="11">
-        <v>6</v>
-      </c>
-      <c r="M191" s="12">
-        <f>AVERAGE(G191:L191)</f>
-        <v>6</v>
+      <c r="M191" s="12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="192" spans="1:13">
       <c r="A192" s="1" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>226</v>
+        <v>303</v>
       </c>
       <c r="C192" s="2">
         <v>50</v>
       </c>
       <c r="D192" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M192" s="12" t="e">
-        <f>AVERAGE(G192:L192)</f>
-        <v>#DIV/0!</v>
+      <c r="G192" s="6">
+        <v>75</v>
+      </c>
+      <c r="M192" s="12">
+        <f t="shared" si="6"/>
+        <v>75</v>
       </c>
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="C193" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D193" s="2">
         <v>400</v>
@@ -7295,80 +7709,116 @@
       <c r="E193" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M193" s="12" t="e">
-        <f>AVERAGE(G193:L193)</f>
-        <v>#DIV/0!</v>
+      <c r="G193" s="6">
+        <v>90</v>
+      </c>
+      <c r="H193" s="7">
+        <v>88</v>
+      </c>
+      <c r="I193" s="8">
+        <v>69</v>
+      </c>
+      <c r="J193" s="9">
+        <v>69</v>
+      </c>
+      <c r="K193" s="10">
+        <v>89</v>
+      </c>
+      <c r="L193" s="11">
+        <v>73</v>
+      </c>
+      <c r="M193" s="12">
+        <f t="shared" si="6"/>
+        <v>79.666666666666671</v>
       </c>
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="1" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="C194" s="2">
         <v>40</v>
       </c>
       <c r="D194" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M194" s="12" t="e">
-        <f>AVERAGE(G194:L194)</f>
-        <v>#DIV/0!</v>
+      <c r="G194" s="6">
+        <v>91</v>
+      </c>
+      <c r="H194" s="7">
+        <v>89</v>
+      </c>
+      <c r="I194" s="8">
+        <v>71</v>
+      </c>
+      <c r="J194" s="9">
+        <v>71</v>
+      </c>
+      <c r="K194" s="10">
+        <v>91</v>
+      </c>
+      <c r="L194" s="11">
+        <v>74</v>
+      </c>
+      <c r="M194" s="12">
+        <f t="shared" si="6"/>
+        <v>81.166666666666671</v>
       </c>
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="1" t="s">
-        <v>436</v>
+        <v>121</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>437</v>
+        <v>304</v>
       </c>
       <c r="C195" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D195" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G195" s="6">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="H195" s="7">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="I195" s="8">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="J195" s="9">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="K195" s="10">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="L195" s="11">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="M195" s="12">
-        <f>AVERAGE(G195:L195)</f>
-        <v>46.833333333333336</v>
+        <f t="shared" si="6"/>
+        <v>82.5</v>
       </c>
     </row>
     <row r="196" spans="1:13">
       <c r="A196" s="1" t="s">
-        <v>43</v>
+        <v>370</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>259</v>
+        <v>371</v>
       </c>
       <c r="C196" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D196" s="2">
         <v>400</v>
@@ -7376,416 +7826,404 @@
       <c r="E196" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M196" s="12" t="e">
-        <f>AVERAGE(G196:L196)</f>
-        <v>#DIV/0!</v>
+      <c r="G196" s="6">
+        <v>12</v>
+      </c>
+      <c r="H196" s="7">
+        <v>11</v>
+      </c>
+      <c r="I196" s="8">
+        <v>11</v>
+      </c>
+      <c r="J196" s="9">
+        <v>11</v>
+      </c>
+      <c r="K196" s="10">
+        <v>11</v>
+      </c>
+      <c r="L196" s="11">
+        <v>11</v>
+      </c>
+      <c r="M196" s="12">
+        <f t="shared" si="6"/>
+        <v>11.166666666666666</v>
       </c>
     </row>
     <row r="197" spans="1:13">
       <c r="A197" s="1" t="s">
-        <v>38</v>
+        <v>441</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>260</v>
+        <v>442</v>
       </c>
       <c r="C197" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D197" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L197" s="11">
+      <c r="I197" s="8">
+        <v>53</v>
+      </c>
+      <c r="J197" s="9">
+        <v>53</v>
+      </c>
+      <c r="K197" s="10">
         <v>63</v>
       </c>
       <c r="M197" s="12">
-        <f>AVERAGE(G197:L197)</f>
-        <v>63</v>
+        <f t="shared" si="6"/>
+        <v>56.333333333333336</v>
       </c>
     </row>
     <row r="198" spans="1:13">
       <c r="A198" s="1" t="s">
-        <v>39</v>
+        <v>372</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>261</v>
+        <v>373</v>
       </c>
       <c r="C198" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D198" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G198" s="6">
-        <v>82</v>
+        <v>13</v>
+      </c>
+      <c r="H198" s="7">
+        <v>12</v>
+      </c>
+      <c r="I198" s="8">
+        <v>12</v>
+      </c>
+      <c r="J198" s="9">
+        <v>12</v>
+      </c>
+      <c r="K198" s="10">
+        <v>12</v>
       </c>
       <c r="L198" s="11">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="M198" s="12">
-        <f>AVERAGE(G198:L198)</f>
-        <v>73</v>
+        <f t="shared" si="6"/>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="199" spans="1:13">
       <c r="A199" s="1" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="C199" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D199" s="2">
-        <v>14000</v>
+        <v>400</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G199" s="6">
-        <v>32</v>
+      <c r="H199" s="7">
+        <v>62</v>
       </c>
       <c r="M199" s="12">
-        <f>AVERAGE(G199:L199)</f>
-        <v>32</v>
+        <f t="shared" si="6"/>
+        <v>62</v>
       </c>
     </row>
     <row r="200" spans="1:13">
       <c r="A200" s="1" t="s">
-        <v>411</v>
+        <v>360</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>412</v>
+        <v>361</v>
       </c>
       <c r="C200" s="2">
         <v>40</v>
       </c>
       <c r="D200" s="2">
-        <v>11000</v>
+        <v>400</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G200" s="6">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H200" s="7">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="I200" s="8">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="J200" s="9">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="K200" s="10">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="L200" s="11">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="M200" s="12">
-        <f>AVERAGE(G200:L200)</f>
-        <v>30.166666666666668</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="1" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C201" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D201" s="2">
-        <v>11000</v>
+        <v>400</v>
       </c>
       <c r="E201" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G201" s="6">
-        <v>79</v>
-      </c>
-      <c r="H201" s="7">
-        <v>71</v>
-      </c>
-      <c r="J201" s="9">
-        <v>60</v>
-      </c>
-      <c r="M201" s="12">
-        <f>AVERAGE(G201:L201)</f>
-        <v>70</v>
+      <c r="M201" s="12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="202" spans="1:13">
       <c r="A202" s="1" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>290</v>
+        <v>222</v>
       </c>
       <c r="C202" s="2">
         <v>50</v>
       </c>
       <c r="D202" s="2">
-        <v>14000</v>
+        <v>400</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J202" s="9">
-        <v>61</v>
-      </c>
-      <c r="M202" s="12">
-        <f>AVERAGE(G202:L202)</f>
-        <v>61</v>
+      <c r="M202" s="12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="203" spans="1:13">
       <c r="A203" s="1" t="s">
-        <v>409</v>
+        <v>15</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>410</v>
+        <v>223</v>
       </c>
       <c r="C203" s="2">
         <v>40</v>
       </c>
       <c r="D203" s="2">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G203" s="6">
-        <v>28</v>
-      </c>
-      <c r="H203" s="7">
-        <v>29</v>
-      </c>
-      <c r="I203" s="8">
-        <v>29</v>
-      </c>
-      <c r="J203" s="9">
-        <v>29</v>
-      </c>
-      <c r="K203" s="10">
-        <v>30</v>
-      </c>
-      <c r="L203" s="11">
-        <v>29</v>
-      </c>
-      <c r="M203" s="12">
-        <f>AVERAGE(G203:L203)</f>
-        <v>29</v>
+      <c r="M203" s="12" t="e">
+        <f t="shared" ref="M203:M234" si="7">AVERAGE(G203:L203)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="204" spans="1:13">
       <c r="A204" s="1" t="s">
-        <v>131</v>
+        <v>431</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>291</v>
+        <v>432</v>
       </c>
       <c r="C204" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D204" s="2">
-        <v>14000</v>
+        <v>400</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G204" s="6">
-        <v>31</v>
+        <v>49</v>
+      </c>
+      <c r="H204" s="7">
+        <v>44</v>
+      </c>
+      <c r="I204" s="8">
+        <v>44</v>
+      </c>
+      <c r="J204" s="9">
+        <v>45</v>
+      </c>
+      <c r="K204" s="10">
+        <v>55</v>
+      </c>
+      <c r="L204" s="11">
+        <v>44</v>
       </c>
       <c r="M204" s="12">
-        <f>AVERAGE(G204:L204)</f>
-        <v>31</v>
+        <f t="shared" si="7"/>
+        <v>46.833333333333336</v>
       </c>
     </row>
     <row r="205" spans="1:13">
       <c r="A205" s="1" t="s">
-        <v>403</v>
+        <v>43</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>404</v>
+        <v>254</v>
       </c>
       <c r="C205" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D205" s="2">
-        <v>11000</v>
+        <v>400</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G205" s="6">
-        <v>29</v>
-      </c>
-      <c r="H205" s="7">
-        <v>27</v>
-      </c>
-      <c r="I205" s="8">
-        <v>27</v>
-      </c>
-      <c r="J205" s="9">
-        <v>27</v>
-      </c>
-      <c r="K205" s="10">
-        <v>27</v>
-      </c>
-      <c r="L205" s="11">
-        <v>26</v>
-      </c>
-      <c r="M205" s="12">
-        <f>AVERAGE(G205:L205)</f>
-        <v>27.166666666666668</v>
+      <c r="M205" s="12" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="206" spans="1:13">
       <c r="A206" s="1" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="C206" s="2">
         <v>40</v>
       </c>
       <c r="D206" s="2">
-        <v>11000</v>
+        <v>400</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G206" s="6">
-        <v>76</v>
-      </c>
-      <c r="H206" s="7">
-        <v>68</v>
+      <c r="L206" s="11">
+        <v>63</v>
       </c>
       <c r="M206" s="12">
-        <f>AVERAGE(G206:L206)</f>
-        <v>72</v>
+        <f t="shared" si="7"/>
+        <v>63</v>
       </c>
     </row>
     <row r="207" spans="1:13">
       <c r="A207" s="1" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="C207" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D207" s="2">
-        <v>14000</v>
+        <v>400</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G207" s="6">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="L207" s="11">
+        <v>64</v>
       </c>
       <c r="M207" s="12">
-        <f>AVERAGE(G207:L207)</f>
-        <v>77</v>
+        <f t="shared" si="7"/>
+        <v>73</v>
       </c>
     </row>
     <row r="208" spans="1:13">
       <c r="A208" s="1" t="s">
-        <v>401</v>
+        <v>127</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="C208" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D208" s="2">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G208" s="6">
-        <v>26</v>
-      </c>
-      <c r="H208" s="7">
-        <v>25</v>
-      </c>
-      <c r="I208" s="8">
-        <v>25</v>
-      </c>
-      <c r="J208" s="9">
-        <v>25</v>
-      </c>
-      <c r="K208" s="10">
-        <v>26</v>
-      </c>
-      <c r="L208" s="11">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M208" s="12">
-        <f>AVERAGE(G208:L208)</f>
-        <v>25.333333333333332</v>
+        <f t="shared" si="7"/>
+        <v>32</v>
       </c>
     </row>
     <row r="209" spans="1:13">
       <c r="A209" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C209" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D209" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G209" s="6">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H209" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I209" s="8">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J209" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K209" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L209" s="11">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M209" s="12">
-        <f>AVERAGE(G209:L209)</f>
-        <v>26.666666666666668</v>
+        <f t="shared" si="7"/>
+        <v>30.166666666666668</v>
       </c>
     </row>
     <row r="210" spans="1:13">
       <c r="A210" s="1" t="s">
-        <v>407</v>
+        <v>99</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>408</v>
+        <v>225</v>
       </c>
       <c r="C210" s="2">
         <v>40</v>
@@ -7797,34 +8235,25 @@
         <v>4</v>
       </c>
       <c r="G210" s="6">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="H210" s="7">
-        <v>28</v>
-      </c>
-      <c r="I210" s="8">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="J210" s="9">
-        <v>28</v>
-      </c>
-      <c r="K210" s="10">
-        <v>29</v>
-      </c>
-      <c r="L210" s="11">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M210" s="12">
-        <f>AVERAGE(G210:L210)</f>
-        <v>29</v>
+        <f t="shared" si="7"/>
+        <v>70</v>
       </c>
     </row>
     <row r="211" spans="1:13">
       <c r="A211" s="1" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C211" s="2">
         <v>50</v>
@@ -7835,23 +8264,20 @@
       <c r="E211" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G211" s="6">
-        <v>78</v>
-      </c>
-      <c r="H211" s="7">
-        <v>70</v>
+      <c r="J211" s="9">
+        <v>61</v>
       </c>
       <c r="M211" s="12">
-        <f>AVERAGE(G211:L211)</f>
-        <v>74</v>
+        <f t="shared" si="7"/>
+        <v>61</v>
       </c>
     </row>
     <row r="212" spans="1:13">
       <c r="A212" s="1" t="s">
-        <v>335</v>
+        <v>404</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="C212" s="2">
         <v>40</v>
@@ -7862,44 +8288,59 @@
       <c r="E212" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G212" s="6">
+        <v>28</v>
+      </c>
       <c r="H212" s="7">
-        <v>79</v>
+        <v>29</v>
+      </c>
+      <c r="I212" s="8">
+        <v>29</v>
+      </c>
+      <c r="J212" s="9">
+        <v>29</v>
+      </c>
+      <c r="K212" s="10">
+        <v>30</v>
+      </c>
+      <c r="L212" s="11">
+        <v>29</v>
       </c>
       <c r="M212" s="12">
-        <f>AVERAGE(G212:L212)</f>
-        <v>79</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
     </row>
     <row r="213" spans="1:13">
       <c r="A213" s="1" t="s">
-        <v>334</v>
+        <v>126</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="C213" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D213" s="2">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H213" s="7">
-        <v>80</v>
+      <c r="G213" s="6">
+        <v>31</v>
       </c>
       <c r="M213" s="12">
-        <f>AVERAGE(G213:L213)</f>
-        <v>80</v>
+        <f t="shared" si="7"/>
+        <v>31</v>
       </c>
     </row>
     <row r="214" spans="1:13">
       <c r="A214" s="1" t="s">
-        <v>336</v>
+        <v>398</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>340</v>
+        <v>399</v>
       </c>
       <c r="C214" s="2">
         <v>40</v>
@@ -7910,330 +8351,361 @@
       <c r="E214" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G214" s="6">
+        <v>29</v>
+      </c>
       <c r="H214" s="7">
-        <v>78</v>
+        <v>27</v>
+      </c>
+      <c r="I214" s="8">
+        <v>27</v>
+      </c>
+      <c r="J214" s="9">
+        <v>27</v>
+      </c>
+      <c r="K214" s="10">
+        <v>27</v>
+      </c>
+      <c r="L214" s="11">
+        <v>26</v>
       </c>
       <c r="M214" s="12">
-        <f>AVERAGE(G214:L214)</f>
-        <v>78</v>
+        <f t="shared" si="7"/>
+        <v>27.166666666666668</v>
       </c>
     </row>
     <row r="215" spans="1:13">
       <c r="A215" s="1" t="s">
-        <v>337</v>
+        <v>98</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>341</v>
+        <v>226</v>
       </c>
       <c r="C215" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D215" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G215" s="6">
+        <v>76</v>
+      </c>
       <c r="H215" s="7">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="M215" s="12">
-        <f>AVERAGE(G215:L215)</f>
-        <v>81</v>
+        <f t="shared" si="7"/>
+        <v>72</v>
       </c>
     </row>
     <row r="216" spans="1:13">
       <c r="A216" s="1" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>193</v>
+        <v>287</v>
       </c>
       <c r="C216" s="2">
         <v>50</v>
       </c>
       <c r="D216" s="2">
-        <v>500</v>
+        <v>14000</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K216" s="10">
-        <v>60</v>
+      <c r="G216" s="6">
+        <v>77</v>
       </c>
       <c r="M216" s="12">
-        <f>AVERAGE(G216:L216)</f>
-        <v>60</v>
+        <f t="shared" si="7"/>
+        <v>77</v>
       </c>
     </row>
     <row r="217" spans="1:13">
       <c r="A217" s="1" t="s">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>262</v>
+        <v>397</v>
       </c>
       <c r="C217" s="2">
         <v>40</v>
       </c>
       <c r="D217" s="2">
-        <v>400</v>
+        <v>11000</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G217" s="6">
+        <v>26</v>
+      </c>
+      <c r="H217" s="7">
+        <v>25</v>
+      </c>
+      <c r="I217" s="8">
+        <v>25</v>
+      </c>
       <c r="J217" s="9">
-        <v>58</v>
+        <v>25</v>
+      </c>
+      <c r="K217" s="10">
+        <v>26</v>
       </c>
       <c r="L217" s="11">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="M217" s="12">
-        <f>AVERAGE(G217:L217)</f>
-        <v>59</v>
+        <f t="shared" si="7"/>
+        <v>25.333333333333332</v>
       </c>
     </row>
     <row r="218" spans="1:13">
       <c r="A218" s="1" t="s">
-        <v>147</v>
+        <v>400</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>310</v>
+        <v>401</v>
       </c>
       <c r="C218" s="2">
         <v>50</v>
       </c>
       <c r="D218" s="2">
-        <v>500</v>
+        <v>14000</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G218" s="6">
+        <v>27</v>
+      </c>
+      <c r="H218" s="7">
+        <v>26</v>
+      </c>
+      <c r="I218" s="8">
+        <v>26</v>
+      </c>
       <c r="J218" s="9">
-        <v>59</v>
+        <v>26</v>
+      </c>
+      <c r="K218" s="10">
+        <v>28</v>
+      </c>
+      <c r="L218" s="11">
+        <v>27</v>
       </c>
       <c r="M218" s="12">
-        <f>AVERAGE(G218:L218)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" s="1" customFormat="1">
+        <f t="shared" si="7"/>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13">
       <c r="A219" s="1" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="C219" s="2">
         <v>40</v>
       </c>
       <c r="D219" s="2">
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F219" s="2"/>
       <c r="G219" s="6">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H219" s="7">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I219" s="8">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J219" s="9">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="K219" s="10">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="L219" s="11">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M219" s="12">
-        <f>AVERAGE(G219:L219)</f>
-        <v>50.5</v>
+        <f t="shared" si="7"/>
+        <v>29</v>
       </c>
     </row>
     <row r="220" spans="1:13" s="1" customFormat="1">
       <c r="A220" s="1" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="C220" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D220" s="2">
-        <v>400</v>
+        <v>14000</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F220" s="2"/>
       <c r="G220" s="6">
-        <v>59</v>
-      </c>
-      <c r="H220" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="H220" s="7">
+        <v>70</v>
+      </c>
       <c r="I220" s="8"/>
       <c r="J220" s="9"/>
       <c r="K220" s="10"/>
       <c r="L220" s="11"/>
       <c r="M220" s="12">
-        <f>AVERAGE(G220:L220)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" s="1" customFormat="1">
       <c r="A221" s="1" t="s">
-        <v>148</v>
+        <v>330</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="C221" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D221" s="2">
-        <v>500</v>
+        <v>11000</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G221" s="6">
-        <v>60</v>
-      </c>
+      <c r="F221" s="2"/>
+      <c r="G221" s="6"/>
+      <c r="H221" s="7">
+        <v>79</v>
+      </c>
+      <c r="I221" s="8"/>
+      <c r="J221" s="9"/>
+      <c r="K221" s="10"/>
+      <c r="L221" s="11"/>
       <c r="M221" s="12">
-        <f>AVERAGE(G221:L221)</f>
-        <v>60</v>
+        <f t="shared" si="7"/>
+        <v>79</v>
       </c>
     </row>
     <row r="222" spans="1:13">
       <c r="A222" s="1" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="C222" s="2">
         <v>40</v>
       </c>
       <c r="D222" s="2">
-        <v>150</v>
+        <v>11000</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G222" s="6">
-        <v>9</v>
-      </c>
       <c r="H222" s="7">
-        <v>8</v>
-      </c>
-      <c r="I222" s="8">
-        <v>7</v>
-      </c>
-      <c r="J222" s="9">
-        <v>8</v>
-      </c>
-      <c r="K222" s="10">
-        <v>7</v>
-      </c>
-      <c r="L222" s="11">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="M222" s="12">
-        <f>AVERAGE(G222:L222)</f>
-        <v>7.666666666666667</v>
+        <f t="shared" si="7"/>
+        <v>80</v>
       </c>
     </row>
     <row r="223" spans="1:13">
       <c r="A223" s="1" t="s">
-        <v>33</v>
+        <v>331</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="C223" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D223" s="2">
-        <v>500</v>
+        <v>11000</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G223" s="6">
-        <v>61</v>
+      <c r="H223" s="7">
+        <v>78</v>
       </c>
       <c r="M223" s="12">
-        <f>AVERAGE(G223:L223)</f>
-        <v>61</v>
+        <f t="shared" si="7"/>
+        <v>78</v>
       </c>
     </row>
     <row r="224" spans="1:13">
       <c r="A224" s="1" t="s">
-        <v>86</v>
+        <v>332</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C224" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D224" s="2">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H224" s="7">
-        <v>65</v>
-      </c>
-      <c r="I224" s="8">
-        <v>59</v>
-      </c>
-      <c r="K224" s="10">
         <v>81</v>
       </c>
       <c r="M224" s="12">
-        <f>AVERAGE(G224:L224)</f>
-        <v>68.333333333333329</v>
+        <f t="shared" si="7"/>
+        <v>81</v>
       </c>
     </row>
     <row r="225" spans="1:13">
       <c r="A225" s="1" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>346</v>
+        <v>188</v>
       </c>
       <c r="C225" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D225" s="2">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H225" s="7">
-        <v>73</v>
+      <c r="K225" s="10">
+        <v>60</v>
       </c>
       <c r="M225" s="12">
-        <f>AVERAGE(G225:L225)</f>
-        <v>73</v>
+        <f t="shared" si="7"/>
+        <v>60</v>
       </c>
     </row>
     <row r="226" spans="1:13">
       <c r="A226" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C226" s="2">
         <v>40</v>
@@ -8244,20 +8716,23 @@
       <c r="E226" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H226" s="7">
-        <v>66</v>
+      <c r="J226" s="9">
+        <v>58</v>
+      </c>
+      <c r="L226" s="11">
+        <v>60</v>
       </c>
       <c r="M226" s="12">
-        <f>AVERAGE(G226:L226)</f>
-        <v>66</v>
+        <f t="shared" si="7"/>
+        <v>59</v>
       </c>
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C227" s="2">
         <v>50</v>
@@ -8268,365 +8743,695 @@
       <c r="E227" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H227" s="7">
-        <v>67</v>
+      <c r="J227" s="9">
+        <v>59</v>
       </c>
       <c r="M227" s="12">
-        <f>AVERAGE(G227:L227)</f>
-        <v>67</v>
+        <f t="shared" si="7"/>
+        <v>59</v>
       </c>
     </row>
     <row r="228" spans="1:13">
       <c r="A228" s="1" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="C228" s="2">
         <v>40</v>
       </c>
       <c r="D228" s="2">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G228" s="6">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="H228" s="7">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I228" s="8">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="J228" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="K228" s="10">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="L228" s="11">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="M228" s="12">
-        <f>AVERAGE(G228:L228)</f>
-        <v>21.166666666666668</v>
+        <f t="shared" si="7"/>
+        <v>50.5</v>
       </c>
     </row>
     <row r="229" spans="1:13">
       <c r="A229" s="1" t="s">
-        <v>460</v>
+        <v>106</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="K229" s="10">
-        <v>22</v>
+        <v>258</v>
+      </c>
+      <c r="C229" s="2">
+        <v>40</v>
+      </c>
+      <c r="D229" s="2">
+        <v>400</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G229" s="6">
+        <v>59</v>
       </c>
       <c r="M229" s="12">
-        <f>AVERAGE(G229:L229)</f>
-        <v>22</v>
+        <f t="shared" si="7"/>
+        <v>59</v>
       </c>
     </row>
     <row r="230" spans="1:13">
       <c r="A230" s="1" t="s">
-        <v>429</v>
+        <v>143</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>430</v>
+        <v>306</v>
       </c>
       <c r="C230" s="2">
         <v>50</v>
       </c>
       <c r="D230" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G230" s="6">
-        <v>44</v>
-      </c>
-      <c r="H230" s="7">
-        <v>40</v>
-      </c>
-      <c r="I230" s="8">
-        <v>40</v>
-      </c>
-      <c r="J230" s="9">
-        <v>40</v>
-      </c>
-      <c r="K230" s="10">
-        <v>42</v>
-      </c>
-      <c r="L230" s="11">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M230" s="12">
-        <f>AVERAGE(G230:L230)</f>
-        <v>41</v>
+        <f t="shared" si="7"/>
+        <v>60</v>
       </c>
     </row>
     <row r="231" spans="1:13">
       <c r="A231" s="1" t="s">
-        <v>431</v>
+        <v>362</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>432</v>
+        <v>363</v>
       </c>
       <c r="C231" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D231" s="2">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G231" s="6">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="H231" s="7">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="I231" s="8">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="J231" s="9">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="K231" s="10">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="L231" s="11">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="M231" s="12">
-        <f>AVERAGE(G231:L231)</f>
-        <v>42</v>
+        <f t="shared" si="7"/>
+        <v>7.666666666666667</v>
       </c>
     </row>
     <row r="232" spans="1:13">
       <c r="A232" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="C232" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D232" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G232" s="6">
+        <v>61</v>
+      </c>
       <c r="H232" s="7">
-        <v>77</v>
+        <v>93</v>
+      </c>
+      <c r="I232" s="8">
+        <v>75</v>
+      </c>
+      <c r="J232" s="9">
+        <v>75</v>
       </c>
       <c r="K232" s="10">
-        <v>83</v>
+        <v>95</v>
+      </c>
+      <c r="L232" s="11">
+        <v>78</v>
       </c>
       <c r="M232" s="12">
-        <f>AVERAGE(G232:L232)</f>
-        <v>80</v>
+        <f t="shared" si="7"/>
+        <v>79.5</v>
       </c>
     </row>
     <row r="233" spans="1:13">
       <c r="A233" s="1" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>194</v>
+        <v>342</v>
       </c>
       <c r="C233" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D233" s="2">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G233" s="6">
-        <v>83</v>
+        <v>94</v>
+      </c>
+      <c r="H233" s="7">
+        <v>65</v>
+      </c>
+      <c r="I233" s="8">
+        <v>59</v>
+      </c>
+      <c r="J233" s="9">
+        <v>77</v>
+      </c>
+      <c r="K233" s="10">
+        <v>96</v>
+      </c>
+      <c r="L233" s="11">
+        <v>79</v>
       </c>
       <c r="M233" s="12">
-        <f>AVERAGE(G233:L233)</f>
-        <v>83</v>
+        <f t="shared" si="7"/>
+        <v>78.333333333333329</v>
       </c>
     </row>
     <row r="234" spans="1:13">
       <c r="A234" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>266</v>
+        <v>341</v>
       </c>
       <c r="C234" s="2">
         <v>40</v>
       </c>
       <c r="D234" s="2">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M234" s="12" t="e">
-        <f>AVERAGE(G234:L234)</f>
-        <v>#DIV/0!</v>
+      <c r="G234" s="6">
+        <v>95</v>
+      </c>
+      <c r="H234" s="7">
+        <v>73</v>
+      </c>
+      <c r="I234" s="8">
+        <v>76</v>
+      </c>
+      <c r="J234" s="9">
+        <v>78</v>
+      </c>
+      <c r="K234" s="10">
+        <v>81</v>
+      </c>
+      <c r="L234" s="11">
+        <v>80</v>
+      </c>
+      <c r="M234" s="12">
+        <f t="shared" si="7"/>
+        <v>80.5</v>
       </c>
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="1" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="C235" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D235" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M235" s="12" t="e">
-        <f>AVERAGE(G235:L235)</f>
+      <c r="H235" s="7">
+        <v>66</v>
+      </c>
+      <c r="M235" s="12">
+        <f t="shared" ref="M235:M244" si="8">AVERAGE(G235:L235)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13">
+      <c r="A236" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C236" s="2">
+        <v>50</v>
+      </c>
+      <c r="D236" s="2">
+        <v>500</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H236" s="7">
+        <v>67</v>
+      </c>
+      <c r="M236" s="12">
+        <f t="shared" si="8"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13">
+      <c r="A237" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C237" s="2">
+        <v>40</v>
+      </c>
+      <c r="D237" s="2">
+        <v>400</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G237" s="6">
+        <v>22</v>
+      </c>
+      <c r="H237" s="7">
+        <v>21</v>
+      </c>
+      <c r="I237" s="8">
+        <v>21</v>
+      </c>
+      <c r="J237" s="9">
+        <v>21</v>
+      </c>
+      <c r="K237" s="10">
+        <v>21</v>
+      </c>
+      <c r="L237" s="11">
+        <v>21</v>
+      </c>
+      <c r="M237" s="12">
+        <f t="shared" si="8"/>
+        <v>21.166666666666668</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13">
+      <c r="A238" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C238" s="2">
+        <v>50</v>
+      </c>
+      <c r="D238" s="2">
+        <v>500</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K238" s="10">
+        <v>22</v>
+      </c>
+      <c r="M238" s="12">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13">
+      <c r="A239" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C239" s="2">
+        <v>50</v>
+      </c>
+      <c r="D239" s="2">
+        <v>400</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G239" s="6">
+        <v>44</v>
+      </c>
+      <c r="H239" s="7">
+        <v>40</v>
+      </c>
+      <c r="I239" s="8">
+        <v>40</v>
+      </c>
+      <c r="J239" s="9">
+        <v>40</v>
+      </c>
+      <c r="K239" s="10">
+        <v>42</v>
+      </c>
+      <c r="L239" s="11">
+        <v>40</v>
+      </c>
+      <c r="M239" s="12">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13">
+      <c r="A240" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C240" s="2">
+        <v>60</v>
+      </c>
+      <c r="D240" s="2">
+        <v>400</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G240" s="6">
+        <v>45</v>
+      </c>
+      <c r="H240" s="7">
+        <v>41</v>
+      </c>
+      <c r="I240" s="8">
+        <v>41</v>
+      </c>
+      <c r="J240" s="9">
+        <v>41</v>
+      </c>
+      <c r="K240" s="10">
+        <v>43</v>
+      </c>
+      <c r="L240" s="11">
+        <v>41</v>
+      </c>
+      <c r="M240" s="12">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13">
+      <c r="A241" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C241" s="2">
+        <v>40</v>
+      </c>
+      <c r="D241" s="2">
+        <v>400</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H241" s="7">
+        <v>77</v>
+      </c>
+      <c r="K241" s="10">
+        <v>83</v>
+      </c>
+      <c r="M241" s="12">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13">
+      <c r="A242" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C242" s="2">
+        <v>50</v>
+      </c>
+      <c r="D242" s="2">
+        <v>500</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G242" s="6">
+        <v>83</v>
+      </c>
+      <c r="M242" s="12">
+        <f t="shared" si="8"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13">
+      <c r="A243" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C243" s="2">
+        <v>40</v>
+      </c>
+      <c r="D243" s="2">
+        <v>400</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M243" s="12" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13">
+      <c r="A244" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C244" s="2">
+        <v>50</v>
+      </c>
+      <c r="D244" s="2">
+        <v>500</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M244" s="12" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{E6A05FEB-E022-483C-B74F-E4F502393947}">
-    <sortState ref="A2:M235">
+    <sortState ref="A2:M244">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:M234">
-    <sortCondition ref="B2:B234"/>
+  <sortState ref="A2:M235">
+    <sortCondition ref="B2:B235"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G2 G222:G1048576 G7:G147 G149:G220">
+  <conditionalFormatting sqref="G1:G2 G7:G106 G150:G221 G223:G236 G238:G1048576 G108:G148">
+    <cfRule type="cellIs" dxfId="29" priority="47" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:I2 H7:I106 H150:I221 H223:I236 I237 H238:I1048576 H108:I148">
+    <cfRule type="cellIs" dxfId="28" priority="46" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J2 J7:J106 J150:J221 J223:J1048576 J108:J148">
+    <cfRule type="cellIs" dxfId="27" priority="45" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I2 I7:I106 I150:I221 I223:I1048576 I108:I148">
+    <cfRule type="cellIs" dxfId="26" priority="44" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K2 K7:K106 K150:K221 K223:K1048576 K108:K148">
+    <cfRule type="cellIs" dxfId="25" priority="43" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L2 L7:L106 L150:L221 L223:L1048576 L108:L148">
+    <cfRule type="cellIs" dxfId="24" priority="42" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G222">
     <cfRule type="cellIs" dxfId="23" priority="41" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H222:I1048576 H1:I2 H7:I147 H149:I220">
+  <conditionalFormatting sqref="H222:I222">
     <cfRule type="cellIs" dxfId="22" priority="40" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J2 J222:J1048576 J7:J147 J149:J220">
+  <conditionalFormatting sqref="J222">
     <cfRule type="cellIs" dxfId="21" priority="39" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I222:I1048576 I1:I2 I7:I147 I149:I220">
+  <conditionalFormatting sqref="I222">
     <cfRule type="cellIs" dxfId="20" priority="38" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K2 K222:K1048576 K7:K147 K149:K220">
+  <conditionalFormatting sqref="K222">
     <cfRule type="cellIs" dxfId="19" priority="37" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L2 L222:L1048576 L7:L147 L149:L220">
+  <conditionalFormatting sqref="L222">
     <cfRule type="cellIs" dxfId="18" priority="36" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G221">
-    <cfRule type="cellIs" dxfId="17" priority="35" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H221:I221">
-    <cfRule type="cellIs" dxfId="16" priority="34" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J221">
-    <cfRule type="cellIs" dxfId="15" priority="33" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I221">
-    <cfRule type="cellIs" dxfId="14" priority="32" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K221">
-    <cfRule type="cellIs" dxfId="13" priority="31" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L221">
-    <cfRule type="cellIs" dxfId="12" priority="30" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L3:L6">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G6">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:I6">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J6">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="notEqual">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I6">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K6">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G148">
+  <conditionalFormatting sqref="G149">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H149:I149">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J149">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I149">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K149">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L149">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G107">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H148:I148">
+  <conditionalFormatting sqref="H107:I107">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J148">
+  <conditionalFormatting sqref="J107">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I148">
+  <conditionalFormatting sqref="I107">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K148">
+  <conditionalFormatting sqref="K107">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L148">
+  <conditionalFormatting sqref="L107">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
@@ -8638,10 +9443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="A3:E8"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8652,13 +9457,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -8666,10 +9471,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -8683,10 +9488,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C3">
         <v>60</v>
@@ -8700,10 +9505,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C4">
         <v>60</v>
@@ -8717,10 +9522,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5">
         <v>60</v>
@@ -8734,10 +9539,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C6">
         <v>60</v>
@@ -8751,10 +9556,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -8768,10 +9573,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C8">
         <v>60</v>
@@ -8781,6 +9586,156 @@
       </c>
       <c r="E8" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C9" s="14">
+        <v>40</v>
+      </c>
+      <c r="D9" s="14">
+        <v>400</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C10" s="14">
+        <v>40</v>
+      </c>
+      <c r="D10" s="14">
+        <v>400</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B11" t="s">
+        <v>464</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>400</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>500</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>466</v>
+      </c>
+      <c r="B13" t="s">
+        <v>469</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>500</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>467</v>
+      </c>
+      <c r="B14" t="s">
+        <v>470</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>400</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>472</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>11000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>473</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C16">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>11000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>481</v>
+      </c>
+      <c r="B17" t="s">
+        <v>482</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>14000</v>
       </c>
     </row>
   </sheetData>

--- a/Ex quest.xlsx
+++ b/Ex quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6FA3813F-3A0E-4E93-BEBE-8FDC1404D636}"/>
+  <xr:revisionPtr revIDLastSave="273" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A100E0DD-3743-438A-9A10-C12BF8A44554}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="493">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1463,9 +1463,6 @@
     <t>Harvest Moonの約束</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 22/09/2019</t>
-  </si>
-  <si>
     <t>高難易度クエスト 〈七つの大罪〉EX7[エスカノール武具獲得]</t>
   </si>
   <si>
@@ -1497,6 +1494,39 @@
   </si>
   <si>
     <t>七つの大罪 [EX極2]</t>
+  </si>
+  <si>
+    <t>【地獄級】コンティニュー不可 【地獄級】ハロウィン狂騒曲～紅と闇の輪舞～</t>
+  </si>
+  <si>
+    <t>超高難易度クエスト 【EX極】ハロウィン狂騒曲～紅と闇の輪舞～</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 【EX】ハロウィン狂騒曲～紅と闇の輪舞～</t>
+  </si>
+  <si>
+    <t>ハロウィン狂騒曲～紅と闇の輪舞～</t>
+  </si>
+  <si>
+    <t>ハロウィン狂騒曲～紅と闇の輪舞～ [地獄級]</t>
+  </si>
+  <si>
+    <t>ハロウィン狂騒曲～紅と闇の輪舞～ [EX極]</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 17/10/2019</t>
+  </si>
+  <si>
+    <t>超高難易度クエスト 〈七つの大罪〉 EX極3</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 〈七つの大罪〉EX8[ゼルドリス武具獲得]</t>
+  </si>
+  <si>
+    <t>七つの大罪 [EX極3]</t>
+  </si>
+  <si>
+    <t>七つの大罪 [EX8]</t>
   </si>
 </sst>
 </file>
@@ -1648,133 +1678,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -2169,11 +2073,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M244"/>
+  <dimension ref="A1:M249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H177" sqref="H177"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M108" sqref="M108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2196,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2208,28 +2112,28 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="str">
-        <f>"火 "&amp;COUNT(G2:G1006)</f>
-        <v>火 116</v>
+        <f>"火 "&amp;COUNT(G2:G1008)</f>
+        <v>火 121</v>
       </c>
       <c r="H1" s="3" t="str">
-        <f>"水 "&amp;COUNT(H2:H1006)</f>
-        <v>水 115</v>
+        <f>"水 "&amp;COUNT(H2:H1008)</f>
+        <v>水 120</v>
       </c>
       <c r="I1" s="3" t="str">
-        <f>"風 "&amp;COUNT(I2:I1006)</f>
-        <v>風 100</v>
+        <f>"風 "&amp;COUNT(I2:I1008)</f>
+        <v>風 104</v>
       </c>
       <c r="J1" s="3" t="str">
-        <f>"雷 "&amp;COUNT(J2:J1006)</f>
-        <v>雷 98</v>
+        <f>"雷 "&amp;COUNT(J2:J1008)</f>
+        <v>雷 101</v>
       </c>
       <c r="K1" s="4" t="str">
-        <f>"光 "&amp;COUNT(K2:K1006)</f>
-        <v>光 112</v>
+        <f>"光 "&amp;COUNT(K2:K1008)</f>
+        <v>光 117</v>
       </c>
       <c r="L1" s="3" t="str">
-        <f>"暗 "&amp;COUNT(L2:L1006)</f>
-        <v>暗 101</v>
+        <f>"暗 "&amp;COUNT(L2:L1008)</f>
+        <v>暗 105</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>346</v>
@@ -2252,17 +2156,25 @@
         <v>4</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="G2" s="6">
+        <v>120</v>
+      </c>
+      <c r="H2" s="7">
+        <v>119</v>
+      </c>
       <c r="I2" s="8">
         <v>65</v>
       </c>
       <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="11"/>
+      <c r="K2" s="10">
+        <v>113</v>
+      </c>
+      <c r="L2" s="11">
+        <v>102</v>
+      </c>
       <c r="M2" s="12">
         <f t="shared" ref="M2:M27" si="0">IF(ISNUMBER(AVERAGE(G2:L2)),AVERAGE(G2:L2),"")</f>
-        <v>65</v>
+        <v>103.8</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1">
@@ -4842,7 +4754,7 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>273</v>
@@ -4881,7 +4793,7 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>274</v>
@@ -4920,7 +4832,7 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>275</v>
@@ -4959,7 +4871,7 @@
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>276</v>
@@ -4998,7 +4910,7 @@
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>277</v>
@@ -5037,10 +4949,10 @@
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C104" s="2">
         <v>40</v>
@@ -5076,10 +4988,10 @@
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C105" s="2">
         <v>40</v>
@@ -5109,7 +5021,7 @@
         <v>97</v>
       </c>
       <c r="M105" s="12">
-        <f t="shared" ref="M105:M138" si="4">AVERAGE(G105:L105)</f>
+        <f t="shared" ref="M105:M140" si="4">AVERAGE(G105:L105)</f>
         <v>102.5</v>
       </c>
     </row>
@@ -5154,10 +5066,10 @@
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="C107" s="2">
         <v>50</v>
@@ -5168,641 +5080,656 @@
       <c r="E107" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G107" s="6">
+      <c r="M107" s="12" t="e">
+        <f t="shared" ref="M107:M108" si="5">AVERAGE(G107:L107)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C108" s="2">
+        <v>40</v>
+      </c>
+      <c r="D108" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G108" s="6">
+        <v>121</v>
+      </c>
+      <c r="H108" s="7">
+        <v>120</v>
+      </c>
+      <c r="I108" s="8">
+        <v>104</v>
+      </c>
+      <c r="J108" s="9">
+        <v>101</v>
+      </c>
+      <c r="K108" s="10">
+        <v>117</v>
+      </c>
+      <c r="L108" s="11">
+        <v>105</v>
+      </c>
+      <c r="M108" s="12">
+        <f t="shared" si="5"/>
+        <v>111.33333333333333</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C109" s="2">
+        <v>50</v>
+      </c>
+      <c r="D109" s="2">
+        <v>14000</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G109" s="6">
         <v>116</v>
       </c>
-      <c r="H107" s="7">
+      <c r="H109" s="7">
         <v>114</v>
       </c>
-      <c r="I107" s="8">
+      <c r="I109" s="8">
         <v>99</v>
       </c>
-      <c r="J107" s="9">
+      <c r="J109" s="9">
         <v>98</v>
       </c>
-      <c r="K107" s="10">
+      <c r="K109" s="10">
         <v>111</v>
       </c>
-      <c r="L107" s="11">
+      <c r="L109" s="11">
         <v>100</v>
       </c>
-      <c r="M107" s="12">
+      <c r="M109" s="12">
         <f t="shared" si="4"/>
         <v>106.33333333333333</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
-      <c r="A108" s="1" t="s">
+    <row r="110" spans="1:13">
+      <c r="A110" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C108" s="2">
-        <v>40</v>
-      </c>
-      <c r="D108" s="2">
-        <v>400</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H108" s="7">
+      <c r="C110" s="2">
+        <v>40</v>
+      </c>
+      <c r="D110" s="2">
+        <v>400</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H110" s="7">
         <v>102</v>
       </c>
-      <c r="M108" s="12">
+      <c r="M110" s="12">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
-      <c r="A109" s="1" t="s">
+    <row r="111" spans="1:13">
+      <c r="A111" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B111" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C109" s="2">
-        <v>40</v>
-      </c>
-      <c r="D109" s="2">
-        <v>500</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G109" s="6">
+      <c r="C111" s="2">
+        <v>40</v>
+      </c>
+      <c r="D111" s="2">
+        <v>500</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G111" s="6">
         <v>2</v>
       </c>
-      <c r="H109" s="7">
+      <c r="H111" s="7">
         <v>1</v>
       </c>
-      <c r="I109" s="8">
+      <c r="I111" s="8">
         <v>1</v>
       </c>
-      <c r="J109" s="9">
+      <c r="J111" s="9">
         <v>1</v>
       </c>
-      <c r="K109" s="10">
+      <c r="K111" s="10">
         <v>1</v>
       </c>
-      <c r="L109" s="11">
+      <c r="L111" s="11">
         <v>1</v>
       </c>
-      <c r="M109" s="12">
+      <c r="M111" s="12">
         <f t="shared" si="4"/>
         <v>1.1666666666666667</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
-      <c r="A110" s="1" t="s">
+    <row r="112" spans="1:13">
+      <c r="A112" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B112" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C110" s="2">
-        <v>50</v>
-      </c>
-      <c r="D110" s="2">
-        <v>500</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G110" s="6">
+      <c r="C112" s="2">
+        <v>50</v>
+      </c>
+      <c r="D112" s="2">
+        <v>500</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G112" s="6">
         <v>1</v>
       </c>
-      <c r="H110" s="7">
+      <c r="H112" s="7">
         <v>2</v>
       </c>
-      <c r="I110" s="8">
+      <c r="I112" s="8">
         <v>2</v>
       </c>
-      <c r="J110" s="9">
+      <c r="J112" s="9">
         <v>2</v>
       </c>
-      <c r="K110" s="10">
+      <c r="K112" s="10">
         <v>3</v>
       </c>
-      <c r="L110" s="11">
+      <c r="L112" s="11">
         <v>2</v>
       </c>
-      <c r="M110" s="12">
+      <c r="M112" s="12">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
-      <c r="A111" s="1" t="s">
+    <row r="113" spans="1:13">
+      <c r="A113" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B113" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C111" s="2">
-        <v>40</v>
-      </c>
-      <c r="D111" s="2">
-        <v>500</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G111" s="6">
+      <c r="C113" s="2">
+        <v>40</v>
+      </c>
+      <c r="D113" s="2">
+        <v>500</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G113" s="6">
         <v>3</v>
       </c>
-      <c r="H111" s="7">
+      <c r="H113" s="7">
         <v>3</v>
       </c>
-      <c r="I111" s="8">
+      <c r="I113" s="8">
         <v>3</v>
       </c>
-      <c r="J111" s="9">
+      <c r="J113" s="9">
         <v>3</v>
       </c>
-      <c r="K111" s="10">
+      <c r="K113" s="10">
         <v>2</v>
       </c>
-      <c r="L111" s="11">
+      <c r="L113" s="11">
         <v>3</v>
       </c>
-      <c r="M111" s="12">
+      <c r="M113" s="12">
         <f t="shared" si="4"/>
         <v>2.8333333333333335</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
-      <c r="A112" s="1" t="s">
+    <row r="114" spans="1:13">
+      <c r="A114" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B114" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C112" s="2">
-        <v>50</v>
-      </c>
-      <c r="D112" s="2">
-        <v>500</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G112" s="6">
-        <v>4</v>
-      </c>
-      <c r="H112" s="7">
-        <v>4</v>
-      </c>
-      <c r="I112" s="8">
-        <v>4</v>
-      </c>
-      <c r="J112" s="9">
-        <v>4</v>
-      </c>
-      <c r="K112" s="10">
-        <v>4</v>
-      </c>
-      <c r="L112" s="11">
-        <v>4</v>
-      </c>
-      <c r="M112" s="12">
+      <c r="C114" s="2">
+        <v>50</v>
+      </c>
+      <c r="D114" s="2">
+        <v>500</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G114" s="6">
+        <v>4</v>
+      </c>
+      <c r="H114" s="7">
+        <v>4</v>
+      </c>
+      <c r="I114" s="8">
+        <v>4</v>
+      </c>
+      <c r="J114" s="9">
+        <v>4</v>
+      </c>
+      <c r="K114" s="10">
+        <v>4</v>
+      </c>
+      <c r="L114" s="11">
+        <v>4</v>
+      </c>
+      <c r="M114" s="12">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
-      <c r="A113" s="1" t="s">
+    <row r="115" spans="1:13">
+      <c r="A115" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B115" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C113" s="2">
-        <v>40</v>
-      </c>
-      <c r="D113" s="2">
-        <v>400</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I113" s="8">
+      <c r="C115" s="2">
+        <v>40</v>
+      </c>
+      <c r="D115" s="2">
+        <v>400</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I115" s="8">
         <v>56</v>
       </c>
-      <c r="M113" s="12">
+      <c r="M115" s="12">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
-      <c r="A114" s="1" t="s">
+    <row r="116" spans="1:13">
+      <c r="A116" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B116" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C114" s="2">
-        <v>40</v>
-      </c>
-      <c r="D114" s="2">
-        <v>400</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I114" s="8">
+      <c r="C116" s="2">
+        <v>40</v>
+      </c>
+      <c r="D116" s="2">
+        <v>400</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I116" s="8">
         <v>57</v>
       </c>
-      <c r="M114" s="12">
+      <c r="M116" s="12">
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
-      <c r="A115" s="1" t="s">
+    <row r="117" spans="1:13">
+      <c r="A117" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B117" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C115" s="2">
-        <v>40</v>
-      </c>
-      <c r="D115" s="2">
-        <v>400</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K115" s="10">
+      <c r="C117" s="2">
+        <v>40</v>
+      </c>
+      <c r="D117" s="2">
+        <v>400</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K117" s="10">
         <v>80</v>
       </c>
-      <c r="M115" s="12">
+      <c r="M117" s="12">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
-      <c r="A116" s="1" t="s">
+    <row r="118" spans="1:13">
+      <c r="A118" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C116" s="2">
-        <v>40</v>
-      </c>
-      <c r="D116" s="2">
-        <v>400</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M116" s="12" t="e">
+      <c r="C118" s="2">
+        <v>40</v>
+      </c>
+      <c r="D118" s="2">
+        <v>400</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M118" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
-      <c r="A117" s="1" t="s">
+    <row r="119" spans="1:13">
+      <c r="A119" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B119" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C117" s="2">
-        <v>40</v>
-      </c>
-      <c r="D117" s="2">
-        <v>400</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G117" s="6">
+      <c r="C119" s="2">
+        <v>40</v>
+      </c>
+      <c r="D119" s="2">
+        <v>400</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G119" s="6">
         <v>96</v>
       </c>
-      <c r="H117" s="7">
+      <c r="H119" s="7">
         <v>94</v>
       </c>
-      <c r="I117" s="8">
+      <c r="I119" s="8">
         <v>77</v>
       </c>
-      <c r="J117" s="9">
+      <c r="J119" s="9">
         <v>79</v>
       </c>
-      <c r="K117" s="10">
+      <c r="K119" s="10">
         <v>97</v>
       </c>
-      <c r="L117" s="11">
+      <c r="L119" s="11">
         <v>81</v>
       </c>
-      <c r="M117" s="12">
+      <c r="M119" s="12">
         <f t="shared" si="4"/>
         <v>87.333333333333329</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
-      <c r="A118" s="1" t="s">
+    <row r="120" spans="1:13">
+      <c r="A120" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C118" s="2">
-        <v>50</v>
-      </c>
-      <c r="D118" s="2">
-        <v>400</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G118" s="6">
+      <c r="C120" s="2">
+        <v>50</v>
+      </c>
+      <c r="D120" s="2">
+        <v>400</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G120" s="6">
         <v>57</v>
       </c>
-      <c r="H118" s="7">
-        <v>50</v>
-      </c>
-      <c r="I118" s="8">
+      <c r="H120" s="7">
+        <v>50</v>
+      </c>
+      <c r="I120" s="8">
         <v>51</v>
       </c>
-      <c r="J118" s="9">
+      <c r="J120" s="9">
         <v>51</v>
       </c>
-      <c r="M118" s="12">
+      <c r="M120" s="12">
         <f t="shared" si="4"/>
         <v>52.25</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
-      <c r="A119" s="1" t="s">
+    <row r="121" spans="1:13">
+      <c r="A121" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B121" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C119" s="2">
-        <v>50</v>
-      </c>
-      <c r="D119" s="2">
-        <v>500</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G119" s="6">
+      <c r="C121" s="2">
+        <v>50</v>
+      </c>
+      <c r="D121" s="2">
+        <v>500</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G121" s="6">
         <v>64</v>
       </c>
-      <c r="H119" s="7">
+      <c r="H121" s="7">
         <v>72</v>
       </c>
-      <c r="K119" s="10">
+      <c r="K121" s="10">
         <v>79</v>
       </c>
-      <c r="M119" s="12">
+      <c r="M121" s="12">
         <f t="shared" si="4"/>
         <v>71.666666666666671</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
-      <c r="A120" s="1" t="s">
+    <row r="122" spans="1:13">
+      <c r="A122" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C120" s="2">
-        <v>40</v>
-      </c>
-      <c r="D120" s="2">
+      <c r="C122" s="2">
+        <v>40</v>
+      </c>
+      <c r="D122" s="2">
         <v>4000</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H120" s="7">
+      <c r="E122" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H122" s="7">
         <v>56</v>
       </c>
-      <c r="I120" s="8">
+      <c r="I122" s="8">
         <v>60</v>
       </c>
-      <c r="K120" s="10">
+      <c r="K122" s="10">
         <v>82</v>
       </c>
-      <c r="M120" s="12">
+      <c r="M122" s="12">
         <f t="shared" si="4"/>
         <v>66</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
-      <c r="A121" s="1" t="s">
+    <row r="123" spans="1:13">
+      <c r="A123" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C123" s="2">
         <v>30</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D123" s="2">
         <v>135</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G121" s="6">
+      <c r="E123" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G123" s="6">
         <v>23</v>
       </c>
-      <c r="H121" s="7">
+      <c r="H123" s="7">
         <v>22</v>
       </c>
-      <c r="I121" s="8">
+      <c r="I123" s="8">
         <v>22</v>
       </c>
-      <c r="J121" s="9">
+      <c r="J123" s="9">
         <v>22</v>
       </c>
-      <c r="K121" s="10">
+      <c r="K123" s="10">
         <v>23</v>
       </c>
-      <c r="L121" s="11">
+      <c r="L123" s="11">
         <v>22</v>
       </c>
-      <c r="M121" s="12">
+      <c r="M123" s="12">
         <f t="shared" si="4"/>
         <v>22.333333333333332</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
-      <c r="A122" s="1" t="s">
+    <row r="124" spans="1:13">
+      <c r="A124" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B124" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C124" s="2">
         <v>60</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D124" s="2">
         <v>600</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G122" s="6">
+      <c r="E124" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G124" s="6">
         <v>24</v>
       </c>
-      <c r="H122" s="7">
+      <c r="H124" s="7">
         <v>23</v>
       </c>
-      <c r="I122" s="8">
+      <c r="I124" s="8">
         <v>23</v>
       </c>
-      <c r="J122" s="9">
+      <c r="J124" s="9">
         <v>23</v>
       </c>
-      <c r="K122" s="10">
+      <c r="K124" s="10">
         <v>24</v>
       </c>
-      <c r="L122" s="11">
+      <c r="L124" s="11">
         <v>23</v>
       </c>
-      <c r="M122" s="12">
+      <c r="M124" s="12">
         <f t="shared" si="4"/>
         <v>23.333333333333332</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
-      <c r="A123" s="1" t="s">
+    <row r="125" spans="1:13">
+      <c r="A125" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B125" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C123" s="2">
-        <v>40</v>
-      </c>
-      <c r="D123" s="2">
-        <v>400</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G123" s="6">
+      <c r="C125" s="2">
+        <v>40</v>
+      </c>
+      <c r="D125" s="2">
+        <v>400</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G125" s="6">
         <v>19</v>
       </c>
-      <c r="H123" s="7">
+      <c r="H125" s="7">
         <v>18</v>
       </c>
-      <c r="I123" s="8">
+      <c r="I125" s="8">
         <v>18</v>
       </c>
-      <c r="J123" s="9">
+      <c r="J125" s="9">
         <v>18</v>
       </c>
-      <c r="K123" s="10">
+      <c r="K125" s="10">
         <v>18</v>
       </c>
-      <c r="L123" s="11">
+      <c r="L125" s="11">
         <v>18</v>
       </c>
-      <c r="M123" s="12">
+      <c r="M125" s="12">
         <f t="shared" si="4"/>
         <v>18.166666666666668</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
-      <c r="A124" s="1" t="s">
+    <row r="126" spans="1:13">
+      <c r="A126" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C124" s="2">
-        <v>50</v>
-      </c>
-      <c r="D124" s="2">
-        <v>500</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G124" s="6">
+      <c r="C126" s="2">
+        <v>50</v>
+      </c>
+      <c r="D126" s="2">
+        <v>500</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G126" s="6">
         <v>20</v>
       </c>
-      <c r="H124" s="7">
+      <c r="H126" s="7">
         <v>19</v>
       </c>
-      <c r="I124" s="8">
+      <c r="I126" s="8">
         <v>19</v>
       </c>
-      <c r="J124" s="9">
+      <c r="J126" s="9">
         <v>19</v>
       </c>
-      <c r="K124" s="10">
+      <c r="K126" s="10">
         <v>19</v>
       </c>
-      <c r="L124" s="11">
+      <c r="L126" s="11">
         <v>19</v>
       </c>
-      <c r="M124" s="12">
+      <c r="M126" s="12">
         <f t="shared" si="4"/>
         <v>19.166666666666668</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
-      <c r="A125" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C125" s="2">
-        <v>50</v>
-      </c>
-      <c r="D125" s="2">
-        <v>400</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M125" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
-      <c r="A126" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C126" s="2">
-        <v>60</v>
-      </c>
-      <c r="D126" s="2">
-        <v>400</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K126" s="10">
-        <v>69</v>
-      </c>
-      <c r="M126" s="12">
-        <f t="shared" si="4"/>
-        <v>69</v>
-      </c>
-    </row>
     <row r="127" spans="1:13">
       <c r="A127" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C127" s="2">
         <v>50</v>
@@ -5820,10 +5747,10 @@
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C128" s="2">
         <v>60</v>
@@ -5834,443 +5761,410 @@
       <c r="E128" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M128" s="12" t="e">
+      <c r="K128" s="10">
+        <v>69</v>
+      </c>
+      <c r="M128" s="12">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C129" s="2">
+        <v>50</v>
+      </c>
+      <c r="D129" s="2">
+        <v>400</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M129" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
-      <c r="A129" s="1" t="s">
+    <row r="130" spans="1:13">
+      <c r="A130" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C130" s="2">
+        <v>60</v>
+      </c>
+      <c r="D130" s="2">
+        <v>400</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M130" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B131" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C129" s="2">
-        <v>40</v>
-      </c>
-      <c r="D129" s="2">
-        <v>400</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G129" s="6">
+      <c r="C131" s="2">
+        <v>40</v>
+      </c>
+      <c r="D131" s="2">
+        <v>400</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G131" s="6">
         <v>68</v>
       </c>
-      <c r="M129" s="12">
+      <c r="M131" s="12">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
-      <c r="A130" s="1" t="s">
+    <row r="132" spans="1:13">
+      <c r="A132" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B132" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C130" s="2">
-        <v>40</v>
-      </c>
-      <c r="D130" s="2">
-        <v>400</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G130" s="6">
+      <c r="C132" s="2">
+        <v>40</v>
+      </c>
+      <c r="D132" s="2">
+        <v>400</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G132" s="6">
         <v>55</v>
       </c>
-      <c r="I130" s="8">
+      <c r="I132" s="8">
         <v>49</v>
       </c>
-      <c r="M130" s="12">
+      <c r="M132" s="12">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
-      <c r="A131" s="1" t="s">
+    <row r="133" spans="1:13">
+      <c r="A133" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B133" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C131" s="2">
-        <v>40</v>
-      </c>
-      <c r="D131" s="2">
-        <v>400</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G131" s="6">
+      <c r="C133" s="2">
+        <v>40</v>
+      </c>
+      <c r="D133" s="2">
+        <v>400</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G133" s="6">
         <v>7</v>
       </c>
-      <c r="H131" s="7">
+      <c r="H133" s="7">
         <v>5</v>
       </c>
-      <c r="I131" s="8">
+      <c r="I133" s="8">
         <v>5</v>
       </c>
-      <c r="J131" s="9">
+      <c r="J133" s="9">
         <v>5</v>
       </c>
-      <c r="K131" s="10">
+      <c r="K133" s="10">
         <v>5</v>
       </c>
-      <c r="L131" s="11">
+      <c r="L133" s="11">
         <v>5</v>
       </c>
-      <c r="M131" s="12">
+      <c r="M133" s="12">
         <f t="shared" si="4"/>
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
-      <c r="A132" s="1" t="s">
+    <row r="134" spans="1:13">
+      <c r="A134" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B134" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C132" s="2">
-        <v>50</v>
-      </c>
-      <c r="D132" s="2">
-        <v>500</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H132" s="7">
+      <c r="C134" s="2">
+        <v>50</v>
+      </c>
+      <c r="D134" s="2">
+        <v>500</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H134" s="7">
         <v>69</v>
       </c>
-      <c r="M132" s="12">
+      <c r="M134" s="12">
         <f t="shared" si="4"/>
         <v>69</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
-      <c r="A133" s="1" t="s">
+    <row r="135" spans="1:13">
+      <c r="A135" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B135" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C133" s="2">
-        <v>50</v>
-      </c>
-      <c r="D133" s="2">
-        <v>500</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G133" s="6">
+      <c r="C135" s="2">
+        <v>50</v>
+      </c>
+      <c r="D135" s="2">
+        <v>500</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G135" s="6">
         <v>8</v>
       </c>
-      <c r="H133" s="7">
+      <c r="H135" s="7">
         <v>7</v>
       </c>
-      <c r="I133" s="8">
+      <c r="I135" s="8">
         <v>9</v>
       </c>
-      <c r="J133" s="9">
+      <c r="J135" s="9">
         <v>6</v>
       </c>
-      <c r="K133" s="10">
+      <c r="K135" s="10">
         <v>9</v>
       </c>
-      <c r="L133" s="11">
+      <c r="L135" s="11">
         <v>9</v>
       </c>
-      <c r="M133" s="12">
+      <c r="M135" s="12">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
-      <c r="A134" s="1" t="s">
+    <row r="136" spans="1:13">
+      <c r="A136" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B136" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C134" s="2">
-        <v>50</v>
-      </c>
-      <c r="D134" s="2">
-        <v>400</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M134" s="12" t="e">
+      <c r="C136" s="2">
+        <v>50</v>
+      </c>
+      <c r="D136" s="2">
+        <v>400</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M136" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
-      <c r="A135" s="1" t="s">
+    <row r="137" spans="1:13">
+      <c r="A137" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B137" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C137" s="2">
         <v>60</v>
       </c>
-      <c r="D135" s="2">
-        <v>400</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I135" s="8">
-        <v>50</v>
-      </c>
-      <c r="M135" s="12">
+      <c r="D137" s="2">
+        <v>400</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I137" s="8">
+        <v>50</v>
+      </c>
+      <c r="M137" s="12">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
-      <c r="A136" s="1" t="s">
+    <row r="138" spans="1:13">
+      <c r="A138" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B138" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C136" s="2">
-        <v>50</v>
-      </c>
-      <c r="D136" s="2">
-        <v>500</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G136" s="6">
+      <c r="C138" s="2">
+        <v>50</v>
+      </c>
+      <c r="D138" s="2">
+        <v>500</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G138" s="6">
         <v>6</v>
       </c>
-      <c r="H136" s="7">
+      <c r="H138" s="7">
         <v>84</v>
       </c>
-      <c r="I136" s="8">
+      <c r="I138" s="8">
         <v>88</v>
       </c>
-      <c r="J136" s="9">
+      <c r="J138" s="9">
         <v>87</v>
       </c>
-      <c r="K136" s="10">
+      <c r="K138" s="10">
         <v>150</v>
       </c>
-      <c r="L136" s="11">
+      <c r="L138" s="11">
         <v>90</v>
       </c>
-      <c r="M136" s="12">
+      <c r="M138" s="12">
         <f t="shared" si="4"/>
         <v>84.166666666666671</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
-      <c r="A137" s="1" t="s">
+    <row r="139" spans="1:13">
+      <c r="A139" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B139" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C137" s="2">
-        <v>50</v>
-      </c>
-      <c r="D137" s="2">
-        <v>500</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G137" s="6">
+      <c r="C139" s="2">
+        <v>50</v>
+      </c>
+      <c r="D139" s="2">
+        <v>500</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G139" s="6">
         <v>97</v>
       </c>
-      <c r="H137" s="7">
+      <c r="H139" s="7">
         <v>95</v>
       </c>
-      <c r="I137" s="8">
+      <c r="I139" s="8">
         <v>78</v>
       </c>
-      <c r="J137" s="9">
+      <c r="J139" s="9">
         <v>80</v>
       </c>
-      <c r="K137" s="10">
+      <c r="K139" s="10">
         <v>98</v>
       </c>
-      <c r="L137" s="11">
+      <c r="L139" s="11">
         <v>82</v>
       </c>
-      <c r="M137" s="12">
+      <c r="M139" s="12">
         <f t="shared" si="4"/>
         <v>88.333333333333329</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
-      <c r="A138" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B138" s="2" t="s">
+    <row r="140" spans="1:13">
+      <c r="A140" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C138" s="2">
-        <v>50</v>
-      </c>
-      <c r="D138" s="2">
-        <v>500</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G138" s="6">
+      <c r="C140" s="2">
+        <v>50</v>
+      </c>
+      <c r="D140" s="2">
+        <v>500</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G140" s="6">
         <v>81</v>
       </c>
-      <c r="M138" s="12">
+      <c r="M140" s="12">
         <f t="shared" si="4"/>
         <v>81</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
-      <c r="A139" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C139" s="2">
-        <v>50</v>
-      </c>
-      <c r="D139" s="2">
-        <v>500</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J139" s="9">
-        <v>65</v>
-      </c>
-      <c r="M139" s="12">
-        <f t="shared" ref="M139:M170" si="5">AVERAGE(G139:L139)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13">
-      <c r="A140" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C140" s="2">
-        <v>40</v>
-      </c>
-      <c r="D140" s="2">
-        <v>400</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L140" s="11">
-        <v>66</v>
-      </c>
-      <c r="M140" s="12">
-        <f t="shared" si="5"/>
-        <v>66</v>
-      </c>
-    </row>
     <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
-        <v>364</v>
+        <v>167</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>365</v>
+        <v>174</v>
       </c>
       <c r="C141" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D141" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G141" s="6">
-        <v>10</v>
-      </c>
-      <c r="H141" s="7">
-        <v>9</v>
-      </c>
-      <c r="I141" s="8">
-        <v>8</v>
-      </c>
       <c r="J141" s="9">
-        <v>9</v>
-      </c>
-      <c r="K141" s="10">
-        <v>8</v>
-      </c>
-      <c r="L141" s="11">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="M141" s="12">
-        <f t="shared" si="5"/>
-        <v>8.6666666666666661</v>
+        <f t="shared" ref="M141:M172" si="6">AVERAGE(G141:L141)</f>
+        <v>65</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>299</v>
+        <v>238</v>
       </c>
       <c r="C142" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D142" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G142" s="6">
-        <v>99</v>
-      </c>
-      <c r="H142" s="7">
-        <v>97</v>
-      </c>
-      <c r="I142" s="8">
-        <v>80</v>
-      </c>
-      <c r="J142" s="9">
-        <v>50</v>
-      </c>
-      <c r="K142" s="10">
-        <v>100</v>
-      </c>
       <c r="L142" s="11">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="M142" s="12">
-        <f t="shared" si="5"/>
-        <v>84.833333333333329</v>
+        <f t="shared" si="6"/>
+        <v>66</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
-        <v>69</v>
+        <v>364</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>239</v>
+        <v>365</v>
       </c>
       <c r="C143" s="2">
         <v>40</v>
@@ -6282,55 +6176,73 @@
         <v>4</v>
       </c>
       <c r="G143" s="6">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="H143" s="7">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="I143" s="8">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="J143" s="9">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="K143" s="10">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="L143" s="11">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="M143" s="12">
-        <f t="shared" si="5"/>
-        <v>85</v>
+        <f t="shared" si="6"/>
+        <v>8.6666666666666661</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="C144" s="2">
         <v>50</v>
       </c>
       <c r="D144" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M144" s="12" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="G144" s="6">
+        <v>99</v>
+      </c>
+      <c r="H144" s="7">
+        <v>97</v>
+      </c>
+      <c r="I144" s="8">
+        <v>80</v>
+      </c>
+      <c r="J144" s="9">
+        <v>50</v>
+      </c>
+      <c r="K144" s="10">
+        <v>100</v>
+      </c>
+      <c r="L144" s="11">
+        <v>83</v>
+      </c>
+      <c r="M144" s="12">
+        <f t="shared" si="6"/>
+        <v>84.833333333333329</v>
       </c>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="1" t="s">
-        <v>408</v>
+        <v>69</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>409</v>
+        <v>239</v>
       </c>
       <c r="C145" s="2">
         <v>40</v>
@@ -6342,55 +6254,55 @@
         <v>4</v>
       </c>
       <c r="G145" s="6">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="H145" s="7">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="I145" s="8">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="J145" s="9">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="K145" s="10">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="L145" s="11">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="M145" s="12">
-        <f t="shared" si="5"/>
-        <v>31.666666666666668</v>
+        <f t="shared" si="6"/>
+        <v>85</v>
       </c>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="1" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="C146" s="2">
         <v>50</v>
       </c>
       <c r="D146" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M146" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="1" t="s">
-        <v>115</v>
+        <v>408</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>241</v>
+        <v>409</v>
       </c>
       <c r="C147" s="2">
         <v>40</v>
@@ -6401,263 +6313,248 @@
       <c r="E147" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M147" s="12" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="G147" s="6">
+        <v>34</v>
+      </c>
+      <c r="H147" s="7">
+        <v>31</v>
+      </c>
+      <c r="I147" s="8">
+        <v>31</v>
+      </c>
+      <c r="J147" s="9">
+        <v>31</v>
+      </c>
+      <c r="K147" s="10">
+        <v>32</v>
+      </c>
+      <c r="L147" s="11">
+        <v>31</v>
+      </c>
+      <c r="M147" s="12">
+        <f t="shared" si="6"/>
+        <v>31.666666666666668</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C148" s="1">
-        <v>10</v>
-      </c>
-      <c r="D148" s="1">
-        <v>500</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F148" s="1"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-      <c r="L148" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C148" s="2">
+        <v>50</v>
+      </c>
+      <c r="D148" s="2">
+        <v>500</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="M148" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C149" s="1">
-        <v>10</v>
-      </c>
-      <c r="D149" s="1">
-        <v>500</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-      <c r="J149" s="1"/>
-      <c r="L149" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C149" s="2">
+        <v>40</v>
+      </c>
+      <c r="D149" s="2">
+        <v>400</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="M149" s="12" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C150" s="2">
-        <v>40</v>
-      </c>
-      <c r="D150" s="2">
-        <v>400</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G150" s="6">
-        <v>18</v>
-      </c>
-      <c r="H150" s="7">
-        <v>17</v>
-      </c>
-      <c r="I150" s="8">
-        <v>17</v>
-      </c>
-      <c r="J150" s="9">
-        <v>17</v>
-      </c>
-      <c r="K150" s="10">
-        <v>17</v>
-      </c>
-      <c r="L150" s="11">
-        <v>17</v>
-      </c>
-      <c r="M150" s="12">
-        <f t="shared" si="5"/>
-        <v>17.166666666666668</v>
+        <v>165</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C150" s="1">
+        <v>10</v>
+      </c>
+      <c r="D150" s="1">
+        <v>500</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C151" s="2">
-        <v>40</v>
-      </c>
-      <c r="D151" s="2">
-        <v>400</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G151" s="6">
-        <v>87</v>
-      </c>
-      <c r="H151" s="7">
-        <v>85</v>
-      </c>
-      <c r="I151" s="8">
-        <v>67</v>
-      </c>
-      <c r="J151" s="9">
-        <v>66</v>
-      </c>
-      <c r="K151" s="10">
-        <v>87</v>
-      </c>
-      <c r="L151" s="11">
-        <v>70</v>
-      </c>
-      <c r="M151" s="12">
-        <f t="shared" si="5"/>
-        <v>77</v>
+        <v>164</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C151" s="1">
+        <v>10</v>
+      </c>
+      <c r="D151" s="1">
+        <v>500</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="1" t="s">
-        <v>159</v>
+        <v>380</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>283</v>
+        <v>381</v>
       </c>
       <c r="C152" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D152" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G152" s="6">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="H152" s="7">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I152" s="8">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="J152" s="9">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="K152" s="10">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="L152" s="11">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="M152" s="12">
-        <f t="shared" si="5"/>
-        <v>80.666666666666671</v>
+        <f t="shared" si="6"/>
+        <v>17.166666666666668</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="1" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>318</v>
+        <v>160</v>
       </c>
       <c r="C153" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D153" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G153" s="6">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H153" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I153" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J153" s="9">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="K153" s="10">
+        <v>87</v>
       </c>
       <c r="L153" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M153" s="12">
-        <f t="shared" si="5"/>
-        <v>76</v>
+        <f t="shared" si="6"/>
+        <v>77</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="1" t="s">
-        <v>374</v>
+        <v>159</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>375</v>
+        <v>283</v>
       </c>
       <c r="C154" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D154" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G154" s="6">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="H154" s="7">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="I154" s="8">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="J154" s="9">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="K154" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="L154" s="11">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M154" s="12">
-        <f t="shared" si="5"/>
-        <v>13.166666666666666</v>
+        <f t="shared" si="6"/>
+        <v>80.666666666666671</v>
       </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="1" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="C155" s="2">
         <v>50</v>
@@ -6669,34 +6566,31 @@
         <v>4</v>
       </c>
       <c r="G155" s="6">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="H155" s="7">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="I155" s="8">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="J155" s="9">
-        <v>84</v>
-      </c>
-      <c r="K155" s="10">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="L155" s="11">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="M155" s="12">
-        <f t="shared" si="5"/>
-        <v>86.5</v>
+        <f t="shared" si="6"/>
+        <v>76</v>
       </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="1" t="s">
-        <v>113</v>
+        <v>374</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="C156" s="2">
         <v>40</v>
@@ -6707,149 +6601,173 @@
       <c r="E156" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G156" s="6">
+        <v>14</v>
+      </c>
+      <c r="H156" s="7">
+        <v>13</v>
+      </c>
+      <c r="I156" s="8">
+        <v>13</v>
+      </c>
       <c r="J156" s="9">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="K156" s="10">
+        <v>13</v>
+      </c>
+      <c r="L156" s="11">
+        <v>13</v>
       </c>
       <c r="M156" s="12">
-        <f t="shared" si="5"/>
-        <v>55</v>
+        <f t="shared" si="6"/>
+        <v>13.166666666666666</v>
       </c>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>181</v>
+        <v>301</v>
       </c>
       <c r="C157" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D157" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G157" s="6">
+        <v>63</v>
+      </c>
       <c r="H157" s="7">
-        <v>54</v>
+        <v>101</v>
+      </c>
+      <c r="I157" s="8">
+        <v>84</v>
       </c>
       <c r="J157" s="9">
-        <v>56</v>
+        <v>84</v>
+      </c>
+      <c r="K157" s="10">
+        <v>101</v>
+      </c>
+      <c r="L157" s="11">
+        <v>86</v>
       </c>
       <c r="M157" s="12">
-        <f t="shared" si="5"/>
-        <v>55</v>
+        <f t="shared" si="6"/>
+        <v>86.5</v>
       </c>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="1" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>182</v>
+        <v>347</v>
       </c>
       <c r="C158" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D158" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K158" s="10">
-        <v>86</v>
+      <c r="J158" s="9">
+        <v>55</v>
       </c>
       <c r="M158" s="12">
-        <f t="shared" si="5"/>
-        <v>86</v>
+        <f t="shared" si="6"/>
+        <v>55</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>302</v>
+        <v>181</v>
       </c>
       <c r="C159" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D159" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K159" s="10">
-        <v>67</v>
+      <c r="H159" s="7">
+        <v>54</v>
+      </c>
+      <c r="J159" s="9">
+        <v>56</v>
       </c>
       <c r="M159" s="12">
-        <f t="shared" si="5"/>
-        <v>67</v>
+        <f t="shared" si="6"/>
+        <v>55</v>
       </c>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="1" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C160" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D160" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H160" s="7">
-        <v>14</v>
-      </c>
-      <c r="L160" s="11">
-        <v>14</v>
+      <c r="K160" s="10">
+        <v>86</v>
       </c>
       <c r="M160" s="12">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="6"/>
+        <v>86</v>
       </c>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="1" t="s">
-        <v>451</v>
+        <v>140</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>452</v>
+        <v>302</v>
       </c>
       <c r="C161" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D161" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G161" s="6">
-        <v>15</v>
-      </c>
-      <c r="I161" s="8">
-        <v>14</v>
+      <c r="K161" s="10">
+        <v>67</v>
       </c>
       <c r="M161" s="12">
-        <f t="shared" si="5"/>
-        <v>14.5</v>
+        <f t="shared" si="6"/>
+        <v>67</v>
       </c>
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="1" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C162" s="2">
         <v>40</v>
@@ -6860,77 +6778,77 @@
       <c r="E162" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J162" s="9">
+      <c r="H162" s="7">
         <v>14</v>
       </c>
-      <c r="K162" s="10">
+      <c r="L162" s="11">
         <v>14</v>
       </c>
       <c r="M162" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="1" t="s">
-        <v>58</v>
+        <v>451</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>185</v>
+        <v>452</v>
       </c>
       <c r="C163" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D163" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H163" s="7">
-        <v>5</v>
-      </c>
-      <c r="L163" s="11">
-        <v>51</v>
+      <c r="G163" s="6">
+        <v>15</v>
+      </c>
+      <c r="I163" s="8">
+        <v>14</v>
       </c>
       <c r="M163" s="12">
-        <f t="shared" si="5"/>
-        <v>28</v>
+        <f t="shared" si="6"/>
+        <v>14.5</v>
       </c>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="1" t="s">
-        <v>453</v>
+        <v>148</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>454</v>
+        <v>184</v>
       </c>
       <c r="C164" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D164" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G164" s="6">
-        <v>62</v>
-      </c>
-      <c r="I164" s="8">
-        <v>52</v>
+      <c r="J164" s="9">
+        <v>14</v>
+      </c>
+      <c r="K164" s="10">
+        <v>14</v>
       </c>
       <c r="M164" s="12">
-        <f t="shared" si="5"/>
-        <v>57</v>
+        <f t="shared" si="6"/>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="1" t="s">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C165" s="2">
         <v>50</v>
@@ -6941,23 +6859,23 @@
       <c r="E165" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J165" s="9">
-        <v>52</v>
-      </c>
-      <c r="K165" s="10">
-        <v>62</v>
+      <c r="H165" s="7">
+        <v>5</v>
+      </c>
+      <c r="L165" s="11">
+        <v>51</v>
       </c>
       <c r="M165" s="12">
-        <f t="shared" si="5"/>
-        <v>57</v>
+        <f t="shared" si="6"/>
+        <v>28</v>
       </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C166" s="2">
         <v>50</v>
@@ -6968,47 +6886,50 @@
       <c r="E166" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J166" s="9">
-        <v>76</v>
+      <c r="G166" s="6">
+        <v>62</v>
+      </c>
+      <c r="I166" s="8">
+        <v>52</v>
       </c>
       <c r="M166" s="12">
-        <f t="shared" si="5"/>
-        <v>76</v>
+        <f t="shared" si="6"/>
+        <v>57</v>
       </c>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="1" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="C167" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D167" s="2">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G167" s="6">
-        <v>54</v>
-      </c>
-      <c r="H167" s="7">
-        <v>49</v>
+      <c r="J167" s="9">
+        <v>52</v>
+      </c>
+      <c r="K167" s="10">
+        <v>62</v>
       </c>
       <c r="M167" s="12">
-        <f t="shared" si="5"/>
-        <v>51.5</v>
+        <f t="shared" si="6"/>
+        <v>57</v>
       </c>
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="1" t="s">
-        <v>173</v>
+        <v>457</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>187</v>
+        <v>458</v>
       </c>
       <c r="C168" s="2">
         <v>50</v>
@@ -7019,71 +6940,77 @@
       <c r="E168" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K168" s="10">
-        <v>61</v>
-      </c>
-      <c r="L168" s="11">
-        <v>49</v>
+      <c r="J168" s="9">
+        <v>76</v>
       </c>
       <c r="M168" s="12">
-        <f t="shared" si="5"/>
-        <v>55</v>
+        <f t="shared" si="6"/>
+        <v>76</v>
       </c>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C169" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D169" s="2">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M169" s="12" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="G169" s="6">
+        <v>54</v>
+      </c>
+      <c r="H169" s="7">
+        <v>49</v>
+      </c>
+      <c r="M169" s="12">
+        <f t="shared" si="6"/>
+        <v>51.5</v>
       </c>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="1" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="C170" s="2">
         <v>50</v>
       </c>
       <c r="D170" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I170" s="8">
+      <c r="K170" s="10">
         <v>61</v>
       </c>
+      <c r="L170" s="11">
+        <v>49</v>
+      </c>
       <c r="M170" s="12">
-        <f t="shared" si="5"/>
-        <v>61</v>
+        <f t="shared" si="6"/>
+        <v>55</v>
       </c>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="1" t="s">
-        <v>376</v>
+        <v>104</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>377</v>
+        <v>245</v>
       </c>
       <c r="C171" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D171" s="2">
         <v>400</v>
@@ -7091,332 +7018,329 @@
       <c r="E171" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G171" s="6">
-        <v>16</v>
-      </c>
-      <c r="H171" s="7">
-        <v>15</v>
-      </c>
-      <c r="I171" s="8">
-        <v>15</v>
-      </c>
-      <c r="J171" s="9">
-        <v>15</v>
-      </c>
-      <c r="K171" s="10">
-        <v>15</v>
-      </c>
-      <c r="L171" s="11">
-        <v>15</v>
-      </c>
-      <c r="M171" s="12">
-        <f t="shared" ref="M171:M202" si="6">AVERAGE(G171:L171)</f>
-        <v>15.166666666666666</v>
+      <c r="M171" s="12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="1" t="s">
-        <v>378</v>
+        <v>105</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>379</v>
+        <v>246</v>
       </c>
       <c r="C172" s="2">
         <v>50</v>
       </c>
       <c r="D172" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G172" s="6">
-        <v>17</v>
-      </c>
-      <c r="H172" s="7">
-        <v>16</v>
-      </c>
       <c r="I172" s="8">
-        <v>16</v>
-      </c>
-      <c r="J172" s="9">
-        <v>16</v>
-      </c>
-      <c r="K172" s="10">
-        <v>16</v>
-      </c>
-      <c r="L172" s="11">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="M172" s="12">
         <f t="shared" si="6"/>
-        <v>16.166666666666668</v>
+        <v>61</v>
       </c>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="1" t="s">
-        <v>25</v>
+        <v>376</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>247</v>
+        <v>377</v>
       </c>
       <c r="C173" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D173" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G173" s="6">
+        <v>16</v>
+      </c>
+      <c r="H173" s="7">
+        <v>15</v>
+      </c>
+      <c r="I173" s="8">
+        <v>15</v>
+      </c>
+      <c r="J173" s="9">
+        <v>15</v>
+      </c>
       <c r="K173" s="10">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="L173" s="11">
+        <v>15</v>
       </c>
       <c r="M173" s="12">
-        <f t="shared" si="6"/>
-        <v>77</v>
+        <f t="shared" ref="M173:M204" si="7">AVERAGE(G173:L173)</f>
+        <v>15.166666666666666</v>
       </c>
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="1" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="C174" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D174" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G174" s="6">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H174" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I174" s="8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J174" s="9">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K174" s="10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L174" s="11">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M174" s="12">
-        <f t="shared" si="6"/>
-        <v>10.166666666666666</v>
+        <f t="shared" si="7"/>
+        <v>16.166666666666668</v>
       </c>
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="1" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C175" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D175" s="2">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G175" s="6">
-        <v>56</v>
+      <c r="K175" s="10">
+        <v>77</v>
       </c>
       <c r="M175" s="12">
-        <f t="shared" si="6"/>
-        <v>56</v>
+        <f t="shared" si="7"/>
+        <v>77</v>
       </c>
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="1" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="C176" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D176" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G176" s="6">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="H176" s="7">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="I176" s="8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J176" s="9">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="K176" s="10">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="L176" s="11">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="M176" s="12">
-        <f t="shared" si="6"/>
-        <v>101.16666666666667</v>
+        <f t="shared" si="7"/>
+        <v>10.166666666666666</v>
       </c>
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="1" t="s">
-        <v>338</v>
+        <v>76</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>340</v>
+        <v>248</v>
       </c>
       <c r="C177" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D177" s="2">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G177" s="6">
-        <v>112</v>
-      </c>
-      <c r="H177" s="7">
-        <v>83</v>
-      </c>
-      <c r="I177" s="8">
-        <v>96</v>
-      </c>
-      <c r="J177" s="9">
-        <v>95</v>
-      </c>
-      <c r="K177" s="10">
-        <v>108</v>
-      </c>
-      <c r="L177" s="11">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="M177" s="12">
-        <f t="shared" si="6"/>
-        <v>98.666666666666671</v>
+        <f t="shared" si="7"/>
+        <v>56</v>
       </c>
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="1" t="s">
-        <v>48</v>
+        <v>337</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>249</v>
+        <v>339</v>
       </c>
       <c r="C178" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D178" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M178" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="G178" s="6">
+        <v>115</v>
+      </c>
+      <c r="H178" s="7">
+        <v>115</v>
+      </c>
+      <c r="I178" s="8">
+        <v>100</v>
+      </c>
+      <c r="J178" s="9">
+        <v>64</v>
+      </c>
+      <c r="K178" s="10">
+        <v>112</v>
+      </c>
+      <c r="L178" s="11">
+        <v>101</v>
+      </c>
+      <c r="M178" s="12">
+        <f t="shared" si="7"/>
+        <v>101.16666666666667</v>
       </c>
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="1" t="s">
-        <v>50</v>
+        <v>338</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="C179" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D179" s="2">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G179" s="6">
-        <v>70</v>
+        <v>112</v>
+      </c>
+      <c r="H179" s="7">
+        <v>83</v>
+      </c>
+      <c r="I179" s="8">
+        <v>96</v>
+      </c>
+      <c r="J179" s="9">
+        <v>95</v>
+      </c>
+      <c r="K179" s="10">
+        <v>108</v>
+      </c>
+      <c r="L179" s="11">
+        <v>98</v>
       </c>
       <c r="M179" s="12">
-        <f t="shared" si="6"/>
-        <v>70</v>
+        <f t="shared" si="7"/>
+        <v>98.666666666666671</v>
       </c>
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>310</v>
+        <v>249</v>
       </c>
       <c r="C180" s="2">
         <v>40</v>
       </c>
       <c r="D180" s="2">
-        <v>11000</v>
+        <v>400</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G180" s="6">
-        <v>71</v>
-      </c>
-      <c r="M180" s="12">
-        <f t="shared" si="6"/>
-        <v>71</v>
+      <c r="M180" s="12" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C181" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D181" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H181" s="7">
-        <v>61</v>
+      <c r="G181" s="6">
+        <v>70</v>
       </c>
       <c r="M181" s="12">
-        <f t="shared" si="6"/>
-        <v>61</v>
+        <f t="shared" si="7"/>
+        <v>70</v>
       </c>
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="1" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C182" s="2">
         <v>40</v>
@@ -7427,68 +7351,71 @@
       <c r="E182" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J182" s="9">
-        <v>57</v>
-      </c>
-      <c r="L182" s="11">
-        <v>56</v>
+      <c r="G182" s="6">
+        <v>71</v>
       </c>
       <c r="M182" s="12">
-        <f t="shared" si="6"/>
-        <v>56.5</v>
+        <f t="shared" si="7"/>
+        <v>71</v>
       </c>
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="C183" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D183" s="2">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L183" s="11">
-        <v>54</v>
+      <c r="H183" s="7">
+        <v>61</v>
       </c>
       <c r="M183" s="12">
-        <f t="shared" si="6"/>
-        <v>54</v>
+        <f t="shared" si="7"/>
+        <v>61</v>
       </c>
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C184" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D184" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M184" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="J184" s="9">
+        <v>57</v>
+      </c>
+      <c r="L184" s="11">
+        <v>56</v>
+      </c>
+      <c r="M184" s="12">
+        <f t="shared" si="7"/>
+        <v>56.5</v>
       </c>
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C185" s="2">
         <v>40</v>
@@ -7499,50 +7426,41 @@
       <c r="E185" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H185" s="7">
-        <v>60</v>
-      </c>
-      <c r="K185" s="10">
-        <v>68</v>
-      </c>
       <c r="L185" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M185" s="12">
-        <f t="shared" si="6"/>
-        <v>61</v>
+        <f t="shared" si="7"/>
+        <v>54</v>
       </c>
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="C186" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D186" s="2">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H186" s="7">
-        <v>57</v>
-      </c>
-      <c r="M186" s="12">
-        <f t="shared" si="6"/>
-        <v>57</v>
+      <c r="M186" s="12" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C187" s="2">
         <v>40</v>
@@ -7554,19 +7472,25 @@
         <v>4</v>
       </c>
       <c r="H187" s="7">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="K187" s="10">
+        <v>68</v>
+      </c>
+      <c r="L187" s="11">
+        <v>55</v>
       </c>
       <c r="M187" s="12">
-        <f t="shared" si="6"/>
-        <v>59</v>
+        <f t="shared" si="7"/>
+        <v>61</v>
       </c>
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="C188" s="2">
         <v>40</v>
@@ -7578,244 +7502,214 @@
         <v>4</v>
       </c>
       <c r="H188" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M188" s="12">
-        <f t="shared" si="6"/>
-        <v>58</v>
+        <f t="shared" si="7"/>
+        <v>57</v>
       </c>
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="1" t="s">
-        <v>422</v>
+        <v>53</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>423</v>
+        <v>314</v>
       </c>
       <c r="C189" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D189" s="2">
-        <v>400</v>
+        <v>11000</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G189" s="6">
-        <v>39</v>
-      </c>
       <c r="H189" s="7">
-        <v>35</v>
-      </c>
-      <c r="I189" s="8">
-        <v>35</v>
-      </c>
-      <c r="J189" s="9">
-        <v>35</v>
-      </c>
-      <c r="K189" s="10">
-        <v>41</v>
-      </c>
-      <c r="L189" s="11">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="M189" s="12">
-        <f t="shared" si="6"/>
-        <v>37.333333333333336</v>
+        <f t="shared" si="7"/>
+        <v>59</v>
       </c>
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="1" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="C190" s="2">
         <v>40</v>
       </c>
       <c r="D190" s="2">
-        <v>400</v>
+        <v>11000</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G190" s="6">
-        <v>74</v>
+      <c r="H190" s="7">
+        <v>58</v>
       </c>
       <c r="M190" s="12">
-        <f t="shared" si="6"/>
-        <v>74</v>
+        <f t="shared" si="7"/>
+        <v>58</v>
       </c>
     </row>
     <row r="191" spans="1:13">
       <c r="A191" s="1" t="s">
-        <v>17</v>
+        <v>422</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>298</v>
+        <v>423</v>
       </c>
       <c r="C191" s="2">
         <v>50</v>
       </c>
       <c r="D191" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M191" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="G191" s="6">
+        <v>39</v>
+      </c>
+      <c r="H191" s="7">
+        <v>35</v>
+      </c>
+      <c r="I191" s="8">
+        <v>35</v>
+      </c>
+      <c r="J191" s="9">
+        <v>35</v>
+      </c>
+      <c r="K191" s="10">
+        <v>41</v>
+      </c>
+      <c r="L191" s="11">
+        <v>39</v>
+      </c>
+      <c r="M191" s="12">
+        <f t="shared" si="7"/>
+        <v>37.333333333333336</v>
       </c>
     </row>
     <row r="192" spans="1:13">
       <c r="A192" s="1" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="C192" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D192" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G192" s="6">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M192" s="12">
-        <f t="shared" si="6"/>
-        <v>75</v>
+        <f t="shared" si="7"/>
+        <v>74</v>
       </c>
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="C193" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D193" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G193" s="6">
-        <v>90</v>
-      </c>
-      <c r="H193" s="7">
-        <v>88</v>
-      </c>
-      <c r="I193" s="8">
-        <v>69</v>
-      </c>
-      <c r="J193" s="9">
-        <v>69</v>
-      </c>
-      <c r="K193" s="10">
-        <v>89</v>
-      </c>
-      <c r="L193" s="11">
-        <v>73</v>
-      </c>
-      <c r="M193" s="12">
-        <f t="shared" si="6"/>
-        <v>79.666666666666671</v>
+      <c r="M193" s="12" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="1" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="C194" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D194" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G194" s="6">
-        <v>91</v>
-      </c>
-      <c r="H194" s="7">
-        <v>89</v>
-      </c>
-      <c r="I194" s="8">
-        <v>71</v>
-      </c>
-      <c r="J194" s="9">
-        <v>71</v>
-      </c>
-      <c r="K194" s="10">
-        <v>91</v>
-      </c>
-      <c r="L194" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M194" s="12">
-        <f t="shared" si="6"/>
-        <v>81.166666666666671</v>
+        <f t="shared" si="7"/>
+        <v>75</v>
       </c>
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="1" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="C195" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D195" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G195" s="6">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H195" s="7">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I195" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J195" s="9">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K195" s="10">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L195" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M195" s="12">
-        <f t="shared" si="6"/>
-        <v>82.5</v>
+        <f t="shared" si="7"/>
+        <v>79.666666666666671</v>
       </c>
     </row>
     <row r="196" spans="1:13">
       <c r="A196" s="1" t="s">
-        <v>370</v>
+        <v>70</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>371</v>
+        <v>252</v>
       </c>
       <c r="C196" s="2">
         <v>40</v>
@@ -7827,169 +7721,184 @@
         <v>4</v>
       </c>
       <c r="G196" s="6">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="H196" s="7">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="I196" s="8">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="J196" s="9">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="K196" s="10">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="L196" s="11">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="M196" s="12">
-        <f t="shared" si="6"/>
-        <v>11.166666666666666</v>
+        <f t="shared" si="7"/>
+        <v>81.166666666666671</v>
       </c>
     </row>
     <row r="197" spans="1:13">
       <c r="A197" s="1" t="s">
-        <v>441</v>
+        <v>121</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>442</v>
+        <v>304</v>
       </c>
       <c r="C197" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D197" s="2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G197" s="6">
+        <v>93</v>
+      </c>
+      <c r="H197" s="7">
+        <v>91</v>
+      </c>
       <c r="I197" s="8">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J197" s="9">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="K197" s="10">
-        <v>63</v>
+        <v>92</v>
+      </c>
+      <c r="L197" s="11">
+        <v>75</v>
       </c>
       <c r="M197" s="12">
-        <f t="shared" si="6"/>
-        <v>56.333333333333336</v>
+        <f t="shared" si="7"/>
+        <v>82.5</v>
       </c>
     </row>
     <row r="198" spans="1:13">
       <c r="A198" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C198" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D198" s="2">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G198" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H198" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I198" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J198" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K198" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L198" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M198" s="12">
-        <f t="shared" si="6"/>
-        <v>12.166666666666666</v>
+        <f t="shared" si="7"/>
+        <v>11.166666666666666</v>
       </c>
     </row>
     <row r="199" spans="1:13">
       <c r="A199" s="1" t="s">
-        <v>73</v>
+        <v>441</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>253</v>
+        <v>442</v>
       </c>
       <c r="C199" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D199" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H199" s="7">
-        <v>62</v>
+      <c r="I199" s="8">
+        <v>53</v>
+      </c>
+      <c r="J199" s="9">
+        <v>53</v>
+      </c>
+      <c r="K199" s="10">
+        <v>63</v>
       </c>
       <c r="M199" s="12">
-        <f t="shared" si="6"/>
-        <v>62</v>
+        <f t="shared" si="7"/>
+        <v>56.333333333333336</v>
       </c>
     </row>
     <row r="200" spans="1:13">
       <c r="A200" s="1" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="C200" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D200" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G200" s="6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H200" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I200" s="8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J200" s="9">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K200" s="10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L200" s="11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M200" s="12">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="1" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="C201" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D201" s="2">
         <v>400</v>
@@ -7997,20 +7906,23 @@
       <c r="E201" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M201" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="H201" s="7">
+        <v>62</v>
+      </c>
+      <c r="M201" s="12">
+        <f t="shared" si="7"/>
+        <v>62</v>
       </c>
     </row>
     <row r="202" spans="1:13">
       <c r="A202" s="1" t="s">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>222</v>
+        <v>361</v>
       </c>
       <c r="C202" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D202" s="2">
         <v>400</v>
@@ -8018,41 +7930,59 @@
       <c r="E202" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M202" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="G202" s="6">
+        <v>5</v>
+      </c>
+      <c r="H202" s="7">
+        <v>6</v>
+      </c>
+      <c r="I202" s="8">
+        <v>6</v>
+      </c>
+      <c r="J202" s="9">
+        <v>7</v>
+      </c>
+      <c r="K202" s="10">
+        <v>6</v>
+      </c>
+      <c r="L202" s="11">
+        <v>6</v>
+      </c>
+      <c r="M202" s="12">
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
     </row>
     <row r="203" spans="1:13">
       <c r="A203" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C203" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D203" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M203" s="12" t="e">
-        <f t="shared" ref="M203:M234" si="7">AVERAGE(G203:L203)</f>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="204" spans="1:13">
       <c r="A204" s="1" t="s">
-        <v>431</v>
+        <v>24</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>432</v>
+        <v>222</v>
       </c>
       <c r="C204" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D204" s="2">
         <v>400</v>
@@ -8060,56 +7990,38 @@
       <c r="E204" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G204" s="6">
-        <v>49</v>
-      </c>
-      <c r="H204" s="7">
-        <v>44</v>
-      </c>
-      <c r="I204" s="8">
-        <v>44</v>
-      </c>
-      <c r="J204" s="9">
-        <v>45</v>
-      </c>
-      <c r="K204" s="10">
-        <v>55</v>
-      </c>
-      <c r="L204" s="11">
-        <v>44</v>
-      </c>
-      <c r="M204" s="12">
+      <c r="M204" s="12" t="e">
         <f t="shared" si="7"/>
-        <v>46.833333333333336</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="205" spans="1:13">
       <c r="A205" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="C205" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D205" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M205" s="12" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="M205:M236" si="8">AVERAGE(G205:L205)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="206" spans="1:13">
       <c r="A206" s="1" t="s">
-        <v>38</v>
+        <v>431</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>255</v>
+        <v>432</v>
       </c>
       <c r="C206" s="2">
         <v>40</v>
@@ -8120,23 +8032,38 @@
       <c r="E206" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G206" s="6">
+        <v>49</v>
+      </c>
+      <c r="H206" s="7">
+        <v>44</v>
+      </c>
+      <c r="I206" s="8">
+        <v>44</v>
+      </c>
+      <c r="J206" s="9">
+        <v>45</v>
+      </c>
+      <c r="K206" s="10">
+        <v>55</v>
+      </c>
       <c r="L206" s="11">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="M206" s="12">
-        <f t="shared" si="7"/>
-        <v>63</v>
+        <f t="shared" si="8"/>
+        <v>46.833333333333336</v>
       </c>
     </row>
     <row r="207" spans="1:13">
       <c r="A207" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C207" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D207" s="2">
         <v>400</v>
@@ -8144,140 +8071,131 @@
       <c r="E207" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G207" s="6">
-        <v>82</v>
-      </c>
-      <c r="L207" s="11">
-        <v>64</v>
-      </c>
-      <c r="M207" s="12">
-        <f t="shared" si="7"/>
-        <v>73</v>
+      <c r="M207" s="12" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="208" spans="1:13">
       <c r="A208" s="1" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="C208" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D208" s="2">
-        <v>14000</v>
+        <v>400</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G208" s="6">
-        <v>32</v>
+      <c r="L208" s="11">
+        <v>63</v>
       </c>
       <c r="M208" s="12">
-        <f t="shared" si="7"/>
-        <v>32</v>
+        <f t="shared" si="8"/>
+        <v>63</v>
       </c>
     </row>
     <row r="209" spans="1:13">
       <c r="A209" s="1" t="s">
-        <v>406</v>
+        <v>39</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>407</v>
+        <v>256</v>
       </c>
       <c r="C209" s="2">
         <v>40</v>
       </c>
       <c r="D209" s="2">
-        <v>11000</v>
+        <v>400</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G209" s="6">
-        <v>30</v>
-      </c>
-      <c r="H209" s="7">
-        <v>30</v>
-      </c>
-      <c r="I209" s="8">
-        <v>30</v>
-      </c>
-      <c r="J209" s="9">
-        <v>30</v>
-      </c>
-      <c r="K209" s="10">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="L209" s="11">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="M209" s="12">
-        <f t="shared" si="7"/>
-        <v>30.166666666666668</v>
+        <f t="shared" si="8"/>
+        <v>73</v>
       </c>
     </row>
     <row r="210" spans="1:13">
       <c r="A210" s="1" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>225</v>
+        <v>284</v>
       </c>
       <c r="C210" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D210" s="2">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G210" s="6">
-        <v>79</v>
-      </c>
-      <c r="H210" s="7">
-        <v>71</v>
-      </c>
-      <c r="J210" s="9">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="M210" s="12">
-        <f t="shared" si="7"/>
-        <v>70</v>
+        <f t="shared" si="8"/>
+        <v>32</v>
       </c>
     </row>
     <row r="211" spans="1:13">
       <c r="A211" s="1" t="s">
-        <v>128</v>
+        <v>406</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>285</v>
+        <v>407</v>
       </c>
       <c r="C211" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D211" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G211" s="6">
+        <v>30</v>
+      </c>
+      <c r="H211" s="7">
+        <v>30</v>
+      </c>
+      <c r="I211" s="8">
+        <v>30</v>
+      </c>
       <c r="J211" s="9">
-        <v>61</v>
+        <v>30</v>
+      </c>
+      <c r="K211" s="10">
+        <v>31</v>
+      </c>
+      <c r="L211" s="11">
+        <v>30</v>
       </c>
       <c r="M211" s="12">
-        <f t="shared" si="7"/>
-        <v>61</v>
+        <f t="shared" si="8"/>
+        <v>30.166666666666668</v>
       </c>
     </row>
     <row r="212" spans="1:13">
       <c r="A212" s="1" t="s">
-        <v>404</v>
+        <v>99</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>405</v>
+        <v>225</v>
       </c>
       <c r="C212" s="2">
         <v>40</v>
@@ -8289,34 +8207,25 @@
         <v>4</v>
       </c>
       <c r="G212" s="6">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="H212" s="7">
-        <v>29</v>
-      </c>
-      <c r="I212" s="8">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="J212" s="9">
-        <v>29</v>
-      </c>
-      <c r="K212" s="10">
-        <v>30</v>
-      </c>
-      <c r="L212" s="11">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="M212" s="12">
-        <f t="shared" si="7"/>
-        <v>29</v>
+        <f t="shared" si="8"/>
+        <v>70</v>
       </c>
     </row>
     <row r="213" spans="1:13">
       <c r="A213" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C213" s="2">
         <v>50</v>
@@ -8327,20 +8236,20 @@
       <c r="E213" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G213" s="6">
-        <v>31</v>
+      <c r="J213" s="9">
+        <v>61</v>
       </c>
       <c r="M213" s="12">
-        <f t="shared" si="7"/>
-        <v>31</v>
+        <f t="shared" si="8"/>
+        <v>61</v>
       </c>
     </row>
     <row r="214" spans="1:13">
       <c r="A214" s="1" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C214" s="2">
         <v>40</v>
@@ -8352,85 +8261,97 @@
         <v>4</v>
       </c>
       <c r="G214" s="6">
+        <v>28</v>
+      </c>
+      <c r="H214" s="7">
         <v>29</v>
       </c>
-      <c r="H214" s="7">
-        <v>27</v>
-      </c>
       <c r="I214" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J214" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K214" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L214" s="11">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M214" s="12">
-        <f t="shared" si="7"/>
-        <v>27.166666666666668</v>
+        <f t="shared" si="8"/>
+        <v>29</v>
       </c>
     </row>
     <row r="215" spans="1:13">
       <c r="A215" s="1" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>226</v>
+        <v>286</v>
       </c>
       <c r="C215" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D215" s="2">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G215" s="6">
-        <v>76</v>
-      </c>
-      <c r="H215" s="7">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="M215" s="12">
-        <f t="shared" si="7"/>
-        <v>72</v>
+        <f t="shared" si="8"/>
+        <v>31</v>
       </c>
     </row>
     <row r="216" spans="1:13">
       <c r="A216" s="1" t="s">
-        <v>125</v>
+        <v>398</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>287</v>
+        <v>399</v>
       </c>
       <c r="C216" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D216" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G216" s="6">
-        <v>77</v>
+        <v>29</v>
+      </c>
+      <c r="H216" s="7">
+        <v>27</v>
+      </c>
+      <c r="I216" s="8">
+        <v>27</v>
+      </c>
+      <c r="J216" s="9">
+        <v>27</v>
+      </c>
+      <c r="K216" s="10">
+        <v>27</v>
+      </c>
+      <c r="L216" s="11">
+        <v>26</v>
       </c>
       <c r="M216" s="12">
-        <f t="shared" si="7"/>
-        <v>77</v>
+        <f t="shared" si="8"/>
+        <v>27.166666666666668</v>
       </c>
     </row>
     <row r="217" spans="1:13">
       <c r="A217" s="1" t="s">
-        <v>396</v>
+        <v>98</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>397</v>
+        <v>226</v>
       </c>
       <c r="C217" s="2">
         <v>40</v>
@@ -8442,34 +8363,22 @@
         <v>4</v>
       </c>
       <c r="G217" s="6">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="H217" s="7">
-        <v>25</v>
-      </c>
-      <c r="I217" s="8">
-        <v>25</v>
-      </c>
-      <c r="J217" s="9">
-        <v>25</v>
-      </c>
-      <c r="K217" s="10">
-        <v>26</v>
-      </c>
-      <c r="L217" s="11">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="M217" s="12">
-        <f t="shared" si="7"/>
-        <v>25.333333333333332</v>
+        <f t="shared" si="8"/>
+        <v>72</v>
       </c>
     </row>
     <row r="218" spans="1:13">
       <c r="A218" s="1" t="s">
-        <v>400</v>
+        <v>125</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>401</v>
+        <v>287</v>
       </c>
       <c r="C218" s="2">
         <v>50</v>
@@ -8481,34 +8390,19 @@
         <v>4</v>
       </c>
       <c r="G218" s="6">
-        <v>27</v>
-      </c>
-      <c r="H218" s="7">
-        <v>26</v>
-      </c>
-      <c r="I218" s="8">
-        <v>26</v>
-      </c>
-      <c r="J218" s="9">
-        <v>26</v>
-      </c>
-      <c r="K218" s="10">
-        <v>28</v>
-      </c>
-      <c r="L218" s="11">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="M218" s="12">
-        <f t="shared" si="7"/>
-        <v>26.666666666666668</v>
+        <f t="shared" si="8"/>
+        <v>77</v>
       </c>
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C219" s="2">
         <v>40</v>
@@ -8520,34 +8414,34 @@
         <v>4</v>
       </c>
       <c r="G219" s="6">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H219" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I219" s="8">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J219" s="9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K219" s="10">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L219" s="11">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M219" s="12">
-        <f t="shared" si="7"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" s="1" customFormat="1">
+        <f t="shared" si="8"/>
+        <v>25.333333333333332</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13">
       <c r="A220" s="1" t="s">
-        <v>26</v>
+        <v>400</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>288</v>
+        <v>401</v>
       </c>
       <c r="C220" s="2">
         <v>50</v>
@@ -8558,28 +8452,35 @@
       <c r="E220" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F220" s="2"/>
       <c r="G220" s="6">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="H220" s="7">
-        <v>70</v>
-      </c>
-      <c r="I220" s="8"/>
-      <c r="J220" s="9"/>
-      <c r="K220" s="10"/>
-      <c r="L220" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="I220" s="8">
+        <v>26</v>
+      </c>
+      <c r="J220" s="9">
+        <v>26</v>
+      </c>
+      <c r="K220" s="10">
+        <v>28</v>
+      </c>
+      <c r="L220" s="11">
+        <v>27</v>
+      </c>
       <c r="M220" s="12">
-        <f t="shared" si="7"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" s="1" customFormat="1">
+        <f t="shared" si="8"/>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13">
       <c r="A221" s="1" t="s">
-        <v>330</v>
+        <v>402</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>334</v>
+        <v>403</v>
       </c>
       <c r="C221" s="2">
         <v>40</v>
@@ -8590,50 +8491,67 @@
       <c r="E221" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F221" s="2"/>
-      <c r="G221" s="6"/>
+      <c r="G221" s="6">
+        <v>33</v>
+      </c>
       <c r="H221" s="7">
-        <v>79</v>
-      </c>
-      <c r="I221" s="8"/>
-      <c r="J221" s="9"/>
-      <c r="K221" s="10"/>
-      <c r="L221" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="I221" s="8">
+        <v>28</v>
+      </c>
+      <c r="J221" s="9">
+        <v>28</v>
+      </c>
+      <c r="K221" s="10">
+        <v>29</v>
+      </c>
+      <c r="L221" s="11">
+        <v>28</v>
+      </c>
       <c r="M221" s="12">
-        <f t="shared" si="7"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" s="1" customFormat="1">
       <c r="A222" s="1" t="s">
-        <v>329</v>
+        <v>26</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="C222" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D222" s="2">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F222" s="2"/>
+      <c r="G222" s="6">
+        <v>78</v>
+      </c>
       <c r="H222" s="7">
-        <v>80</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I222" s="8"/>
+      <c r="J222" s="9"/>
+      <c r="K222" s="10"/>
+      <c r="L222" s="11"/>
       <c r="M222" s="12">
-        <f t="shared" si="7"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13">
+        <f t="shared" si="8"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" s="1" customFormat="1">
       <c r="A223" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C223" s="2">
         <v>40</v>
@@ -8644,95 +8562,98 @@
       <c r="E223" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F223" s="2"/>
+      <c r="G223" s="6"/>
       <c r="H223" s="7">
-        <v>78</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="I223" s="8"/>
+      <c r="J223" s="9"/>
+      <c r="K223" s="10"/>
+      <c r="L223" s="11"/>
       <c r="M223" s="12">
-        <f t="shared" si="7"/>
-        <v>78</v>
+        <f t="shared" si="8"/>
+        <v>79</v>
       </c>
     </row>
     <row r="224" spans="1:13">
       <c r="A224" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C224" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D224" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H224" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M224" s="12">
-        <f t="shared" si="7"/>
-        <v>81</v>
+        <f t="shared" si="8"/>
+        <v>80</v>
       </c>
     </row>
     <row r="225" spans="1:13">
       <c r="A225" s="1" t="s">
-        <v>163</v>
+        <v>331</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>188</v>
+        <v>335</v>
       </c>
       <c r="C225" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D225" s="2">
-        <v>500</v>
+        <v>11000</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K225" s="10">
-        <v>60</v>
+      <c r="H225" s="7">
+        <v>78</v>
       </c>
       <c r="M225" s="12">
-        <f t="shared" si="7"/>
-        <v>60</v>
+        <f t="shared" si="8"/>
+        <v>78</v>
       </c>
     </row>
     <row r="226" spans="1:13">
       <c r="A226" s="1" t="s">
-        <v>74</v>
+        <v>332</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>257</v>
+        <v>336</v>
       </c>
       <c r="C226" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D226" s="2">
-        <v>400</v>
+        <v>14000</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J226" s="9">
-        <v>58</v>
-      </c>
-      <c r="L226" s="11">
-        <v>60</v>
+      <c r="H226" s="7">
+        <v>81</v>
       </c>
       <c r="M226" s="12">
-        <f t="shared" si="7"/>
-        <v>59</v>
+        <f t="shared" si="8"/>
+        <v>81</v>
       </c>
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="1" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>305</v>
+        <v>188</v>
       </c>
       <c r="C227" s="2">
         <v>50</v>
@@ -8743,146 +8664,134 @@
       <c r="E227" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J227" s="9">
-        <v>59</v>
+      <c r="K227" s="10">
+        <v>60</v>
       </c>
       <c r="M227" s="12">
-        <f t="shared" si="7"/>
-        <v>59</v>
+        <f t="shared" si="8"/>
+        <v>60</v>
       </c>
     </row>
     <row r="228" spans="1:13">
       <c r="A228" s="1" t="s">
-        <v>437</v>
+        <v>74</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>438</v>
+        <v>257</v>
       </c>
       <c r="C228" s="2">
         <v>40</v>
       </c>
       <c r="D228" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G228" s="6">
-        <v>53</v>
-      </c>
-      <c r="H228" s="7">
-        <v>48</v>
-      </c>
-      <c r="I228" s="8">
-        <v>48</v>
-      </c>
       <c r="J228" s="9">
-        <v>48</v>
-      </c>
-      <c r="K228" s="10">
         <v>58</v>
       </c>
       <c r="L228" s="11">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M228" s="12">
-        <f t="shared" si="7"/>
-        <v>50.5</v>
+        <f t="shared" si="8"/>
+        <v>59</v>
       </c>
     </row>
     <row r="229" spans="1:13">
       <c r="A229" s="1" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="C229" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D229" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G229" s="6">
+      <c r="J229" s="9">
         <v>59</v>
       </c>
       <c r="M229" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
     </row>
     <row r="230" spans="1:13">
       <c r="A230" s="1" t="s">
-        <v>143</v>
+        <v>437</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>306</v>
+        <v>438</v>
       </c>
       <c r="C230" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D230" s="2">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G230" s="6">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="H230" s="7">
+        <v>48</v>
+      </c>
+      <c r="I230" s="8">
+        <v>48</v>
+      </c>
+      <c r="J230" s="9">
+        <v>48</v>
+      </c>
+      <c r="K230" s="10">
+        <v>58</v>
+      </c>
+      <c r="L230" s="11">
+        <v>48</v>
       </c>
       <c r="M230" s="12">
-        <f t="shared" si="7"/>
-        <v>60</v>
+        <f t="shared" si="8"/>
+        <v>50.5</v>
       </c>
     </row>
     <row r="231" spans="1:13">
       <c r="A231" s="1" t="s">
-        <v>362</v>
+        <v>106</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>363</v>
+        <v>258</v>
       </c>
       <c r="C231" s="2">
         <v>40</v>
       </c>
       <c r="D231" s="2">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G231" s="6">
-        <v>9</v>
-      </c>
-      <c r="H231" s="7">
-        <v>8</v>
-      </c>
-      <c r="I231" s="8">
-        <v>7</v>
-      </c>
-      <c r="J231" s="9">
-        <v>8</v>
-      </c>
-      <c r="K231" s="10">
-        <v>7</v>
-      </c>
-      <c r="L231" s="11">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="M231" s="12">
-        <f t="shared" si="7"/>
-        <v>7.666666666666667</v>
+        <f t="shared" si="8"/>
+        <v>59</v>
       </c>
     </row>
     <row r="232" spans="1:13">
       <c r="A232" s="1" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C232" s="2">
         <v>50</v>
@@ -8894,160 +8803,175 @@
         <v>4</v>
       </c>
       <c r="G232" s="6">
-        <v>61</v>
-      </c>
-      <c r="H232" s="7">
-        <v>93</v>
-      </c>
-      <c r="I232" s="8">
-        <v>75</v>
-      </c>
-      <c r="J232" s="9">
-        <v>75</v>
-      </c>
-      <c r="K232" s="10">
-        <v>95</v>
-      </c>
-      <c r="L232" s="11">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="M232" s="12">
-        <f t="shared" si="7"/>
-        <v>79.5</v>
+        <f t="shared" si="8"/>
+        <v>60</v>
       </c>
     </row>
     <row r="233" spans="1:13">
       <c r="A233" s="1" t="s">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="C233" s="2">
         <v>40</v>
       </c>
       <c r="D233" s="2">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G233" s="6">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="H233" s="7">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="I233" s="8">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="J233" s="9">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="K233" s="10">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="L233" s="11">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="M233" s="12">
-        <f t="shared" si="7"/>
-        <v>78.333333333333329</v>
+        <f t="shared" si="8"/>
+        <v>7.666666666666667</v>
       </c>
     </row>
     <row r="234" spans="1:13">
       <c r="A234" s="1" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="C234" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D234" s="2">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G234" s="6">
+        <v>61</v>
+      </c>
+      <c r="H234" s="7">
+        <v>93</v>
+      </c>
+      <c r="I234" s="8">
+        <v>75</v>
+      </c>
+      <c r="J234" s="9">
+        <v>75</v>
+      </c>
+      <c r="K234" s="10">
         <v>95</v>
       </c>
-      <c r="H234" s="7">
-        <v>73</v>
-      </c>
-      <c r="I234" s="8">
-        <v>76</v>
-      </c>
-      <c r="J234" s="9">
+      <c r="L234" s="11">
         <v>78</v>
       </c>
-      <c r="K234" s="10">
-        <v>81</v>
-      </c>
-      <c r="L234" s="11">
-        <v>80</v>
-      </c>
       <c r="M234" s="12">
-        <f t="shared" si="7"/>
-        <v>80.5</v>
+        <f t="shared" si="8"/>
+        <v>79.5</v>
       </c>
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>259</v>
+        <v>342</v>
       </c>
       <c r="C235" s="2">
         <v>40</v>
       </c>
       <c r="D235" s="2">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G235" s="6">
+        <v>94</v>
+      </c>
       <c r="H235" s="7">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="I235" s="8">
+        <v>59</v>
+      </c>
+      <c r="J235" s="9">
+        <v>77</v>
+      </c>
+      <c r="K235" s="10">
+        <v>96</v>
+      </c>
+      <c r="L235" s="11">
+        <v>79</v>
       </c>
       <c r="M235" s="12">
-        <f t="shared" ref="M235:M244" si="8">AVERAGE(G235:L235)</f>
-        <v>66</v>
+        <f t="shared" si="8"/>
+        <v>78.333333333333329</v>
       </c>
     </row>
     <row r="236" spans="1:13">
       <c r="A236" s="1" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="C236" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D236" s="2">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G236" s="6">
+        <v>95</v>
+      </c>
       <c r="H236" s="7">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="I236" s="8">
+        <v>76</v>
+      </c>
+      <c r="J236" s="9">
+        <v>78</v>
+      </c>
+      <c r="K236" s="10">
+        <v>81</v>
+      </c>
+      <c r="L236" s="11">
+        <v>80</v>
       </c>
       <c r="M236" s="12">
         <f t="shared" si="8"/>
-        <v>67</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="237" spans="1:13">
       <c r="A237" s="1" t="s">
-        <v>388</v>
+        <v>72</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>389</v>
+        <v>259</v>
       </c>
       <c r="C237" s="2">
         <v>40</v>
@@ -9058,35 +8982,20 @@
       <c r="E237" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G237" s="6">
-        <v>22</v>
-      </c>
       <c r="H237" s="7">
-        <v>21</v>
-      </c>
-      <c r="I237" s="8">
-        <v>21</v>
-      </c>
-      <c r="J237" s="9">
-        <v>21</v>
-      </c>
-      <c r="K237" s="10">
-        <v>21</v>
-      </c>
-      <c r="L237" s="11">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="M237" s="12">
-        <f t="shared" si="8"/>
-        <v>21.166666666666668</v>
+        <f t="shared" ref="M237:M249" si="9">AVERAGE(G237:L237)</f>
+        <v>66</v>
       </c>
     </row>
     <row r="238" spans="1:13">
       <c r="A238" s="1" t="s">
-        <v>455</v>
+        <v>122</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>456</v>
+        <v>308</v>
       </c>
       <c r="C238" s="2">
         <v>50</v>
@@ -9097,23 +9006,23 @@
       <c r="E238" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K238" s="10">
-        <v>22</v>
+      <c r="H238" s="7">
+        <v>67</v>
       </c>
       <c r="M238" s="12">
-        <f t="shared" si="8"/>
-        <v>22</v>
+        <f t="shared" si="9"/>
+        <v>67</v>
       </c>
     </row>
     <row r="239" spans="1:13">
       <c r="A239" s="1" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="C239" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D239" s="2">
         <v>400</v>
@@ -9122,76 +9031,61 @@
         <v>4</v>
       </c>
       <c r="G239" s="6">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="H239" s="7">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I239" s="8">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J239" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="K239" s="10">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="L239" s="11">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M239" s="12">
-        <f t="shared" si="8"/>
-        <v>41</v>
+        <f t="shared" si="9"/>
+        <v>21.166666666666668</v>
       </c>
     </row>
     <row r="240" spans="1:13">
       <c r="A240" s="1" t="s">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="C240" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D240" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G240" s="6">
-        <v>45</v>
-      </c>
-      <c r="H240" s="7">
-        <v>41</v>
-      </c>
-      <c r="I240" s="8">
-        <v>41</v>
-      </c>
-      <c r="J240" s="9">
-        <v>41</v>
-      </c>
       <c r="K240" s="10">
-        <v>43</v>
-      </c>
-      <c r="L240" s="11">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M240" s="12">
-        <f t="shared" si="8"/>
-        <v>42</v>
+        <f t="shared" si="9"/>
+        <v>22</v>
       </c>
     </row>
     <row r="241" spans="1:13">
       <c r="A241" s="1" t="s">
-        <v>47</v>
+        <v>424</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>260</v>
+        <v>425</v>
       </c>
       <c r="C241" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D241" s="2">
         <v>400</v>
@@ -9199,47 +9093,74 @@
       <c r="E241" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G241" s="6">
+        <v>44</v>
+      </c>
       <c r="H241" s="7">
-        <v>77</v>
+        <v>40</v>
+      </c>
+      <c r="I241" s="8">
+        <v>40</v>
+      </c>
+      <c r="J241" s="9">
+        <v>40</v>
       </c>
       <c r="K241" s="10">
-        <v>83</v>
+        <v>42</v>
+      </c>
+      <c r="L241" s="11">
+        <v>40</v>
       </c>
       <c r="M241" s="12">
-        <f t="shared" si="8"/>
-        <v>80</v>
+        <f t="shared" si="9"/>
+        <v>41</v>
       </c>
     </row>
     <row r="242" spans="1:13">
       <c r="A242" s="1" t="s">
-        <v>156</v>
+        <v>426</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>189</v>
+        <v>427</v>
       </c>
       <c r="C242" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D242" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G242" s="6">
-        <v>83</v>
+        <v>45</v>
+      </c>
+      <c r="H242" s="7">
+        <v>41</v>
+      </c>
+      <c r="I242" s="8">
+        <v>41</v>
+      </c>
+      <c r="J242" s="9">
+        <v>41</v>
+      </c>
+      <c r="K242" s="10">
+        <v>43</v>
+      </c>
+      <c r="L242" s="11">
+        <v>41</v>
       </c>
       <c r="M242" s="12">
-        <f t="shared" si="8"/>
-        <v>83</v>
+        <f t="shared" si="9"/>
+        <v>42</v>
       </c>
     </row>
     <row r="243" spans="1:13">
       <c r="A243" s="1" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C243" s="2">
         <v>40</v>
@@ -9250,188 +9171,260 @@
       <c r="E243" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M243" s="12" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+      <c r="H243" s="7">
+        <v>77</v>
+      </c>
+      <c r="K243" s="10">
+        <v>83</v>
+      </c>
+      <c r="M243" s="12">
+        <f t="shared" si="9"/>
+        <v>80</v>
       </c>
     </row>
     <row r="244" spans="1:13">
       <c r="A244" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C244" s="2">
+        <v>50</v>
+      </c>
+      <c r="D244" s="2">
+        <v>500</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G244" s="6">
+        <v>83</v>
+      </c>
+      <c r="M244" s="12">
+        <f t="shared" si="9"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13">
+      <c r="A245" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C245" s="2">
+        <v>40</v>
+      </c>
+      <c r="D245" s="2">
+        <v>400</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M245" s="12" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13">
+      <c r="A246" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B246" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C244" s="2">
-        <v>50</v>
-      </c>
-      <c r="D244" s="2">
-        <v>500</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M244" s="12" t="e">
-        <f t="shared" si="8"/>
+      <c r="C246" s="2">
+        <v>50</v>
+      </c>
+      <c r="D246" s="2">
+        <v>500</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M246" s="12" t="e">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13">
+      <c r="A247" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C247" s="2">
+        <v>50</v>
+      </c>
+      <c r="D247" s="2">
+        <v>500</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G247" s="6">
+        <v>119</v>
+      </c>
+      <c r="H247" s="7">
+        <v>118</v>
+      </c>
+      <c r="I247" s="8">
+        <v>103</v>
+      </c>
+      <c r="K247" s="10">
+        <v>116</v>
+      </c>
+      <c r="M247" s="12">
+        <f t="shared" si="9"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13">
+      <c r="A248" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C248" s="2">
+        <v>50</v>
+      </c>
+      <c r="D248" s="2">
+        <v>500</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G248" s="6">
+        <v>118</v>
+      </c>
+      <c r="H248" s="7">
+        <v>117</v>
+      </c>
+      <c r="I248" s="8">
+        <v>102</v>
+      </c>
+      <c r="J248" s="9">
+        <v>100</v>
+      </c>
+      <c r="K248" s="10">
+        <v>115</v>
+      </c>
+      <c r="L248" s="11">
+        <v>104</v>
+      </c>
+      <c r="M248" s="12">
+        <f t="shared" si="9"/>
+        <v>109.33333333333333</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13">
+      <c r="A249" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C249" s="2">
+        <v>40</v>
+      </c>
+      <c r="D249" s="2">
+        <v>400</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G249" s="6">
+        <v>117</v>
+      </c>
+      <c r="H249" s="7">
+        <v>116</v>
+      </c>
+      <c r="I249" s="8">
+        <v>101</v>
+      </c>
+      <c r="J249" s="9">
+        <v>99</v>
+      </c>
+      <c r="K249" s="10">
+        <v>114</v>
+      </c>
+      <c r="L249" s="11">
+        <v>103</v>
+      </c>
+      <c r="M249" s="12">
+        <f t="shared" si="9"/>
+        <v>108.33333333333333</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{E6A05FEB-E022-483C-B74F-E4F502393947}">
-    <sortState ref="A2:M244">
+    <sortState ref="A2:M246">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:M235">
-    <sortCondition ref="B2:B235"/>
+  <sortState ref="A2:M237">
+    <sortCondition ref="B2:B237"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G2 G7:G106 G150:G221 G223:G236 G238:G1048576 G108:G148">
-    <cfRule type="cellIs" dxfId="29" priority="47" operator="notEqual">
+  <conditionalFormatting sqref="G1:G106 G109:G1002">
+    <cfRule type="cellIs" dxfId="11" priority="53" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I2 H7:I106 H150:I221 H223:I236 I237 H238:I1048576 H108:I148">
-    <cfRule type="cellIs" dxfId="28" priority="46" operator="notEqual">
+  <conditionalFormatting sqref="H1:I106 H109:I1002">
+    <cfRule type="cellIs" dxfId="10" priority="52" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J2 J7:J106 J150:J221 J223:J1048576 J108:J148">
-    <cfRule type="cellIs" dxfId="27" priority="45" operator="notEqual">
+  <conditionalFormatting sqref="J1:J106 J109:J1002">
+    <cfRule type="cellIs" dxfId="9" priority="51" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I2 I7:I106 I150:I221 I223:I1048576 I108:I148">
-    <cfRule type="cellIs" dxfId="26" priority="44" operator="notEqual">
+  <conditionalFormatting sqref="I1:I106 I109:I1002">
+    <cfRule type="cellIs" dxfId="8" priority="50" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K2 K7:K106 K150:K221 K223:K1048576 K108:K148">
-    <cfRule type="cellIs" dxfId="25" priority="43" operator="notEqual">
+  <conditionalFormatting sqref="K1:K106 K109:K1002">
+    <cfRule type="cellIs" dxfId="7" priority="49" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L2 L7:L106 L150:L221 L223:L1048576 L108:L148">
-    <cfRule type="cellIs" dxfId="24" priority="42" operator="notEqual">
+  <conditionalFormatting sqref="L1:L106 L109:L1002">
+    <cfRule type="cellIs" dxfId="6" priority="48" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G222">
-    <cfRule type="cellIs" dxfId="23" priority="41" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H222:I222">
-    <cfRule type="cellIs" dxfId="22" priority="40" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J222">
-    <cfRule type="cellIs" dxfId="21" priority="39" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I222">
-    <cfRule type="cellIs" dxfId="20" priority="38" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K222">
-    <cfRule type="cellIs" dxfId="19" priority="37" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L222">
-    <cfRule type="cellIs" dxfId="18" priority="36" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L6">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G6">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:I6">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J6">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I6">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K6">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G149">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H149:I149">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J149">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I149">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K149">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L149">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G107">
+  <conditionalFormatting sqref="G107:G108">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H107:I107">
+  <conditionalFormatting sqref="H107:I108">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J107">
+  <conditionalFormatting sqref="J107:J108">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I107">
+  <conditionalFormatting sqref="I107:I108">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K107">
+  <conditionalFormatting sqref="K107:K108">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L107">
+  <conditionalFormatting sqref="L107:L108">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
@@ -9443,10 +9436,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="A21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9692,10 +9685,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C15">
         <v>40</v>
@@ -9709,10 +9702,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C16">
         <v>40</v>
@@ -9724,18 +9717,106 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>480</v>
+      </c>
+      <c r="B17" t="s">
         <v>481</v>
-      </c>
-      <c r="B17" t="s">
-        <v>482</v>
       </c>
       <c r="C17">
         <v>50</v>
       </c>
       <c r="D17">
         <v>14000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>482</v>
+      </c>
+      <c r="B18" t="s">
+        <v>486</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>500</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>483</v>
+      </c>
+      <c r="B19" t="s">
+        <v>487</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>500</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>484</v>
+      </c>
+      <c r="B20" t="s">
+        <v>485</v>
+      </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>400</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>489</v>
+      </c>
+      <c r="B21" t="s">
+        <v>491</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>14000</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>490</v>
+      </c>
+      <c r="B22" t="s">
+        <v>492</v>
+      </c>
+      <c r="C22">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>11000</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Ex quest.xlsx
+++ b/Ex quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="273" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A100E0DD-3743-438A-9A10-C12BF8A44554}"/>
+  <xr:revisionPtr revIDLastSave="296" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C5C4CEE9-AE47-46ED-8CBD-994F8F79E329}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2077,7 +2077,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M108" sqref="M108"/>
+      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2113,27 +2113,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1008)</f>
-        <v>火 121</v>
+        <v>火 124</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1008)</f>
-        <v>水 120</v>
+        <v>水 122</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1008)</f>
-        <v>風 104</v>
+        <v>風 107</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1008)</f>
-        <v>雷 101</v>
+        <v>雷 105</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1008)</f>
-        <v>光 117</v>
+        <v>光 120</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1008)</f>
-        <v>暗 105</v>
+        <v>暗 108</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>346</v>
@@ -2173,7 +2173,7 @@
         <v>102</v>
       </c>
       <c r="M2" s="12">
-        <f t="shared" ref="M2:M27" si="0">IF(ISNUMBER(AVERAGE(G2:L2)),AVERAGE(G2:L2),"")</f>
+        <f>IF(ISNUMBER(AVERAGE(G2:L2)),AVERAGE(G2:L2),"")</f>
         <v>103.8</v>
       </c>
     </row>
@@ -2213,7 +2213,7 @@
         <v>99</v>
       </c>
       <c r="M3" s="12">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G3:L3)),AVERAGE(G3:L3),"")</f>
         <v>104.33333333333333</v>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
         <v>54</v>
       </c>
       <c r="M4" s="12">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G4:L4)),AVERAGE(G4:L4),"")</f>
         <v>54</v>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
         <v>55</v>
       </c>
       <c r="M5" s="12">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G5:L5)),AVERAGE(G5:L5),"")</f>
         <v>55</v>
       </c>
     </row>
@@ -2300,7 +2300,7 @@
         <v>33</v>
       </c>
       <c r="M6" s="12">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G6:L6)),AVERAGE(G6:L6),"")</f>
         <v>34</v>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
         <v>4</v>
       </c>
       <c r="M7" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G7:L7)),AVERAGE(G7:L7),"")</f>
         <v/>
       </c>
     </row>
@@ -2342,7 +2342,7 @@
         <v>4</v>
       </c>
       <c r="M8" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G8:L8)),AVERAGE(G8:L8),"")</f>
         <v/>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
         <v>4</v>
       </c>
       <c r="M9" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G9:L9)),AVERAGE(G9:L9),"")</f>
         <v/>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
         <v>4</v>
       </c>
       <c r="M10" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G10:L10)),AVERAGE(G10:L10),"")</f>
         <v/>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
         <v>4</v>
       </c>
       <c r="M11" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G11:L11)),AVERAGE(G11:L11),"")</f>
         <v/>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
         <v>4</v>
       </c>
       <c r="M12" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G12:L12)),AVERAGE(G12:L12),"")</f>
         <v/>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
         <v>4</v>
       </c>
       <c r="M13" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G13:L13)),AVERAGE(G13:L13),"")</f>
         <v/>
       </c>
     </row>
@@ -2468,7 +2468,7 @@
         <v>4</v>
       </c>
       <c r="M14" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G14:L14)),AVERAGE(G14:L14),"")</f>
         <v/>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
         <v>4</v>
       </c>
       <c r="M15" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G15:L15)),AVERAGE(G15:L15),"")</f>
         <v/>
       </c>
     </row>
@@ -2510,7 +2510,7 @@
         <v>4</v>
       </c>
       <c r="M16" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G16:L16)),AVERAGE(G16:L16),"")</f>
         <v/>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
         <v>4</v>
       </c>
       <c r="M17" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G17:L17)),AVERAGE(G17:L17),"")</f>
         <v/>
       </c>
     </row>
@@ -2552,7 +2552,7 @@
         <v>4</v>
       </c>
       <c r="M18" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G18:L18)),AVERAGE(G18:L18),"")</f>
         <v/>
       </c>
     </row>
@@ -2573,7 +2573,7 @@
         <v>4</v>
       </c>
       <c r="M19" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G19:L19)),AVERAGE(G19:L19),"")</f>
         <v/>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
         <v>4</v>
       </c>
       <c r="M20" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G20:L20)),AVERAGE(G20:L20),"")</f>
         <v/>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
         <v>4</v>
       </c>
       <c r="M21" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G21:L21)),AVERAGE(G21:L21),"")</f>
         <v/>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
         <v>4</v>
       </c>
       <c r="M22" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G22:L22)),AVERAGE(G22:L22),"")</f>
         <v/>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
         <v>35</v>
       </c>
       <c r="M23" s="12">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G23:L23)),AVERAGE(G23:L23),"")</f>
         <v>36.666666666666664</v>
       </c>
     </row>
@@ -2699,7 +2699,7 @@
         <v>42</v>
       </c>
       <c r="M24" s="12">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G24:L24)),AVERAGE(G24:L24),"")</f>
         <v>42</v>
       </c>
     </row>
@@ -2738,7 +2738,7 @@
         <v>42</v>
       </c>
       <c r="M25" s="12">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G25:L25)),AVERAGE(G25:L25),"")</f>
         <v>44.5</v>
       </c>
     </row>
@@ -2762,7 +2762,7 @@
         <v>44</v>
       </c>
       <c r="M26" s="12">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G26:L26)),AVERAGE(G26:L26),"")</f>
         <v>44</v>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
         <v>45</v>
       </c>
       <c r="M27" s="12">
-        <f t="shared" si="0"/>
+        <f>IF(ISNUMBER(AVERAGE(G27:L27)),AVERAGE(G27:L27),"")</f>
         <v>46</v>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
         <v>85</v>
       </c>
       <c r="M34" s="12">
-        <f t="shared" ref="M34:M65" si="1">AVERAGE(G34:L34)</f>
+        <f>AVERAGE(G34:L34)</f>
         <v>80.166666666666671</v>
       </c>
     </row>
@@ -2993,7 +2993,7 @@
         <v>87</v>
       </c>
       <c r="M35" s="12">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G35:L35)</f>
         <v>94</v>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
         <v>89</v>
       </c>
       <c r="M36" s="12">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G36:L36)</f>
         <v>97.8</v>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
         <v>88</v>
       </c>
       <c r="M37" s="12">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G37:L37)</f>
         <v>95</v>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
         <v>36</v>
       </c>
       <c r="M38" s="12">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G38:L38)</f>
         <v>37.666666666666664</v>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
         <v>37</v>
       </c>
       <c r="M39" s="12">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G39:L39)</f>
         <v>38.666666666666664</v>
       </c>
     </row>
@@ -3170,7 +3170,7 @@
         <v>76</v>
       </c>
       <c r="M40" s="12">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G40:L40)</f>
         <v>76</v>
       </c>
     </row>
@@ -3190,12 +3190,27 @@
       <c r="E41" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G41" s="6">
+        <v>123</v>
+      </c>
+      <c r="H41" s="7">
+        <v>122</v>
+      </c>
+      <c r="I41" s="8">
+        <v>106</v>
+      </c>
+      <c r="J41" s="9">
+        <v>104</v>
+      </c>
+      <c r="K41" s="10">
+        <v>119</v>
+      </c>
       <c r="L41" s="11">
         <v>58</v>
       </c>
       <c r="M41" s="12">
-        <f t="shared" si="1"/>
-        <v>58</v>
+        <f>AVERAGE(G41:L41)</f>
+        <v>105.33333333333333</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3214,12 +3229,27 @@
       <c r="E42" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G42" s="6">
+        <v>124</v>
+      </c>
       <c r="H42" s="7">
         <v>63</v>
       </c>
+      <c r="I42" s="8">
+        <v>107</v>
+      </c>
+      <c r="J42" s="9">
+        <v>105</v>
+      </c>
+      <c r="K42" s="10">
+        <v>120</v>
+      </c>
+      <c r="L42" s="11">
+        <v>108</v>
+      </c>
       <c r="M42" s="12">
-        <f t="shared" si="1"/>
-        <v>63</v>
+        <f>AVERAGE(G42:L42)</f>
+        <v>104.5</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3245,7 +3275,7 @@
         <v>68</v>
       </c>
       <c r="M43" s="12">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G43:L43)</f>
         <v>76.5</v>
       </c>
     </row>
@@ -3272,7 +3302,7 @@
         <v>69</v>
       </c>
       <c r="M44" s="12">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G44:L44)</f>
         <v>77.5</v>
       </c>
     </row>
@@ -3296,7 +3326,7 @@
         <v>52</v>
       </c>
       <c r="M45" s="12">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G45:L45)</f>
         <v>52</v>
       </c>
     </row>
@@ -3320,7 +3350,7 @@
         <v>65</v>
       </c>
       <c r="M46" s="12">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G46:L46)</f>
         <v>65</v>
       </c>
     </row>
@@ -3344,7 +3374,7 @@
         <v>53</v>
       </c>
       <c r="M47" s="12">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G47:L47)</f>
         <v>53</v>
       </c>
     </row>
@@ -3383,7 +3413,7 @@
         <v>34</v>
       </c>
       <c r="M48" s="12">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G48:L48)</f>
         <v>35</v>
       </c>
     </row>
@@ -3404,7 +3434,7 @@
         <v>4</v>
       </c>
       <c r="M49" s="12" t="e">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G49:L49)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3425,7 +3455,7 @@
         <v>4</v>
       </c>
       <c r="M50" s="12" t="e">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G50:L50)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3446,7 +3476,7 @@
         <v>4</v>
       </c>
       <c r="M51" s="12" t="e">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G51:L51)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3467,7 +3497,7 @@
         <v>4</v>
       </c>
       <c r="M52" s="12" t="e">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G52:L52)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3488,7 +3518,7 @@
         <v>4</v>
       </c>
       <c r="M53" s="12" t="e">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G53:L53)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3509,7 +3539,7 @@
         <v>4</v>
       </c>
       <c r="M54" s="12" t="e">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G54:L54)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3530,7 +3560,7 @@
         <v>4</v>
       </c>
       <c r="M55" s="12" t="e">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G55:L55)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3554,7 +3584,7 @@
         <v>84</v>
       </c>
       <c r="M56" s="12">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G56:L56)</f>
         <v>84</v>
       </c>
     </row>
@@ -3575,7 +3605,7 @@
         <v>4</v>
       </c>
       <c r="M57" s="12" t="e">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G57:L57)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3611,7 +3641,7 @@
         <v>67</v>
       </c>
       <c r="M58" s="12">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G58:L58)</f>
         <v>76.8</v>
       </c>
     </row>
@@ -3650,7 +3680,7 @@
         <v>47</v>
       </c>
       <c r="M59" s="12">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G59:L59)</f>
         <v>50.166666666666664</v>
       </c>
     </row>
@@ -3689,7 +3719,7 @@
         <v>52</v>
       </c>
       <c r="M60" s="12">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G60:L60)</f>
         <v>75.166666666666671</v>
       </c>
     </row>
@@ -3728,7 +3758,7 @@
         <v>84</v>
       </c>
       <c r="M61" s="12">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G61:L61)</f>
         <v>85.5</v>
       </c>
     </row>
@@ -3749,7 +3779,7 @@
         <v>4</v>
       </c>
       <c r="M62" s="12" t="e">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G62:L62)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3788,7 +3818,7 @@
         <v>24</v>
       </c>
       <c r="M63" s="12">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G63:L63)</f>
         <v>24.333333333333332</v>
       </c>
     </row>
@@ -3827,7 +3857,7 @@
         <v>46</v>
       </c>
       <c r="M64" s="12">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G64:L64)</f>
         <v>48.833333333333336</v>
       </c>
     </row>
@@ -3866,7 +3896,7 @@
         <v>38</v>
       </c>
       <c r="M65" s="12">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(G65:L65)</f>
         <v>33.333333333333336</v>
       </c>
     </row>
@@ -3893,7 +3923,7 @@
         <v>50</v>
       </c>
       <c r="M66" s="12">
-        <f t="shared" ref="M66:M97" si="2">AVERAGE(G66:L66)</f>
+        <f>AVERAGE(G66:L66)</f>
         <v>54</v>
       </c>
     </row>
@@ -3914,7 +3944,7 @@
         <v>4</v>
       </c>
       <c r="M67" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(G67:L67)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3935,7 +3965,7 @@
         <v>4</v>
       </c>
       <c r="M68" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(G68:L68)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3956,7 +3986,7 @@
         <v>4</v>
       </c>
       <c r="M69" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(G69:L69)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3977,7 +4007,7 @@
         <v>4</v>
       </c>
       <c r="M70" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(G70:L70)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3998,7 +4028,7 @@
         <v>4</v>
       </c>
       <c r="M71" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(G71:L71)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4019,7 +4049,7 @@
         <v>4</v>
       </c>
       <c r="M72" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(G72:L72)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4058,16 +4088,16 @@
         <v>20</v>
       </c>
       <c r="M73" s="12">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(G73:L73)</f>
         <v>20.166666666666668</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>63</v>
+        <v>484</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>227</v>
+        <v>485</v>
       </c>
       <c r="C74" s="2">
         <v>40</v>
@@ -4079,34 +4109,34 @@
         <v>4</v>
       </c>
       <c r="G74" s="6">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="H74" s="7">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="I74" s="8">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="J74" s="9">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="K74" s="10">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="L74" s="11">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="M74" s="12">
-        <f t="shared" si="2"/>
-        <v>73.833333333333329</v>
+        <f>AVERAGE(G74:L74)</f>
+        <v>108.33333333333333</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>20</v>
+        <v>483</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>205</v>
+        <v>487</v>
       </c>
       <c r="C75" s="2">
         <v>50</v>
@@ -4117,20 +4147,35 @@
       <c r="E75" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G75" s="6">
+        <v>118</v>
+      </c>
+      <c r="H75" s="7">
+        <v>117</v>
+      </c>
+      <c r="I75" s="8">
+        <v>102</v>
+      </c>
+      <c r="J75" s="9">
+        <v>100</v>
+      </c>
+      <c r="K75" s="10">
+        <v>115</v>
+      </c>
       <c r="L75" s="11">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="M75" s="12">
-        <f t="shared" si="2"/>
-        <v>59</v>
+        <f>AVERAGE(G75:L75)</f>
+        <v>109.33333333333333</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>21</v>
+        <v>482</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>206</v>
+        <v>486</v>
       </c>
       <c r="C76" s="2">
         <v>50</v>
@@ -4141,17 +4186,35 @@
       <c r="E76" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M76" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G76" s="6">
+        <v>119</v>
+      </c>
+      <c r="H76" s="7">
+        <v>118</v>
+      </c>
+      <c r="I76" s="8">
+        <v>103</v>
+      </c>
+      <c r="J76" s="9">
+        <v>103</v>
+      </c>
+      <c r="K76" s="10">
+        <v>116</v>
+      </c>
+      <c r="L76" s="11">
+        <v>105</v>
+      </c>
+      <c r="M76" s="12">
+        <f>AVERAGE(G76:L76)</f>
+        <v>110.66666666666667</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="C77" s="2">
         <v>40</v>
@@ -4162,62 +4225,80 @@
       <c r="E77" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M77" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G77" s="6">
+        <v>89</v>
+      </c>
+      <c r="H77" s="7">
+        <v>87</v>
+      </c>
+      <c r="I77" s="8">
+        <v>58</v>
+      </c>
+      <c r="J77" s="9">
+        <v>68</v>
+      </c>
+      <c r="K77" s="10">
+        <v>88</v>
+      </c>
+      <c r="L77" s="11">
+        <v>53</v>
+      </c>
+      <c r="M77" s="12">
+        <f>AVERAGE(G77:L77)</f>
+        <v>73.833333333333329</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C78" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D78" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M78" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="L78" s="11">
+        <v>59</v>
+      </c>
+      <c r="M78" s="12">
+        <f>AVERAGE(G78:L78)</f>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C79" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D79" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G79" s="6">
-        <v>36</v>
-      </c>
-      <c r="M79" s="12">
-        <f t="shared" si="2"/>
-        <v>36</v>
+      <c r="M79" s="12" t="e">
+        <f>AVERAGE(G79:L79)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C80" s="2">
         <v>40</v>
@@ -4229,37 +4310,37 @@
         <v>4</v>
       </c>
       <c r="M80" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(G80:L80)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C81" s="2">
         <v>40</v>
       </c>
       <c r="D81" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M81" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(G81:L81)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>410</v>
+        <v>18</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>411</v>
+        <v>209</v>
       </c>
       <c r="C82" s="2">
         <v>40</v>
@@ -4271,34 +4352,19 @@
         <v>4</v>
       </c>
       <c r="G82" s="6">
-        <v>35</v>
-      </c>
-      <c r="H82" s="7">
-        <v>32</v>
-      </c>
-      <c r="I82" s="8">
-        <v>32</v>
-      </c>
-      <c r="J82" s="9">
-        <v>32</v>
-      </c>
-      <c r="K82" s="10">
-        <v>33</v>
-      </c>
-      <c r="L82" s="11">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M82" s="12">
-        <f t="shared" si="2"/>
-        <v>32.666666666666664</v>
+        <f>AVERAGE(G82:L82)</f>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C83" s="2">
         <v>40</v>
@@ -4309,59 +4375,38 @@
       <c r="E83" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="10">
-        <v>34</v>
-      </c>
-      <c r="M83" s="12">
-        <f t="shared" si="2"/>
-        <v>34</v>
+      <c r="M83" s="12" t="e">
+        <f>AVERAGE(G83:L83)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>429</v>
+        <v>19</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>430</v>
+        <v>211</v>
       </c>
       <c r="C84" s="2">
         <v>40</v>
       </c>
       <c r="D84" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G84" s="6">
-        <v>48</v>
-      </c>
-      <c r="H84" s="7">
-        <v>43</v>
-      </c>
-      <c r="I84" s="8">
-        <v>43</v>
-      </c>
-      <c r="J84" s="9">
-        <v>44</v>
-      </c>
-      <c r="K84" s="10">
-        <v>53</v>
-      </c>
-      <c r="L84" s="11">
-        <v>43</v>
-      </c>
-      <c r="M84" s="12">
-        <f t="shared" si="2"/>
-        <v>45.666666666666664</v>
+      <c r="M84" s="12" t="e">
+        <f>AVERAGE(G84:L84)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="C85" s="2">
         <v>40</v>
@@ -4373,34 +4418,34 @@
         <v>4</v>
       </c>
       <c r="G85" s="6">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H85" s="7">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I85" s="8">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J85" s="9">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="K85" s="10">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="L85" s="11">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M85" s="12">
-        <f t="shared" si="2"/>
-        <v>47.833333333333336</v>
+        <f>AVERAGE(G85:L85)</f>
+        <v>32.666666666666664</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>445</v>
+        <v>28</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>446</v>
+        <v>212</v>
       </c>
       <c r="C86" s="2">
         <v>40</v>
@@ -4411,20 +4456,20 @@
       <c r="E86" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I86" s="8">
-        <v>54</v>
+      <c r="K86" s="10">
+        <v>34</v>
       </c>
       <c r="M86" s="12">
-        <f t="shared" si="2"/>
-        <v>54</v>
+        <f>AVERAGE(G86:L86)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>30</v>
+        <v>429</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>213</v>
+        <v>430</v>
       </c>
       <c r="C87" s="2">
         <v>40</v>
@@ -4435,20 +4480,35 @@
       <c r="E87" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G87" s="6">
+        <v>48</v>
+      </c>
       <c r="H87" s="7">
-        <v>64</v>
+        <v>43</v>
+      </c>
+      <c r="I87" s="8">
+        <v>43</v>
+      </c>
+      <c r="J87" s="9">
+        <v>44</v>
+      </c>
+      <c r="K87" s="10">
+        <v>53</v>
+      </c>
+      <c r="L87" s="11">
+        <v>43</v>
       </c>
       <c r="M87" s="12">
-        <f t="shared" si="2"/>
-        <v>64</v>
+        <f>AVERAGE(G87:L87)</f>
+        <v>45.666666666666664</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>13</v>
+        <v>433</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>214</v>
+        <v>434</v>
       </c>
       <c r="C88" s="2">
         <v>40</v>
@@ -4460,19 +4520,34 @@
         <v>4</v>
       </c>
       <c r="G88" s="6">
-        <v>72</v>
+        <v>50</v>
+      </c>
+      <c r="H88" s="7">
+        <v>45</v>
+      </c>
+      <c r="I88" s="8">
+        <v>45</v>
+      </c>
+      <c r="J88" s="9">
+        <v>46</v>
+      </c>
+      <c r="K88" s="10">
+        <v>56</v>
+      </c>
+      <c r="L88" s="11">
+        <v>45</v>
       </c>
       <c r="M88" s="12">
-        <f t="shared" si="2"/>
-        <v>72</v>
+        <f>AVERAGE(G88:L88)</f>
+        <v>47.833333333333336</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>27</v>
+        <v>445</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>215</v>
+        <v>446</v>
       </c>
       <c r="C89" s="2">
         <v>40</v>
@@ -4483,20 +4558,20 @@
       <c r="E89" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G89" s="6">
-        <v>73</v>
+      <c r="I89" s="8">
+        <v>54</v>
       </c>
       <c r="M89" s="12">
-        <f t="shared" si="2"/>
-        <v>73</v>
+        <f>AVERAGE(G89:L89)</f>
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C90" s="2">
         <v>40</v>
@@ -4507,26 +4582,20 @@
       <c r="E90" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I90" s="8">
+      <c r="H90" s="7">
         <v>64</v>
       </c>
-      <c r="J90" s="9">
-        <v>63</v>
-      </c>
-      <c r="K90" s="10">
-        <v>78</v>
-      </c>
       <c r="M90" s="12">
-        <f t="shared" si="2"/>
-        <v>68.333333333333329</v>
+        <f>AVERAGE(G90:L90)</f>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C91" s="2">
         <v>40</v>
@@ -4538,100 +4607,115 @@
         <v>4</v>
       </c>
       <c r="G91" s="6">
-        <v>114</v>
-      </c>
-      <c r="H91" s="7">
-        <v>113</v>
-      </c>
-      <c r="I91" s="8">
-        <v>98</v>
-      </c>
-      <c r="J91" s="9">
-        <v>97</v>
-      </c>
-      <c r="K91" s="10">
-        <v>110</v>
-      </c>
-      <c r="L91" s="11">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M91" s="12">
-        <f t="shared" si="2"/>
-        <v>99.5</v>
+        <f>AVERAGE(G91:L91)</f>
+        <v>72</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C92" s="2">
         <v>40</v>
       </c>
       <c r="D92" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M92" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G92" s="6">
+        <v>73</v>
+      </c>
+      <c r="M92" s="12">
+        <f>AVERAGE(G92:L92)</f>
+        <v>73</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C93" s="2">
         <v>40</v>
       </c>
       <c r="D93" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M93" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="I93" s="8">
+        <v>64</v>
+      </c>
+      <c r="J93" s="9">
+        <v>63</v>
+      </c>
+      <c r="K93" s="10">
+        <v>78</v>
+      </c>
+      <c r="M93" s="12">
+        <f>AVERAGE(G93:L93)</f>
+        <v>68.333333333333329</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C94" s="2">
+        <v>40</v>
+      </c>
+      <c r="D94" s="2">
+        <v>400</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="6">
+        <v>114</v>
+      </c>
+      <c r="H94" s="7">
+        <v>113</v>
+      </c>
+      <c r="I94" s="8">
+        <v>98</v>
+      </c>
+      <c r="J94" s="9">
         <v>97</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C94" s="2">
-        <v>40</v>
-      </c>
-      <c r="D94" s="2">
-        <v>500</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="K94" s="10">
+        <v>110</v>
+      </c>
+      <c r="L94" s="11">
+        <v>65</v>
+      </c>
+      <c r="M94" s="12">
+        <f>AVERAGE(G94:L94)</f>
+        <v>99.5</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C95" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D95" s="2">
         <v>500</v>
@@ -4640,19 +4724,19 @@
         <v>4</v>
       </c>
       <c r="M95" s="12" t="e">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(G95:L95)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>345</v>
+        <v>218</v>
       </c>
       <c r="C96" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D96" s="2">
         <v>500</v>
@@ -4660,65 +4744,38 @@
       <c r="E96" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H96" s="7">
-        <v>76</v>
-      </c>
-      <c r="I96" s="8">
-        <v>63</v>
-      </c>
-      <c r="L96" s="11">
-        <v>62</v>
-      </c>
-      <c r="M96" s="12">
-        <f t="shared" si="2"/>
-        <v>67</v>
+      <c r="M96" s="12" t="e">
+        <f>AVERAGE(G96:L96)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C97" s="2">
         <v>40</v>
       </c>
       <c r="D97" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G97" s="6">
-        <v>69</v>
-      </c>
-      <c r="H97" s="7">
-        <v>55</v>
-      </c>
-      <c r="I97" s="8">
-        <v>73</v>
-      </c>
-      <c r="J97" s="9">
-        <v>73</v>
-      </c>
-      <c r="K97" s="10">
-        <v>93</v>
-      </c>
-      <c r="L97" s="11">
-        <v>76</v>
-      </c>
-      <c r="M97" s="12">
-        <f t="shared" si="2"/>
-        <v>73.166666666666671</v>
+      <c r="M97" s="12" t="e">
+        <f>AVERAGE(G97:L97)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>293</v>
+        <v>220</v>
       </c>
       <c r="C98" s="2">
         <v>50</v>
@@ -4729,152 +4786,125 @@
       <c r="E98" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G98" s="6">
-        <v>67</v>
-      </c>
-      <c r="H98" s="7">
-        <v>92</v>
-      </c>
-      <c r="I98" s="8">
-        <v>74</v>
-      </c>
-      <c r="J98" s="9">
-        <v>74</v>
-      </c>
-      <c r="K98" s="10">
-        <v>94</v>
-      </c>
-      <c r="L98" s="11">
-        <v>77</v>
-      </c>
-      <c r="M98" s="12">
-        <f t="shared" ref="M98:M104" si="3">AVERAGE(G98:L98)</f>
-        <v>79.666666666666671</v>
+      <c r="M98" s="12" t="e">
+        <f>AVERAGE(G98:L98)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>473</v>
+        <v>22</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>273</v>
+        <v>345</v>
       </c>
       <c r="C99" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D99" s="2">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G99" s="6">
-        <v>106</v>
-      </c>
       <c r="H99" s="7">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="I99" s="8">
-        <v>89</v>
-      </c>
-      <c r="J99" s="9">
-        <v>88</v>
-      </c>
-      <c r="K99" s="10">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L99" s="11">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="M99" s="12">
-        <f t="shared" si="3"/>
-        <v>91.666666666666671</v>
+        <f>AVERAGE(G99:L99)</f>
+        <v>67</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>474</v>
+        <v>65</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="C100" s="2">
         <v>40</v>
       </c>
       <c r="D100" s="2">
-        <v>11000</v>
+        <v>400</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G100" s="6">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="H100" s="7">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="I100" s="8">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="J100" s="9">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="K100" s="10">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="L100" s="11">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="M100" s="12">
-        <f t="shared" si="3"/>
-        <v>92.666666666666671</v>
+        <f>AVERAGE(G100:L100)</f>
+        <v>73.166666666666671</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>475</v>
+        <v>120</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="C101" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D101" s="2">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G101" s="6">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="H101" s="7">
+        <v>92</v>
+      </c>
+      <c r="I101" s="8">
         <v>74</v>
       </c>
-      <c r="I101" s="8">
-        <v>91</v>
-      </c>
       <c r="J101" s="9">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="K101" s="10">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="L101" s="11">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="M101" s="12">
-        <f t="shared" si="3"/>
-        <v>88</v>
+        <f>AVERAGE(G101:L101)</f>
+        <v>79.666666666666671</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C102" s="2">
         <v>40</v>
@@ -4886,34 +4916,34 @@
         <v>4</v>
       </c>
       <c r="G102" s="6">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H102" s="7">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I102" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J102" s="9">
+        <v>88</v>
+      </c>
+      <c r="K102" s="10">
+        <v>70</v>
+      </c>
+      <c r="L102" s="11">
         <v>91</v>
       </c>
-      <c r="K102" s="10">
-        <v>73</v>
-      </c>
-      <c r="L102" s="11">
-        <v>94</v>
-      </c>
       <c r="M102" s="12">
-        <f t="shared" si="3"/>
-        <v>94.5</v>
+        <f>AVERAGE(G102:L102)</f>
+        <v>91.666666666666671</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C103" s="2">
         <v>40</v>
@@ -4925,34 +4955,34 @@
         <v>4</v>
       </c>
       <c r="G103" s="6">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H103" s="7">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I103" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J103" s="9">
+        <v>89</v>
+      </c>
+      <c r="K103" s="10">
+        <v>71</v>
+      </c>
+      <c r="L103" s="11">
         <v>92</v>
       </c>
-      <c r="K103" s="10">
-        <v>74</v>
-      </c>
-      <c r="L103" s="11">
-        <v>95</v>
-      </c>
       <c r="M103" s="12">
-        <f t="shared" si="3"/>
-        <v>95.5</v>
+        <f>AVERAGE(G103:L103)</f>
+        <v>92.666666666666671</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>478</v>
+        <v>275</v>
       </c>
       <c r="C104" s="2">
         <v>40</v>
@@ -4964,34 +4994,34 @@
         <v>4</v>
       </c>
       <c r="G104" s="6">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H104" s="7">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="I104" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J104" s="9">
+        <v>90</v>
+      </c>
+      <c r="K104" s="10">
+        <v>72</v>
+      </c>
+      <c r="L104" s="11">
         <v>93</v>
       </c>
-      <c r="K104" s="10">
-        <v>106</v>
-      </c>
-      <c r="L104" s="11">
-        <v>96</v>
-      </c>
       <c r="M104" s="12">
-        <f t="shared" si="3"/>
-        <v>100.66666666666667</v>
+        <f>AVERAGE(G104:L104)</f>
+        <v>88</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="1" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>479</v>
+        <v>276</v>
       </c>
       <c r="C105" s="2">
         <v>40</v>
@@ -5003,94 +5033,112 @@
         <v>4</v>
       </c>
       <c r="G105" s="6">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H105" s="7">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I105" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J105" s="9">
+        <v>91</v>
+      </c>
+      <c r="K105" s="10">
+        <v>73</v>
+      </c>
+      <c r="L105" s="11">
         <v>94</v>
       </c>
-      <c r="K105" s="10">
-        <v>107</v>
-      </c>
-      <c r="L105" s="11">
-        <v>97</v>
-      </c>
       <c r="M105" s="12">
-        <f t="shared" ref="M105:M140" si="4">AVERAGE(G105:L105)</f>
-        <v>102.5</v>
+        <f>AVERAGE(G105:L105)</f>
+        <v>94.5</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
-        <v>116</v>
+        <v>477</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C106" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D106" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G106" s="6">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="H106" s="7">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="I106" s="8">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="J106" s="9">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="K106" s="10">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L106" s="11">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="M106" s="12">
-        <f t="shared" si="4"/>
-        <v>69.166666666666671</v>
+        <f>AVERAGE(G106:L106)</f>
+        <v>95.5</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="C107" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D107" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M107" s="12" t="e">
-        <f t="shared" ref="M107:M108" si="5">AVERAGE(G107:L107)</f>
-        <v>#DIV/0!</v>
+      <c r="G107" s="6">
+        <v>105</v>
+      </c>
+      <c r="H107" s="7">
+        <v>110</v>
+      </c>
+      <c r="I107" s="8">
+        <v>94</v>
+      </c>
+      <c r="J107" s="9">
+        <v>93</v>
+      </c>
+      <c r="K107" s="10">
+        <v>106</v>
+      </c>
+      <c r="L107" s="11">
+        <v>96</v>
+      </c>
+      <c r="M107" s="12">
+        <f>AVERAGE(G107:L107)</f>
+        <v>100.66666666666667</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="1" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="C108" s="2">
         <v>40</v>
@@ -5102,217 +5150,217 @@
         <v>4</v>
       </c>
       <c r="G108" s="6">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="H108" s="7">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="I108" s="8">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J108" s="9">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K108" s="10">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="L108" s="11">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="M108" s="12">
-        <f t="shared" si="5"/>
-        <v>111.33333333333333</v>
+        <f>AVERAGE(G108:L108)</f>
+        <v>102.5</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="1" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="C109" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D109" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G109" s="6">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H109" s="7">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="I109" s="8">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J109" s="9">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K109" s="10">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="L109" s="11">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M109" s="12">
-        <f t="shared" si="4"/>
-        <v>106.33333333333333</v>
+        <f>AVERAGE(G109:L109)</f>
+        <v>111.5</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="1" t="s">
-        <v>463</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>464</v>
+        <v>278</v>
       </c>
       <c r="C110" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D110" s="2">
-        <v>400</v>
+        <v>14000</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G110" s="6">
+        <v>80</v>
+      </c>
       <c r="H110" s="7">
-        <v>102</v>
+        <v>75</v>
+      </c>
+      <c r="I110" s="8">
+        <v>62</v>
+      </c>
+      <c r="J110" s="9">
+        <v>62</v>
+      </c>
+      <c r="K110" s="10">
+        <v>75</v>
+      </c>
+      <c r="L110" s="11">
+        <v>61</v>
       </c>
       <c r="M110" s="12">
-        <f t="shared" si="4"/>
-        <v>102</v>
+        <f>AVERAGE(G110:L110)</f>
+        <v>69.166666666666671</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="1" t="s">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>351</v>
+        <v>481</v>
       </c>
       <c r="C111" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D111" s="2">
-        <v>500</v>
+        <v>14000</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G111" s="6">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="H111" s="7">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="I111" s="8">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="J111" s="9">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="K111" s="10">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="L111" s="11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M111" s="12">
-        <f t="shared" si="4"/>
-        <v>1.1666666666666667</v>
+        <f>AVERAGE(G111:L111)</f>
+        <v>106.33333333333333</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="1" t="s">
-        <v>354</v>
+        <v>489</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>355</v>
+        <v>491</v>
       </c>
       <c r="C112" s="2">
         <v>50</v>
       </c>
       <c r="D112" s="2">
-        <v>500</v>
+        <v>14000</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G112" s="6">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="H112" s="7">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="I112" s="8">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="J112" s="9">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="K112" s="10">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="L112" s="11">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="M112" s="12">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>AVERAGE(G112:L112)</f>
+        <v>112.5</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="1" t="s">
-        <v>352</v>
+        <v>463</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>353</v>
+        <v>464</v>
       </c>
       <c r="C113" s="2">
         <v>40</v>
       </c>
       <c r="D113" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G113" s="6">
-        <v>3</v>
-      </c>
       <c r="H113" s="7">
-        <v>3</v>
-      </c>
-      <c r="I113" s="8">
-        <v>3</v>
-      </c>
-      <c r="J113" s="9">
-        <v>3</v>
-      </c>
-      <c r="K113" s="10">
-        <v>2</v>
-      </c>
-      <c r="L113" s="11">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="M113" s="12">
-        <f t="shared" si="4"/>
-        <v>2.8333333333333335</v>
+        <f>AVERAGE(G113:L113)</f>
+        <v>102</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C114" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D114" s="2">
         <v>500</v>
@@ -5321,106 +5369,151 @@
         <v>4</v>
       </c>
       <c r="G114" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H114" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I114" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J114" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K114" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L114" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M114" s="12">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f>AVERAGE(G114:L114)</f>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="1" t="s">
-        <v>51</v>
+        <v>354</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>230</v>
+        <v>355</v>
       </c>
       <c r="C115" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D115" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G115" s="6">
+        <v>1</v>
+      </c>
+      <c r="H115" s="7">
+        <v>2</v>
+      </c>
       <c r="I115" s="8">
-        <v>56</v>
+        <v>2</v>
+      </c>
+      <c r="J115" s="9">
+        <v>2</v>
+      </c>
+      <c r="K115" s="10">
+        <v>3</v>
+      </c>
+      <c r="L115" s="11">
+        <v>2</v>
       </c>
       <c r="M115" s="12">
-        <f t="shared" si="4"/>
-        <v>56</v>
+        <f>AVERAGE(G115:L115)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="1" t="s">
-        <v>54</v>
+        <v>352</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>231</v>
+        <v>353</v>
       </c>
       <c r="C116" s="2">
         <v>40</v>
       </c>
       <c r="D116" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G116" s="6">
+        <v>3</v>
+      </c>
+      <c r="H116" s="7">
+        <v>3</v>
+      </c>
       <c r="I116" s="8">
-        <v>57</v>
+        <v>3</v>
+      </c>
+      <c r="J116" s="9">
+        <v>3</v>
+      </c>
+      <c r="K116" s="10">
+        <v>2</v>
+      </c>
+      <c r="L116" s="11">
+        <v>3</v>
       </c>
       <c r="M116" s="12">
-        <f t="shared" si="4"/>
-        <v>57</v>
+        <f>AVERAGE(G116:L116)</f>
+        <v>2.8333333333333335</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="1" t="s">
-        <v>66</v>
+        <v>356</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>232</v>
+        <v>357</v>
       </c>
       <c r="C117" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D117" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G117" s="6">
+        <v>4</v>
+      </c>
+      <c r="H117" s="7">
+        <v>4</v>
+      </c>
+      <c r="I117" s="8">
+        <v>4</v>
+      </c>
+      <c r="J117" s="9">
+        <v>4</v>
+      </c>
       <c r="K117" s="10">
-        <v>80</v>
+        <v>4</v>
+      </c>
+      <c r="L117" s="11">
+        <v>4</v>
       </c>
       <c r="M117" s="12">
-        <f t="shared" si="4"/>
-        <v>80</v>
+        <f>AVERAGE(G117:L117)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="1" t="s">
-        <v>460</v>
+        <v>51</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>461</v>
+        <v>230</v>
       </c>
       <c r="C118" s="2">
         <v>40</v>
@@ -5431,17 +5524,20 @@
       <c r="E118" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M118" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="I118" s="8">
+        <v>56</v>
+      </c>
+      <c r="M118" s="12">
+        <f>AVERAGE(G118:L118)</f>
+        <v>56</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="1" t="s">
-        <v>459</v>
+        <v>54</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>462</v>
+        <v>231</v>
       </c>
       <c r="C119" s="2">
         <v>40</v>
@@ -5452,38 +5548,23 @@
       <c r="E119" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G119" s="6">
-        <v>96</v>
-      </c>
-      <c r="H119" s="7">
-        <v>94</v>
-      </c>
       <c r="I119" s="8">
-        <v>77</v>
-      </c>
-      <c r="J119" s="9">
-        <v>79</v>
-      </c>
-      <c r="K119" s="10">
-        <v>97</v>
-      </c>
-      <c r="L119" s="11">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="M119" s="12">
-        <f t="shared" si="4"/>
-        <v>87.333333333333329</v>
+        <f>AVERAGE(G119:L119)</f>
+        <v>57</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="1" t="s">
-        <v>447</v>
+        <v>66</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>448</v>
+        <v>232</v>
       </c>
       <c r="C120" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D120" s="2">
         <v>400</v>
@@ -5491,269 +5572,254 @@
       <c r="E120" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G120" s="6">
-        <v>57</v>
-      </c>
-      <c r="H120" s="7">
-        <v>50</v>
-      </c>
-      <c r="I120" s="8">
-        <v>51</v>
-      </c>
-      <c r="J120" s="9">
-        <v>51</v>
+      <c r="K120" s="10">
+        <v>80</v>
       </c>
       <c r="M120" s="12">
-        <f t="shared" si="4"/>
-        <v>52.25</v>
+        <f>AVERAGE(G120:L120)</f>
+        <v>80</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="1" t="s">
-        <v>138</v>
+        <v>460</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>294</v>
+        <v>461</v>
       </c>
       <c r="C121" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D121" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G121" s="6">
-        <v>64</v>
-      </c>
-      <c r="H121" s="7">
-        <v>72</v>
-      </c>
-      <c r="K121" s="10">
-        <v>79</v>
-      </c>
-      <c r="M121" s="12">
-        <f t="shared" si="4"/>
-        <v>71.666666666666671</v>
+      <c r="M121" s="12" t="e">
+        <f>AVERAGE(G121:L121)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="1" t="s">
-        <v>75</v>
+        <v>459</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>233</v>
+        <v>462</v>
       </c>
       <c r="C122" s="2">
         <v>40</v>
       </c>
       <c r="D122" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G122" s="6">
+        <v>96</v>
+      </c>
       <c r="H122" s="7">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="I122" s="8">
-        <v>60</v>
+        <v>77</v>
+      </c>
+      <c r="J122" s="9">
+        <v>79</v>
       </c>
       <c r="K122" s="10">
-        <v>82</v>
+        <v>97</v>
+      </c>
+      <c r="L122" s="11">
+        <v>81</v>
       </c>
       <c r="M122" s="12">
-        <f t="shared" si="4"/>
-        <v>66</v>
+        <f>AVERAGE(G122:L122)</f>
+        <v>87.333333333333329</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="1" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="C123" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D123" s="2">
-        <v>135</v>
+        <v>400</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G123" s="6">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="H123" s="7">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I123" s="8">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="J123" s="9">
-        <v>22</v>
-      </c>
-      <c r="K123" s="10">
-        <v>23</v>
-      </c>
-      <c r="L123" s="11">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M123" s="12">
-        <f t="shared" si="4"/>
-        <v>22.333333333333332</v>
+        <f>AVERAGE(G123:L123)</f>
+        <v>52.25</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="1" t="s">
-        <v>392</v>
+        <v>138</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>393</v>
+        <v>294</v>
       </c>
       <c r="C124" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D124" s="2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G124" s="6">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="H124" s="7">
-        <v>23</v>
-      </c>
-      <c r="I124" s="8">
-        <v>23</v>
-      </c>
-      <c r="J124" s="9">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="K124" s="10">
-        <v>24</v>
-      </c>
-      <c r="L124" s="11">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="M124" s="12">
-        <f t="shared" si="4"/>
-        <v>23.333333333333332</v>
+        <f>AVERAGE(G124:L124)</f>
+        <v>71.666666666666671</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="1" t="s">
-        <v>382</v>
+        <v>75</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>383</v>
+        <v>233</v>
       </c>
       <c r="C125" s="2">
         <v>40</v>
       </c>
       <c r="D125" s="2">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G125" s="6">
-        <v>19</v>
-      </c>
       <c r="H125" s="7">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="I125" s="8">
-        <v>18</v>
-      </c>
-      <c r="J125" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="K125" s="10">
-        <v>18</v>
-      </c>
-      <c r="L125" s="11">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="M125" s="12">
-        <f t="shared" si="4"/>
-        <v>18.166666666666668</v>
+        <f>AVERAGE(G125:L125)</f>
+        <v>66</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="1" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C126" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D126" s="2">
-        <v>500</v>
+        <v>135</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G126" s="6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H126" s="7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I126" s="8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J126" s="9">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K126" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="L126" s="11">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M126" s="12">
-        <f t="shared" si="4"/>
-        <v>19.166666666666668</v>
+        <f>AVERAGE(G126:L126)</f>
+        <v>22.333333333333332</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="1" t="s">
-        <v>102</v>
+        <v>392</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>234</v>
+        <v>393</v>
       </c>
       <c r="C127" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D127" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M127" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G127" s="6">
+        <v>24</v>
+      </c>
+      <c r="H127" s="7">
+        <v>23</v>
+      </c>
+      <c r="I127" s="8">
+        <v>23</v>
+      </c>
+      <c r="J127" s="9">
+        <v>23</v>
+      </c>
+      <c r="K127" s="10">
+        <v>24</v>
+      </c>
+      <c r="L127" s="11">
+        <v>23</v>
+      </c>
+      <c r="M127" s="12">
+        <f>AVERAGE(G127:L127)</f>
+        <v>23.333333333333332</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="1" t="s">
-        <v>144</v>
+        <v>382</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>295</v>
+        <v>383</v>
       </c>
       <c r="C128" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D128" s="2">
         <v>400</v>
@@ -5761,44 +5827,77 @@
       <c r="E128" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G128" s="6">
+        <v>19</v>
+      </c>
+      <c r="H128" s="7">
+        <v>18</v>
+      </c>
+      <c r="I128" s="8">
+        <v>18</v>
+      </c>
+      <c r="J128" s="9">
+        <v>18</v>
+      </c>
       <c r="K128" s="10">
-        <v>69</v>
+        <v>18</v>
+      </c>
+      <c r="L128" s="11">
+        <v>18</v>
       </c>
       <c r="M128" s="12">
-        <f t="shared" si="4"/>
-        <v>69</v>
+        <f>AVERAGE(G128:L128)</f>
+        <v>18.166666666666668</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="1" t="s">
-        <v>103</v>
+        <v>384</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>235</v>
+        <v>385</v>
       </c>
       <c r="C129" s="2">
         <v>50</v>
       </c>
       <c r="D129" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M129" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G129" s="6">
+        <v>20</v>
+      </c>
+      <c r="H129" s="7">
+        <v>19</v>
+      </c>
+      <c r="I129" s="8">
+        <v>19</v>
+      </c>
+      <c r="J129" s="9">
+        <v>19</v>
+      </c>
+      <c r="K129" s="10">
+        <v>19</v>
+      </c>
+      <c r="L129" s="11">
+        <v>19</v>
+      </c>
+      <c r="M129" s="12">
+        <f>AVERAGE(G129:L129)</f>
+        <v>19.166666666666668</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="1" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>296</v>
+        <v>234</v>
       </c>
       <c r="C130" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D130" s="2">
         <v>400</v>
@@ -5807,19 +5906,19 @@
         <v>4</v>
       </c>
       <c r="M130" s="12" t="e">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(G130:L130)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="1" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="C131" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D131" s="2">
         <v>400</v>
@@ -5827,23 +5926,23 @@
       <c r="E131" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G131" s="6">
-        <v>68</v>
+      <c r="K131" s="10">
+        <v>69</v>
       </c>
       <c r="M131" s="12">
-        <f t="shared" si="4"/>
-        <v>68</v>
+        <f>AVERAGE(G131:L131)</f>
+        <v>69</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="1" t="s">
-        <v>449</v>
+        <v>103</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>450</v>
+        <v>235</v>
       </c>
       <c r="C132" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D132" s="2">
         <v>400</v>
@@ -5851,26 +5950,20 @@
       <c r="E132" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G132" s="6">
-        <v>55</v>
-      </c>
-      <c r="I132" s="8">
-        <v>49</v>
-      </c>
-      <c r="M132" s="12">
-        <f t="shared" si="4"/>
-        <v>52</v>
+      <c r="M132" s="12" t="e">
+        <f>AVERAGE(G132:L132)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="1" t="s">
-        <v>358</v>
+        <v>145</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>359</v>
+        <v>296</v>
       </c>
       <c r="C133" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D133" s="2">
         <v>400</v>
@@ -5878,101 +5971,71 @@
       <c r="E133" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G133" s="6">
-        <v>7</v>
-      </c>
-      <c r="H133" s="7">
-        <v>5</v>
-      </c>
-      <c r="I133" s="8">
-        <v>5</v>
-      </c>
-      <c r="J133" s="9">
-        <v>5</v>
-      </c>
-      <c r="K133" s="10">
-        <v>5</v>
-      </c>
-      <c r="L133" s="11">
-        <v>5</v>
-      </c>
-      <c r="M133" s="12">
-        <f t="shared" si="4"/>
-        <v>5.333333333333333</v>
+      <c r="M133" s="12" t="e">
+        <f>AVERAGE(G133:L133)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>297</v>
+        <v>236</v>
       </c>
       <c r="C134" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D134" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H134" s="7">
-        <v>69</v>
+      <c r="G134" s="6">
+        <v>68</v>
       </c>
       <c r="M134" s="12">
-        <f t="shared" si="4"/>
-        <v>69</v>
+        <f>AVERAGE(G134:L134)</f>
+        <v>68</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
-        <v>366</v>
+        <v>449</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>367</v>
+        <v>450</v>
       </c>
       <c r="C135" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D135" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G135" s="6">
-        <v>8</v>
-      </c>
-      <c r="H135" s="7">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="I135" s="8">
-        <v>9</v>
-      </c>
-      <c r="J135" s="9">
-        <v>6</v>
-      </c>
-      <c r="K135" s="10">
-        <v>9</v>
-      </c>
-      <c r="L135" s="11">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="M135" s="12">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f>AVERAGE(G135:L135)</f>
+        <v>52</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="1" t="s">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>237</v>
+        <v>359</v>
       </c>
       <c r="C136" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D136" s="2">
         <v>400</v>
@@ -5980,41 +6043,59 @@
       <c r="E136" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M136" s="12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G136" s="6">
+        <v>7</v>
+      </c>
+      <c r="H136" s="7">
+        <v>5</v>
+      </c>
+      <c r="I136" s="8">
+        <v>5</v>
+      </c>
+      <c r="J136" s="9">
+        <v>5</v>
+      </c>
+      <c r="K136" s="10">
+        <v>5</v>
+      </c>
+      <c r="L136" s="11">
+        <v>5</v>
+      </c>
+      <c r="M136" s="12">
+        <f>AVERAGE(G136:L136)</f>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="C137" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D137" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I137" s="8">
-        <v>50</v>
+      <c r="H137" s="7">
+        <v>69</v>
       </c>
       <c r="M137" s="12">
-        <f t="shared" si="4"/>
-        <v>50</v>
+        <f>AVERAGE(G137:L137)</f>
+        <v>69</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
-        <v>42</v>
+        <v>366</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>280</v>
+        <v>367</v>
       </c>
       <c r="C138" s="2">
         <v>50</v>
@@ -6026,97 +6107,79 @@
         <v>4</v>
       </c>
       <c r="G138" s="6">
+        <v>8</v>
+      </c>
+      <c r="H138" s="7">
+        <v>7</v>
+      </c>
+      <c r="I138" s="8">
+        <v>9</v>
+      </c>
+      <c r="J138" s="9">
         <v>6</v>
       </c>
-      <c r="H138" s="7">
-        <v>84</v>
-      </c>
-      <c r="I138" s="8">
-        <v>88</v>
-      </c>
-      <c r="J138" s="9">
-        <v>87</v>
-      </c>
       <c r="K138" s="10">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="L138" s="11">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="M138" s="12">
-        <f t="shared" si="4"/>
-        <v>84.166666666666671</v>
+        <f>AVERAGE(G138:L138)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="C139" s="2">
         <v>50</v>
       </c>
       <c r="D139" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G139" s="6">
-        <v>97</v>
-      </c>
-      <c r="H139" s="7">
-        <v>95</v>
-      </c>
-      <c r="I139" s="8">
-        <v>78</v>
-      </c>
-      <c r="J139" s="9">
-        <v>80</v>
-      </c>
-      <c r="K139" s="10">
-        <v>98</v>
-      </c>
-      <c r="L139" s="11">
-        <v>82</v>
-      </c>
-      <c r="M139" s="12">
-        <f t="shared" si="4"/>
-        <v>88.333333333333329</v>
+      <c r="M139" s="12" t="e">
+        <f>AVERAGE(G139:L139)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="1" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C140" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D140" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G140" s="6">
-        <v>81</v>
+      <c r="I140" s="8">
+        <v>50</v>
       </c>
       <c r="M140" s="12">
-        <f t="shared" si="4"/>
-        <v>81</v>
+        <f>AVERAGE(G140:L140)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>174</v>
+        <v>280</v>
       </c>
       <c r="C141" s="2">
         <v>50</v>
@@ -6127,83 +6190,98 @@
       <c r="E141" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G141" s="6">
+        <v>6</v>
+      </c>
+      <c r="H141" s="7">
+        <v>84</v>
+      </c>
+      <c r="I141" s="8">
+        <v>88</v>
+      </c>
       <c r="J141" s="9">
-        <v>65</v>
+        <v>87</v>
+      </c>
+      <c r="K141" s="10">
+        <v>150</v>
+      </c>
+      <c r="L141" s="11">
+        <v>90</v>
       </c>
       <c r="M141" s="12">
-        <f t="shared" ref="M141:M172" si="6">AVERAGE(G141:L141)</f>
-        <v>65</v>
+        <f>AVERAGE(G141:L141)</f>
+        <v>84.166666666666671</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="C142" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D142" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G142" s="6">
+        <v>97</v>
+      </c>
+      <c r="H142" s="7">
+        <v>95</v>
+      </c>
+      <c r="I142" s="8">
+        <v>78</v>
+      </c>
+      <c r="J142" s="9">
+        <v>80</v>
+      </c>
+      <c r="K142" s="10">
+        <v>98</v>
+      </c>
       <c r="L142" s="11">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="M142" s="12">
-        <f t="shared" si="6"/>
-        <v>66</v>
+        <f>AVERAGE(G142:L142)</f>
+        <v>88.333333333333329</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
-        <v>364</v>
+        <v>40</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>365</v>
+        <v>282</v>
       </c>
       <c r="C143" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D143" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G143" s="6">
-        <v>10</v>
-      </c>
-      <c r="H143" s="7">
-        <v>9</v>
-      </c>
-      <c r="I143" s="8">
-        <v>8</v>
-      </c>
-      <c r="J143" s="9">
-        <v>9</v>
-      </c>
-      <c r="K143" s="10">
-        <v>8</v>
-      </c>
-      <c r="L143" s="11">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="M143" s="12">
-        <f t="shared" si="6"/>
-        <v>8.6666666666666661</v>
+        <f>AVERAGE(G143:L143)</f>
+        <v>81</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>299</v>
+        <v>174</v>
       </c>
       <c r="C144" s="2">
         <v>50</v>
@@ -6214,35 +6292,20 @@
       <c r="E144" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G144" s="6">
-        <v>99</v>
-      </c>
-      <c r="H144" s="7">
-        <v>97</v>
-      </c>
-      <c r="I144" s="8">
-        <v>80</v>
-      </c>
       <c r="J144" s="9">
-        <v>50</v>
-      </c>
-      <c r="K144" s="10">
-        <v>100</v>
-      </c>
-      <c r="L144" s="11">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="M144" s="12">
-        <f t="shared" si="6"/>
-        <v>84.833333333333329</v>
+        <f>AVERAGE(G144:L144)</f>
+        <v>65</v>
       </c>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C145" s="2">
         <v>40</v>
@@ -6253,38 +6316,23 @@
       <c r="E145" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G145" s="6">
-        <v>98</v>
-      </c>
-      <c r="H145" s="7">
-        <v>96</v>
-      </c>
-      <c r="I145" s="8">
-        <v>79</v>
-      </c>
-      <c r="J145" s="9">
-        <v>81</v>
-      </c>
-      <c r="K145" s="10">
-        <v>99</v>
-      </c>
       <c r="L145" s="11">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="M145" s="12">
-        <f t="shared" si="6"/>
-        <v>85</v>
+        <f>AVERAGE(G145:L145)</f>
+        <v>66</v>
       </c>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="1" t="s">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>240</v>
+        <v>365</v>
       </c>
       <c r="C146" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D146" s="2">
         <v>400</v>
@@ -6292,80 +6340,116 @@
       <c r="E146" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M146" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="G146" s="6">
+        <v>10</v>
+      </c>
+      <c r="H146" s="7">
+        <v>9</v>
+      </c>
+      <c r="I146" s="8">
+        <v>8</v>
+      </c>
+      <c r="J146" s="9">
+        <v>9</v>
+      </c>
+      <c r="K146" s="10">
+        <v>8</v>
+      </c>
+      <c r="L146" s="11">
+        <v>8</v>
+      </c>
+      <c r="M146" s="12">
+        <f>AVERAGE(G146:L146)</f>
+        <v>8.6666666666666661</v>
       </c>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="1" t="s">
-        <v>408</v>
+        <v>32</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>409</v>
+        <v>299</v>
       </c>
       <c r="C147" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D147" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G147" s="6">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="H147" s="7">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="I147" s="8">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="J147" s="9">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="K147" s="10">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="L147" s="11">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="M147" s="12">
-        <f t="shared" si="6"/>
-        <v>31.666666666666668</v>
+        <f>AVERAGE(G147:L147)</f>
+        <v>84.833333333333329</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="1" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>300</v>
+        <v>239</v>
       </c>
       <c r="C148" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D148" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M148" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="G148" s="6">
+        <v>98</v>
+      </c>
+      <c r="H148" s="7">
+        <v>96</v>
+      </c>
+      <c r="I148" s="8">
+        <v>79</v>
+      </c>
+      <c r="J148" s="9">
+        <v>81</v>
+      </c>
+      <c r="K148" s="10">
+        <v>99</v>
+      </c>
+      <c r="L148" s="11">
+        <v>57</v>
+      </c>
+      <c r="M148" s="12">
+        <f>AVERAGE(G148:L148)</f>
+        <v>85</v>
       </c>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="1" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C149" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D149" s="2">
         <v>400</v>
@@ -6374,70 +6458,76 @@
         <v>4</v>
       </c>
       <c r="M149" s="12" t="e">
-        <f t="shared" si="6"/>
+        <f>AVERAGE(G149:L149)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C150" s="1">
-        <v>10</v>
-      </c>
-      <c r="D150" s="1">
-        <v>500</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
-      <c r="L150" s="1"/>
-      <c r="M150" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>408</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C150" s="2">
+        <v>40</v>
+      </c>
+      <c r="D150" s="2">
+        <v>400</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G150" s="6">
+        <v>34</v>
+      </c>
+      <c r="H150" s="7">
+        <v>31</v>
+      </c>
+      <c r="I150" s="8">
+        <v>31</v>
+      </c>
+      <c r="J150" s="9">
+        <v>31</v>
+      </c>
+      <c r="K150" s="10">
+        <v>32</v>
+      </c>
+      <c r="L150" s="11">
+        <v>31</v>
+      </c>
+      <c r="M150" s="12">
+        <f>AVERAGE(G150:L150)</f>
+        <v>31.666666666666668</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C151" s="1">
-        <v>10</v>
-      </c>
-      <c r="D151" s="1">
-        <v>500</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
-      <c r="L151" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C151" s="2">
+        <v>50</v>
+      </c>
+      <c r="D151" s="2">
+        <v>500</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="M151" s="12" t="e">
-        <f t="shared" si="6"/>
+        <f>AVERAGE(G151:L151)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="1" t="s">
-        <v>380</v>
+        <v>115</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>381</v>
+        <v>241</v>
       </c>
       <c r="C152" s="2">
         <v>40</v>
@@ -6448,149 +6538,110 @@
       <c r="E152" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G152" s="6">
-        <v>18</v>
-      </c>
-      <c r="H152" s="7">
-        <v>17</v>
-      </c>
-      <c r="I152" s="8">
-        <v>17</v>
-      </c>
-      <c r="J152" s="9">
-        <v>17</v>
-      </c>
-      <c r="K152" s="10">
-        <v>17</v>
-      </c>
-      <c r="L152" s="11">
-        <v>17</v>
-      </c>
-      <c r="M152" s="12">
-        <f t="shared" si="6"/>
-        <v>17.166666666666668</v>
+      <c r="M152" s="12" t="e">
+        <f>AVERAGE(G152:L152)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C153" s="2">
-        <v>40</v>
-      </c>
-      <c r="D153" s="2">
-        <v>400</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G153" s="6">
-        <v>87</v>
-      </c>
-      <c r="H153" s="7">
-        <v>85</v>
-      </c>
-      <c r="I153" s="8">
-        <v>67</v>
-      </c>
-      <c r="J153" s="9">
-        <v>66</v>
-      </c>
-      <c r="K153" s="10">
-        <v>87</v>
-      </c>
-      <c r="L153" s="11">
-        <v>70</v>
-      </c>
-      <c r="M153" s="12">
-        <f t="shared" si="6"/>
-        <v>77</v>
+        <v>165</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C153" s="1">
+        <v>10</v>
+      </c>
+      <c r="D153" s="1">
+        <v>500</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="12" t="e">
+        <f>AVERAGE(G153:L153)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C154" s="2">
-        <v>50</v>
-      </c>
-      <c r="D154" s="2">
-        <v>500</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G154" s="6">
-        <v>92</v>
-      </c>
-      <c r="H154" s="7">
-        <v>90</v>
-      </c>
-      <c r="I154" s="8">
-        <v>70</v>
-      </c>
-      <c r="J154" s="9">
-        <v>70</v>
-      </c>
-      <c r="K154" s="10">
-        <v>90</v>
-      </c>
-      <c r="L154" s="11">
-        <v>72</v>
-      </c>
-      <c r="M154" s="12">
-        <f t="shared" si="6"/>
-        <v>80.666666666666671</v>
+        <v>164</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C154" s="1">
+        <v>10</v>
+      </c>
+      <c r="D154" s="1">
+        <v>500</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="12" t="e">
+        <f>AVERAGE(G154:L154)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="1" t="s">
-        <v>123</v>
+        <v>380</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>318</v>
+        <v>381</v>
       </c>
       <c r="C155" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D155" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G155" s="6">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="H155" s="7">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="I155" s="8">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="J155" s="9">
-        <v>67</v>
+        <v>17</v>
+      </c>
+      <c r="K155" s="10">
+        <v>17</v>
       </c>
       <c r="L155" s="11">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="M155" s="12">
-        <f t="shared" si="6"/>
-        <v>76</v>
+        <f>AVERAGE(G155:L155)</f>
+        <v>17.166666666666668</v>
       </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="1" t="s">
-        <v>374</v>
+        <v>67</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>375</v>
+        <v>160</v>
       </c>
       <c r="C156" s="2">
         <v>40</v>
@@ -6602,34 +6653,34 @@
         <v>4</v>
       </c>
       <c r="G156" s="6">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="H156" s="7">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="I156" s="8">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="J156" s="9">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="K156" s="10">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="L156" s="11">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M156" s="12">
-        <f t="shared" si="6"/>
-        <v>13.166666666666666</v>
+        <f>AVERAGE(G156:L156)</f>
+        <v>77</v>
       </c>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="1" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C157" s="2">
         <v>50</v>
@@ -6641,58 +6692,70 @@
         <v>4</v>
       </c>
       <c r="G157" s="6">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="H157" s="7">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="I157" s="8">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J157" s="9">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="K157" s="10">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="L157" s="11">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="M157" s="12">
-        <f t="shared" si="6"/>
-        <v>86.5</v>
+        <f>AVERAGE(G157:L157)</f>
+        <v>80.666666666666671</v>
       </c>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="C158" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D158" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G158" s="6">
+        <v>88</v>
+      </c>
+      <c r="H158" s="7">
+        <v>86</v>
+      </c>
+      <c r="I158" s="8">
+        <v>68</v>
+      </c>
       <c r="J158" s="9">
-        <v>55</v>
+        <v>67</v>
+      </c>
+      <c r="L158" s="11">
+        <v>71</v>
       </c>
       <c r="M158" s="12">
-        <f t="shared" si="6"/>
-        <v>55</v>
+        <f>AVERAGE(G158:L158)</f>
+        <v>76</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="1" t="s">
-        <v>114</v>
+        <v>374</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>181</v>
+        <v>375</v>
       </c>
       <c r="C159" s="2">
         <v>40</v>
@@ -6703,23 +6766,35 @@
       <c r="E159" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G159" s="6">
+        <v>14</v>
+      </c>
       <c r="H159" s="7">
-        <v>54</v>
+        <v>13</v>
+      </c>
+      <c r="I159" s="8">
+        <v>13</v>
       </c>
       <c r="J159" s="9">
-        <v>56</v>
+        <v>13</v>
+      </c>
+      <c r="K159" s="10">
+        <v>13</v>
+      </c>
+      <c r="L159" s="11">
+        <v>13</v>
       </c>
       <c r="M159" s="12">
-        <f t="shared" si="6"/>
-        <v>55</v>
+        <f>AVERAGE(G159:L159)</f>
+        <v>13.166666666666666</v>
       </c>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="1" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>182</v>
+        <v>301</v>
       </c>
       <c r="C160" s="2">
         <v>50</v>
@@ -6730,44 +6805,59 @@
       <c r="E160" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G160" s="6">
+        <v>63</v>
+      </c>
+      <c r="H160" s="7">
+        <v>101</v>
+      </c>
+      <c r="I160" s="8">
+        <v>84</v>
+      </c>
+      <c r="J160" s="9">
+        <v>84</v>
+      </c>
       <c r="K160" s="10">
+        <v>101</v>
+      </c>
+      <c r="L160" s="11">
         <v>86</v>
       </c>
       <c r="M160" s="12">
-        <f t="shared" si="6"/>
-        <v>86</v>
+        <f>AVERAGE(G160:L160)</f>
+        <v>86.5</v>
       </c>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="1" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="C161" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D161" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K161" s="10">
-        <v>67</v>
+      <c r="J161" s="9">
+        <v>55</v>
       </c>
       <c r="M161" s="12">
-        <f t="shared" si="6"/>
-        <v>67</v>
+        <f>AVERAGE(G161:L161)</f>
+        <v>55</v>
       </c>
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="1" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C162" s="2">
         <v>40</v>
@@ -6779,157 +6869,151 @@
         <v>4</v>
       </c>
       <c r="H162" s="7">
-        <v>14</v>
-      </c>
-      <c r="L162" s="11">
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="J162" s="9">
+        <v>56</v>
       </c>
       <c r="M162" s="12">
-        <f t="shared" si="6"/>
-        <v>14</v>
+        <f>AVERAGE(G162:L162)</f>
+        <v>55</v>
       </c>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="1" t="s">
-        <v>451</v>
+        <v>168</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>452</v>
+        <v>182</v>
       </c>
       <c r="C163" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D163" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G163" s="6">
-        <v>15</v>
-      </c>
-      <c r="I163" s="8">
-        <v>14</v>
+      <c r="K163" s="10">
+        <v>86</v>
       </c>
       <c r="M163" s="12">
-        <f t="shared" si="6"/>
-        <v>14.5</v>
+        <f>AVERAGE(G163:L163)</f>
+        <v>86</v>
       </c>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>184</v>
+        <v>302</v>
       </c>
       <c r="C164" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D164" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J164" s="9">
-        <v>14</v>
-      </c>
       <c r="K164" s="10">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="M164" s="12">
-        <f t="shared" si="6"/>
-        <v>14</v>
+        <f>AVERAGE(G164:L164)</f>
+        <v>67</v>
       </c>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C165" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D165" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H165" s="7">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="L165" s="11">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="M165" s="12">
-        <f t="shared" si="6"/>
-        <v>28</v>
+        <f>AVERAGE(G165:L165)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C166" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D166" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G166" s="6">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="I166" s="8">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="M166" s="12">
-        <f t="shared" si="6"/>
-        <v>57</v>
+        <f>AVERAGE(G166:L166)</f>
+        <v>14.5</v>
       </c>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C167" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D167" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>4</v>
       </c>
       <c r="J167" s="9">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="K167" s="10">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="M167" s="12">
-        <f t="shared" si="6"/>
-        <v>57</v>
+        <f>AVERAGE(G167:L167)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="1" t="s">
-        <v>457</v>
+        <v>58</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>458</v>
+        <v>185</v>
       </c>
       <c r="C168" s="2">
         <v>50</v>
@@ -6940,47 +7024,50 @@
       <c r="E168" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J168" s="9">
-        <v>76</v>
+      <c r="H168" s="7">
+        <v>5</v>
+      </c>
+      <c r="L168" s="11">
+        <v>51</v>
       </c>
       <c r="M168" s="12">
-        <f t="shared" si="6"/>
-        <v>76</v>
+        <f>AVERAGE(G168:L168)</f>
+        <v>28</v>
       </c>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="1" t="s">
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>244</v>
+        <v>454</v>
       </c>
       <c r="C169" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D169" s="2">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G169" s="6">
-        <v>54</v>
-      </c>
-      <c r="H169" s="7">
-        <v>49</v>
+        <v>62</v>
+      </c>
+      <c r="I169" s="8">
+        <v>52</v>
       </c>
       <c r="M169" s="12">
-        <f t="shared" si="6"/>
-        <v>51.5</v>
+        <f>AVERAGE(G169:L169)</f>
+        <v>57</v>
       </c>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="1" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C170" s="2">
         <v>50</v>
@@ -6991,170 +7078,146 @@
       <c r="E170" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="J170" s="9">
+        <v>52</v>
+      </c>
       <c r="K170" s="10">
-        <v>61</v>
-      </c>
-      <c r="L170" s="11">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="M170" s="12">
-        <f t="shared" si="6"/>
-        <v>55</v>
+        <f>AVERAGE(G170:L170)</f>
+        <v>57</v>
       </c>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="1" t="s">
-        <v>104</v>
+        <v>457</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>245</v>
+        <v>458</v>
       </c>
       <c r="C171" s="2">
         <v>50</v>
       </c>
       <c r="D171" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M171" s="12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+      <c r="J171" s="9">
+        <v>76</v>
+      </c>
+      <c r="M171" s="12">
+        <f>AVERAGE(G171:L171)</f>
+        <v>76</v>
       </c>
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="1" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C172" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D172" s="2">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I172" s="8">
-        <v>61</v>
+      <c r="G172" s="6">
+        <v>54</v>
+      </c>
+      <c r="H172" s="7">
+        <v>49</v>
       </c>
       <c r="M172" s="12">
-        <f t="shared" si="6"/>
-        <v>61</v>
+        <f>AVERAGE(G172:L172)</f>
+        <v>51.5</v>
       </c>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="1" t="s">
-        <v>376</v>
+        <v>173</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>377</v>
+        <v>187</v>
       </c>
       <c r="C173" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D173" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G173" s="6">
-        <v>16</v>
-      </c>
-      <c r="H173" s="7">
-        <v>15</v>
-      </c>
-      <c r="I173" s="8">
-        <v>15</v>
-      </c>
-      <c r="J173" s="9">
-        <v>15</v>
-      </c>
       <c r="K173" s="10">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="L173" s="11">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="M173" s="12">
-        <f t="shared" ref="M173:M204" si="7">AVERAGE(G173:L173)</f>
-        <v>15.166666666666666</v>
+        <f>AVERAGE(G173:L173)</f>
+        <v>55</v>
       </c>
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="1" t="s">
-        <v>378</v>
+        <v>104</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>379</v>
+        <v>245</v>
       </c>
       <c r="C174" s="2">
         <v>50</v>
       </c>
       <c r="D174" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G174" s="6">
-        <v>17</v>
-      </c>
-      <c r="H174" s="7">
-        <v>16</v>
-      </c>
-      <c r="I174" s="8">
-        <v>16</v>
-      </c>
-      <c r="J174" s="9">
-        <v>16</v>
-      </c>
-      <c r="K174" s="10">
-        <v>16</v>
-      </c>
-      <c r="L174" s="11">
-        <v>16</v>
-      </c>
-      <c r="M174" s="12">
-        <f t="shared" si="7"/>
-        <v>16.166666666666668</v>
+      <c r="M174" s="12" t="e">
+        <f>AVERAGE(G174:L174)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="1" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C175" s="2">
         <v>50</v>
       </c>
       <c r="D175" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K175" s="10">
-        <v>77</v>
+      <c r="I175" s="8">
+        <v>61</v>
       </c>
       <c r="M175" s="12">
-        <f t="shared" si="7"/>
-        <v>77</v>
+        <f>AVERAGE(G175:L175)</f>
+        <v>61</v>
       </c>
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="1" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C176" s="2">
         <v>40</v>
@@ -7166,58 +7229,73 @@
         <v>4</v>
       </c>
       <c r="G176" s="6">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H176" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I176" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J176" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K176" s="10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L176" s="11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M176" s="12">
-        <f t="shared" si="7"/>
-        <v>10.166666666666666</v>
+        <f>AVERAGE(G176:L176)</f>
+        <v>15.166666666666666</v>
       </c>
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="1" t="s">
-        <v>76</v>
+        <v>378</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>248</v>
+        <v>379</v>
       </c>
       <c r="C177" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D177" s="2">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G177" s="6">
-        <v>56</v>
+        <v>17</v>
+      </c>
+      <c r="H177" s="7">
+        <v>16</v>
+      </c>
+      <c r="I177" s="8">
+        <v>16</v>
+      </c>
+      <c r="J177" s="9">
+        <v>16</v>
+      </c>
+      <c r="K177" s="10">
+        <v>16</v>
+      </c>
+      <c r="L177" s="11">
+        <v>16</v>
       </c>
       <c r="M177" s="12">
-        <f t="shared" si="7"/>
-        <v>56</v>
+        <f>AVERAGE(G177:L177)</f>
+        <v>16.166666666666668</v>
       </c>
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="1" t="s">
-        <v>337</v>
+        <v>25</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>339</v>
+        <v>247</v>
       </c>
       <c r="C178" s="2">
         <v>50</v>
@@ -7228,167 +7306,182 @@
       <c r="E178" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G178" s="6">
-        <v>115</v>
-      </c>
-      <c r="H178" s="7">
-        <v>115</v>
-      </c>
-      <c r="I178" s="8">
-        <v>100</v>
-      </c>
-      <c r="J178" s="9">
-        <v>64</v>
-      </c>
       <c r="K178" s="10">
-        <v>112</v>
-      </c>
-      <c r="L178" s="11">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="M178" s="12">
-        <f t="shared" si="7"/>
-        <v>101.16666666666667</v>
+        <f>AVERAGE(G178:L178)</f>
+        <v>77</v>
       </c>
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="1" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="C179" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D179" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G179" s="6">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="H179" s="7">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="I179" s="8">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="J179" s="9">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="K179" s="10">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="L179" s="11">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="M179" s="12">
-        <f t="shared" si="7"/>
-        <v>98.666666666666671</v>
+        <f>AVERAGE(G179:L179)</f>
+        <v>10.166666666666666</v>
       </c>
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="1" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C180" s="2">
         <v>40</v>
       </c>
       <c r="D180" s="2">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M180" s="12" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="G180" s="6">
+        <v>56</v>
+      </c>
+      <c r="M180" s="12">
+        <f>AVERAGE(G180:L180)</f>
+        <v>56</v>
       </c>
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="1" t="s">
-        <v>50</v>
+        <v>337</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="C181" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D181" s="2">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G181" s="6">
-        <v>70</v>
+        <v>115</v>
+      </c>
+      <c r="H181" s="7">
+        <v>115</v>
+      </c>
+      <c r="I181" s="8">
+        <v>100</v>
+      </c>
+      <c r="J181" s="9">
+        <v>64</v>
+      </c>
+      <c r="K181" s="10">
+        <v>112</v>
+      </c>
+      <c r="L181" s="11">
+        <v>101</v>
       </c>
       <c r="M181" s="12">
-        <f t="shared" si="7"/>
-        <v>70</v>
+        <f>AVERAGE(G181:L181)</f>
+        <v>101.16666666666667</v>
       </c>
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="1" t="s">
-        <v>5</v>
+        <v>338</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="C182" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D182" s="2">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G182" s="6">
-        <v>71</v>
+        <v>112</v>
+      </c>
+      <c r="H182" s="7">
+        <v>83</v>
+      </c>
+      <c r="I182" s="8">
+        <v>96</v>
+      </c>
+      <c r="J182" s="9">
+        <v>95</v>
+      </c>
+      <c r="K182" s="10">
+        <v>108</v>
+      </c>
+      <c r="L182" s="11">
+        <v>98</v>
       </c>
       <c r="M182" s="12">
-        <f t="shared" si="7"/>
-        <v>71</v>
+        <f>AVERAGE(G182:L182)</f>
+        <v>98.666666666666671</v>
       </c>
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>328</v>
+        <v>249</v>
       </c>
       <c r="C183" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D183" s="2">
-        <v>14000</v>
+        <v>400</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H183" s="7">
-        <v>61</v>
-      </c>
-      <c r="M183" s="12">
-        <f t="shared" si="7"/>
-        <v>61</v>
+      <c r="M183" s="12" t="e">
+        <f>AVERAGE(G183:L183)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C184" s="2">
         <v>40</v>
@@ -7399,23 +7492,20 @@
       <c r="E184" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J184" s="9">
-        <v>57</v>
-      </c>
-      <c r="L184" s="11">
-        <v>56</v>
+      <c r="G184" s="6">
+        <v>70</v>
       </c>
       <c r="M184" s="12">
-        <f t="shared" si="7"/>
-        <v>56.5</v>
+        <f>AVERAGE(G184:L184)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C185" s="2">
         <v>40</v>
@@ -7426,20 +7516,20 @@
       <c r="E185" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L185" s="11">
-        <v>54</v>
+      <c r="G185" s="6">
+        <v>71</v>
       </c>
       <c r="M185" s="12">
-        <f t="shared" si="7"/>
-        <v>54</v>
+        <f>AVERAGE(G185:L185)</f>
+        <v>71</v>
       </c>
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="C186" s="2">
         <v>50</v>
@@ -7450,17 +7540,20 @@
       <c r="E186" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M186" s="12" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="H186" s="7">
+        <v>61</v>
+      </c>
+      <c r="M186" s="12">
+        <f>AVERAGE(G186:L186)</f>
+        <v>61</v>
       </c>
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C187" s="2">
         <v>40</v>
@@ -7471,26 +7564,23 @@
       <c r="E187" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H187" s="7">
-        <v>60</v>
-      </c>
-      <c r="K187" s="10">
-        <v>68</v>
+      <c r="J187" s="9">
+        <v>57</v>
       </c>
       <c r="L187" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M187" s="12">
-        <f t="shared" si="7"/>
-        <v>61</v>
+        <f>AVERAGE(G187:L187)</f>
+        <v>56.5</v>
       </c>
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="C188" s="2">
         <v>40</v>
@@ -7501,44 +7591,41 @@
       <c r="E188" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H188" s="7">
-        <v>57</v>
+      <c r="L188" s="11">
+        <v>54</v>
       </c>
       <c r="M188" s="12">
-        <f t="shared" si="7"/>
-        <v>57</v>
+        <f>AVERAGE(G188:L188)</f>
+        <v>54</v>
       </c>
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C189" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D189" s="2">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H189" s="7">
-        <v>59</v>
-      </c>
-      <c r="M189" s="12">
-        <f t="shared" si="7"/>
-        <v>59</v>
+      <c r="M189" s="12" t="e">
+        <f>AVERAGE(G189:L189)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C190" s="2">
         <v>40</v>
@@ -7550,130 +7637,139 @@
         <v>4</v>
       </c>
       <c r="H190" s="7">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="K190" s="10">
+        <v>68</v>
+      </c>
+      <c r="L190" s="11">
+        <v>55</v>
       </c>
       <c r="M190" s="12">
-        <f t="shared" si="7"/>
-        <v>58</v>
+        <f>AVERAGE(G190:L190)</f>
+        <v>61</v>
       </c>
     </row>
     <row r="191" spans="1:13">
       <c r="A191" s="1" t="s">
-        <v>422</v>
+        <v>6</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>423</v>
+        <v>348</v>
       </c>
       <c r="C191" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D191" s="2">
-        <v>400</v>
+        <v>11000</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G191" s="6">
-        <v>39</v>
-      </c>
       <c r="H191" s="7">
-        <v>35</v>
-      </c>
-      <c r="I191" s="8">
-        <v>35</v>
-      </c>
-      <c r="J191" s="9">
-        <v>35</v>
-      </c>
-      <c r="K191" s="10">
-        <v>41</v>
-      </c>
-      <c r="L191" s="11">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="M191" s="12">
-        <f t="shared" si="7"/>
-        <v>37.333333333333336</v>
+        <f>AVERAGE(G191:L191)</f>
+        <v>57</v>
       </c>
     </row>
     <row r="192" spans="1:13">
       <c r="A192" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>250</v>
+        <v>314</v>
       </c>
       <c r="C192" s="2">
         <v>40</v>
       </c>
       <c r="D192" s="2">
-        <v>400</v>
+        <v>11000</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G192" s="6">
-        <v>74</v>
+      <c r="H192" s="7">
+        <v>59</v>
       </c>
       <c r="M192" s="12">
-        <f t="shared" si="7"/>
-        <v>74</v>
+        <f>AVERAGE(G192:L192)</f>
+        <v>59</v>
       </c>
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="C193" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D193" s="2">
-        <v>500</v>
+        <v>11000</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M193" s="12" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="H193" s="7">
+        <v>58</v>
+      </c>
+      <c r="M193" s="12">
+        <f>AVERAGE(G193:L193)</f>
+        <v>58</v>
       </c>
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="1" t="s">
-        <v>141</v>
+        <v>422</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>303</v>
+        <v>423</v>
       </c>
       <c r="C194" s="2">
         <v>50</v>
       </c>
       <c r="D194" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G194" s="6">
-        <v>75</v>
+        <v>39</v>
+      </c>
+      <c r="H194" s="7">
+        <v>35</v>
+      </c>
+      <c r="I194" s="8">
+        <v>35</v>
+      </c>
+      <c r="J194" s="9">
+        <v>35</v>
+      </c>
+      <c r="K194" s="10">
+        <v>41</v>
+      </c>
+      <c r="L194" s="11">
+        <v>39</v>
       </c>
       <c r="M194" s="12">
-        <f t="shared" si="7"/>
-        <v>75</v>
+        <f>AVERAGE(G194:L194)</f>
+        <v>37.333333333333336</v>
       </c>
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="1" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C195" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D195" s="2">
         <v>400</v>
@@ -7682,73 +7778,40 @@
         <v>4</v>
       </c>
       <c r="G195" s="6">
-        <v>90</v>
-      </c>
-      <c r="H195" s="7">
-        <v>88</v>
-      </c>
-      <c r="I195" s="8">
-        <v>69</v>
-      </c>
-      <c r="J195" s="9">
-        <v>69</v>
-      </c>
-      <c r="K195" s="10">
-        <v>89</v>
-      </c>
-      <c r="L195" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M195" s="12">
-        <f t="shared" si="7"/>
-        <v>79.666666666666671</v>
+        <f>AVERAGE(G195:L195)</f>
+        <v>74</v>
       </c>
     </row>
     <row r="196" spans="1:13">
       <c r="A196" s="1" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="C196" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D196" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G196" s="6">
-        <v>91</v>
-      </c>
-      <c r="H196" s="7">
-        <v>89</v>
-      </c>
-      <c r="I196" s="8">
-        <v>71</v>
-      </c>
-      <c r="J196" s="9">
-        <v>71</v>
-      </c>
-      <c r="K196" s="10">
-        <v>91</v>
-      </c>
-      <c r="L196" s="11">
-        <v>74</v>
-      </c>
-      <c r="M196" s="12">
-        <f t="shared" si="7"/>
-        <v>81.166666666666671</v>
+      <c r="M196" s="12" t="e">
+        <f>AVERAGE(G196:L196)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="197" spans="1:13">
       <c r="A197" s="1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C197" s="2">
         <v>50</v>
@@ -7760,37 +7823,22 @@
         <v>4</v>
       </c>
       <c r="G197" s="6">
-        <v>93</v>
-      </c>
-      <c r="H197" s="7">
-        <v>91</v>
-      </c>
-      <c r="I197" s="8">
-        <v>72</v>
-      </c>
-      <c r="J197" s="9">
-        <v>72</v>
-      </c>
-      <c r="K197" s="10">
-        <v>92</v>
-      </c>
-      <c r="L197" s="11">
         <v>75</v>
       </c>
       <c r="M197" s="12">
-        <f t="shared" si="7"/>
-        <v>82.5</v>
+        <f>AVERAGE(G197:L197)</f>
+        <v>75</v>
       </c>
     </row>
     <row r="198" spans="1:13">
       <c r="A198" s="1" t="s">
-        <v>370</v>
+        <v>31</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>371</v>
+        <v>251</v>
       </c>
       <c r="C198" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D198" s="2">
         <v>400</v>
@@ -7799,103 +7847,112 @@
         <v>4</v>
       </c>
       <c r="G198" s="6">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="H198" s="7">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="I198" s="8">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="J198" s="9">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="K198" s="10">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="L198" s="11">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="M198" s="12">
-        <f t="shared" si="7"/>
-        <v>11.166666666666666</v>
+        <f>AVERAGE(G198:L198)</f>
+        <v>79.666666666666671</v>
       </c>
     </row>
     <row r="199" spans="1:13">
       <c r="A199" s="1" t="s">
-        <v>441</v>
+        <v>70</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>442</v>
+        <v>252</v>
       </c>
       <c r="C199" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D199" s="2">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G199" s="6">
+        <v>91</v>
+      </c>
+      <c r="H199" s="7">
+        <v>89</v>
+      </c>
       <c r="I199" s="8">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="J199" s="9">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K199" s="10">
-        <v>63</v>
+        <v>91</v>
+      </c>
+      <c r="L199" s="11">
+        <v>74</v>
       </c>
       <c r="M199" s="12">
-        <f t="shared" si="7"/>
-        <v>56.333333333333336</v>
+        <f>AVERAGE(G199:L199)</f>
+        <v>81.166666666666671</v>
       </c>
     </row>
     <row r="200" spans="1:13">
       <c r="A200" s="1" t="s">
-        <v>372</v>
+        <v>121</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>373</v>
+        <v>304</v>
       </c>
       <c r="C200" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D200" s="2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G200" s="6">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="H200" s="7">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I200" s="8">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="J200" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="K200" s="10">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="L200" s="11">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="M200" s="12">
-        <f t="shared" si="7"/>
-        <v>12.166666666666666</v>
+        <f>AVERAGE(G200:L200)</f>
+        <v>82.5</v>
       </c>
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="1" t="s">
-        <v>73</v>
+        <v>370</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>253</v>
+        <v>371</v>
       </c>
       <c r="C201" s="2">
         <v>40</v>
@@ -7906,83 +7963,107 @@
       <c r="E201" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G201" s="6">
+        <v>12</v>
+      </c>
       <c r="H201" s="7">
-        <v>62</v>
+        <v>11</v>
+      </c>
+      <c r="I201" s="8">
+        <v>11</v>
+      </c>
+      <c r="J201" s="9">
+        <v>11</v>
+      </c>
+      <c r="K201" s="10">
+        <v>11</v>
+      </c>
+      <c r="L201" s="11">
+        <v>11</v>
       </c>
       <c r="M201" s="12">
-        <f t="shared" si="7"/>
-        <v>62</v>
+        <f>AVERAGE(G201:L201)</f>
+        <v>11.166666666666666</v>
       </c>
     </row>
     <row r="202" spans="1:13">
       <c r="A202" s="1" t="s">
-        <v>360</v>
+        <v>441</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>361</v>
+        <v>442</v>
       </c>
       <c r="C202" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D202" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G202" s="6">
-        <v>5</v>
-      </c>
-      <c r="H202" s="7">
-        <v>6</v>
-      </c>
       <c r="I202" s="8">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="J202" s="9">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="K202" s="10">
-        <v>6</v>
-      </c>
-      <c r="L202" s="11">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="M202" s="12">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <f>AVERAGE(G202:L202)</f>
+        <v>56.333333333333336</v>
       </c>
     </row>
     <row r="203" spans="1:13">
       <c r="A203" s="1" t="s">
-        <v>14</v>
+        <v>372</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>221</v>
+        <v>373</v>
       </c>
       <c r="C203" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D203" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M203" s="12" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="G203" s="6">
+        <v>13</v>
+      </c>
+      <c r="H203" s="7">
+        <v>12</v>
+      </c>
+      <c r="I203" s="8">
+        <v>12</v>
+      </c>
+      <c r="J203" s="9">
+        <v>12</v>
+      </c>
+      <c r="K203" s="10">
+        <v>12</v>
+      </c>
+      <c r="L203" s="11">
+        <v>12</v>
+      </c>
+      <c r="M203" s="12">
+        <f>AVERAGE(G203:L203)</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="204" spans="1:13">
       <c r="A204" s="1" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="C204" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D204" s="2">
         <v>400</v>
@@ -7990,41 +8071,62 @@
       <c r="E204" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M204" s="12" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="H204" s="7">
+        <v>62</v>
+      </c>
+      <c r="M204" s="12">
+        <f>AVERAGE(G204:L204)</f>
+        <v>62</v>
       </c>
     </row>
     <row r="205" spans="1:13">
       <c r="A205" s="1" t="s">
-        <v>15</v>
+        <v>360</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>223</v>
+        <v>361</v>
       </c>
       <c r="C205" s="2">
         <v>40</v>
       </c>
       <c r="D205" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M205" s="12" t="e">
-        <f t="shared" ref="M205:M236" si="8">AVERAGE(G205:L205)</f>
-        <v>#DIV/0!</v>
+      <c r="G205" s="6">
+        <v>5</v>
+      </c>
+      <c r="H205" s="7">
+        <v>6</v>
+      </c>
+      <c r="I205" s="8">
+        <v>6</v>
+      </c>
+      <c r="J205" s="9">
+        <v>7</v>
+      </c>
+      <c r="K205" s="10">
+        <v>6</v>
+      </c>
+      <c r="L205" s="11">
+        <v>6</v>
+      </c>
+      <c r="M205" s="12">
+        <f>AVERAGE(G205:L205)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="206" spans="1:13">
       <c r="A206" s="1" t="s">
-        <v>431</v>
+        <v>14</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>432</v>
+        <v>221</v>
       </c>
       <c r="C206" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D206" s="2">
         <v>400</v>
@@ -8032,35 +8134,17 @@
       <c r="E206" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G206" s="6">
-        <v>49</v>
-      </c>
-      <c r="H206" s="7">
-        <v>44</v>
-      </c>
-      <c r="I206" s="8">
-        <v>44</v>
-      </c>
-      <c r="J206" s="9">
-        <v>45</v>
-      </c>
-      <c r="K206" s="10">
-        <v>55</v>
-      </c>
-      <c r="L206" s="11">
-        <v>44</v>
-      </c>
-      <c r="M206" s="12">
-        <f t="shared" si="8"/>
-        <v>46.833333333333336</v>
+      <c r="M206" s="12" t="e">
+        <f>AVERAGE(G206:L206)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="207" spans="1:13">
       <c r="A207" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="C207" s="2">
         <v>50</v>
@@ -8072,40 +8156,37 @@
         <v>4</v>
       </c>
       <c r="M207" s="12" t="e">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(G207:L207)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="208" spans="1:13">
       <c r="A208" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="C208" s="2">
         <v>40</v>
       </c>
       <c r="D208" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L208" s="11">
-        <v>63</v>
-      </c>
-      <c r="M208" s="12">
-        <f t="shared" si="8"/>
-        <v>63</v>
+      <c r="M208" s="12" t="e">
+        <f>AVERAGE(G208:L208)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="209" spans="1:13">
       <c r="A209" s="1" t="s">
-        <v>39</v>
+        <v>431</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="C209" s="2">
         <v>40</v>
@@ -8117,115 +8198,106 @@
         <v>4</v>
       </c>
       <c r="G209" s="6">
-        <v>82</v>
+        <v>49</v>
+      </c>
+      <c r="H209" s="7">
+        <v>44</v>
+      </c>
+      <c r="I209" s="8">
+        <v>44</v>
+      </c>
+      <c r="J209" s="9">
+        <v>45</v>
+      </c>
+      <c r="K209" s="10">
+        <v>55</v>
       </c>
       <c r="L209" s="11">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="M209" s="12">
-        <f t="shared" si="8"/>
-        <v>73</v>
+        <f>AVERAGE(G209:L209)</f>
+        <v>46.833333333333336</v>
       </c>
     </row>
     <row r="210" spans="1:13">
       <c r="A210" s="1" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="C210" s="2">
         <v>50</v>
       </c>
       <c r="D210" s="2">
-        <v>14000</v>
+        <v>400</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G210" s="6">
-        <v>32</v>
-      </c>
-      <c r="M210" s="12">
-        <f t="shared" si="8"/>
-        <v>32</v>
+      <c r="M210" s="12" t="e">
+        <f>AVERAGE(G210:L210)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="211" spans="1:13">
       <c r="A211" s="1" t="s">
-        <v>406</v>
+        <v>38</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>407</v>
+        <v>255</v>
       </c>
       <c r="C211" s="2">
         <v>40</v>
       </c>
       <c r="D211" s="2">
-        <v>11000</v>
+        <v>400</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G211" s="6">
-        <v>30</v>
-      </c>
-      <c r="H211" s="7">
-        <v>30</v>
-      </c>
-      <c r="I211" s="8">
-        <v>30</v>
-      </c>
-      <c r="J211" s="9">
-        <v>30</v>
-      </c>
-      <c r="K211" s="10">
-        <v>31</v>
-      </c>
       <c r="L211" s="11">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="M211" s="12">
-        <f t="shared" si="8"/>
-        <v>30.166666666666668</v>
+        <f>AVERAGE(G211:L211)</f>
+        <v>63</v>
       </c>
     </row>
     <row r="212" spans="1:13">
       <c r="A212" s="1" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="C212" s="2">
         <v>40</v>
       </c>
       <c r="D212" s="2">
-        <v>11000</v>
+        <v>400</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G212" s="6">
-        <v>79</v>
-      </c>
-      <c r="H212" s="7">
-        <v>71</v>
-      </c>
-      <c r="J212" s="9">
-        <v>60</v>
+        <v>82</v>
+      </c>
+      <c r="L212" s="11">
+        <v>64</v>
       </c>
       <c r="M212" s="12">
-        <f t="shared" si="8"/>
-        <v>70</v>
+        <f>AVERAGE(G212:L212)</f>
+        <v>73</v>
       </c>
     </row>
     <row r="213" spans="1:13">
       <c r="A213" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C213" s="2">
         <v>50</v>
@@ -8236,20 +8308,20 @@
       <c r="E213" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J213" s="9">
-        <v>61</v>
+      <c r="G213" s="6">
+        <v>32</v>
       </c>
       <c r="M213" s="12">
-        <f t="shared" si="8"/>
-        <v>61</v>
+        <f>AVERAGE(G213:L213)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="214" spans="1:13">
       <c r="A214" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C214" s="2">
         <v>40</v>
@@ -8261,97 +8333,88 @@
         <v>4</v>
       </c>
       <c r="G214" s="6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H214" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I214" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J214" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K214" s="10">
+        <v>31</v>
+      </c>
+      <c r="L214" s="11">
         <v>30</v>
       </c>
-      <c r="L214" s="11">
-        <v>29</v>
-      </c>
       <c r="M214" s="12">
-        <f t="shared" si="8"/>
-        <v>29</v>
+        <f>AVERAGE(G214:L214)</f>
+        <v>30.166666666666668</v>
       </c>
     </row>
     <row r="215" spans="1:13">
       <c r="A215" s="1" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>286</v>
+        <v>225</v>
       </c>
       <c r="C215" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D215" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G215" s="6">
-        <v>31</v>
+        <v>79</v>
+      </c>
+      <c r="H215" s="7">
+        <v>71</v>
+      </c>
+      <c r="J215" s="9">
+        <v>60</v>
       </c>
       <c r="M215" s="12">
-        <f t="shared" si="8"/>
-        <v>31</v>
+        <f>AVERAGE(G215:L215)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="216" spans="1:13">
       <c r="A216" s="1" t="s">
-        <v>398</v>
+        <v>128</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>399</v>
+        <v>285</v>
       </c>
       <c r="C216" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D216" s="2">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G216" s="6">
-        <v>29</v>
-      </c>
-      <c r="H216" s="7">
-        <v>27</v>
-      </c>
-      <c r="I216" s="8">
-        <v>27</v>
-      </c>
       <c r="J216" s="9">
-        <v>27</v>
-      </c>
-      <c r="K216" s="10">
-        <v>27</v>
-      </c>
-      <c r="L216" s="11">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="M216" s="12">
-        <f t="shared" si="8"/>
-        <v>27.166666666666668</v>
+        <f>AVERAGE(G216:L216)</f>
+        <v>61</v>
       </c>
     </row>
     <row r="217" spans="1:13">
       <c r="A217" s="1" t="s">
-        <v>98</v>
+        <v>404</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>226</v>
+        <v>405</v>
       </c>
       <c r="C217" s="2">
         <v>40</v>
@@ -8363,22 +8426,34 @@
         <v>4</v>
       </c>
       <c r="G217" s="6">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="H217" s="7">
-        <v>68</v>
+        <v>29</v>
+      </c>
+      <c r="I217" s="8">
+        <v>29</v>
+      </c>
+      <c r="J217" s="9">
+        <v>29</v>
+      </c>
+      <c r="K217" s="10">
+        <v>30</v>
+      </c>
+      <c r="L217" s="11">
+        <v>29</v>
       </c>
       <c r="M217" s="12">
-        <f t="shared" si="8"/>
-        <v>72</v>
+        <f>AVERAGE(G217:L217)</f>
+        <v>29</v>
       </c>
     </row>
     <row r="218" spans="1:13">
       <c r="A218" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C218" s="2">
         <v>50</v>
@@ -8390,19 +8465,19 @@
         <v>4</v>
       </c>
       <c r="G218" s="6">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="M218" s="12">
-        <f t="shared" si="8"/>
-        <v>77</v>
+        <f>AVERAGE(G218:L218)</f>
+        <v>31</v>
       </c>
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C219" s="2">
         <v>40</v>
@@ -8414,174 +8489,165 @@
         <v>4</v>
       </c>
       <c r="G219" s="6">
+        <v>29</v>
+      </c>
+      <c r="H219" s="7">
+        <v>27</v>
+      </c>
+      <c r="I219" s="8">
+        <v>27</v>
+      </c>
+      <c r="J219" s="9">
+        <v>27</v>
+      </c>
+      <c r="K219" s="10">
+        <v>27</v>
+      </c>
+      <c r="L219" s="11">
         <v>26</v>
       </c>
-      <c r="H219" s="7">
-        <v>25</v>
-      </c>
-      <c r="I219" s="8">
-        <v>25</v>
-      </c>
-      <c r="J219" s="9">
-        <v>25</v>
-      </c>
-      <c r="K219" s="10">
-        <v>26</v>
-      </c>
-      <c r="L219" s="11">
-        <v>25</v>
-      </c>
       <c r="M219" s="12">
-        <f t="shared" si="8"/>
-        <v>25.333333333333332</v>
+        <f>AVERAGE(G219:L219)</f>
+        <v>27.166666666666668</v>
       </c>
     </row>
     <row r="220" spans="1:13">
       <c r="A220" s="1" t="s">
-        <v>400</v>
+        <v>98</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>401</v>
+        <v>226</v>
       </c>
       <c r="C220" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D220" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G220" s="6">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="H220" s="7">
-        <v>26</v>
-      </c>
-      <c r="I220" s="8">
-        <v>26</v>
-      </c>
-      <c r="J220" s="9">
-        <v>26</v>
-      </c>
-      <c r="K220" s="10">
-        <v>28</v>
-      </c>
-      <c r="L220" s="11">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="M220" s="12">
-        <f t="shared" si="8"/>
-        <v>26.666666666666668</v>
+        <f>AVERAGE(G220:L220)</f>
+        <v>72</v>
       </c>
     </row>
     <row r="221" spans="1:13">
       <c r="A221" s="1" t="s">
-        <v>402</v>
+        <v>125</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>403</v>
+        <v>287</v>
       </c>
       <c r="C221" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D221" s="2">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G221" s="6">
-        <v>33</v>
-      </c>
-      <c r="H221" s="7">
-        <v>28</v>
-      </c>
-      <c r="I221" s="8">
-        <v>28</v>
-      </c>
-      <c r="J221" s="9">
-        <v>28</v>
-      </c>
-      <c r="K221" s="10">
-        <v>29</v>
-      </c>
-      <c r="L221" s="11">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="M221" s="12">
-        <f t="shared" si="8"/>
-        <v>29</v>
+        <f>AVERAGE(G221:L221)</f>
+        <v>77</v>
       </c>
     </row>
     <row r="222" spans="1:13" s="1" customFormat="1">
       <c r="A222" s="1" t="s">
-        <v>26</v>
+        <v>396</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>288</v>
+        <v>397</v>
       </c>
       <c r="C222" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D222" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F222" s="2"/>
       <c r="G222" s="6">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="H222" s="7">
-        <v>70</v>
-      </c>
-      <c r="I222" s="8"/>
-      <c r="J222" s="9"/>
-      <c r="K222" s="10"/>
-      <c r="L222" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="I222" s="8">
+        <v>25</v>
+      </c>
+      <c r="J222" s="9">
+        <v>25</v>
+      </c>
+      <c r="K222" s="10">
+        <v>26</v>
+      </c>
+      <c r="L222" s="11">
+        <v>25</v>
+      </c>
       <c r="M222" s="12">
-        <f t="shared" si="8"/>
-        <v>74</v>
+        <f>AVERAGE(G222:L222)</f>
+        <v>25.333333333333332</v>
       </c>
     </row>
     <row r="223" spans="1:13" s="1" customFormat="1">
       <c r="A223" s="1" t="s">
-        <v>330</v>
+        <v>400</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>334</v>
+        <v>401</v>
       </c>
       <c r="C223" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D223" s="2">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F223" s="2"/>
-      <c r="G223" s="6"/>
+      <c r="G223" s="6">
+        <v>27</v>
+      </c>
       <c r="H223" s="7">
-        <v>79</v>
-      </c>
-      <c r="I223" s="8"/>
-      <c r="J223" s="9"/>
-      <c r="K223" s="10"/>
-      <c r="L223" s="11"/>
+        <v>26</v>
+      </c>
+      <c r="I223" s="8">
+        <v>26</v>
+      </c>
+      <c r="J223" s="9">
+        <v>26</v>
+      </c>
+      <c r="K223" s="10">
+        <v>28</v>
+      </c>
+      <c r="L223" s="11">
+        <v>27</v>
+      </c>
       <c r="M223" s="12">
-        <f t="shared" si="8"/>
-        <v>79</v>
+        <f>AVERAGE(G223:L223)</f>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="224" spans="1:13">
       <c r="A224" s="1" t="s">
-        <v>329</v>
+        <v>402</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>333</v>
+        <v>403</v>
       </c>
       <c r="C224" s="2">
         <v>40</v>
@@ -8592,182 +8658,182 @@
       <c r="E224" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G224" s="6">
+        <v>33</v>
+      </c>
       <c r="H224" s="7">
-        <v>80</v>
+        <v>28</v>
+      </c>
+      <c r="I224" s="8">
+        <v>28</v>
+      </c>
+      <c r="J224" s="9">
+        <v>28</v>
+      </c>
+      <c r="K224" s="10">
+        <v>29</v>
+      </c>
+      <c r="L224" s="11">
+        <v>28</v>
       </c>
       <c r="M224" s="12">
-        <f t="shared" si="8"/>
-        <v>80</v>
+        <f>AVERAGE(G224:L224)</f>
+        <v>29</v>
       </c>
     </row>
     <row r="225" spans="1:13">
       <c r="A225" s="1" t="s">
-        <v>331</v>
+        <v>26</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>335</v>
+        <v>288</v>
       </c>
       <c r="C225" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D225" s="2">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G225" s="6">
+        <v>78</v>
+      </c>
       <c r="H225" s="7">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="M225" s="12">
-        <f t="shared" si="8"/>
-        <v>78</v>
+        <f>AVERAGE(G225:L225)</f>
+        <v>74</v>
       </c>
     </row>
     <row r="226" spans="1:13">
       <c r="A226" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C226" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D226" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H226" s="7">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M226" s="12">
-        <f t="shared" si="8"/>
-        <v>81</v>
+        <f>AVERAGE(G226:L226)</f>
+        <v>79</v>
       </c>
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="1" t="s">
-        <v>163</v>
+        <v>329</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>188</v>
+        <v>333</v>
       </c>
       <c r="C227" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D227" s="2">
-        <v>500</v>
+        <v>11000</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K227" s="10">
-        <v>60</v>
+      <c r="H227" s="7">
+        <v>80</v>
       </c>
       <c r="M227" s="12">
-        <f t="shared" si="8"/>
-        <v>60</v>
+        <f>AVERAGE(G227:L227)</f>
+        <v>80</v>
       </c>
     </row>
     <row r="228" spans="1:13">
       <c r="A228" s="1" t="s">
-        <v>74</v>
+        <v>331</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>257</v>
+        <v>335</v>
       </c>
       <c r="C228" s="2">
         <v>40</v>
       </c>
       <c r="D228" s="2">
-        <v>400</v>
+        <v>11000</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J228" s="9">
-        <v>58</v>
-      </c>
-      <c r="L228" s="11">
-        <v>60</v>
+      <c r="H228" s="7">
+        <v>78</v>
       </c>
       <c r="M228" s="12">
-        <f t="shared" si="8"/>
-        <v>59</v>
+        <f>AVERAGE(G228:L228)</f>
+        <v>78</v>
       </c>
     </row>
     <row r="229" spans="1:13">
       <c r="A229" s="1" t="s">
-        <v>142</v>
+        <v>332</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="C229" s="2">
         <v>50</v>
       </c>
       <c r="D229" s="2">
-        <v>500</v>
+        <v>14000</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J229" s="9">
-        <v>59</v>
+      <c r="H229" s="7">
+        <v>81</v>
       </c>
       <c r="M229" s="12">
-        <f t="shared" si="8"/>
-        <v>59</v>
+        <f>AVERAGE(G229:L229)</f>
+        <v>81</v>
       </c>
     </row>
     <row r="230" spans="1:13">
       <c r="A230" s="1" t="s">
-        <v>437</v>
+        <v>163</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>438</v>
+        <v>188</v>
       </c>
       <c r="C230" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D230" s="2">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G230" s="6">
-        <v>53</v>
-      </c>
-      <c r="H230" s="7">
-        <v>48</v>
-      </c>
-      <c r="I230" s="8">
-        <v>48</v>
-      </c>
-      <c r="J230" s="9">
-        <v>48</v>
-      </c>
       <c r="K230" s="10">
-        <v>58</v>
-      </c>
-      <c r="L230" s="11">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M230" s="12">
-        <f t="shared" si="8"/>
-        <v>50.5</v>
+        <f>AVERAGE(G230:L230)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="231" spans="1:13">
       <c r="A231" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C231" s="2">
         <v>40</v>
@@ -8778,20 +8844,23 @@
       <c r="E231" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G231" s="6">
-        <v>59</v>
+      <c r="J231" s="9">
+        <v>58</v>
+      </c>
+      <c r="L231" s="11">
+        <v>60</v>
       </c>
       <c r="M231" s="12">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(G231:L231)</f>
         <v>59</v>
       </c>
     </row>
     <row r="232" spans="1:13">
       <c r="A232" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C232" s="2">
         <v>50</v>
@@ -8802,329 +8871,314 @@
       <c r="E232" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G232" s="6">
-        <v>60</v>
+      <c r="J232" s="9">
+        <v>59</v>
       </c>
       <c r="M232" s="12">
-        <f t="shared" si="8"/>
-        <v>60</v>
+        <f>AVERAGE(G232:L232)</f>
+        <v>59</v>
       </c>
     </row>
     <row r="233" spans="1:13">
       <c r="A233" s="1" t="s">
-        <v>362</v>
+        <v>437</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>363</v>
+        <v>438</v>
       </c>
       <c r="C233" s="2">
         <v>40</v>
       </c>
       <c r="D233" s="2">
-        <v>150</v>
+        <v>4000</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G233" s="6">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="H233" s="7">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="I233" s="8">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="J233" s="9">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="K233" s="10">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="L233" s="11">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="M233" s="12">
-        <f t="shared" si="8"/>
-        <v>7.666666666666667</v>
+        <f>AVERAGE(G233:L233)</f>
+        <v>50.5</v>
       </c>
     </row>
     <row r="234" spans="1:13">
       <c r="A234" s="1" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="C234" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D234" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G234" s="6">
-        <v>61</v>
-      </c>
-      <c r="H234" s="7">
-        <v>93</v>
-      </c>
-      <c r="I234" s="8">
-        <v>75</v>
-      </c>
-      <c r="J234" s="9">
-        <v>75</v>
-      </c>
-      <c r="K234" s="10">
-        <v>95</v>
-      </c>
-      <c r="L234" s="11">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="M234" s="12">
-        <f t="shared" si="8"/>
-        <v>79.5</v>
+        <f>AVERAGE(G234:L234)</f>
+        <v>59</v>
       </c>
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="1" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="C235" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D235" s="2">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G235" s="6">
-        <v>94</v>
-      </c>
-      <c r="H235" s="7">
-        <v>65</v>
-      </c>
-      <c r="I235" s="8">
-        <v>59</v>
-      </c>
-      <c r="J235" s="9">
-        <v>77</v>
-      </c>
-      <c r="K235" s="10">
-        <v>96</v>
-      </c>
-      <c r="L235" s="11">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="M235" s="12">
-        <f t="shared" si="8"/>
-        <v>78.333333333333329</v>
+        <f>AVERAGE(G235:L235)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="236" spans="1:13">
       <c r="A236" s="1" t="s">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="C236" s="2">
         <v>40</v>
       </c>
       <c r="D236" s="2">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G236" s="6">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="H236" s="7">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="I236" s="8">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="J236" s="9">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="K236" s="10">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="L236" s="11">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="M236" s="12">
-        <f t="shared" si="8"/>
-        <v>80.5</v>
+        <f>AVERAGE(G236:L236)</f>
+        <v>7.666666666666667</v>
       </c>
     </row>
     <row r="237" spans="1:13">
       <c r="A237" s="1" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="C237" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D237" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G237" s="6">
+        <v>61</v>
+      </c>
       <c r="H237" s="7">
-        <v>66</v>
+        <v>93</v>
+      </c>
+      <c r="I237" s="8">
+        <v>75</v>
+      </c>
+      <c r="J237" s="9">
+        <v>75</v>
+      </c>
+      <c r="K237" s="10">
+        <v>95</v>
+      </c>
+      <c r="L237" s="11">
+        <v>78</v>
       </c>
       <c r="M237" s="12">
-        <f t="shared" ref="M237:M249" si="9">AVERAGE(G237:L237)</f>
-        <v>66</v>
+        <f>AVERAGE(G237:L237)</f>
+        <v>79.5</v>
       </c>
     </row>
     <row r="238" spans="1:13">
       <c r="A238" s="1" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="C238" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D238" s="2">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G238" s="6">
+        <v>94</v>
+      </c>
       <c r="H238" s="7">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="I238" s="8">
+        <v>59</v>
+      </c>
+      <c r="J238" s="9">
+        <v>77</v>
+      </c>
+      <c r="K238" s="10">
+        <v>96</v>
+      </c>
+      <c r="L238" s="11">
+        <v>79</v>
       </c>
       <c r="M238" s="12">
-        <f t="shared" si="9"/>
-        <v>67</v>
+        <f>AVERAGE(G238:L238)</f>
+        <v>78.333333333333329</v>
       </c>
     </row>
     <row r="239" spans="1:13">
       <c r="A239" s="1" t="s">
-        <v>388</v>
+        <v>81</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="C239" s="2">
         <v>40</v>
       </c>
       <c r="D239" s="2">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G239" s="6">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="H239" s="7">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="I239" s="8">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="J239" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="K239" s="10">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="L239" s="11">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="M239" s="12">
-        <f t="shared" si="9"/>
-        <v>21.166666666666668</v>
+        <f>AVERAGE(G239:L239)</f>
+        <v>80.5</v>
       </c>
     </row>
     <row r="240" spans="1:13">
       <c r="A240" s="1" t="s">
-        <v>455</v>
+        <v>72</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>456</v>
+        <v>259</v>
       </c>
       <c r="C240" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D240" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K240" s="10">
-        <v>22</v>
+      <c r="H240" s="7">
+        <v>66</v>
       </c>
       <c r="M240" s="12">
-        <f t="shared" si="9"/>
-        <v>22</v>
+        <f>AVERAGE(G240:L240)</f>
+        <v>66</v>
       </c>
     </row>
     <row r="241" spans="1:13">
       <c r="A241" s="1" t="s">
-        <v>424</v>
+        <v>122</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>425</v>
+        <v>308</v>
       </c>
       <c r="C241" s="2">
         <v>50</v>
       </c>
       <c r="D241" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G241" s="6">
-        <v>44</v>
-      </c>
       <c r="H241" s="7">
-        <v>40</v>
-      </c>
-      <c r="I241" s="8">
-        <v>40</v>
-      </c>
-      <c r="J241" s="9">
-        <v>40</v>
-      </c>
-      <c r="K241" s="10">
-        <v>42</v>
-      </c>
-      <c r="L241" s="11">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="M241" s="12">
-        <f t="shared" si="9"/>
-        <v>41</v>
+        <f>AVERAGE(G241:L241)</f>
+        <v>67</v>
       </c>
     </row>
     <row r="242" spans="1:13">
       <c r="A242" s="1" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="C242" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D242" s="2">
         <v>400</v>
@@ -9133,88 +9187,100 @@
         <v>4</v>
       </c>
       <c r="G242" s="6">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="H242" s="7">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I242" s="8">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="J242" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="K242" s="10">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="L242" s="11">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="M242" s="12">
-        <f t="shared" si="9"/>
-        <v>42</v>
+        <f>AVERAGE(G242:L242)</f>
+        <v>21.166666666666668</v>
       </c>
     </row>
     <row r="243" spans="1:13">
       <c r="A243" s="1" t="s">
-        <v>47</v>
+        <v>455</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>260</v>
+        <v>456</v>
       </c>
       <c r="C243" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D243" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H243" s="7">
-        <v>77</v>
-      </c>
       <c r="K243" s="10">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="M243" s="12">
-        <f t="shared" si="9"/>
-        <v>80</v>
+        <f>AVERAGE(G243:L243)</f>
+        <v>22</v>
       </c>
     </row>
     <row r="244" spans="1:13">
       <c r="A244" s="1" t="s">
-        <v>156</v>
+        <v>424</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>189</v>
+        <v>425</v>
       </c>
       <c r="C244" s="2">
         <v>50</v>
       </c>
       <c r="D244" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G244" s="6">
-        <v>83</v>
+        <v>44</v>
+      </c>
+      <c r="H244" s="7">
+        <v>40</v>
+      </c>
+      <c r="I244" s="8">
+        <v>40</v>
+      </c>
+      <c r="J244" s="9">
+        <v>40</v>
+      </c>
+      <c r="K244" s="10">
+        <v>42</v>
+      </c>
+      <c r="L244" s="11">
+        <v>40</v>
       </c>
       <c r="M244" s="12">
-        <f t="shared" si="9"/>
-        <v>83</v>
+        <f>AVERAGE(G244:L244)</f>
+        <v>41</v>
       </c>
     </row>
     <row r="245" spans="1:13">
       <c r="A245" s="1" t="s">
-        <v>78</v>
+        <v>426</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>261</v>
+        <v>427</v>
       </c>
       <c r="C245" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D245" s="2">
         <v>400</v>
@@ -9222,38 +9288,62 @@
       <c r="E245" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M245" s="12" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="G245" s="6">
+        <v>45</v>
+      </c>
+      <c r="H245" s="7">
+        <v>41</v>
+      </c>
+      <c r="I245" s="8">
+        <v>41</v>
+      </c>
+      <c r="J245" s="9">
+        <v>41</v>
+      </c>
+      <c r="K245" s="10">
+        <v>43</v>
+      </c>
+      <c r="L245" s="11">
+        <v>41</v>
+      </c>
+      <c r="M245" s="12">
+        <f>AVERAGE(G245:L245)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="246" spans="1:13">
       <c r="A246" s="1" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="C246" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D246" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M246" s="12" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="H246" s="7">
+        <v>77</v>
+      </c>
+      <c r="K246" s="10">
+        <v>83</v>
+      </c>
+      <c r="M246" s="12">
+        <f>AVERAGE(G246:L246)</f>
+        <v>80</v>
       </c>
     </row>
     <row r="247" spans="1:13">
       <c r="A247" s="1" t="s">
-        <v>482</v>
+        <v>156</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>486</v>
+        <v>189</v>
       </c>
       <c r="C247" s="2">
         <v>50</v>
@@ -9265,103 +9355,58 @@
         <v>4</v>
       </c>
       <c r="G247" s="6">
-        <v>119</v>
-      </c>
-      <c r="H247" s="7">
-        <v>118</v>
-      </c>
-      <c r="I247" s="8">
-        <v>103</v>
-      </c>
-      <c r="K247" s="10">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="M247" s="12">
-        <f t="shared" si="9"/>
-        <v>114</v>
+        <f>AVERAGE(G247:L247)</f>
+        <v>83</v>
       </c>
     </row>
     <row r="248" spans="1:13">
       <c r="A248" s="1" t="s">
-        <v>483</v>
+        <v>78</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>487</v>
+        <v>261</v>
       </c>
       <c r="C248" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D248" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G248" s="6">
-        <v>118</v>
-      </c>
-      <c r="H248" s="7">
-        <v>117</v>
-      </c>
-      <c r="I248" s="8">
-        <v>102</v>
-      </c>
-      <c r="J248" s="9">
-        <v>100</v>
-      </c>
-      <c r="K248" s="10">
-        <v>115</v>
-      </c>
-      <c r="L248" s="11">
-        <v>104</v>
-      </c>
-      <c r="M248" s="12">
-        <f t="shared" si="9"/>
-        <v>109.33333333333333</v>
+      <c r="M248" s="12" t="e">
+        <f>AVERAGE(G248:L248)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="249" spans="1:13">
       <c r="A249" s="1" t="s">
-        <v>484</v>
+        <v>129</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>485</v>
+        <v>309</v>
       </c>
       <c r="C249" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D249" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G249" s="6">
-        <v>117</v>
-      </c>
-      <c r="H249" s="7">
-        <v>116</v>
-      </c>
-      <c r="I249" s="8">
-        <v>101</v>
-      </c>
-      <c r="J249" s="9">
-        <v>99</v>
-      </c>
-      <c r="K249" s="10">
-        <v>114</v>
-      </c>
-      <c r="L249" s="11">
-        <v>103</v>
-      </c>
-      <c r="M249" s="12">
-        <f t="shared" si="9"/>
-        <v>108.33333333333333</v>
+      <c r="M249" s="12" t="e">
+        <f>AVERAGE(G249:L249)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{E6A05FEB-E022-483C-B74F-E4F502393947}">
-    <sortState ref="A2:M246">
+    <sortState ref="A2:M249">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>

--- a/Ex quest.xlsx
+++ b/Ex quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="296" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C5C4CEE9-AE47-46ED-8CBD-994F8F79E329}"/>
+  <xr:revisionPtr revIDLastSave="297" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CE66F9DF-4311-4A55-88F9-D8E9BB1FD3A0}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="497">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1514,9 +1514,6 @@
     <t>ハロウィン狂騒曲～紅と闇の輪舞～ [EX極]</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 17/10/2019</t>
-  </si>
-  <si>
     <t>超高難易度クエスト 〈七つの大罪〉 EX極3</t>
   </si>
   <si>
@@ -1527,6 +1524,21 @@
   </si>
   <si>
     <t>七つの大罪 [EX8]</t>
+  </si>
+  <si>
+    <t>超高難易度クエスト 〈七つの大罪〉 EX極4</t>
+  </si>
+  <si>
+    <t>【裁定銃『ティファレト』登場】 ファントム オブ アルケミスト8[EX]</t>
+  </si>
+  <si>
+    <t>七つの大罪 [EX極4]</t>
+  </si>
+  <si>
+    <t>ファントム オブ アルケミスト8 [EX]</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 24/10/2019</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1548,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1623,6 +1635,14 @@
       <name val="Microsoft JhengHei"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1647,13 +1667,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1673,12 +1694,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2073,11 +2140,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M249"/>
+  <dimension ref="A1:M251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B94" sqref="B94:L94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2100,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2113,27 +2180,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1008)</f>
-        <v>火 124</v>
+        <v>火 125</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1008)</f>
-        <v>水 122</v>
+        <v>水 123</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1008)</f>
-        <v>風 107</v>
+        <v>風 108</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1008)</f>
-        <v>雷 105</v>
+        <v>雷 106</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1008)</f>
-        <v>光 120</v>
+        <v>光 121</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1008)</f>
-        <v>暗 108</v>
+        <v>暗 109</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>346</v>
@@ -4670,10 +4737,10 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>64</v>
+        <v>493</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>228</v>
+        <v>495</v>
       </c>
       <c r="C94" s="2">
         <v>40</v>
@@ -4685,55 +4752,73 @@
         <v>4</v>
       </c>
       <c r="G94" s="6">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="H94" s="7">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="I94" s="8">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="J94" s="9">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K94" s="10">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="L94" s="11">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="M94" s="12">
         <f>AVERAGE(G94:L94)</f>
-        <v>99.5</v>
+        <v>115.33333333333333</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C95" s="2">
         <v>40</v>
       </c>
       <c r="D95" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M95" s="12" t="e">
+      <c r="G95" s="6">
+        <v>114</v>
+      </c>
+      <c r="H95" s="7">
+        <v>113</v>
+      </c>
+      <c r="I95" s="8">
+        <v>98</v>
+      </c>
+      <c r="J95" s="9">
+        <v>97</v>
+      </c>
+      <c r="K95" s="10">
+        <v>110</v>
+      </c>
+      <c r="L95" s="11">
+        <v>65</v>
+      </c>
+      <c r="M95" s="12">
         <f>AVERAGE(G95:L95)</f>
-        <v>#DIV/0!</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C96" s="2">
         <v>40</v>
@@ -4751,10 +4836,10 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C97" s="2">
         <v>40</v>
@@ -4772,13 +4857,13 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C98" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D98" s="2">
         <v>500</v>
@@ -4793,10 +4878,10 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>345</v>
+        <v>220</v>
       </c>
       <c r="C99" s="2">
         <v>50</v>
@@ -4807,143 +4892,125 @@
       <c r="E99" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H99" s="7">
-        <v>76</v>
-      </c>
-      <c r="I99" s="8">
-        <v>63</v>
-      </c>
-      <c r="L99" s="11">
-        <v>62</v>
-      </c>
-      <c r="M99" s="12">
+      <c r="M99" s="12" t="e">
         <f>AVERAGE(G99:L99)</f>
-        <v>67</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>229</v>
+        <v>345</v>
       </c>
       <c r="C100" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D100" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="6">
-        <v>69</v>
-      </c>
       <c r="H100" s="7">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="I100" s="8">
-        <v>73</v>
-      </c>
-      <c r="J100" s="9">
-        <v>73</v>
-      </c>
-      <c r="K100" s="10">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="L100" s="11">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="M100" s="12">
         <f>AVERAGE(G100:L100)</f>
-        <v>73.166666666666671</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>293</v>
+        <v>229</v>
       </c>
       <c r="C101" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D101" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G101" s="6">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H101" s="7">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="I101" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J101" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K101" s="10">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L101" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M101" s="12">
         <f>AVERAGE(G101:L101)</f>
-        <v>79.666666666666671</v>
+        <v>73.166666666666671</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>473</v>
+        <v>120</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="C102" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D102" s="2">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G102" s="6">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="H102" s="7">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="I102" s="8">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="J102" s="9">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="K102" s="10">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="L102" s="11">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="M102" s="12">
         <f>AVERAGE(G102:L102)</f>
-        <v>91.666666666666671</v>
+        <v>79.666666666666671</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C103" s="2">
         <v>40</v>
@@ -4955,34 +5022,34 @@
         <v>4</v>
       </c>
       <c r="G103" s="6">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H103" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I103" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J103" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K103" s="10">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L103" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M103" s="12">
         <f>AVERAGE(G103:L103)</f>
-        <v>92.666666666666671</v>
+        <v>91.666666666666671</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C104" s="2">
         <v>40</v>
@@ -4994,34 +5061,34 @@
         <v>4</v>
       </c>
       <c r="G104" s="6">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H104" s="7">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="I104" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J104" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K104" s="10">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L104" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M104" s="12">
         <f>AVERAGE(G104:L104)</f>
-        <v>88</v>
+        <v>92.666666666666671</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C105" s="2">
         <v>40</v>
@@ -5033,34 +5100,34 @@
         <v>4</v>
       </c>
       <c r="G105" s="6">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H105" s="7">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="I105" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J105" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K105" s="10">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L105" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M105" s="12">
         <f>AVERAGE(G105:L105)</f>
-        <v>94.5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C106" s="2">
         <v>40</v>
@@ -5072,34 +5139,34 @@
         <v>4</v>
       </c>
       <c r="G106" s="6">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H106" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I106" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J106" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K106" s="10">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L106" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M106" s="12">
         <f>AVERAGE(G106:L106)</f>
-        <v>95.5</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>478</v>
+        <v>277</v>
       </c>
       <c r="C107" s="2">
         <v>40</v>
@@ -5111,34 +5178,34 @@
         <v>4</v>
       </c>
       <c r="G107" s="6">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H107" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I107" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J107" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K107" s="10">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="L107" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M107" s="12">
         <f>AVERAGE(G107:L107)</f>
-        <v>100.66666666666667</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C108" s="2">
         <v>40</v>
@@ -5150,34 +5217,34 @@
         <v>4</v>
       </c>
       <c r="G108" s="6">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H108" s="7">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I108" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J108" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K108" s="10">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L108" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M108" s="12">
         <f>AVERAGE(G108:L108)</f>
-        <v>102.5</v>
+        <v>100.66666666666667</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="1" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="C109" s="2">
         <v>40</v>
@@ -5189,73 +5256,73 @@
         <v>4</v>
       </c>
       <c r="G109" s="6">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="H109" s="7">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="I109" s="8">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J109" s="9">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K109" s="10">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="L109" s="11">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M109" s="12">
         <f>AVERAGE(G109:L109)</f>
-        <v>111.5</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="1" t="s">
-        <v>116</v>
+        <v>489</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>278</v>
+        <v>491</v>
       </c>
       <c r="C110" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D110" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G110" s="6">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="H110" s="7">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="I110" s="8">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="J110" s="9">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="K110" s="10">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="L110" s="11">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="M110" s="12">
         <f>AVERAGE(G110:L110)</f>
-        <v>69.166666666666671</v>
+        <v>111.5</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="1" t="s">
-        <v>480</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>481</v>
+        <v>278</v>
       </c>
       <c r="C111" s="2">
         <v>50</v>
@@ -5267,34 +5334,34 @@
         <v>4</v>
       </c>
       <c r="G111" s="6">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="H111" s="7">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="I111" s="8">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="J111" s="9">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="K111" s="10">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="L111" s="11">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="M111" s="12">
         <f>AVERAGE(G111:L111)</f>
-        <v>106.33333333333333</v>
+        <v>69.166666666666671</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="1" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C112" s="2">
         <v>50</v>
@@ -5306,136 +5373,118 @@
         <v>4</v>
       </c>
       <c r="G112" s="6">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H112" s="7">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I112" s="8">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J112" s="9">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K112" s="10">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L112" s="11">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M112" s="12">
         <f>AVERAGE(G112:L112)</f>
-        <v>112.5</v>
+        <v>106.33333333333333</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="1" t="s">
-        <v>463</v>
+        <v>488</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="C113" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D113" s="2">
-        <v>400</v>
+        <v>14000</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G113" s="6">
+        <v>122</v>
+      </c>
       <c r="H113" s="7">
+        <v>121</v>
+      </c>
+      <c r="I113" s="8">
+        <v>105</v>
+      </c>
+      <c r="J113" s="9">
         <v>102</v>
+      </c>
+      <c r="K113" s="10">
+        <v>118</v>
+      </c>
+      <c r="L113" s="11">
+        <v>107</v>
       </c>
       <c r="M113" s="12">
         <f>AVERAGE(G113:L113)</f>
-        <v>102</v>
+        <v>112.5</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="1" t="s">
-        <v>350</v>
+        <v>492</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>351</v>
+        <v>494</v>
       </c>
       <c r="C114" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D114" s="2">
-        <v>500</v>
+        <v>14000</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G114" s="6">
-        <v>2</v>
-      </c>
-      <c r="H114" s="7">
-        <v>1</v>
-      </c>
-      <c r="I114" s="8">
-        <v>1</v>
-      </c>
-      <c r="J114" s="9">
-        <v>1</v>
-      </c>
-      <c r="K114" s="10">
-        <v>1</v>
-      </c>
-      <c r="L114" s="11">
-        <v>1</v>
-      </c>
-      <c r="M114" s="12">
+      <c r="M114" s="12" t="e">
         <f>AVERAGE(G114:L114)</f>
-        <v>1.1666666666666667</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="1" t="s">
-        <v>354</v>
+        <v>463</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>355</v>
+        <v>464</v>
       </c>
       <c r="C115" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D115" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G115" s="6">
-        <v>1</v>
-      </c>
       <c r="H115" s="7">
-        <v>2</v>
-      </c>
-      <c r="I115" s="8">
-        <v>2</v>
-      </c>
-      <c r="J115" s="9">
-        <v>2</v>
-      </c>
-      <c r="K115" s="10">
-        <v>3</v>
-      </c>
-      <c r="L115" s="11">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="M115" s="12">
         <f>AVERAGE(G115:L115)</f>
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C116" s="2">
         <v>40</v>
@@ -5447,34 +5496,34 @@
         <v>4</v>
       </c>
       <c r="G116" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H116" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I116" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J116" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K116" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L116" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M116" s="12">
         <f>AVERAGE(G116:L116)</f>
-        <v>2.8333333333333335</v>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C117" s="2">
         <v>50</v>
@@ -5486,82 +5535,112 @@
         <v>4</v>
       </c>
       <c r="G117" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H117" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I117" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J117" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K117" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L117" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M117" s="12">
         <f>AVERAGE(G117:L117)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="1" t="s">
-        <v>51</v>
+        <v>352</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>230</v>
+        <v>353</v>
       </c>
       <c r="C118" s="2">
         <v>40</v>
       </c>
       <c r="D118" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G118" s="6">
+        <v>3</v>
+      </c>
+      <c r="H118" s="7">
+        <v>3</v>
+      </c>
       <c r="I118" s="8">
-        <v>56</v>
+        <v>3</v>
+      </c>
+      <c r="J118" s="9">
+        <v>3</v>
+      </c>
+      <c r="K118" s="10">
+        <v>2</v>
+      </c>
+      <c r="L118" s="11">
+        <v>3</v>
       </c>
       <c r="M118" s="12">
         <f>AVERAGE(G118:L118)</f>
-        <v>56</v>
+        <v>2.8333333333333335</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="1" t="s">
-        <v>54</v>
+        <v>356</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>231</v>
+        <v>357</v>
       </c>
       <c r="C119" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D119" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G119" s="6">
+        <v>4</v>
+      </c>
+      <c r="H119" s="7">
+        <v>4</v>
+      </c>
       <c r="I119" s="8">
-        <v>57</v>
+        <v>4</v>
+      </c>
+      <c r="J119" s="9">
+        <v>4</v>
+      </c>
+      <c r="K119" s="10">
+        <v>4</v>
+      </c>
+      <c r="L119" s="11">
+        <v>4</v>
       </c>
       <c r="M119" s="12">
         <f>AVERAGE(G119:L119)</f>
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C120" s="2">
         <v>40</v>
@@ -5572,20 +5651,20 @@
       <c r="E120" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K120" s="10">
-        <v>80</v>
+      <c r="I120" s="8">
+        <v>56</v>
       </c>
       <c r="M120" s="12">
         <f>AVERAGE(G120:L120)</f>
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="1" t="s">
-        <v>460</v>
+        <v>54</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>461</v>
+        <v>231</v>
       </c>
       <c r="C121" s="2">
         <v>40</v>
@@ -5596,17 +5675,20 @@
       <c r="E121" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M121" s="12" t="e">
+      <c r="I121" s="8">
+        <v>57</v>
+      </c>
+      <c r="M121" s="12">
         <f>AVERAGE(G121:L121)</f>
-        <v>#DIV/0!</v>
+        <v>57</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="1" t="s">
-        <v>459</v>
+        <v>66</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>462</v>
+        <v>232</v>
       </c>
       <c r="C122" s="2">
         <v>40</v>
@@ -5617,38 +5699,23 @@
       <c r="E122" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G122" s="6">
-        <v>96</v>
-      </c>
-      <c r="H122" s="7">
-        <v>94</v>
-      </c>
-      <c r="I122" s="8">
-        <v>77</v>
-      </c>
-      <c r="J122" s="9">
-        <v>79</v>
-      </c>
       <c r="K122" s="10">
-        <v>97</v>
-      </c>
-      <c r="L122" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M122" s="12">
         <f>AVERAGE(G122:L122)</f>
-        <v>87.333333333333329</v>
+        <v>80</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="1" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="C123" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D123" s="2">
         <v>400</v>
@@ -5656,248 +5723,230 @@
       <c r="E123" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G123" s="6">
-        <v>57</v>
-      </c>
-      <c r="H123" s="7">
-        <v>50</v>
-      </c>
-      <c r="I123" s="8">
-        <v>51</v>
-      </c>
-      <c r="J123" s="9">
-        <v>51</v>
-      </c>
-      <c r="M123" s="12">
+      <c r="M123" s="12" t="e">
         <f>AVERAGE(G123:L123)</f>
-        <v>52.25</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="1" t="s">
-        <v>138</v>
+        <v>459</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>294</v>
+        <v>462</v>
       </c>
       <c r="C124" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D124" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G124" s="6">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="H124" s="7">
-        <v>72</v>
+        <v>94</v>
+      </c>
+      <c r="I124" s="8">
+        <v>77</v>
+      </c>
+      <c r="J124" s="9">
+        <v>79</v>
       </c>
       <c r="K124" s="10">
-        <v>79</v>
+        <v>97</v>
+      </c>
+      <c r="L124" s="11">
+        <v>81</v>
       </c>
       <c r="M124" s="12">
         <f>AVERAGE(G124:L124)</f>
-        <v>71.666666666666671</v>
+        <v>87.333333333333329</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="1" t="s">
-        <v>75</v>
+        <v>447</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>233</v>
+        <v>448</v>
       </c>
       <c r="C125" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D125" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G125" s="6">
+        <v>57</v>
+      </c>
       <c r="H125" s="7">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I125" s="8">
-        <v>60</v>
-      </c>
-      <c r="K125" s="10">
-        <v>82</v>
+        <v>51</v>
+      </c>
+      <c r="J125" s="9">
+        <v>51</v>
       </c>
       <c r="M125" s="12">
         <f>AVERAGE(G125:L125)</f>
-        <v>66</v>
+        <v>52.25</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="1" t="s">
-        <v>390</v>
+        <v>138</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>391</v>
+        <v>294</v>
       </c>
       <c r="C126" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D126" s="2">
-        <v>135</v>
+        <v>500</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G126" s="6">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="H126" s="7">
-        <v>22</v>
-      </c>
-      <c r="I126" s="8">
-        <v>22</v>
-      </c>
-      <c r="J126" s="9">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="K126" s="10">
-        <v>23</v>
-      </c>
-      <c r="L126" s="11">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="M126" s="12">
         <f>AVERAGE(G126:L126)</f>
-        <v>22.333333333333332</v>
+        <v>71.666666666666671</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="1" t="s">
-        <v>392</v>
+        <v>75</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>393</v>
+        <v>233</v>
       </c>
       <c r="C127" s="2">
+        <v>40</v>
+      </c>
+      <c r="D127" s="2">
+        <v>4000</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H127" s="7">
+        <v>56</v>
+      </c>
+      <c r="I127" s="8">
         <v>60</v>
       </c>
-      <c r="D127" s="2">
-        <v>600</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G127" s="6">
-        <v>24</v>
-      </c>
-      <c r="H127" s="7">
-        <v>23</v>
-      </c>
-      <c r="I127" s="8">
-        <v>23</v>
-      </c>
-      <c r="J127" s="9">
-        <v>23</v>
-      </c>
       <c r="K127" s="10">
-        <v>24</v>
-      </c>
-      <c r="L127" s="11">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="M127" s="12">
         <f>AVERAGE(G127:L127)</f>
-        <v>23.333333333333332</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="1" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C128" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D128" s="2">
-        <v>400</v>
+        <v>135</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G128" s="6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H128" s="7">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I128" s="8">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J128" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K128" s="10">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L128" s="11">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M128" s="12">
         <f>AVERAGE(G128:L128)</f>
-        <v>18.166666666666668</v>
+        <v>22.333333333333332</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="1" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C129" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D129" s="2">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G129" s="6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H129" s="7">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I129" s="8">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J129" s="9">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K129" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L129" s="11">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M129" s="12">
         <f>AVERAGE(G129:L129)</f>
-        <v>19.166666666666668</v>
+        <v>23.333333333333332</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="1" t="s">
-        <v>102</v>
+        <v>382</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>234</v>
+        <v>383</v>
       </c>
       <c r="C130" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D130" s="2">
         <v>400</v>
@@ -5905,41 +5954,74 @@
       <c r="E130" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M130" s="12" t="e">
+      <c r="G130" s="6">
+        <v>19</v>
+      </c>
+      <c r="H130" s="7">
+        <v>18</v>
+      </c>
+      <c r="I130" s="8">
+        <v>18</v>
+      </c>
+      <c r="J130" s="9">
+        <v>18</v>
+      </c>
+      <c r="K130" s="10">
+        <v>18</v>
+      </c>
+      <c r="L130" s="11">
+        <v>18</v>
+      </c>
+      <c r="M130" s="12">
         <f>AVERAGE(G130:L130)</f>
-        <v>#DIV/0!</v>
+        <v>18.166666666666668</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="1" t="s">
-        <v>144</v>
+        <v>384</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>295</v>
+        <v>385</v>
       </c>
       <c r="C131" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D131" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G131" s="6">
+        <v>20</v>
+      </c>
+      <c r="H131" s="7">
+        <v>19</v>
+      </c>
+      <c r="I131" s="8">
+        <v>19</v>
+      </c>
+      <c r="J131" s="9">
+        <v>19</v>
+      </c>
       <c r="K131" s="10">
-        <v>69</v>
+        <v>19</v>
+      </c>
+      <c r="L131" s="11">
+        <v>19</v>
       </c>
       <c r="M131" s="12">
         <f>AVERAGE(G131:L131)</f>
-        <v>69</v>
+        <v>19.166666666666668</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C132" s="2">
         <v>50</v>
@@ -5957,10 +6039,10 @@
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C133" s="2">
         <v>60</v>
@@ -5971,20 +6053,23 @@
       <c r="E133" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M133" s="12" t="e">
+      <c r="K133" s="10">
+        <v>69</v>
+      </c>
+      <c r="M133" s="12">
         <f>AVERAGE(G133:L133)</f>
-        <v>#DIV/0!</v>
+        <v>69</v>
       </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C134" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D134" s="2">
         <v>400</v>
@@ -5992,23 +6077,20 @@
       <c r="E134" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G134" s="6">
-        <v>68</v>
-      </c>
-      <c r="M134" s="12">
+      <c r="M134" s="12" t="e">
         <f>AVERAGE(G134:L134)</f>
-        <v>68</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
-        <v>449</v>
+        <v>145</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>450</v>
+        <v>296</v>
       </c>
       <c r="C135" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D135" s="2">
         <v>400</v>
@@ -6016,23 +6098,17 @@
       <c r="E135" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G135" s="6">
-        <v>55</v>
-      </c>
-      <c r="I135" s="8">
-        <v>49</v>
-      </c>
-      <c r="M135" s="12">
+      <c r="M135" s="12" t="e">
         <f>AVERAGE(G135:L135)</f>
-        <v>52</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="1" t="s">
-        <v>358</v>
+        <v>68</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>359</v>
+        <v>236</v>
       </c>
       <c r="C136" s="2">
         <v>40</v>
@@ -6044,220 +6120,193 @@
         <v>4</v>
       </c>
       <c r="G136" s="6">
-        <v>7</v>
-      </c>
-      <c r="H136" s="7">
-        <v>5</v>
-      </c>
-      <c r="I136" s="8">
-        <v>5</v>
-      </c>
-      <c r="J136" s="9">
-        <v>5</v>
-      </c>
-      <c r="K136" s="10">
-        <v>5</v>
-      </c>
-      <c r="L136" s="11">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="M136" s="12">
         <f>AVERAGE(G136:L136)</f>
-        <v>5.333333333333333</v>
+        <v>68</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
-        <v>172</v>
+        <v>449</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>297</v>
+        <v>450</v>
       </c>
       <c r="C137" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D137" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H137" s="7">
-        <v>69</v>
+      <c r="G137" s="6">
+        <v>55</v>
+      </c>
+      <c r="I137" s="8">
+        <v>49</v>
       </c>
       <c r="M137" s="12">
         <f>AVERAGE(G137:L137)</f>
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C138" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D138" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G138" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H138" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I138" s="8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J138" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K138" s="10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L138" s="11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M138" s="12">
         <f>AVERAGE(G138:L138)</f>
-        <v>8</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>237</v>
+        <v>297</v>
       </c>
       <c r="C139" s="2">
         <v>50</v>
       </c>
       <c r="D139" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M139" s="12" t="e">
+      <c r="H139" s="7">
+        <v>69</v>
+      </c>
+      <c r="M139" s="12">
         <f>AVERAGE(G139:L139)</f>
-        <v>#DIV/0!</v>
+        <v>69</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="1" t="s">
-        <v>147</v>
+        <v>366</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>279</v>
+        <v>367</v>
       </c>
       <c r="C140" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D140" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G140" s="6">
+        <v>8</v>
+      </c>
+      <c r="H140" s="7">
+        <v>7</v>
+      </c>
       <c r="I140" s="8">
-        <v>50</v>
+        <v>9</v>
+      </c>
+      <c r="J140" s="9">
+        <v>6</v>
+      </c>
+      <c r="K140" s="10">
+        <v>9</v>
+      </c>
+      <c r="L140" s="11">
+        <v>9</v>
       </c>
       <c r="M140" s="12">
         <f>AVERAGE(G140:L140)</f>
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="C141" s="2">
         <v>50</v>
       </c>
       <c r="D141" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G141" s="6">
-        <v>6</v>
-      </c>
-      <c r="H141" s="7">
-        <v>84</v>
-      </c>
-      <c r="I141" s="8">
-        <v>88</v>
-      </c>
-      <c r="J141" s="9">
-        <v>87</v>
-      </c>
-      <c r="K141" s="10">
-        <v>150</v>
-      </c>
-      <c r="L141" s="11">
-        <v>90</v>
-      </c>
-      <c r="M141" s="12">
+      <c r="M141" s="12" t="e">
         <f>AVERAGE(G141:L141)</f>
-        <v>84.166666666666671</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="1" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C142" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D142" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G142" s="6">
-        <v>97</v>
-      </c>
-      <c r="H142" s="7">
-        <v>95</v>
-      </c>
       <c r="I142" s="8">
-        <v>78</v>
-      </c>
-      <c r="J142" s="9">
-        <v>80</v>
-      </c>
-      <c r="K142" s="10">
-        <v>98</v>
-      </c>
-      <c r="L142" s="11">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="M142" s="12">
         <f>AVERAGE(G142:L142)</f>
-        <v>88.333333333333329</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C143" s="2">
         <v>50</v>
@@ -6269,19 +6318,34 @@
         <v>4</v>
       </c>
       <c r="G143" s="6">
-        <v>81</v>
+        <v>6</v>
+      </c>
+      <c r="H143" s="7">
+        <v>84</v>
+      </c>
+      <c r="I143" s="8">
+        <v>88</v>
+      </c>
+      <c r="J143" s="9">
+        <v>87</v>
+      </c>
+      <c r="K143" s="10">
+        <v>150</v>
+      </c>
+      <c r="L143" s="11">
+        <v>90</v>
       </c>
       <c r="M143" s="12">
         <f>AVERAGE(G143:L143)</f>
-        <v>81</v>
+        <v>84.166666666666671</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="C144" s="2">
         <v>50</v>
@@ -6292,122 +6356,107 @@
       <c r="E144" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G144" s="6">
+        <v>97</v>
+      </c>
+      <c r="H144" s="7">
+        <v>95</v>
+      </c>
+      <c r="I144" s="8">
+        <v>78</v>
+      </c>
       <c r="J144" s="9">
-        <v>65</v>
+        <v>80</v>
+      </c>
+      <c r="K144" s="10">
+        <v>98</v>
+      </c>
+      <c r="L144" s="11">
+        <v>82</v>
       </c>
       <c r="M144" s="12">
         <f>AVERAGE(G144:L144)</f>
-        <v>65</v>
+        <v>88.333333333333329</v>
       </c>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="C145" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D145" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L145" s="11">
-        <v>66</v>
+      <c r="G145" s="6">
+        <v>81</v>
       </c>
       <c r="M145" s="12">
         <f>AVERAGE(G145:L145)</f>
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="1" t="s">
-        <v>364</v>
+        <v>167</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>365</v>
+        <v>174</v>
       </c>
       <c r="C146" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D146" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G146" s="6">
-        <v>10</v>
-      </c>
-      <c r="H146" s="7">
-        <v>9</v>
-      </c>
-      <c r="I146" s="8">
-        <v>8</v>
-      </c>
       <c r="J146" s="9">
-        <v>9</v>
-      </c>
-      <c r="K146" s="10">
-        <v>8</v>
-      </c>
-      <c r="L146" s="11">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="M146" s="12">
         <f>AVERAGE(G146:L146)</f>
-        <v>8.6666666666666661</v>
+        <v>65</v>
       </c>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>299</v>
+        <v>238</v>
       </c>
       <c r="C147" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D147" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G147" s="6">
-        <v>99</v>
-      </c>
-      <c r="H147" s="7">
-        <v>97</v>
-      </c>
-      <c r="I147" s="8">
-        <v>80</v>
-      </c>
-      <c r="J147" s="9">
-        <v>50</v>
-      </c>
-      <c r="K147" s="10">
-        <v>100</v>
-      </c>
       <c r="L147" s="11">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="M147" s="12">
         <f>AVERAGE(G147:L147)</f>
-        <v>84.833333333333329</v>
+        <v>66</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="1" t="s">
-        <v>69</v>
+        <v>364</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>239</v>
+        <v>365</v>
       </c>
       <c r="C148" s="2">
         <v>40</v>
@@ -6419,55 +6468,73 @@
         <v>4</v>
       </c>
       <c r="G148" s="6">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="H148" s="7">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="I148" s="8">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="J148" s="9">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="K148" s="10">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="L148" s="11">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="M148" s="12">
         <f>AVERAGE(G148:L148)</f>
-        <v>85</v>
+        <v>8.6666666666666661</v>
       </c>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="1" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="C149" s="2">
         <v>50</v>
       </c>
       <c r="D149" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M149" s="12" t="e">
+      <c r="G149" s="6">
+        <v>99</v>
+      </c>
+      <c r="H149" s="7">
+        <v>97</v>
+      </c>
+      <c r="I149" s="8">
+        <v>80</v>
+      </c>
+      <c r="J149" s="9">
+        <v>50</v>
+      </c>
+      <c r="K149" s="10">
+        <v>100</v>
+      </c>
+      <c r="L149" s="11">
+        <v>83</v>
+      </c>
+      <c r="M149" s="12">
         <f>AVERAGE(G149:L149)</f>
-        <v>#DIV/0!</v>
+        <v>84.833333333333329</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="1" t="s">
-        <v>408</v>
+        <v>69</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>409</v>
+        <v>239</v>
       </c>
       <c r="C150" s="2">
         <v>40</v>
@@ -6479,40 +6546,40 @@
         <v>4</v>
       </c>
       <c r="G150" s="6">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="H150" s="7">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="I150" s="8">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="J150" s="9">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="K150" s="10">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="L150" s="11">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="M150" s="12">
         <f>AVERAGE(G150:L150)</f>
-        <v>31.666666666666668</v>
+        <v>85</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="1" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="C151" s="2">
         <v>50</v>
       </c>
       <c r="D151" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>4</v>
@@ -6524,10 +6591,10 @@
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="1" t="s">
-        <v>115</v>
+        <v>408</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>241</v>
+        <v>409</v>
       </c>
       <c r="C152" s="2">
         <v>40</v>
@@ -6538,33 +6605,45 @@
       <c r="E152" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M152" s="12" t="e">
+      <c r="G152" s="6">
+        <v>34</v>
+      </c>
+      <c r="H152" s="7">
+        <v>31</v>
+      </c>
+      <c r="I152" s="8">
+        <v>31</v>
+      </c>
+      <c r="J152" s="9">
+        <v>31</v>
+      </c>
+      <c r="K152" s="10">
+        <v>32</v>
+      </c>
+      <c r="L152" s="11">
+        <v>31</v>
+      </c>
+      <c r="M152" s="12">
         <f>AVERAGE(G152:L152)</f>
-        <v>#DIV/0!</v>
+        <v>31.666666666666668</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C153" s="1">
-        <v>10</v>
-      </c>
-      <c r="D153" s="1">
-        <v>500</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-      <c r="J153" s="1"/>
-      <c r="L153" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C153" s="2">
+        <v>50</v>
+      </c>
+      <c r="D153" s="2">
+        <v>500</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="M153" s="12" t="e">
         <f>AVERAGE(G153:L153)</f>
         <v>#DIV/0!</v>
@@ -6572,26 +6651,20 @@
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C154" s="1">
-        <v>10</v>
-      </c>
-      <c r="D154" s="1">
-        <v>500</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
-      <c r="J154" s="1"/>
-      <c r="L154" s="1"/>
+        <v>115</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C154" s="2">
+        <v>40</v>
+      </c>
+      <c r="D154" s="2">
+        <v>400</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="M154" s="12" t="e">
         <f>AVERAGE(G154:L154)</f>
         <v>#DIV/0!</v>
@@ -6599,202 +6672,181 @@
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C155" s="2">
-        <v>40</v>
-      </c>
-      <c r="D155" s="2">
-        <v>400</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G155" s="6">
-        <v>18</v>
-      </c>
-      <c r="H155" s="7">
-        <v>17</v>
-      </c>
-      <c r="I155" s="8">
-        <v>17</v>
-      </c>
-      <c r="J155" s="9">
-        <v>17</v>
-      </c>
-      <c r="K155" s="10">
-        <v>17</v>
-      </c>
-      <c r="L155" s="11">
-        <v>17</v>
-      </c>
-      <c r="M155" s="12">
+        <v>165</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C155" s="1">
+        <v>10</v>
+      </c>
+      <c r="D155" s="1">
+        <v>500</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="12" t="e">
         <f>AVERAGE(G155:L155)</f>
-        <v>17.166666666666668</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="156" spans="1:13">
       <c r="A156" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C156" s="2">
-        <v>40</v>
-      </c>
-      <c r="D156" s="2">
-        <v>400</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G156" s="6">
-        <v>87</v>
-      </c>
-      <c r="H156" s="7">
-        <v>85</v>
-      </c>
-      <c r="I156" s="8">
-        <v>67</v>
-      </c>
-      <c r="J156" s="9">
-        <v>66</v>
-      </c>
-      <c r="K156" s="10">
-        <v>87</v>
-      </c>
-      <c r="L156" s="11">
-        <v>70</v>
-      </c>
-      <c r="M156" s="12">
+        <v>164</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C156" s="1">
+        <v>10</v>
+      </c>
+      <c r="D156" s="1">
+        <v>500</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="12" t="e">
         <f>AVERAGE(G156:L156)</f>
-        <v>77</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="157" spans="1:13">
       <c r="A157" s="1" t="s">
-        <v>159</v>
+        <v>380</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>283</v>
+        <v>381</v>
       </c>
       <c r="C157" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D157" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G157" s="6">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="H157" s="7">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="I157" s="8">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="J157" s="9">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="K157" s="10">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="L157" s="11">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="M157" s="12">
         <f>AVERAGE(G157:L157)</f>
-        <v>80.666666666666671</v>
+        <v>17.166666666666668</v>
       </c>
     </row>
     <row r="158" spans="1:13">
       <c r="A158" s="1" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>318</v>
+        <v>160</v>
       </c>
       <c r="C158" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D158" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G158" s="6">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H158" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I158" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J158" s="9">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="K158" s="10">
+        <v>87</v>
       </c>
       <c r="L158" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M158" s="12">
         <f>AVERAGE(G158:L158)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="1" t="s">
-        <v>374</v>
+        <v>159</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>375</v>
+        <v>283</v>
       </c>
       <c r="C159" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D159" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G159" s="6">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="H159" s="7">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="I159" s="8">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="J159" s="9">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="K159" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="L159" s="11">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M159" s="12">
         <f>AVERAGE(G159:L159)</f>
-        <v>13.166666666666666</v>
+        <v>80.666666666666671</v>
       </c>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="1" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="C160" s="2">
         <v>50</v>
@@ -6806,34 +6858,31 @@
         <v>4</v>
       </c>
       <c r="G160" s="6">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="H160" s="7">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="I160" s="8">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="J160" s="9">
-        <v>84</v>
-      </c>
-      <c r="K160" s="10">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="L160" s="11">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="M160" s="12">
         <f>AVERAGE(G160:L160)</f>
-        <v>86.5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="161" spans="1:13">
       <c r="A161" s="1" t="s">
-        <v>113</v>
+        <v>374</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="C161" s="2">
         <v>40</v>
@@ -6844,149 +6893,173 @@
       <c r="E161" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G161" s="6">
+        <v>14</v>
+      </c>
+      <c r="H161" s="7">
+        <v>13</v>
+      </c>
+      <c r="I161" s="8">
+        <v>13</v>
+      </c>
       <c r="J161" s="9">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="K161" s="10">
+        <v>13</v>
+      </c>
+      <c r="L161" s="11">
+        <v>13</v>
       </c>
       <c r="M161" s="12">
         <f>AVERAGE(G161:L161)</f>
-        <v>55</v>
+        <v>13.166666666666666</v>
       </c>
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="1" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>181</v>
+        <v>301</v>
       </c>
       <c r="C162" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D162" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G162" s="6">
+        <v>63</v>
+      </c>
       <c r="H162" s="7">
-        <v>54</v>
+        <v>101</v>
+      </c>
+      <c r="I162" s="8">
+        <v>84</v>
       </c>
       <c r="J162" s="9">
-        <v>56</v>
+        <v>84</v>
+      </c>
+      <c r="K162" s="10">
+        <v>101</v>
+      </c>
+      <c r="L162" s="11">
+        <v>86</v>
       </c>
       <c r="M162" s="12">
         <f>AVERAGE(G162:L162)</f>
-        <v>55</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="1" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>182</v>
+        <v>347</v>
       </c>
       <c r="C163" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D163" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K163" s="10">
-        <v>86</v>
+      <c r="J163" s="9">
+        <v>55</v>
       </c>
       <c r="M163" s="12">
         <f>AVERAGE(G163:L163)</f>
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>302</v>
+        <v>181</v>
       </c>
       <c r="C164" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D164" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K164" s="10">
-        <v>67</v>
+      <c r="H164" s="7">
+        <v>54</v>
+      </c>
+      <c r="J164" s="9">
+        <v>56</v>
       </c>
       <c r="M164" s="12">
         <f>AVERAGE(G164:L164)</f>
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="1" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C165" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D165" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H165" s="7">
-        <v>14</v>
-      </c>
-      <c r="L165" s="11">
-        <v>14</v>
+      <c r="K165" s="10">
+        <v>86</v>
       </c>
       <c r="M165" s="12">
         <f>AVERAGE(G165:L165)</f>
-        <v>14</v>
+        <v>86</v>
       </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="1" t="s">
-        <v>451</v>
+        <v>140</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>452</v>
+        <v>302</v>
       </c>
       <c r="C166" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D166" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G166" s="6">
-        <v>15</v>
-      </c>
-      <c r="I166" s="8">
-        <v>14</v>
+      <c r="K166" s="10">
+        <v>67</v>
       </c>
       <c r="M166" s="12">
         <f>AVERAGE(G166:L166)</f>
-        <v>14.5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="1" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C167" s="2">
         <v>40</v>
@@ -6997,10 +7070,10 @@
       <c r="E167" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J167" s="9">
+      <c r="H167" s="7">
         <v>14</v>
       </c>
-      <c r="K167" s="10">
+      <c r="L167" s="11">
         <v>14</v>
       </c>
       <c r="M167" s="12">
@@ -7010,64 +7083,64 @@
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="1" t="s">
-        <v>58</v>
+        <v>451</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>185</v>
+        <v>452</v>
       </c>
       <c r="C168" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D168" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H168" s="7">
-        <v>5</v>
-      </c>
-      <c r="L168" s="11">
-        <v>51</v>
+      <c r="G168" s="6">
+        <v>15</v>
+      </c>
+      <c r="I168" s="8">
+        <v>14</v>
       </c>
       <c r="M168" s="12">
         <f>AVERAGE(G168:L168)</f>
-        <v>28</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="1" t="s">
-        <v>453</v>
+        <v>148</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>454</v>
+        <v>184</v>
       </c>
       <c r="C169" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D169" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G169" s="6">
-        <v>62</v>
-      </c>
-      <c r="I169" s="8">
-        <v>52</v>
+      <c r="J169" s="9">
+        <v>14</v>
+      </c>
+      <c r="K169" s="10">
+        <v>14</v>
       </c>
       <c r="M169" s="12">
         <f>AVERAGE(G169:L169)</f>
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="1" t="s">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C170" s="2">
         <v>50</v>
@@ -7078,23 +7151,23 @@
       <c r="E170" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J170" s="9">
-        <v>52</v>
-      </c>
-      <c r="K170" s="10">
-        <v>62</v>
+      <c r="H170" s="7">
+        <v>5</v>
+      </c>
+      <c r="L170" s="11">
+        <v>51</v>
       </c>
       <c r="M170" s="12">
         <f>AVERAGE(G170:L170)</f>
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C171" s="2">
         <v>50</v>
@@ -7105,47 +7178,50 @@
       <c r="E171" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J171" s="9">
-        <v>76</v>
+      <c r="G171" s="6">
+        <v>62</v>
+      </c>
+      <c r="I171" s="8">
+        <v>52</v>
       </c>
       <c r="M171" s="12">
         <f>AVERAGE(G171:L171)</f>
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="1" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="C172" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D172" s="2">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G172" s="6">
-        <v>54</v>
-      </c>
-      <c r="H172" s="7">
-        <v>49</v>
+      <c r="J172" s="9">
+        <v>52</v>
+      </c>
+      <c r="K172" s="10">
+        <v>62</v>
       </c>
       <c r="M172" s="12">
         <f>AVERAGE(G172:L172)</f>
-        <v>51.5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="1" t="s">
-        <v>173</v>
+        <v>457</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>187</v>
+        <v>458</v>
       </c>
       <c r="C173" s="2">
         <v>50</v>
@@ -7156,71 +7232,77 @@
       <c r="E173" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K173" s="10">
-        <v>61</v>
-      </c>
-      <c r="L173" s="11">
-        <v>49</v>
+      <c r="J173" s="9">
+        <v>76</v>
       </c>
       <c r="M173" s="12">
         <f>AVERAGE(G173:L173)</f>
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C174" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D174" s="2">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M174" s="12" t="e">
+      <c r="G174" s="6">
+        <v>54</v>
+      </c>
+      <c r="H174" s="7">
+        <v>49</v>
+      </c>
+      <c r="M174" s="12">
         <f>AVERAGE(G174:L174)</f>
-        <v>#DIV/0!</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="1" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="C175" s="2">
         <v>50</v>
       </c>
       <c r="D175" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I175" s="8">
+      <c r="K175" s="10">
         <v>61</v>
+      </c>
+      <c r="L175" s="11">
+        <v>49</v>
       </c>
       <c r="M175" s="12">
         <f>AVERAGE(G175:L175)</f>
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="1" t="s">
-        <v>376</v>
+        <v>104</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>377</v>
+        <v>245</v>
       </c>
       <c r="C176" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D176" s="2">
         <v>400</v>
@@ -7228,332 +7310,329 @@
       <c r="E176" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G176" s="6">
-        <v>16</v>
-      </c>
-      <c r="H176" s="7">
-        <v>15</v>
-      </c>
-      <c r="I176" s="8">
-        <v>15</v>
-      </c>
-      <c r="J176" s="9">
-        <v>15</v>
-      </c>
-      <c r="K176" s="10">
-        <v>15</v>
-      </c>
-      <c r="L176" s="11">
-        <v>15</v>
-      </c>
-      <c r="M176" s="12">
+      <c r="M176" s="12" t="e">
         <f>AVERAGE(G176:L176)</f>
-        <v>15.166666666666666</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="1" t="s">
-        <v>378</v>
+        <v>105</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>379</v>
+        <v>246</v>
       </c>
       <c r="C177" s="2">
         <v>50</v>
       </c>
       <c r="D177" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G177" s="6">
-        <v>17</v>
-      </c>
-      <c r="H177" s="7">
-        <v>16</v>
-      </c>
       <c r="I177" s="8">
-        <v>16</v>
-      </c>
-      <c r="J177" s="9">
-        <v>16</v>
-      </c>
-      <c r="K177" s="10">
-        <v>16</v>
-      </c>
-      <c r="L177" s="11">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="M177" s="12">
         <f>AVERAGE(G177:L177)</f>
-        <v>16.166666666666668</v>
+        <v>61</v>
       </c>
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="1" t="s">
-        <v>25</v>
+        <v>376</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>247</v>
+        <v>377</v>
       </c>
       <c r="C178" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D178" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G178" s="6">
+        <v>16</v>
+      </c>
+      <c r="H178" s="7">
+        <v>15</v>
+      </c>
+      <c r="I178" s="8">
+        <v>15</v>
+      </c>
+      <c r="J178" s="9">
+        <v>15</v>
+      </c>
       <c r="K178" s="10">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="L178" s="11">
+        <v>15</v>
       </c>
       <c r="M178" s="12">
         <f>AVERAGE(G178:L178)</f>
-        <v>77</v>
+        <v>15.166666666666666</v>
       </c>
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="1" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="C179" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D179" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G179" s="6">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H179" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I179" s="8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J179" s="9">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K179" s="10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L179" s="11">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M179" s="12">
         <f>AVERAGE(G179:L179)</f>
-        <v>10.166666666666666</v>
+        <v>16.166666666666668</v>
       </c>
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="1" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C180" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D180" s="2">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G180" s="6">
-        <v>56</v>
+      <c r="K180" s="10">
+        <v>77</v>
       </c>
       <c r="M180" s="12">
         <f>AVERAGE(G180:L180)</f>
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="1" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="C181" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D181" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G181" s="6">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="H181" s="7">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="I181" s="8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J181" s="9">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="K181" s="10">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="L181" s="11">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="M181" s="12">
         <f>AVERAGE(G181:L181)</f>
-        <v>101.16666666666667</v>
+        <v>10.166666666666666</v>
       </c>
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="1" t="s">
-        <v>338</v>
+        <v>76</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>340</v>
+        <v>248</v>
       </c>
       <c r="C182" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D182" s="2">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G182" s="6">
-        <v>112</v>
-      </c>
-      <c r="H182" s="7">
-        <v>83</v>
-      </c>
-      <c r="I182" s="8">
-        <v>96</v>
-      </c>
-      <c r="J182" s="9">
-        <v>95</v>
-      </c>
-      <c r="K182" s="10">
-        <v>108</v>
-      </c>
-      <c r="L182" s="11">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="M182" s="12">
         <f>AVERAGE(G182:L182)</f>
-        <v>98.666666666666671</v>
+        <v>56</v>
       </c>
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="1" t="s">
-        <v>48</v>
+        <v>337</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>249</v>
+        <v>339</v>
       </c>
       <c r="C183" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D183" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M183" s="12" t="e">
+      <c r="G183" s="6">
+        <v>115</v>
+      </c>
+      <c r="H183" s="7">
+        <v>115</v>
+      </c>
+      <c r="I183" s="8">
+        <v>100</v>
+      </c>
+      <c r="J183" s="9">
+        <v>64</v>
+      </c>
+      <c r="K183" s="10">
+        <v>112</v>
+      </c>
+      <c r="L183" s="11">
+        <v>101</v>
+      </c>
+      <c r="M183" s="12">
         <f>AVERAGE(G183:L183)</f>
-        <v>#DIV/0!</v>
+        <v>101.16666666666667</v>
       </c>
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="1" t="s">
-        <v>50</v>
+        <v>338</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="C184" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D184" s="2">
-        <v>11000</v>
+        <v>500</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G184" s="6">
-        <v>70</v>
+        <v>112</v>
+      </c>
+      <c r="H184" s="7">
+        <v>83</v>
+      </c>
+      <c r="I184" s="8">
+        <v>96</v>
+      </c>
+      <c r="J184" s="9">
+        <v>95</v>
+      </c>
+      <c r="K184" s="10">
+        <v>108</v>
+      </c>
+      <c r="L184" s="11">
+        <v>98</v>
       </c>
       <c r="M184" s="12">
         <f>AVERAGE(G184:L184)</f>
-        <v>70</v>
+        <v>98.666666666666671</v>
       </c>
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>310</v>
+        <v>249</v>
       </c>
       <c r="C185" s="2">
         <v>40</v>
       </c>
       <c r="D185" s="2">
-        <v>11000</v>
+        <v>400</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G185" s="6">
-        <v>71</v>
-      </c>
-      <c r="M185" s="12">
+      <c r="M185" s="12" t="e">
         <f>AVERAGE(G185:L185)</f>
-        <v>71</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C186" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D186" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H186" s="7">
-        <v>61</v>
+      <c r="G186" s="6">
+        <v>70</v>
       </c>
       <c r="M186" s="12">
         <f>AVERAGE(G186:L186)</f>
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="1" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C187" s="2">
         <v>40</v>
@@ -7564,68 +7643,71 @@
       <c r="E187" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J187" s="9">
-        <v>57</v>
-      </c>
-      <c r="L187" s="11">
-        <v>56</v>
+      <c r="G187" s="6">
+        <v>71</v>
       </c>
       <c r="M187" s="12">
         <f>AVERAGE(G187:L187)</f>
-        <v>56.5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="C188" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D188" s="2">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L188" s="11">
-        <v>54</v>
+      <c r="H188" s="7">
+        <v>61</v>
       </c>
       <c r="M188" s="12">
         <f>AVERAGE(G188:L188)</f>
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C189" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D189" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M189" s="12" t="e">
+      <c r="J189" s="9">
+        <v>57</v>
+      </c>
+      <c r="L189" s="11">
+        <v>56</v>
+      </c>
+      <c r="M189" s="12">
         <f>AVERAGE(G189:L189)</f>
-        <v>#DIV/0!</v>
+        <v>56.5</v>
       </c>
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C190" s="2">
         <v>40</v>
@@ -7636,50 +7718,41 @@
       <c r="E190" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H190" s="7">
-        <v>60</v>
-      </c>
-      <c r="K190" s="10">
-        <v>68</v>
-      </c>
       <c r="L190" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M190" s="12">
         <f>AVERAGE(G190:L190)</f>
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="191" spans="1:13">
       <c r="A191" s="1" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="C191" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D191" s="2">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H191" s="7">
-        <v>57</v>
-      </c>
-      <c r="M191" s="12">
+      <c r="M191" s="12" t="e">
         <f>AVERAGE(G191:L191)</f>
-        <v>57</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="192" spans="1:13">
       <c r="A192" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C192" s="2">
         <v>40</v>
@@ -7691,19 +7764,25 @@
         <v>4</v>
       </c>
       <c r="H192" s="7">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="K192" s="10">
+        <v>68</v>
+      </c>
+      <c r="L192" s="11">
+        <v>55</v>
       </c>
       <c r="M192" s="12">
         <f>AVERAGE(G192:L192)</f>
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="C193" s="2">
         <v>40</v>
@@ -7715,244 +7794,214 @@
         <v>4</v>
       </c>
       <c r="H193" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M193" s="12">
         <f>AVERAGE(G193:L193)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="1" t="s">
-        <v>422</v>
+        <v>53</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>423</v>
+        <v>314</v>
       </c>
       <c r="C194" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D194" s="2">
-        <v>400</v>
+        <v>11000</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G194" s="6">
-        <v>39</v>
-      </c>
       <c r="H194" s="7">
-        <v>35</v>
-      </c>
-      <c r="I194" s="8">
-        <v>35</v>
-      </c>
-      <c r="J194" s="9">
-        <v>35</v>
-      </c>
-      <c r="K194" s="10">
-        <v>41</v>
-      </c>
-      <c r="L194" s="11">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="M194" s="12">
         <f>AVERAGE(G194:L194)</f>
-        <v>37.333333333333336</v>
+        <v>59</v>
       </c>
     </row>
     <row r="195" spans="1:13">
       <c r="A195" s="1" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>250</v>
+        <v>313</v>
       </c>
       <c r="C195" s="2">
         <v>40</v>
       </c>
       <c r="D195" s="2">
-        <v>400</v>
+        <v>11000</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G195" s="6">
-        <v>74</v>
+      <c r="H195" s="7">
+        <v>58</v>
       </c>
       <c r="M195" s="12">
         <f>AVERAGE(G195:L195)</f>
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="196" spans="1:13">
       <c r="A196" s="1" t="s">
-        <v>17</v>
+        <v>422</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>298</v>
+        <v>423</v>
       </c>
       <c r="C196" s="2">
         <v>50</v>
       </c>
       <c r="D196" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M196" s="12" t="e">
+      <c r="G196" s="6">
+        <v>39</v>
+      </c>
+      <c r="H196" s="7">
+        <v>35</v>
+      </c>
+      <c r="I196" s="8">
+        <v>35</v>
+      </c>
+      <c r="J196" s="9">
+        <v>35</v>
+      </c>
+      <c r="K196" s="10">
+        <v>41</v>
+      </c>
+      <c r="L196" s="11">
+        <v>39</v>
+      </c>
+      <c r="M196" s="12">
         <f>AVERAGE(G196:L196)</f>
-        <v>#DIV/0!</v>
+        <v>37.333333333333336</v>
       </c>
     </row>
     <row r="197" spans="1:13">
       <c r="A197" s="1" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="C197" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D197" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G197" s="6">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M197" s="12">
         <f>AVERAGE(G197:L197)</f>
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="198" spans="1:13">
       <c r="A198" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="C198" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D198" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G198" s="6">
-        <v>90</v>
-      </c>
-      <c r="H198" s="7">
-        <v>88</v>
-      </c>
-      <c r="I198" s="8">
-        <v>69</v>
-      </c>
-      <c r="J198" s="9">
-        <v>69</v>
-      </c>
-      <c r="K198" s="10">
-        <v>89</v>
-      </c>
-      <c r="L198" s="11">
-        <v>73</v>
-      </c>
-      <c r="M198" s="12">
+      <c r="M198" s="12" t="e">
         <f>AVERAGE(G198:L198)</f>
-        <v>79.666666666666671</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="199" spans="1:13">
       <c r="A199" s="1" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="C199" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D199" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G199" s="6">
-        <v>91</v>
-      </c>
-      <c r="H199" s="7">
-        <v>89</v>
-      </c>
-      <c r="I199" s="8">
-        <v>71</v>
-      </c>
-      <c r="J199" s="9">
-        <v>71</v>
-      </c>
-      <c r="K199" s="10">
-        <v>91</v>
-      </c>
-      <c r="L199" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M199" s="12">
         <f>AVERAGE(G199:L199)</f>
-        <v>81.166666666666671</v>
+        <v>75</v>
       </c>
     </row>
     <row r="200" spans="1:13">
       <c r="A200" s="1" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="C200" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D200" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G200" s="6">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H200" s="7">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I200" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J200" s="9">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K200" s="10">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L200" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M200" s="12">
         <f>AVERAGE(G200:L200)</f>
-        <v>82.5</v>
+        <v>79.666666666666671</v>
       </c>
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="1" t="s">
-        <v>370</v>
+        <v>70</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>371</v>
+        <v>252</v>
       </c>
       <c r="C201" s="2">
         <v>40</v>
@@ -7964,169 +8013,184 @@
         <v>4</v>
       </c>
       <c r="G201" s="6">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="H201" s="7">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="I201" s="8">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="J201" s="9">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="K201" s="10">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="L201" s="11">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="M201" s="12">
         <f>AVERAGE(G201:L201)</f>
-        <v>11.166666666666666</v>
+        <v>81.166666666666671</v>
       </c>
     </row>
     <row r="202" spans="1:13">
       <c r="A202" s="1" t="s">
-        <v>441</v>
+        <v>121</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>442</v>
+        <v>304</v>
       </c>
       <c r="C202" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D202" s="2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G202" s="6">
+        <v>93</v>
+      </c>
+      <c r="H202" s="7">
+        <v>91</v>
+      </c>
       <c r="I202" s="8">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J202" s="9">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="K202" s="10">
-        <v>63</v>
+        <v>92</v>
+      </c>
+      <c r="L202" s="11">
+        <v>75</v>
       </c>
       <c r="M202" s="12">
         <f>AVERAGE(G202:L202)</f>
-        <v>56.333333333333336</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="203" spans="1:13">
       <c r="A203" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C203" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D203" s="2">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G203" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H203" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I203" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J203" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K203" s="10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L203" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M203" s="12">
         <f>AVERAGE(G203:L203)</f>
-        <v>12.166666666666666</v>
+        <v>11.166666666666666</v>
       </c>
     </row>
     <row r="204" spans="1:13">
       <c r="A204" s="1" t="s">
-        <v>73</v>
+        <v>441</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>253</v>
+        <v>442</v>
       </c>
       <c r="C204" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D204" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H204" s="7">
-        <v>62</v>
+      <c r="I204" s="8">
+        <v>53</v>
+      </c>
+      <c r="J204" s="9">
+        <v>53</v>
+      </c>
+      <c r="K204" s="10">
+        <v>63</v>
       </c>
       <c r="M204" s="12">
         <f>AVERAGE(G204:L204)</f>
-        <v>62</v>
+        <v>56.333333333333336</v>
       </c>
     </row>
     <row r="205" spans="1:13">
       <c r="A205" s="1" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="C205" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D205" s="2">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G205" s="6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H205" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I205" s="8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J205" s="9">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K205" s="10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L205" s="11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M205" s="12">
         <f>AVERAGE(G205:L205)</f>
-        <v>6</v>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="206" spans="1:13">
       <c r="A206" s="1" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="C206" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D206" s="2">
         <v>400</v>
@@ -8134,20 +8198,23 @@
       <c r="E206" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M206" s="12" t="e">
+      <c r="H206" s="7">
+        <v>62</v>
+      </c>
+      <c r="M206" s="12">
         <f>AVERAGE(G206:L206)</f>
-        <v>#DIV/0!</v>
+        <v>62</v>
       </c>
     </row>
     <row r="207" spans="1:13">
       <c r="A207" s="1" t="s">
-        <v>24</v>
+        <v>360</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>222</v>
+        <v>361</v>
       </c>
       <c r="C207" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D207" s="2">
         <v>400</v>
@@ -8155,23 +8222,41 @@
       <c r="E207" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M207" s="12" t="e">
+      <c r="G207" s="6">
+        <v>5</v>
+      </c>
+      <c r="H207" s="7">
+        <v>6</v>
+      </c>
+      <c r="I207" s="8">
+        <v>6</v>
+      </c>
+      <c r="J207" s="9">
+        <v>7</v>
+      </c>
+      <c r="K207" s="10">
+        <v>6</v>
+      </c>
+      <c r="L207" s="11">
+        <v>6</v>
+      </c>
+      <c r="M207" s="12">
         <f>AVERAGE(G207:L207)</f>
-        <v>#DIV/0!</v>
+        <v>6</v>
       </c>
     </row>
     <row r="208" spans="1:13">
       <c r="A208" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C208" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D208" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>4</v>
@@ -8183,13 +8268,13 @@
     </row>
     <row r="209" spans="1:13">
       <c r="A209" s="1" t="s">
-        <v>431</v>
+        <v>24</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>432</v>
+        <v>222</v>
       </c>
       <c r="C209" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D209" s="2">
         <v>400</v>
@@ -8197,41 +8282,23 @@
       <c r="E209" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G209" s="6">
-        <v>49</v>
-      </c>
-      <c r="H209" s="7">
-        <v>44</v>
-      </c>
-      <c r="I209" s="8">
-        <v>44</v>
-      </c>
-      <c r="J209" s="9">
-        <v>45</v>
-      </c>
-      <c r="K209" s="10">
-        <v>55</v>
-      </c>
-      <c r="L209" s="11">
-        <v>44</v>
-      </c>
-      <c r="M209" s="12">
+      <c r="M209" s="12" t="e">
         <f>AVERAGE(G209:L209)</f>
-        <v>46.833333333333336</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="210" spans="1:13">
       <c r="A210" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="C210" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D210" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>4</v>
@@ -8243,10 +8310,10 @@
     </row>
     <row r="211" spans="1:13">
       <c r="A211" s="1" t="s">
-        <v>38</v>
+        <v>431</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>255</v>
+        <v>432</v>
       </c>
       <c r="C211" s="2">
         <v>40</v>
@@ -8257,23 +8324,38 @@
       <c r="E211" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G211" s="6">
+        <v>49</v>
+      </c>
+      <c r="H211" s="7">
+        <v>44</v>
+      </c>
+      <c r="I211" s="8">
+        <v>44</v>
+      </c>
+      <c r="J211" s="9">
+        <v>45</v>
+      </c>
+      <c r="K211" s="10">
+        <v>55</v>
+      </c>
       <c r="L211" s="11">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="M211" s="12">
         <f>AVERAGE(G211:L211)</f>
-        <v>63</v>
+        <v>46.833333333333336</v>
       </c>
     </row>
     <row r="212" spans="1:13">
       <c r="A212" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C212" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D212" s="2">
         <v>400</v>
@@ -8281,140 +8363,131 @@
       <c r="E212" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G212" s="6">
-        <v>82</v>
-      </c>
-      <c r="L212" s="11">
-        <v>64</v>
-      </c>
-      <c r="M212" s="12">
+      <c r="M212" s="12" t="e">
         <f>AVERAGE(G212:L212)</f>
-        <v>73</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="213" spans="1:13">
       <c r="A213" s="1" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="C213" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D213" s="2">
-        <v>14000</v>
+        <v>400</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G213" s="6">
-        <v>32</v>
+      <c r="L213" s="11">
+        <v>63</v>
       </c>
       <c r="M213" s="12">
         <f>AVERAGE(G213:L213)</f>
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="214" spans="1:13">
       <c r="A214" s="1" t="s">
-        <v>406</v>
+        <v>39</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>407</v>
+        <v>256</v>
       </c>
       <c r="C214" s="2">
         <v>40</v>
       </c>
       <c r="D214" s="2">
-        <v>11000</v>
+        <v>400</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G214" s="6">
-        <v>30</v>
-      </c>
-      <c r="H214" s="7">
-        <v>30</v>
-      </c>
-      <c r="I214" s="8">
-        <v>30</v>
-      </c>
-      <c r="J214" s="9">
-        <v>30</v>
-      </c>
-      <c r="K214" s="10">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="L214" s="11">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="M214" s="12">
         <f>AVERAGE(G214:L214)</f>
-        <v>30.166666666666668</v>
+        <v>73</v>
       </c>
     </row>
     <row r="215" spans="1:13">
       <c r="A215" s="1" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>225</v>
+        <v>284</v>
       </c>
       <c r="C215" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D215" s="2">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G215" s="6">
-        <v>79</v>
-      </c>
-      <c r="H215" s="7">
-        <v>71</v>
-      </c>
-      <c r="J215" s="9">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="M215" s="12">
         <f>AVERAGE(G215:L215)</f>
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="216" spans="1:13">
       <c r="A216" s="1" t="s">
-        <v>128</v>
+        <v>406</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>285</v>
+        <v>407</v>
       </c>
       <c r="C216" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D216" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G216" s="6">
+        <v>30</v>
+      </c>
+      <c r="H216" s="7">
+        <v>30</v>
+      </c>
+      <c r="I216" s="8">
+        <v>30</v>
+      </c>
       <c r="J216" s="9">
-        <v>61</v>
+        <v>30</v>
+      </c>
+      <c r="K216" s="10">
+        <v>31</v>
+      </c>
+      <c r="L216" s="11">
+        <v>30</v>
       </c>
       <c r="M216" s="12">
         <f>AVERAGE(G216:L216)</f>
-        <v>61</v>
+        <v>30.166666666666668</v>
       </c>
     </row>
     <row r="217" spans="1:13">
       <c r="A217" s="1" t="s">
-        <v>404</v>
+        <v>99</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>405</v>
+        <v>225</v>
       </c>
       <c r="C217" s="2">
         <v>40</v>
@@ -8426,34 +8499,25 @@
         <v>4</v>
       </c>
       <c r="G217" s="6">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="H217" s="7">
-        <v>29</v>
-      </c>
-      <c r="I217" s="8">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="J217" s="9">
-        <v>29</v>
-      </c>
-      <c r="K217" s="10">
-        <v>30</v>
-      </c>
-      <c r="L217" s="11">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="M217" s="12">
         <f>AVERAGE(G217:L217)</f>
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="218" spans="1:13">
       <c r="A218" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C218" s="2">
         <v>50</v>
@@ -8464,20 +8528,20 @@
       <c r="E218" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G218" s="6">
-        <v>31</v>
+      <c r="J218" s="9">
+        <v>61</v>
       </c>
       <c r="M218" s="12">
         <f>AVERAGE(G218:L218)</f>
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="1" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C219" s="2">
         <v>40</v>
@@ -8489,85 +8553,97 @@
         <v>4</v>
       </c>
       <c r="G219" s="6">
+        <v>28</v>
+      </c>
+      <c r="H219" s="7">
         <v>29</v>
       </c>
-      <c r="H219" s="7">
-        <v>27</v>
-      </c>
       <c r="I219" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J219" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K219" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L219" s="11">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M219" s="12">
         <f>AVERAGE(G219:L219)</f>
-        <v>27.166666666666668</v>
+        <v>29</v>
       </c>
     </row>
     <row r="220" spans="1:13">
       <c r="A220" s="1" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>226</v>
+        <v>286</v>
       </c>
       <c r="C220" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D220" s="2">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G220" s="6">
-        <v>76</v>
-      </c>
-      <c r="H220" s="7">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="M220" s="12">
         <f>AVERAGE(G220:L220)</f>
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="221" spans="1:13">
       <c r="A221" s="1" t="s">
-        <v>125</v>
+        <v>398</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>287</v>
+        <v>399</v>
       </c>
       <c r="C221" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D221" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G221" s="6">
-        <v>77</v>
+        <v>29</v>
+      </c>
+      <c r="H221" s="7">
+        <v>27</v>
+      </c>
+      <c r="I221" s="8">
+        <v>27</v>
+      </c>
+      <c r="J221" s="9">
+        <v>27</v>
+      </c>
+      <c r="K221" s="10">
+        <v>27</v>
+      </c>
+      <c r="L221" s="11">
+        <v>26</v>
       </c>
       <c r="M221" s="12">
         <f>AVERAGE(G221:L221)</f>
-        <v>77</v>
+        <v>27.166666666666668</v>
       </c>
     </row>
     <row r="222" spans="1:13" s="1" customFormat="1">
       <c r="A222" s="1" t="s">
-        <v>396</v>
+        <v>98</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>397</v>
+        <v>226</v>
       </c>
       <c r="C222" s="2">
         <v>40</v>
@@ -8580,34 +8656,26 @@
       </c>
       <c r="F222" s="2"/>
       <c r="G222" s="6">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="H222" s="7">
-        <v>25</v>
-      </c>
-      <c r="I222" s="8">
-        <v>25</v>
-      </c>
-      <c r="J222" s="9">
-        <v>25</v>
-      </c>
-      <c r="K222" s="10">
-        <v>26</v>
-      </c>
-      <c r="L222" s="11">
-        <v>25</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="I222" s="8"/>
+      <c r="J222" s="9"/>
+      <c r="K222" s="10"/>
+      <c r="L222" s="11"/>
       <c r="M222" s="12">
         <f>AVERAGE(G222:L222)</f>
-        <v>25.333333333333332</v>
+        <v>72</v>
       </c>
     </row>
     <row r="223" spans="1:13" s="1" customFormat="1">
       <c r="A223" s="1" t="s">
-        <v>400</v>
+        <v>125</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>401</v>
+        <v>287</v>
       </c>
       <c r="C223" s="2">
         <v>50</v>
@@ -8620,34 +8688,24 @@
       </c>
       <c r="F223" s="2"/>
       <c r="G223" s="6">
-        <v>27</v>
-      </c>
-      <c r="H223" s="7">
-        <v>26</v>
-      </c>
-      <c r="I223" s="8">
-        <v>26</v>
-      </c>
-      <c r="J223" s="9">
-        <v>26</v>
-      </c>
-      <c r="K223" s="10">
-        <v>28</v>
-      </c>
-      <c r="L223" s="11">
-        <v>27</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H223" s="7"/>
+      <c r="I223" s="8"/>
+      <c r="J223" s="9"/>
+      <c r="K223" s="10"/>
+      <c r="L223" s="11"/>
       <c r="M223" s="12">
         <f>AVERAGE(G223:L223)</f>
-        <v>26.666666666666668</v>
+        <v>77</v>
       </c>
     </row>
     <row r="224" spans="1:13">
       <c r="A224" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C224" s="2">
         <v>40</v>
@@ -8659,34 +8717,34 @@
         <v>4</v>
       </c>
       <c r="G224" s="6">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H224" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I224" s="8">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J224" s="9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K224" s="10">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L224" s="11">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M224" s="12">
         <f>AVERAGE(G224:L224)</f>
-        <v>29</v>
+        <v>25.333333333333332</v>
       </c>
     </row>
     <row r="225" spans="1:13">
       <c r="A225" s="1" t="s">
-        <v>26</v>
+        <v>400</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>288</v>
+        <v>401</v>
       </c>
       <c r="C225" s="2">
         <v>50</v>
@@ -8698,22 +8756,34 @@
         <v>4</v>
       </c>
       <c r="G225" s="6">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="H225" s="7">
-        <v>70</v>
+        <v>26</v>
+      </c>
+      <c r="I225" s="8">
+        <v>26</v>
+      </c>
+      <c r="J225" s="9">
+        <v>26</v>
+      </c>
+      <c r="K225" s="10">
+        <v>28</v>
+      </c>
+      <c r="L225" s="11">
+        <v>27</v>
       </c>
       <c r="M225" s="12">
         <f>AVERAGE(G225:L225)</f>
-        <v>74</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="226" spans="1:13">
       <c r="A226" s="1" t="s">
-        <v>330</v>
+        <v>402</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>334</v>
+        <v>403</v>
       </c>
       <c r="C226" s="2">
         <v>40</v>
@@ -8724,44 +8794,62 @@
       <c r="E226" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G226" s="6">
+        <v>33</v>
+      </c>
       <c r="H226" s="7">
-        <v>79</v>
+        <v>28</v>
+      </c>
+      <c r="I226" s="8">
+        <v>28</v>
+      </c>
+      <c r="J226" s="9">
+        <v>28</v>
+      </c>
+      <c r="K226" s="10">
+        <v>29</v>
+      </c>
+      <c r="L226" s="11">
+        <v>28</v>
       </c>
       <c r="M226" s="12">
         <f>AVERAGE(G226:L226)</f>
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="1" t="s">
-        <v>329</v>
+        <v>26</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="C227" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D227" s="2">
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G227" s="6">
+        <v>78</v>
+      </c>
       <c r="H227" s="7">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M227" s="12">
         <f>AVERAGE(G227:L227)</f>
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="228" spans="1:13">
       <c r="A228" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C228" s="2">
         <v>40</v>
@@ -8773,94 +8861,91 @@
         <v>4</v>
       </c>
       <c r="H228" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M228" s="12">
         <f>AVERAGE(G228:L228)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="229" spans="1:13">
       <c r="A229" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C229" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D229" s="2">
-        <v>14000</v>
+        <v>11000</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H229" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M229" s="12">
         <f>AVERAGE(G229:L229)</f>
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="230" spans="1:13">
       <c r="A230" s="1" t="s">
-        <v>163</v>
+        <v>331</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>188</v>
+        <v>335</v>
       </c>
       <c r="C230" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D230" s="2">
-        <v>500</v>
+        <v>11000</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K230" s="10">
-        <v>60</v>
+      <c r="H230" s="7">
+        <v>78</v>
       </c>
       <c r="M230" s="12">
         <f>AVERAGE(G230:L230)</f>
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="231" spans="1:13">
       <c r="A231" s="1" t="s">
-        <v>74</v>
+        <v>332</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>257</v>
+        <v>336</v>
       </c>
       <c r="C231" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D231" s="2">
-        <v>400</v>
+        <v>14000</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J231" s="9">
-        <v>58</v>
-      </c>
-      <c r="L231" s="11">
-        <v>60</v>
+      <c r="H231" s="7">
+        <v>81</v>
       </c>
       <c r="M231" s="12">
         <f>AVERAGE(G231:L231)</f>
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="232" spans="1:13">
       <c r="A232" s="1" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>305</v>
+        <v>188</v>
       </c>
       <c r="C232" s="2">
         <v>50</v>
@@ -8871,70 +8956,58 @@
       <c r="E232" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J232" s="9">
-        <v>59</v>
+      <c r="K232" s="10">
+        <v>60</v>
       </c>
       <c r="M232" s="12">
         <f>AVERAGE(G232:L232)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="233" spans="1:13">
       <c r="A233" s="1" t="s">
-        <v>437</v>
+        <v>74</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>438</v>
+        <v>257</v>
       </c>
       <c r="C233" s="2">
         <v>40</v>
       </c>
       <c r="D233" s="2">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G233" s="6">
-        <v>53</v>
-      </c>
-      <c r="H233" s="7">
-        <v>48</v>
-      </c>
-      <c r="I233" s="8">
-        <v>48</v>
-      </c>
       <c r="J233" s="9">
-        <v>48</v>
-      </c>
-      <c r="K233" s="10">
         <v>58</v>
       </c>
       <c r="L233" s="11">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="M233" s="12">
         <f>AVERAGE(G233:L233)</f>
-        <v>50.5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="234" spans="1:13">
       <c r="A234" s="1" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="C234" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D234" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G234" s="6">
+      <c r="J234" s="9">
         <v>59</v>
       </c>
       <c r="M234" s="12">
@@ -8944,73 +9017,73 @@
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="1" t="s">
-        <v>143</v>
+        <v>437</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>306</v>
+        <v>438</v>
       </c>
       <c r="C235" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D235" s="2">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G235" s="6">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="H235" s="7">
+        <v>48</v>
+      </c>
+      <c r="I235" s="8">
+        <v>48</v>
+      </c>
+      <c r="J235" s="9">
+        <v>48</v>
+      </c>
+      <c r="K235" s="10">
+        <v>58</v>
+      </c>
+      <c r="L235" s="11">
+        <v>48</v>
       </c>
       <c r="M235" s="12">
         <f>AVERAGE(G235:L235)</f>
-        <v>60</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="236" spans="1:13">
       <c r="A236" s="1" t="s">
-        <v>362</v>
+        <v>106</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>363</v>
+        <v>258</v>
       </c>
       <c r="C236" s="2">
         <v>40</v>
       </c>
       <c r="D236" s="2">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G236" s="6">
-        <v>9</v>
-      </c>
-      <c r="H236" s="7">
-        <v>8</v>
-      </c>
-      <c r="I236" s="8">
-        <v>7</v>
-      </c>
-      <c r="J236" s="9">
-        <v>8</v>
-      </c>
-      <c r="K236" s="10">
-        <v>7</v>
-      </c>
-      <c r="L236" s="11">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="M236" s="12">
         <f>AVERAGE(G236:L236)</f>
-        <v>7.666666666666667</v>
+        <v>59</v>
       </c>
     </row>
     <row r="237" spans="1:13">
       <c r="A237" s="1" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C237" s="2">
         <v>50</v>
@@ -9022,160 +9095,175 @@
         <v>4</v>
       </c>
       <c r="G237" s="6">
-        <v>61</v>
-      </c>
-      <c r="H237" s="7">
-        <v>93</v>
-      </c>
-      <c r="I237" s="8">
-        <v>75</v>
-      </c>
-      <c r="J237" s="9">
-        <v>75</v>
-      </c>
-      <c r="K237" s="10">
-        <v>95</v>
-      </c>
-      <c r="L237" s="11">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="M237" s="12">
         <f>AVERAGE(G237:L237)</f>
-        <v>79.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="238" spans="1:13">
       <c r="A238" s="1" t="s">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="C238" s="2">
         <v>40</v>
       </c>
       <c r="D238" s="2">
-        <v>4000</v>
+        <v>150</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G238" s="6">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="H238" s="7">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="I238" s="8">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="J238" s="9">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="K238" s="10">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="L238" s="11">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="M238" s="12">
         <f>AVERAGE(G238:L238)</f>
-        <v>78.333333333333329</v>
+        <v>7.666666666666667</v>
       </c>
     </row>
     <row r="239" spans="1:13">
       <c r="A239" s="1" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="C239" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D239" s="2">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G239" s="6">
+        <v>61</v>
+      </c>
+      <c r="H239" s="7">
+        <v>93</v>
+      </c>
+      <c r="I239" s="8">
+        <v>75</v>
+      </c>
+      <c r="J239" s="9">
+        <v>75</v>
+      </c>
+      <c r="K239" s="10">
         <v>95</v>
       </c>
-      <c r="H239" s="7">
-        <v>73</v>
-      </c>
-      <c r="I239" s="8">
-        <v>76</v>
-      </c>
-      <c r="J239" s="9">
+      <c r="L239" s="11">
         <v>78</v>
-      </c>
-      <c r="K239" s="10">
-        <v>81</v>
-      </c>
-      <c r="L239" s="11">
-        <v>80</v>
       </c>
       <c r="M239" s="12">
         <f>AVERAGE(G239:L239)</f>
-        <v>80.5</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="240" spans="1:13">
       <c r="A240" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>259</v>
+        <v>342</v>
       </c>
       <c r="C240" s="2">
         <v>40</v>
       </c>
       <c r="D240" s="2">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G240" s="6">
+        <v>94</v>
+      </c>
       <c r="H240" s="7">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="I240" s="8">
+        <v>59</v>
+      </c>
+      <c r="J240" s="9">
+        <v>77</v>
+      </c>
+      <c r="K240" s="10">
+        <v>96</v>
+      </c>
+      <c r="L240" s="11">
+        <v>79</v>
       </c>
       <c r="M240" s="12">
         <f>AVERAGE(G240:L240)</f>
-        <v>66</v>
+        <v>78.333333333333329</v>
       </c>
     </row>
     <row r="241" spans="1:13">
       <c r="A241" s="1" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="C241" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D241" s="2">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G241" s="6">
+        <v>95</v>
+      </c>
       <c r="H241" s="7">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="I241" s="8">
+        <v>76</v>
+      </c>
+      <c r="J241" s="9">
+        <v>78</v>
+      </c>
+      <c r="K241" s="10">
+        <v>81</v>
+      </c>
+      <c r="L241" s="11">
+        <v>80</v>
       </c>
       <c r="M241" s="12">
         <f>AVERAGE(G241:L241)</f>
-        <v>67</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="242" spans="1:13">
       <c r="A242" s="1" t="s">
-        <v>388</v>
+        <v>72</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>389</v>
+        <v>259</v>
       </c>
       <c r="C242" s="2">
         <v>40</v>
@@ -9186,35 +9274,20 @@
       <c r="E242" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G242" s="6">
-        <v>22</v>
-      </c>
       <c r="H242" s="7">
-        <v>21</v>
-      </c>
-      <c r="I242" s="8">
-        <v>21</v>
-      </c>
-      <c r="J242" s="9">
-        <v>21</v>
-      </c>
-      <c r="K242" s="10">
-        <v>21</v>
-      </c>
-      <c r="L242" s="11">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="M242" s="12">
         <f>AVERAGE(G242:L242)</f>
-        <v>21.166666666666668</v>
+        <v>66</v>
       </c>
     </row>
     <row r="243" spans="1:13">
       <c r="A243" s="1" t="s">
-        <v>455</v>
+        <v>122</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>456</v>
+        <v>308</v>
       </c>
       <c r="C243" s="2">
         <v>50</v>
@@ -9225,23 +9298,23 @@
       <c r="E243" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K243" s="10">
-        <v>22</v>
+      <c r="H243" s="7">
+        <v>67</v>
       </c>
       <c r="M243" s="12">
         <f>AVERAGE(G243:L243)</f>
-        <v>22</v>
+        <v>67</v>
       </c>
     </row>
     <row r="244" spans="1:13">
       <c r="A244" s="1" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="C244" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D244" s="2">
         <v>400</v>
@@ -9250,76 +9323,61 @@
         <v>4</v>
       </c>
       <c r="G244" s="6">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="H244" s="7">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I244" s="8">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="J244" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="K244" s="10">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="L244" s="11">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M244" s="12">
         <f>AVERAGE(G244:L244)</f>
-        <v>41</v>
+        <v>21.166666666666668</v>
       </c>
     </row>
     <row r="245" spans="1:13">
       <c r="A245" s="1" t="s">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="C245" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D245" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G245" s="6">
-        <v>45</v>
-      </c>
-      <c r="H245" s="7">
-        <v>41</v>
-      </c>
-      <c r="I245" s="8">
-        <v>41</v>
-      </c>
-      <c r="J245" s="9">
-        <v>41</v>
-      </c>
       <c r="K245" s="10">
-        <v>43</v>
-      </c>
-      <c r="L245" s="11">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M245" s="12">
         <f>AVERAGE(G245:L245)</f>
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="246" spans="1:13">
       <c r="A246" s="1" t="s">
-        <v>47</v>
+        <v>424</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>260</v>
+        <v>425</v>
       </c>
       <c r="C246" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D246" s="2">
         <v>400</v>
@@ -9327,47 +9385,74 @@
       <c r="E246" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G246" s="6">
+        <v>44</v>
+      </c>
       <c r="H246" s="7">
-        <v>77</v>
+        <v>40</v>
+      </c>
+      <c r="I246" s="8">
+        <v>40</v>
+      </c>
+      <c r="J246" s="9">
+        <v>40</v>
       </c>
       <c r="K246" s="10">
-        <v>83</v>
+        <v>42</v>
+      </c>
+      <c r="L246" s="11">
+        <v>40</v>
       </c>
       <c r="M246" s="12">
         <f>AVERAGE(G246:L246)</f>
-        <v>80</v>
+        <v>41</v>
       </c>
     </row>
     <row r="247" spans="1:13">
       <c r="A247" s="1" t="s">
-        <v>156</v>
+        <v>426</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>189</v>
+        <v>427</v>
       </c>
       <c r="C247" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D247" s="2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G247" s="6">
-        <v>83</v>
+        <v>45</v>
+      </c>
+      <c r="H247" s="7">
+        <v>41</v>
+      </c>
+      <c r="I247" s="8">
+        <v>41</v>
+      </c>
+      <c r="J247" s="9">
+        <v>41</v>
+      </c>
+      <c r="K247" s="10">
+        <v>43</v>
+      </c>
+      <c r="L247" s="11">
+        <v>41</v>
       </c>
       <c r="M247" s="12">
         <f>AVERAGE(G247:L247)</f>
-        <v>83</v>
+        <v>42</v>
       </c>
     </row>
     <row r="248" spans="1:13">
       <c r="A248" s="1" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C248" s="2">
         <v>40</v>
@@ -9378,35 +9463,86 @@
       <c r="E248" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M248" s="12" t="e">
+      <c r="H248" s="7">
+        <v>77</v>
+      </c>
+      <c r="K248" s="10">
+        <v>83</v>
+      </c>
+      <c r="M248" s="12">
         <f>AVERAGE(G248:L248)</f>
-        <v>#DIV/0!</v>
+        <v>80</v>
       </c>
     </row>
     <row r="249" spans="1:13">
       <c r="A249" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C249" s="2">
+        <v>50</v>
+      </c>
+      <c r="D249" s="2">
+        <v>500</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G249" s="6">
+        <v>83</v>
+      </c>
+      <c r="M249" s="12">
+        <f>AVERAGE(G249:L249)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13">
+      <c r="A250" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C250" s="2">
+        <v>40</v>
+      </c>
+      <c r="D250" s="2">
+        <v>400</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M250" s="12" t="e">
+        <f>AVERAGE(G250:L250)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13">
+      <c r="A251" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B251" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C249" s="2">
-        <v>50</v>
-      </c>
-      <c r="D249" s="2">
-        <v>500</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M249" s="12" t="e">
-        <f>AVERAGE(G249:L249)</f>
+      <c r="C251" s="2">
+        <v>50</v>
+      </c>
+      <c r="D251" s="2">
+        <v>500</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M251" s="12" t="e">
+        <f>AVERAGE(G251:L251)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{E6A05FEB-E022-483C-B74F-E4F502393947}">
-    <sortState ref="A2:M249">
+    <sortState ref="A2:M251">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
@@ -9414,62 +9550,92 @@
     <sortCondition ref="B2:B237"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G106 G109:G1002">
-    <cfRule type="cellIs" dxfId="11" priority="53" operator="notEqual">
+  <conditionalFormatting sqref="G1:G106 G109:G249 G252:G1002">
+    <cfRule type="cellIs" dxfId="17" priority="59" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I106 H109:I1002">
-    <cfRule type="cellIs" dxfId="10" priority="52" operator="notEqual">
+  <conditionalFormatting sqref="H1:I106 H109:I249 H252:I1002">
+    <cfRule type="cellIs" dxfId="16" priority="58" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J106 J109:J1002">
-    <cfRule type="cellIs" dxfId="9" priority="51" operator="notEqual">
+  <conditionalFormatting sqref="J1:J106 J109:J249 J252:J1002">
+    <cfRule type="cellIs" dxfId="15" priority="57" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I106 I109:I1002">
-    <cfRule type="cellIs" dxfId="8" priority="50" operator="notEqual">
+  <conditionalFormatting sqref="I1:I106 I109:I249 I252:I1002">
+    <cfRule type="cellIs" dxfId="14" priority="56" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K106 K109:K1002">
-    <cfRule type="cellIs" dxfId="7" priority="49" operator="notEqual">
+  <conditionalFormatting sqref="K1:K106 K109:K249 K252:K1002">
+    <cfRule type="cellIs" dxfId="13" priority="55" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L106 L109:L1002">
-    <cfRule type="cellIs" dxfId="6" priority="48" operator="notEqual">
+  <conditionalFormatting sqref="L1:L106 L109:L249 L252:L1002">
+    <cfRule type="cellIs" dxfId="12" priority="54" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G107:G108">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H107:I108">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J107:J108">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I107:I108">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K107:K108">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L107:L108">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G250:G251">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H107:I108">
+  <conditionalFormatting sqref="H250:I251">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J107:J108">
+  <conditionalFormatting sqref="J250:J251">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I107:I108">
+  <conditionalFormatting sqref="I250:I251">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K107:K108">
+  <conditionalFormatting sqref="K250:K251">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L107:L108">
+  <conditionalFormatting sqref="L250:L251">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
@@ -9481,10 +9647,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="A21:E22"/>
+      <selection activeCell="E24" sqref="A23:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9832,10 +9998,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C21">
         <v>50</v>
@@ -9849,10 +10015,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C22">
         <v>40</v>
@@ -9861,13 +10027,51 @@
         <v>11000</v>
       </c>
       <c r="E22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="B23" t="s">
+        <v>494</v>
+      </c>
+      <c r="C23" s="14">
+        <v>50</v>
+      </c>
+      <c r="D23" s="14">
+        <v>14000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="B24" t="s">
+        <v>495</v>
+      </c>
+      <c r="C24" s="14">
+        <v>40</v>
+      </c>
+      <c r="D24" s="14">
+        <v>400</v>
+      </c>
+      <c r="E24" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{107EFCF0-233B-4B5F-B68E-E28A8808FC28}"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A23" r:id="rId1" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-ts-ex-sp-04" xr:uid="{B14A67A2-B306-44E5-A9F7-990BDE803C42}"/>
+    <hyperlink ref="A24" r:id="rId2" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-pok10-ex" xr:uid="{DE13E425-5A6C-41DC-98D4-A258FDE8BDD9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Ex quest.xlsx
+++ b/Ex quest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="297" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CE66F9DF-4311-4A55-88F9-D8E9BB1FD3A0}"/>
+  <xr:revisionPtr revIDLastSave="327" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF52B4F3-C495-47AF-B0D4-D37C68BE54FE}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="503">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1538,7 +1539,25 @@
     <t>ファントム オブ アルケミスト8 [EX]</t>
   </si>
   <si>
-    <t>Name (formatted) - list last updated 24/10/2019</t>
+    <t>【期間限定】 5th Anniversary クエスト1</t>
+  </si>
+  <si>
+    <t>5th Anniversary クエスト1</t>
+  </si>
+  <si>
+    <t>Name (formatted) - list last updated 3/11/2019</t>
+  </si>
+  <si>
+    <t>【守護盾アイギス登場】 超獲得ファントム オブ アルケミスト</t>
+  </si>
+  <si>
+    <t>【超獲得ステージ】 超獲得ファントム オブ アルケミスト</t>
+  </si>
+  <si>
+    <t>超獲得ファントム オブ アルケミスト [守護盾アイギス]</t>
+  </si>
+  <si>
+    <t>超獲得ファントム オブ アルケミスト [超獲得ステージ]</t>
   </si>
 </sst>
 </file>
@@ -2140,11 +2159,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M251"/>
+  <dimension ref="A1:M254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B94" sqref="B94:L94"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2167,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2180,27 +2199,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1008)</f>
-        <v>火 125</v>
+        <v>火 126</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1008)</f>
-        <v>水 123</v>
+        <v>水 125</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1008)</f>
-        <v>風 108</v>
+        <v>風 110</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1008)</f>
-        <v>雷 106</v>
+        <v>雷 107</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1008)</f>
-        <v>光 121</v>
+        <v>光 124</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1008)</f>
-        <v>暗 109</v>
+        <v>暗 110</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>346</v>
@@ -2240,7 +2259,7 @@
         <v>102</v>
       </c>
       <c r="M2" s="12">
-        <f>IF(ISNUMBER(AVERAGE(G2:L2)),AVERAGE(G2:L2),"")</f>
+        <f t="shared" ref="M2:M27" si="0">IF(ISNUMBER(AVERAGE(G2:L2)),AVERAGE(G2:L2),"")</f>
         <v>103.8</v>
       </c>
     </row>
@@ -2280,7 +2299,7 @@
         <v>99</v>
       </c>
       <c r="M3" s="12">
-        <f>IF(ISNUMBER(AVERAGE(G3:L3)),AVERAGE(G3:L3),"")</f>
+        <f t="shared" si="0"/>
         <v>104.33333333333333</v>
       </c>
     </row>
@@ -2304,7 +2323,7 @@
         <v>54</v>
       </c>
       <c r="M4" s="12">
-        <f>IF(ISNUMBER(AVERAGE(G4:L4)),AVERAGE(G4:L4),"")</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
@@ -2328,7 +2347,7 @@
         <v>55</v>
       </c>
       <c r="M5" s="12">
-        <f>IF(ISNUMBER(AVERAGE(G5:L5)),AVERAGE(G5:L5),"")</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
@@ -2367,7 +2386,7 @@
         <v>33</v>
       </c>
       <c r="M6" s="12">
-        <f>IF(ISNUMBER(AVERAGE(G6:L6)),AVERAGE(G6:L6),"")</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
@@ -2388,7 +2407,7 @@
         <v>4</v>
       </c>
       <c r="M7" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G7:L7)),AVERAGE(G7:L7),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2409,7 +2428,7 @@
         <v>4</v>
       </c>
       <c r="M8" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G8:L8)),AVERAGE(G8:L8),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2430,7 +2449,7 @@
         <v>4</v>
       </c>
       <c r="M9" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G9:L9)),AVERAGE(G9:L9),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2451,7 +2470,7 @@
         <v>4</v>
       </c>
       <c r="M10" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G10:L10)),AVERAGE(G10:L10),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2472,7 +2491,7 @@
         <v>4</v>
       </c>
       <c r="M11" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G11:L11)),AVERAGE(G11:L11),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2493,7 +2512,7 @@
         <v>4</v>
       </c>
       <c r="M12" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G12:L12)),AVERAGE(G12:L12),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2514,7 +2533,7 @@
         <v>4</v>
       </c>
       <c r="M13" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G13:L13)),AVERAGE(G13:L13),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2535,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="M14" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G14:L14)),AVERAGE(G14:L14),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2556,7 +2575,7 @@
         <v>4</v>
       </c>
       <c r="M15" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G15:L15)),AVERAGE(G15:L15),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2577,7 +2596,7 @@
         <v>4</v>
       </c>
       <c r="M16" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G16:L16)),AVERAGE(G16:L16),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2598,7 +2617,7 @@
         <v>4</v>
       </c>
       <c r="M17" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G17:L17)),AVERAGE(G17:L17),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2619,7 +2638,7 @@
         <v>4</v>
       </c>
       <c r="M18" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G18:L18)),AVERAGE(G18:L18),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2640,7 +2659,7 @@
         <v>4</v>
       </c>
       <c r="M19" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G19:L19)),AVERAGE(G19:L19),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2661,7 +2680,7 @@
         <v>4</v>
       </c>
       <c r="M20" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G20:L20)),AVERAGE(G20:L20),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2682,7 +2701,7 @@
         <v>4</v>
       </c>
       <c r="M21" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G21:L21)),AVERAGE(G21:L21),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2703,7 +2722,7 @@
         <v>4</v>
       </c>
       <c r="M22" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G22:L22)),AVERAGE(G22:L22),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2742,7 +2761,7 @@
         <v>35</v>
       </c>
       <c r="M23" s="12">
-        <f>IF(ISNUMBER(AVERAGE(G23:L23)),AVERAGE(G23:L23),"")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
     </row>
@@ -2766,7 +2785,7 @@
         <v>42</v>
       </c>
       <c r="M24" s="12">
-        <f>IF(ISNUMBER(AVERAGE(G24:L24)),AVERAGE(G24:L24),"")</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
@@ -2805,7 +2824,7 @@
         <v>42</v>
       </c>
       <c r="M25" s="12">
-        <f>IF(ISNUMBER(AVERAGE(G25:L25)),AVERAGE(G25:L25),"")</f>
+        <f t="shared" si="0"/>
         <v>44.5</v>
       </c>
     </row>
@@ -2829,7 +2848,7 @@
         <v>44</v>
       </c>
       <c r="M26" s="12">
-        <f>IF(ISNUMBER(AVERAGE(G26:L26)),AVERAGE(G26:L26),"")</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
@@ -2856,7 +2875,7 @@
         <v>45</v>
       </c>
       <c r="M27" s="12">
-        <f>IF(ISNUMBER(AVERAGE(G27:L27)),AVERAGE(G27:L27),"")</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
@@ -3021,7 +3040,7 @@
         <v>85</v>
       </c>
       <c r="M34" s="12">
-        <f>AVERAGE(G34:L34)</f>
+        <f t="shared" ref="M34:M97" si="1">AVERAGE(G34:L34)</f>
         <v>80.166666666666671</v>
       </c>
     </row>
@@ -3060,7 +3079,7 @@
         <v>87</v>
       </c>
       <c r="M35" s="12">
-        <f>AVERAGE(G35:L35)</f>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
@@ -3096,7 +3115,7 @@
         <v>89</v>
       </c>
       <c r="M36" s="12">
-        <f>AVERAGE(G36:L36)</f>
+        <f t="shared" si="1"/>
         <v>97.8</v>
       </c>
     </row>
@@ -3135,7 +3154,7 @@
         <v>88</v>
       </c>
       <c r="M37" s="12">
-        <f>AVERAGE(G37:L37)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
     </row>
@@ -3174,7 +3193,7 @@
         <v>36</v>
       </c>
       <c r="M38" s="12">
-        <f>AVERAGE(G38:L38)</f>
+        <f t="shared" si="1"/>
         <v>37.666666666666664</v>
       </c>
     </row>
@@ -3213,7 +3232,7 @@
         <v>37</v>
       </c>
       <c r="M39" s="12">
-        <f>AVERAGE(G39:L39)</f>
+        <f t="shared" si="1"/>
         <v>38.666666666666664</v>
       </c>
     </row>
@@ -3237,7 +3256,7 @@
         <v>76</v>
       </c>
       <c r="M40" s="12">
-        <f>AVERAGE(G40:L40)</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
@@ -3276,7 +3295,7 @@
         <v>58</v>
       </c>
       <c r="M41" s="12">
-        <f>AVERAGE(G41:L41)</f>
+        <f t="shared" si="1"/>
         <v>105.33333333333333</v>
       </c>
     </row>
@@ -3315,7 +3334,7 @@
         <v>108</v>
       </c>
       <c r="M42" s="12">
-        <f>AVERAGE(G42:L42)</f>
+        <f t="shared" si="1"/>
         <v>104.5</v>
       </c>
     </row>
@@ -3342,7 +3361,7 @@
         <v>68</v>
       </c>
       <c r="M43" s="12">
-        <f>AVERAGE(G43:L43)</f>
+        <f t="shared" si="1"/>
         <v>76.5</v>
       </c>
     </row>
@@ -3369,7 +3388,7 @@
         <v>69</v>
       </c>
       <c r="M44" s="12">
-        <f>AVERAGE(G44:L44)</f>
+        <f t="shared" si="1"/>
         <v>77.5</v>
       </c>
     </row>
@@ -3393,7 +3412,7 @@
         <v>52</v>
       </c>
       <c r="M45" s="12">
-        <f>AVERAGE(G45:L45)</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
     </row>
@@ -3417,7 +3436,7 @@
         <v>65</v>
       </c>
       <c r="M46" s="12">
-        <f>AVERAGE(G46:L46)</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
     </row>
@@ -3441,7 +3460,7 @@
         <v>53</v>
       </c>
       <c r="M47" s="12">
-        <f>AVERAGE(G47:L47)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
     </row>
@@ -3480,7 +3499,7 @@
         <v>34</v>
       </c>
       <c r="M48" s="12">
-        <f>AVERAGE(G48:L48)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
@@ -3501,7 +3520,7 @@
         <v>4</v>
       </c>
       <c r="M49" s="12" t="e">
-        <f>AVERAGE(G49:L49)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3522,7 +3541,7 @@
         <v>4</v>
       </c>
       <c r="M50" s="12" t="e">
-        <f>AVERAGE(G50:L50)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3543,7 +3562,7 @@
         <v>4</v>
       </c>
       <c r="M51" s="12" t="e">
-        <f>AVERAGE(G51:L51)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3564,7 +3583,7 @@
         <v>4</v>
       </c>
       <c r="M52" s="12" t="e">
-        <f>AVERAGE(G52:L52)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3585,7 +3604,7 @@
         <v>4</v>
       </c>
       <c r="M53" s="12" t="e">
-        <f>AVERAGE(G53:L53)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3606,7 +3625,7 @@
         <v>4</v>
       </c>
       <c r="M54" s="12" t="e">
-        <f>AVERAGE(G54:L54)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3627,7 +3646,7 @@
         <v>4</v>
       </c>
       <c r="M55" s="12" t="e">
-        <f>AVERAGE(G55:L55)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3651,7 +3670,7 @@
         <v>84</v>
       </c>
       <c r="M56" s="12">
-        <f>AVERAGE(G56:L56)</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
     </row>
@@ -3672,7 +3691,7 @@
         <v>4</v>
       </c>
       <c r="M57" s="12" t="e">
-        <f>AVERAGE(G57:L57)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3708,7 +3727,7 @@
         <v>67</v>
       </c>
       <c r="M58" s="12">
-        <f>AVERAGE(G58:L58)</f>
+        <f t="shared" si="1"/>
         <v>76.8</v>
       </c>
     </row>
@@ -3747,7 +3766,7 @@
         <v>47</v>
       </c>
       <c r="M59" s="12">
-        <f>AVERAGE(G59:L59)</f>
+        <f t="shared" si="1"/>
         <v>50.166666666666664</v>
       </c>
     </row>
@@ -3786,7 +3805,7 @@
         <v>52</v>
       </c>
       <c r="M60" s="12">
-        <f>AVERAGE(G60:L60)</f>
+        <f t="shared" si="1"/>
         <v>75.166666666666671</v>
       </c>
     </row>
@@ -3825,7 +3844,7 @@
         <v>84</v>
       </c>
       <c r="M61" s="12">
-        <f>AVERAGE(G61:L61)</f>
+        <f t="shared" si="1"/>
         <v>85.5</v>
       </c>
     </row>
@@ -3846,7 +3865,7 @@
         <v>4</v>
       </c>
       <c r="M62" s="12" t="e">
-        <f>AVERAGE(G62:L62)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3885,7 +3904,7 @@
         <v>24</v>
       </c>
       <c r="M63" s="12">
-        <f>AVERAGE(G63:L63)</f>
+        <f t="shared" si="1"/>
         <v>24.333333333333332</v>
       </c>
     </row>
@@ -3924,7 +3943,7 @@
         <v>46</v>
       </c>
       <c r="M64" s="12">
-        <f>AVERAGE(G64:L64)</f>
+        <f t="shared" si="1"/>
         <v>48.833333333333336</v>
       </c>
     </row>
@@ -3963,7 +3982,7 @@
         <v>38</v>
       </c>
       <c r="M65" s="12">
-        <f>AVERAGE(G65:L65)</f>
+        <f t="shared" si="1"/>
         <v>33.333333333333336</v>
       </c>
     </row>
@@ -3990,7 +4009,7 @@
         <v>50</v>
       </c>
       <c r="M66" s="12">
-        <f>AVERAGE(G66:L66)</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
     </row>
@@ -4011,7 +4030,7 @@
         <v>4</v>
       </c>
       <c r="M67" s="12" t="e">
-        <f>AVERAGE(G67:L67)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4032,7 +4051,7 @@
         <v>4</v>
       </c>
       <c r="M68" s="12" t="e">
-        <f>AVERAGE(G68:L68)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4053,7 +4072,7 @@
         <v>4</v>
       </c>
       <c r="M69" s="12" t="e">
-        <f>AVERAGE(G69:L69)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4074,7 +4093,7 @@
         <v>4</v>
       </c>
       <c r="M70" s="12" t="e">
-        <f>AVERAGE(G70:L70)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4095,7 +4114,7 @@
         <v>4</v>
       </c>
       <c r="M71" s="12" t="e">
-        <f>AVERAGE(G71:L71)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4116,7 +4135,7 @@
         <v>4</v>
       </c>
       <c r="M72" s="12" t="e">
-        <f>AVERAGE(G72:L72)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4155,7 +4174,7 @@
         <v>20</v>
       </c>
       <c r="M73" s="12">
-        <f>AVERAGE(G73:L73)</f>
+        <f t="shared" si="1"/>
         <v>20.166666666666668</v>
       </c>
     </row>
@@ -4194,7 +4213,7 @@
         <v>103</v>
       </c>
       <c r="M74" s="12">
-        <f>AVERAGE(G74:L74)</f>
+        <f t="shared" si="1"/>
         <v>108.33333333333333</v>
       </c>
     </row>
@@ -4233,7 +4252,7 @@
         <v>104</v>
       </c>
       <c r="M75" s="12">
-        <f>AVERAGE(G75:L75)</f>
+        <f t="shared" si="1"/>
         <v>109.33333333333333</v>
       </c>
     </row>
@@ -4272,7 +4291,7 @@
         <v>105</v>
       </c>
       <c r="M76" s="12">
-        <f>AVERAGE(G76:L76)</f>
+        <f t="shared" si="1"/>
         <v>110.66666666666667</v>
       </c>
     </row>
@@ -4311,7 +4330,7 @@
         <v>53</v>
       </c>
       <c r="M77" s="12">
-        <f>AVERAGE(G77:L77)</f>
+        <f t="shared" si="1"/>
         <v>73.833333333333329</v>
       </c>
     </row>
@@ -4335,7 +4354,7 @@
         <v>59</v>
       </c>
       <c r="M78" s="12">
-        <f>AVERAGE(G78:L78)</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
     </row>
@@ -4356,7 +4375,7 @@
         <v>4</v>
       </c>
       <c r="M79" s="12" t="e">
-        <f>AVERAGE(G79:L79)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4377,7 +4396,7 @@
         <v>4</v>
       </c>
       <c r="M80" s="12" t="e">
-        <f>AVERAGE(G80:L80)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4398,7 +4417,7 @@
         <v>4</v>
       </c>
       <c r="M81" s="12" t="e">
-        <f>AVERAGE(G81:L81)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4422,7 +4441,7 @@
         <v>36</v>
       </c>
       <c r="M82" s="12">
-        <f>AVERAGE(G82:L82)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
@@ -4443,7 +4462,7 @@
         <v>4</v>
       </c>
       <c r="M83" s="12" t="e">
-        <f>AVERAGE(G83:L83)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4464,7 +4483,7 @@
         <v>4</v>
       </c>
       <c r="M84" s="12" t="e">
-        <f>AVERAGE(G84:L84)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4503,7 +4522,7 @@
         <v>32</v>
       </c>
       <c r="M85" s="12">
-        <f>AVERAGE(G85:L85)</f>
+        <f t="shared" si="1"/>
         <v>32.666666666666664</v>
       </c>
     </row>
@@ -4527,7 +4546,7 @@
         <v>34</v>
       </c>
       <c r="M86" s="12">
-        <f>AVERAGE(G86:L86)</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
@@ -4566,7 +4585,7 @@
         <v>43</v>
       </c>
       <c r="M87" s="12">
-        <f>AVERAGE(G87:L87)</f>
+        <f t="shared" si="1"/>
         <v>45.666666666666664</v>
       </c>
     </row>
@@ -4605,7 +4624,7 @@
         <v>45</v>
       </c>
       <c r="M88" s="12">
-        <f>AVERAGE(G88:L88)</f>
+        <f t="shared" si="1"/>
         <v>47.833333333333336</v>
       </c>
     </row>
@@ -4629,7 +4648,7 @@
         <v>54</v>
       </c>
       <c r="M89" s="12">
-        <f>AVERAGE(G89:L89)</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
     </row>
@@ -4653,7 +4672,7 @@
         <v>64</v>
       </c>
       <c r="M90" s="12">
-        <f>AVERAGE(G90:L90)</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
     </row>
@@ -4677,7 +4696,7 @@
         <v>72</v>
       </c>
       <c r="M91" s="12">
-        <f>AVERAGE(G91:L91)</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
     </row>
@@ -4701,7 +4720,7 @@
         <v>73</v>
       </c>
       <c r="M92" s="12">
-        <f>AVERAGE(G92:L92)</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
@@ -4731,7 +4750,7 @@
         <v>78</v>
       </c>
       <c r="M93" s="12">
-        <f>AVERAGE(G93:L93)</f>
+        <f t="shared" si="1"/>
         <v>68.333333333333329</v>
       </c>
     </row>
@@ -4770,7 +4789,7 @@
         <v>109</v>
       </c>
       <c r="M94" s="12">
-        <f>AVERAGE(G94:L94)</f>
+        <f t="shared" si="1"/>
         <v>115.33333333333333</v>
       </c>
     </row>
@@ -4809,7 +4828,7 @@
         <v>65</v>
       </c>
       <c r="M95" s="12">
-        <f>AVERAGE(G95:L95)</f>
+        <f t="shared" si="1"/>
         <v>99.5</v>
       </c>
     </row>
@@ -4830,7 +4849,7 @@
         <v>4</v>
       </c>
       <c r="M96" s="12" t="e">
-        <f>AVERAGE(G96:L96)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4851,7 +4870,7 @@
         <v>4</v>
       </c>
       <c r="M97" s="12" t="e">
-        <f>AVERAGE(G97:L97)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4872,7 +4891,7 @@
         <v>4</v>
       </c>
       <c r="M98" s="12" t="e">
-        <f>AVERAGE(G98:L98)</f>
+        <f t="shared" ref="M98:M161" si="2">AVERAGE(G98:L98)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4893,7 +4912,7 @@
         <v>4</v>
       </c>
       <c r="M99" s="12" t="e">
-        <f>AVERAGE(G99:L99)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4923,7 +4942,7 @@
         <v>62</v>
       </c>
       <c r="M100" s="12">
-        <f>AVERAGE(G100:L100)</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
     </row>
@@ -4962,7 +4981,7 @@
         <v>76</v>
       </c>
       <c r="M101" s="12">
-        <f>AVERAGE(G101:L101)</f>
+        <f t="shared" si="2"/>
         <v>73.166666666666671</v>
       </c>
     </row>
@@ -5001,7 +5020,7 @@
         <v>77</v>
       </c>
       <c r="M102" s="12">
-        <f>AVERAGE(G102:L102)</f>
+        <f t="shared" si="2"/>
         <v>79.666666666666671</v>
       </c>
     </row>
@@ -5040,7 +5059,7 @@
         <v>91</v>
       </c>
       <c r="M103" s="12">
-        <f>AVERAGE(G103:L103)</f>
+        <f t="shared" si="2"/>
         <v>91.666666666666671</v>
       </c>
     </row>
@@ -5079,7 +5098,7 @@
         <v>92</v>
       </c>
       <c r="M104" s="12">
-        <f>AVERAGE(G104:L104)</f>
+        <f t="shared" si="2"/>
         <v>92.666666666666671</v>
       </c>
     </row>
@@ -5118,7 +5137,7 @@
         <v>93</v>
       </c>
       <c r="M105" s="12">
-        <f>AVERAGE(G105:L105)</f>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
     </row>
@@ -5157,7 +5176,7 @@
         <v>94</v>
       </c>
       <c r="M106" s="12">
-        <f>AVERAGE(G106:L106)</f>
+        <f t="shared" si="2"/>
         <v>94.5</v>
       </c>
     </row>
@@ -5196,7 +5215,7 @@
         <v>95</v>
       </c>
       <c r="M107" s="12">
-        <f>AVERAGE(G107:L107)</f>
+        <f t="shared" si="2"/>
         <v>95.5</v>
       </c>
     </row>
@@ -5235,7 +5254,7 @@
         <v>96</v>
       </c>
       <c r="M108" s="12">
-        <f>AVERAGE(G108:L108)</f>
+        <f t="shared" si="2"/>
         <v>100.66666666666667</v>
       </c>
     </row>
@@ -5274,7 +5293,7 @@
         <v>97</v>
       </c>
       <c r="M109" s="12">
-        <f>AVERAGE(G109:L109)</f>
+        <f t="shared" si="2"/>
         <v>102.5</v>
       </c>
     </row>
@@ -5313,7 +5332,7 @@
         <v>106</v>
       </c>
       <c r="M110" s="12">
-        <f>AVERAGE(G110:L110)</f>
+        <f t="shared" si="2"/>
         <v>111.5</v>
       </c>
     </row>
@@ -5352,7 +5371,7 @@
         <v>61</v>
       </c>
       <c r="M111" s="12">
-        <f>AVERAGE(G111:L111)</f>
+        <f t="shared" si="2"/>
         <v>69.166666666666671</v>
       </c>
     </row>
@@ -5391,7 +5410,7 @@
         <v>100</v>
       </c>
       <c r="M112" s="12">
-        <f>AVERAGE(G112:L112)</f>
+        <f t="shared" si="2"/>
         <v>106.33333333333333</v>
       </c>
     </row>
@@ -5430,7 +5449,7 @@
         <v>107</v>
       </c>
       <c r="M113" s="12">
-        <f>AVERAGE(G113:L113)</f>
+        <f t="shared" si="2"/>
         <v>112.5</v>
       </c>
     </row>
@@ -5450,9 +5469,27 @@
       <c r="E114" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M114" s="12" t="e">
-        <f>AVERAGE(G114:L114)</f>
-        <v>#DIV/0!</v>
+      <c r="G114" s="6">
+        <v>126</v>
+      </c>
+      <c r="H114" s="7">
+        <v>124</v>
+      </c>
+      <c r="I114" s="8">
+        <v>109</v>
+      </c>
+      <c r="J114" s="9">
+        <v>107</v>
+      </c>
+      <c r="K114" s="10">
+        <v>122</v>
+      </c>
+      <c r="L114" s="11">
+        <v>110</v>
+      </c>
+      <c r="M114" s="12">
+        <f t="shared" si="2"/>
+        <v>116.33333333333333</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -5475,7 +5512,7 @@
         <v>102</v>
       </c>
       <c r="M115" s="12">
-        <f>AVERAGE(G115:L115)</f>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
     </row>
@@ -5514,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="M116" s="12">
-        <f>AVERAGE(G116:L116)</f>
+        <f t="shared" si="2"/>
         <v>1.1666666666666667</v>
       </c>
     </row>
@@ -5553,7 +5590,7 @@
         <v>2</v>
       </c>
       <c r="M117" s="12">
-        <f>AVERAGE(G117:L117)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -5592,7 +5629,7 @@
         <v>3</v>
       </c>
       <c r="M118" s="12">
-        <f>AVERAGE(G118:L118)</f>
+        <f t="shared" si="2"/>
         <v>2.8333333333333335</v>
       </c>
     </row>
@@ -5631,7 +5668,7 @@
         <v>4</v>
       </c>
       <c r="M119" s="12">
-        <f>AVERAGE(G119:L119)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -5655,7 +5692,7 @@
         <v>56</v>
       </c>
       <c r="M120" s="12">
-        <f>AVERAGE(G120:L120)</f>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
     </row>
@@ -5679,7 +5716,7 @@
         <v>57</v>
       </c>
       <c r="M121" s="12">
-        <f>AVERAGE(G121:L121)</f>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
     </row>
@@ -5703,7 +5740,7 @@
         <v>80</v>
       </c>
       <c r="M122" s="12">
-        <f>AVERAGE(G122:L122)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
@@ -5724,7 +5761,7 @@
         <v>4</v>
       </c>
       <c r="M123" s="12" t="e">
-        <f>AVERAGE(G123:L123)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5763,7 +5800,7 @@
         <v>81</v>
       </c>
       <c r="M124" s="12">
-        <f>AVERAGE(G124:L124)</f>
+        <f t="shared" si="2"/>
         <v>87.333333333333329</v>
       </c>
     </row>
@@ -5796,7 +5833,7 @@
         <v>51</v>
       </c>
       <c r="M125" s="12">
-        <f>AVERAGE(G125:L125)</f>
+        <f t="shared" si="2"/>
         <v>52.25</v>
       </c>
     </row>
@@ -5826,7 +5863,7 @@
         <v>79</v>
       </c>
       <c r="M126" s="12">
-        <f>AVERAGE(G126:L126)</f>
+        <f t="shared" si="2"/>
         <v>71.666666666666671</v>
       </c>
     </row>
@@ -5856,7 +5893,7 @@
         <v>82</v>
       </c>
       <c r="M127" s="12">
-        <f>AVERAGE(G127:L127)</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
     </row>
@@ -5895,7 +5932,7 @@
         <v>22</v>
       </c>
       <c r="M128" s="12">
-        <f>AVERAGE(G128:L128)</f>
+        <f t="shared" si="2"/>
         <v>22.333333333333332</v>
       </c>
     </row>
@@ -5934,7 +5971,7 @@
         <v>23</v>
       </c>
       <c r="M129" s="12">
-        <f>AVERAGE(G129:L129)</f>
+        <f t="shared" si="2"/>
         <v>23.333333333333332</v>
       </c>
     </row>
@@ -5973,7 +6010,7 @@
         <v>18</v>
       </c>
       <c r="M130" s="12">
-        <f>AVERAGE(G130:L130)</f>
+        <f t="shared" si="2"/>
         <v>18.166666666666668</v>
       </c>
     </row>
@@ -6012,7 +6049,7 @@
         <v>19</v>
       </c>
       <c r="M131" s="12">
-        <f>AVERAGE(G131:L131)</f>
+        <f t="shared" si="2"/>
         <v>19.166666666666668</v>
       </c>
     </row>
@@ -6033,7 +6070,7 @@
         <v>4</v>
       </c>
       <c r="M132" s="12" t="e">
-        <f>AVERAGE(G132:L132)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6057,7 +6094,7 @@
         <v>69</v>
       </c>
       <c r="M133" s="12">
-        <f>AVERAGE(G133:L133)</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -6078,7 +6115,7 @@
         <v>4</v>
       </c>
       <c r="M134" s="12" t="e">
-        <f>AVERAGE(G134:L134)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6099,7 +6136,7 @@
         <v>4</v>
       </c>
       <c r="M135" s="12" t="e">
-        <f>AVERAGE(G135:L135)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6123,7 +6160,7 @@
         <v>68</v>
       </c>
       <c r="M136" s="12">
-        <f>AVERAGE(G136:L136)</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
     </row>
@@ -6150,7 +6187,7 @@
         <v>49</v>
       </c>
       <c r="M137" s="12">
-        <f>AVERAGE(G137:L137)</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
     </row>
@@ -6189,7 +6226,7 @@
         <v>5</v>
       </c>
       <c r="M138" s="12">
-        <f>AVERAGE(G138:L138)</f>
+        <f t="shared" si="2"/>
         <v>5.333333333333333</v>
       </c>
     </row>
@@ -6213,7 +6250,7 @@
         <v>69</v>
       </c>
       <c r="M139" s="12">
-        <f>AVERAGE(G139:L139)</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -6252,7 +6289,7 @@
         <v>9</v>
       </c>
       <c r="M140" s="12">
-        <f>AVERAGE(G140:L140)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6273,7 +6310,7 @@
         <v>4</v>
       </c>
       <c r="M141" s="12" t="e">
-        <f>AVERAGE(G141:L141)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6297,7 +6334,7 @@
         <v>50</v>
       </c>
       <c r="M142" s="12">
-        <f>AVERAGE(G142:L142)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
@@ -6336,7 +6373,7 @@
         <v>90</v>
       </c>
       <c r="M143" s="12">
-        <f>AVERAGE(G143:L143)</f>
+        <f t="shared" si="2"/>
         <v>84.166666666666671</v>
       </c>
     </row>
@@ -6375,7 +6412,7 @@
         <v>82</v>
       </c>
       <c r="M144" s="12">
-        <f>AVERAGE(G144:L144)</f>
+        <f t="shared" si="2"/>
         <v>88.333333333333329</v>
       </c>
     </row>
@@ -6399,7 +6436,7 @@
         <v>81</v>
       </c>
       <c r="M145" s="12">
-        <f>AVERAGE(G145:L145)</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
     </row>
@@ -6423,7 +6460,7 @@
         <v>65</v>
       </c>
       <c r="M146" s="12">
-        <f>AVERAGE(G146:L146)</f>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
     </row>
@@ -6447,7 +6484,7 @@
         <v>66</v>
       </c>
       <c r="M147" s="12">
-        <f>AVERAGE(G147:L147)</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
     </row>
@@ -6486,7 +6523,7 @@
         <v>8</v>
       </c>
       <c r="M148" s="12">
-        <f>AVERAGE(G148:L148)</f>
+        <f t="shared" si="2"/>
         <v>8.6666666666666661</v>
       </c>
     </row>
@@ -6525,7 +6562,7 @@
         <v>83</v>
       </c>
       <c r="M149" s="12">
-        <f>AVERAGE(G149:L149)</f>
+        <f t="shared" si="2"/>
         <v>84.833333333333329</v>
       </c>
     </row>
@@ -6564,7 +6601,7 @@
         <v>57</v>
       </c>
       <c r="M150" s="12">
-        <f>AVERAGE(G150:L150)</f>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
     </row>
@@ -6585,7 +6622,7 @@
         <v>4</v>
       </c>
       <c r="M151" s="12" t="e">
-        <f>AVERAGE(G151:L151)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6624,7 +6661,7 @@
         <v>31</v>
       </c>
       <c r="M152" s="12">
-        <f>AVERAGE(G152:L152)</f>
+        <f t="shared" si="2"/>
         <v>31.666666666666668</v>
       </c>
     </row>
@@ -6645,7 +6682,7 @@
         <v>4</v>
       </c>
       <c r="M153" s="12" t="e">
-        <f>AVERAGE(G153:L153)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6666,7 +6703,7 @@
         <v>4</v>
       </c>
       <c r="M154" s="12" t="e">
-        <f>AVERAGE(G154:L154)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6693,7 +6730,7 @@
       <c r="J155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="12" t="e">
-        <f>AVERAGE(G155:L155)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6720,7 +6757,7 @@
       <c r="J156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="12" t="e">
-        <f>AVERAGE(G156:L156)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6759,7 +6796,7 @@
         <v>17</v>
       </c>
       <c r="M157" s="12">
-        <f>AVERAGE(G157:L157)</f>
+        <f t="shared" si="2"/>
         <v>17.166666666666668</v>
       </c>
     </row>
@@ -6798,7 +6835,7 @@
         <v>70</v>
       </c>
       <c r="M158" s="12">
-        <f>AVERAGE(G158:L158)</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
     </row>
@@ -6837,7 +6874,7 @@
         <v>72</v>
       </c>
       <c r="M159" s="12">
-        <f>AVERAGE(G159:L159)</f>
+        <f t="shared" si="2"/>
         <v>80.666666666666671</v>
       </c>
     </row>
@@ -6873,7 +6910,7 @@
         <v>71</v>
       </c>
       <c r="M160" s="12">
-        <f>AVERAGE(G160:L160)</f>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
     </row>
@@ -6912,7 +6949,7 @@
         <v>13</v>
       </c>
       <c r="M161" s="12">
-        <f>AVERAGE(G161:L161)</f>
+        <f t="shared" si="2"/>
         <v>13.166666666666666</v>
       </c>
     </row>
@@ -6951,7 +6988,7 @@
         <v>86</v>
       </c>
       <c r="M162" s="12">
-        <f>AVERAGE(G162:L162)</f>
+        <f t="shared" ref="M162:M225" si="3">AVERAGE(G162:L162)</f>
         <v>86.5</v>
       </c>
     </row>
@@ -6975,7 +7012,7 @@
         <v>55</v>
       </c>
       <c r="M163" s="12">
-        <f>AVERAGE(G163:L163)</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
     </row>
@@ -7002,7 +7039,7 @@
         <v>56</v>
       </c>
       <c r="M164" s="12">
-        <f>AVERAGE(G164:L164)</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
     </row>
@@ -7026,7 +7063,7 @@
         <v>86</v>
       </c>
       <c r="M165" s="12">
-        <f>AVERAGE(G165:L165)</f>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
     </row>
@@ -7050,7 +7087,7 @@
         <v>67</v>
       </c>
       <c r="M166" s="12">
-        <f>AVERAGE(G166:L166)</f>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
     </row>
@@ -7077,7 +7114,7 @@
         <v>14</v>
       </c>
       <c r="M167" s="12">
-        <f>AVERAGE(G167:L167)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
@@ -7104,7 +7141,7 @@
         <v>14</v>
       </c>
       <c r="M168" s="12">
-        <f>AVERAGE(G168:L168)</f>
+        <f t="shared" si="3"/>
         <v>14.5</v>
       </c>
     </row>
@@ -7131,7 +7168,7 @@
         <v>14</v>
       </c>
       <c r="M169" s="12">
-        <f>AVERAGE(G169:L169)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
@@ -7158,7 +7195,7 @@
         <v>51</v>
       </c>
       <c r="M170" s="12">
-        <f>AVERAGE(G170:L170)</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
     </row>
@@ -7185,7 +7222,7 @@
         <v>52</v>
       </c>
       <c r="M171" s="12">
-        <f>AVERAGE(G171:L171)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
@@ -7212,7 +7249,7 @@
         <v>62</v>
       </c>
       <c r="M172" s="12">
-        <f>AVERAGE(G172:L172)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
@@ -7236,7 +7273,7 @@
         <v>76</v>
       </c>
       <c r="M173" s="12">
-        <f>AVERAGE(G173:L173)</f>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
     </row>
@@ -7263,7 +7300,7 @@
         <v>49</v>
       </c>
       <c r="M174" s="12">
-        <f>AVERAGE(G174:L174)</f>
+        <f t="shared" si="3"/>
         <v>51.5</v>
       </c>
     </row>
@@ -7290,7 +7327,7 @@
         <v>49</v>
       </c>
       <c r="M175" s="12">
-        <f>AVERAGE(G175:L175)</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
     </row>
@@ -7311,7 +7348,7 @@
         <v>4</v>
       </c>
       <c r="M176" s="12" t="e">
-        <f>AVERAGE(G176:L176)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7335,7 +7372,7 @@
         <v>61</v>
       </c>
       <c r="M177" s="12">
-        <f>AVERAGE(G177:L177)</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
     </row>
@@ -7374,7 +7411,7 @@
         <v>15</v>
       </c>
       <c r="M178" s="12">
-        <f>AVERAGE(G178:L178)</f>
+        <f t="shared" si="3"/>
         <v>15.166666666666666</v>
       </c>
     </row>
@@ -7413,7 +7450,7 @@
         <v>16</v>
       </c>
       <c r="M179" s="12">
-        <f>AVERAGE(G179:L179)</f>
+        <f t="shared" si="3"/>
         <v>16.166666666666668</v>
       </c>
     </row>
@@ -7437,7 +7474,7 @@
         <v>77</v>
       </c>
       <c r="M180" s="12">
-        <f>AVERAGE(G180:L180)</f>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
     </row>
@@ -7476,7 +7513,7 @@
         <v>10</v>
       </c>
       <c r="M181" s="12">
-        <f>AVERAGE(G181:L181)</f>
+        <f t="shared" si="3"/>
         <v>10.166666666666666</v>
       </c>
     </row>
@@ -7500,7 +7537,7 @@
         <v>56</v>
       </c>
       <c r="M182" s="12">
-        <f>AVERAGE(G182:L182)</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
     </row>
@@ -7539,7 +7576,7 @@
         <v>101</v>
       </c>
       <c r="M183" s="12">
-        <f>AVERAGE(G183:L183)</f>
+        <f t="shared" si="3"/>
         <v>101.16666666666667</v>
       </c>
     </row>
@@ -7578,7 +7615,7 @@
         <v>98</v>
       </c>
       <c r="M184" s="12">
-        <f>AVERAGE(G184:L184)</f>
+        <f t="shared" si="3"/>
         <v>98.666666666666671</v>
       </c>
     </row>
@@ -7599,7 +7636,7 @@
         <v>4</v>
       </c>
       <c r="M185" s="12" t="e">
-        <f>AVERAGE(G185:L185)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7623,7 +7660,7 @@
         <v>70</v>
       </c>
       <c r="M186" s="12">
-        <f>AVERAGE(G186:L186)</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
@@ -7647,7 +7684,7 @@
         <v>71</v>
       </c>
       <c r="M187" s="12">
-        <f>AVERAGE(G187:L187)</f>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
     </row>
@@ -7671,7 +7708,7 @@
         <v>61</v>
       </c>
       <c r="M188" s="12">
-        <f>AVERAGE(G188:L188)</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
     </row>
@@ -7698,7 +7735,7 @@
         <v>56</v>
       </c>
       <c r="M189" s="12">
-        <f>AVERAGE(G189:L189)</f>
+        <f t="shared" si="3"/>
         <v>56.5</v>
       </c>
     </row>
@@ -7722,7 +7759,7 @@
         <v>54</v>
       </c>
       <c r="M190" s="12">
-        <f>AVERAGE(G190:L190)</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
     </row>
@@ -7743,7 +7780,7 @@
         <v>4</v>
       </c>
       <c r="M191" s="12" t="e">
-        <f>AVERAGE(G191:L191)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7773,7 +7810,7 @@
         <v>55</v>
       </c>
       <c r="M192" s="12">
-        <f>AVERAGE(G192:L192)</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
     </row>
@@ -7797,7 +7834,7 @@
         <v>57</v>
       </c>
       <c r="M193" s="12">
-        <f>AVERAGE(G193:L193)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
@@ -7821,7 +7858,7 @@
         <v>59</v>
       </c>
       <c r="M194" s="12">
-        <f>AVERAGE(G194:L194)</f>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
     </row>
@@ -7845,7 +7882,7 @@
         <v>58</v>
       </c>
       <c r="M195" s="12">
-        <f>AVERAGE(G195:L195)</f>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -7884,7 +7921,7 @@
         <v>39</v>
       </c>
       <c r="M196" s="12">
-        <f>AVERAGE(G196:L196)</f>
+        <f t="shared" si="3"/>
         <v>37.333333333333336</v>
       </c>
     </row>
@@ -7908,7 +7945,7 @@
         <v>74</v>
       </c>
       <c r="M197" s="12">
-        <f>AVERAGE(G197:L197)</f>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
     </row>
@@ -7929,7 +7966,7 @@
         <v>4</v>
       </c>
       <c r="M198" s="12" t="e">
-        <f>AVERAGE(G198:L198)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7953,7 +7990,7 @@
         <v>75</v>
       </c>
       <c r="M199" s="12">
-        <f>AVERAGE(G199:L199)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -7992,7 +8029,7 @@
         <v>73</v>
       </c>
       <c r="M200" s="12">
-        <f>AVERAGE(G200:L200)</f>
+        <f t="shared" si="3"/>
         <v>79.666666666666671</v>
       </c>
     </row>
@@ -8031,7 +8068,7 @@
         <v>74</v>
       </c>
       <c r="M201" s="12">
-        <f>AVERAGE(G201:L201)</f>
+        <f t="shared" si="3"/>
         <v>81.166666666666671</v>
       </c>
     </row>
@@ -8070,7 +8107,7 @@
         <v>75</v>
       </c>
       <c r="M202" s="12">
-        <f>AVERAGE(G202:L202)</f>
+        <f t="shared" si="3"/>
         <v>82.5</v>
       </c>
     </row>
@@ -8109,7 +8146,7 @@
         <v>11</v>
       </c>
       <c r="M203" s="12">
-        <f>AVERAGE(G203:L203)</f>
+        <f t="shared" si="3"/>
         <v>11.166666666666666</v>
       </c>
     </row>
@@ -8139,7 +8176,7 @@
         <v>63</v>
       </c>
       <c r="M204" s="12">
-        <f>AVERAGE(G204:L204)</f>
+        <f t="shared" si="3"/>
         <v>56.333333333333336</v>
       </c>
     </row>
@@ -8178,7 +8215,7 @@
         <v>12</v>
       </c>
       <c r="M205" s="12">
-        <f>AVERAGE(G205:L205)</f>
+        <f t="shared" si="3"/>
         <v>12.166666666666666</v>
       </c>
     </row>
@@ -8202,7 +8239,7 @@
         <v>62</v>
       </c>
       <c r="M206" s="12">
-        <f>AVERAGE(G206:L206)</f>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
     </row>
@@ -8241,7 +8278,7 @@
         <v>6</v>
       </c>
       <c r="M207" s="12">
-        <f>AVERAGE(G207:L207)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -8262,7 +8299,7 @@
         <v>4</v>
       </c>
       <c r="M208" s="12" t="e">
-        <f>AVERAGE(G208:L208)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8283,7 +8320,7 @@
         <v>4</v>
       </c>
       <c r="M209" s="12" t="e">
-        <f>AVERAGE(G209:L209)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8304,7 +8341,7 @@
         <v>4</v>
       </c>
       <c r="M210" s="12" t="e">
-        <f>AVERAGE(G210:L210)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8343,7 +8380,7 @@
         <v>44</v>
       </c>
       <c r="M211" s="12">
-        <f>AVERAGE(G211:L211)</f>
+        <f t="shared" si="3"/>
         <v>46.833333333333336</v>
       </c>
     </row>
@@ -8364,7 +8401,7 @@
         <v>4</v>
       </c>
       <c r="M212" s="12" t="e">
-        <f>AVERAGE(G212:L212)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8388,7 +8425,7 @@
         <v>63</v>
       </c>
       <c r="M213" s="12">
-        <f>AVERAGE(G213:L213)</f>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
     </row>
@@ -8415,7 +8452,7 @@
         <v>64</v>
       </c>
       <c r="M214" s="12">
-        <f>AVERAGE(G214:L214)</f>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
     </row>
@@ -8439,7 +8476,7 @@
         <v>32</v>
       </c>
       <c r="M215" s="12">
-        <f>AVERAGE(G215:L215)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
@@ -8478,7 +8515,7 @@
         <v>30</v>
       </c>
       <c r="M216" s="12">
-        <f>AVERAGE(G216:L216)</f>
+        <f t="shared" si="3"/>
         <v>30.166666666666668</v>
       </c>
     </row>
@@ -8508,7 +8545,7 @@
         <v>60</v>
       </c>
       <c r="M217" s="12">
-        <f>AVERAGE(G217:L217)</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
@@ -8532,7 +8569,7 @@
         <v>61</v>
       </c>
       <c r="M218" s="12">
-        <f>AVERAGE(G218:L218)</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
     </row>
@@ -8571,7 +8608,7 @@
         <v>29</v>
       </c>
       <c r="M219" s="12">
-        <f>AVERAGE(G219:L219)</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
     </row>
@@ -8595,7 +8632,7 @@
         <v>31</v>
       </c>
       <c r="M220" s="12">
-        <f>AVERAGE(G220:L220)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
     </row>
@@ -8634,7 +8671,7 @@
         <v>26</v>
       </c>
       <c r="M221" s="12">
-        <f>AVERAGE(G221:L221)</f>
+        <f t="shared" si="3"/>
         <v>27.166666666666668</v>
       </c>
     </row>
@@ -8666,7 +8703,7 @@
       <c r="K222" s="10"/>
       <c r="L222" s="11"/>
       <c r="M222" s="12">
-        <f>AVERAGE(G222:L222)</f>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
     </row>
@@ -8696,7 +8733,7 @@
       <c r="K223" s="10"/>
       <c r="L223" s="11"/>
       <c r="M223" s="12">
-        <f>AVERAGE(G223:L223)</f>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
     </row>
@@ -8735,7 +8772,7 @@
         <v>25</v>
       </c>
       <c r="M224" s="12">
-        <f>AVERAGE(G224:L224)</f>
+        <f t="shared" si="3"/>
         <v>25.333333333333332</v>
       </c>
     </row>
@@ -8774,7 +8811,7 @@
         <v>27</v>
       </c>
       <c r="M225" s="12">
-        <f>AVERAGE(G225:L225)</f>
+        <f t="shared" si="3"/>
         <v>26.666666666666668</v>
       </c>
     </row>
@@ -8813,7 +8850,7 @@
         <v>28</v>
       </c>
       <c r="M226" s="12">
-        <f>AVERAGE(G226:L226)</f>
+        <f t="shared" ref="M226:M254" si="4">AVERAGE(G226:L226)</f>
         <v>29</v>
       </c>
     </row>
@@ -8840,7 +8877,7 @@
         <v>70</v>
       </c>
       <c r="M227" s="12">
-        <f>AVERAGE(G227:L227)</f>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
     </row>
@@ -8864,7 +8901,7 @@
         <v>79</v>
       </c>
       <c r="M228" s="12">
-        <f>AVERAGE(G228:L228)</f>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
     </row>
@@ -8888,7 +8925,7 @@
         <v>80</v>
       </c>
       <c r="M229" s="12">
-        <f>AVERAGE(G229:L229)</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
     </row>
@@ -8912,7 +8949,7 @@
         <v>78</v>
       </c>
       <c r="M230" s="12">
-        <f>AVERAGE(G230:L230)</f>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
     </row>
@@ -8936,7 +8973,7 @@
         <v>81</v>
       </c>
       <c r="M231" s="12">
-        <f>AVERAGE(G231:L231)</f>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
     </row>
@@ -8960,7 +8997,7 @@
         <v>60</v>
       </c>
       <c r="M232" s="12">
-        <f>AVERAGE(G232:L232)</f>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
@@ -8987,7 +9024,7 @@
         <v>60</v>
       </c>
       <c r="M233" s="12">
-        <f>AVERAGE(G233:L233)</f>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
     </row>
@@ -9011,7 +9048,7 @@
         <v>59</v>
       </c>
       <c r="M234" s="12">
-        <f>AVERAGE(G234:L234)</f>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
     </row>
@@ -9050,7 +9087,7 @@
         <v>48</v>
       </c>
       <c r="M235" s="12">
-        <f>AVERAGE(G235:L235)</f>
+        <f t="shared" si="4"/>
         <v>50.5</v>
       </c>
     </row>
@@ -9074,7 +9111,7 @@
         <v>59</v>
       </c>
       <c r="M236" s="12">
-        <f>AVERAGE(G236:L236)</f>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
     </row>
@@ -9098,7 +9135,7 @@
         <v>60</v>
       </c>
       <c r="M237" s="12">
-        <f>AVERAGE(G237:L237)</f>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
@@ -9137,7 +9174,7 @@
         <v>7</v>
       </c>
       <c r="M238" s="12">
-        <f>AVERAGE(G238:L238)</f>
+        <f t="shared" si="4"/>
         <v>7.666666666666667</v>
       </c>
     </row>
@@ -9176,7 +9213,7 @@
         <v>78</v>
       </c>
       <c r="M239" s="12">
-        <f>AVERAGE(G239:L239)</f>
+        <f t="shared" si="4"/>
         <v>79.5</v>
       </c>
     </row>
@@ -9215,7 +9252,7 @@
         <v>79</v>
       </c>
       <c r="M240" s="12">
-        <f>AVERAGE(G240:L240)</f>
+        <f t="shared" si="4"/>
         <v>78.333333333333329</v>
       </c>
     </row>
@@ -9254,7 +9291,7 @@
         <v>80</v>
       </c>
       <c r="M241" s="12">
-        <f>AVERAGE(G241:L241)</f>
+        <f t="shared" si="4"/>
         <v>80.5</v>
       </c>
     </row>
@@ -9278,7 +9315,7 @@
         <v>66</v>
       </c>
       <c r="M242" s="12">
-        <f>AVERAGE(G242:L242)</f>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
     </row>
@@ -9302,7 +9339,7 @@
         <v>67</v>
       </c>
       <c r="M243" s="12">
-        <f>AVERAGE(G243:L243)</f>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
     </row>
@@ -9341,7 +9378,7 @@
         <v>21</v>
       </c>
       <c r="M244" s="12">
-        <f>AVERAGE(G244:L244)</f>
+        <f t="shared" si="4"/>
         <v>21.166666666666668</v>
       </c>
     </row>
@@ -9365,7 +9402,7 @@
         <v>22</v>
       </c>
       <c r="M245" s="12">
-        <f>AVERAGE(G245:L245)</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
     </row>
@@ -9404,7 +9441,7 @@
         <v>40</v>
       </c>
       <c r="M246" s="12">
-        <f>AVERAGE(G246:L246)</f>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
     </row>
@@ -9443,7 +9480,7 @@
         <v>41</v>
       </c>
       <c r="M247" s="12">
-        <f>AVERAGE(G247:L247)</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
     </row>
@@ -9470,7 +9507,7 @@
         <v>83</v>
       </c>
       <c r="M248" s="12">
-        <f>AVERAGE(G248:L248)</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
     </row>
@@ -9494,7 +9531,7 @@
         <v>83</v>
       </c>
       <c r="M249" s="12">
-        <f>AVERAGE(G249:L249)</f>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
     </row>
@@ -9515,7 +9552,7 @@
         <v>4</v>
       </c>
       <c r="M250" s="12" t="e">
-        <f>AVERAGE(G250:L250)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9536,8 +9573,83 @@
         <v>4</v>
       </c>
       <c r="M251" s="12" t="e">
-        <f>AVERAGE(G251:L251)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13">
+      <c r="A252" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C252" s="2">
+        <v>50</v>
+      </c>
+      <c r="D252" s="2">
+        <v>500</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H252" s="7">
+        <v>125</v>
+      </c>
+      <c r="I252" s="8">
+        <v>110</v>
+      </c>
+      <c r="K252" s="10">
+        <v>123</v>
+      </c>
+      <c r="M252" s="12">
+        <f t="shared" si="4"/>
+        <v>119.33333333333333</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13">
+      <c r="A253" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C253" s="2">
+        <v>40</v>
+      </c>
+      <c r="D253" s="2">
+        <v>40</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M253" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13">
+      <c r="A254" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C254" s="2">
+        <v>40</v>
+      </c>
+      <c r="D254" s="2">
+        <v>400</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K254" s="10">
+        <v>124</v>
+      </c>
+      <c r="M254" s="12">
+        <f t="shared" si="4"/>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -9647,10 +9759,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E24" sqref="A23:E24"/>
+      <selection activeCell="E26" sqref="A26:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10064,14 +10176,68 @@
         <v>4</v>
       </c>
     </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="B25" t="s">
+        <v>497</v>
+      </c>
+      <c r="C25" s="14">
+        <v>50</v>
+      </c>
+      <c r="D25" s="14">
+        <v>500</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C26" s="14">
+        <v>40</v>
+      </c>
+      <c r="D26" s="14">
+        <v>40</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="B27" t="s">
+        <v>502</v>
+      </c>
+      <c r="C27" s="14">
+        <v>40</v>
+      </c>
+      <c r="D27" s="14">
+        <v>400</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{107EFCF0-233B-4B5F-B68E-E28A8808FC28}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A23" r:id="rId1" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-ts-ex-sp-04" xr:uid="{B14A67A2-B306-44E5-A9F7-990BDE803C42}"/>
     <hyperlink ref="A24" r:id="rId2" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-pok10-ex" xr:uid="{DE13E425-5A6C-41DC-98D4-A258FDE8BDD9}"/>
+    <hyperlink ref="A25" r:id="rId3" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-pok-5th-anniv-01" xr:uid="{B521D35C-605C-4852-860B-0F0ADEB1D664}"/>
+    <hyperlink ref="A26" r:id="rId4" display="http://www.alchemistcodedb.com/jp/quest/qe-cb-pok-lv-ex2" xr:uid="{A93C4626-668D-4F46-A572-069AF4EAE22A}"/>
+    <hyperlink ref="A27" r:id="rId5" display="http://www.alchemistcodedb.com/jp/quest/qe-cb-pok-lv-ex" xr:uid="{2C4BEAAB-FCCB-475C-8C38-E81967396CBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Ex quest.xlsx
+++ b/Ex quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="327" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BF52B4F3-C495-47AF-B0D4-D37C68BE54FE}"/>
+  <xr:revisionPtr revIDLastSave="344" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CE2F6F38-19D1-4AA5-969C-4725E5E9330C}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2162,8 +2162,8 @@
   <dimension ref="A1:M254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:L1"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2199,27 +2199,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1008)</f>
-        <v>火 126</v>
+        <v>火 130</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1008)</f>
-        <v>水 125</v>
+        <v>水 128</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1008)</f>
-        <v>風 110</v>
+        <v>風 113</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1008)</f>
-        <v>雷 107</v>
+        <v>雷 110</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1008)</f>
-        <v>光 124</v>
+        <v>光 127</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1008)</f>
-        <v>暗 110</v>
+        <v>暗 111</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>346</v>
@@ -4350,12 +4350,27 @@
       <c r="E78" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G78" s="6">
+        <v>128</v>
+      </c>
+      <c r="H78" s="7">
+        <v>126</v>
+      </c>
+      <c r="I78" s="8">
+        <v>111</v>
+      </c>
+      <c r="J78" s="9">
+        <v>108</v>
+      </c>
+      <c r="K78" s="10">
+        <v>126</v>
+      </c>
       <c r="L78" s="11">
         <v>59</v>
       </c>
       <c r="M78" s="12">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>109.66666666666667</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4395,9 +4410,27 @@
       <c r="E80" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M80" s="12" t="e">
+      <c r="G80" s="6">
+        <v>129</v>
+      </c>
+      <c r="H80" s="7">
+        <v>127</v>
+      </c>
+      <c r="I80" s="8">
+        <v>112</v>
+      </c>
+      <c r="J80" s="9">
+        <v>109</v>
+      </c>
+      <c r="K80" s="10">
+        <v>127</v>
+      </c>
+      <c r="L80" s="11">
+        <v>111</v>
+      </c>
+      <c r="M80" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>119.16666666666667</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4416,9 +4449,21 @@
       <c r="E81" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M81" s="12" t="e">
+      <c r="G81" s="6">
+        <v>130</v>
+      </c>
+      <c r="H81" s="7">
+        <v>128</v>
+      </c>
+      <c r="I81" s="8">
+        <v>113</v>
+      </c>
+      <c r="J81" s="9">
+        <v>110</v>
+      </c>
+      <c r="M81" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4542,12 +4587,15 @@
       <c r="E86" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G86" s="6">
+        <v>127</v>
+      </c>
       <c r="K86" s="10">
         <v>34</v>
       </c>
       <c r="M86" s="12">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -9623,9 +9671,12 @@
       <c r="E253" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M253" s="12" t="e">
+      <c r="K253" s="10">
+        <v>125</v>
+      </c>
+      <c r="M253" s="12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>125</v>
       </c>
     </row>
     <row r="254" spans="1:13">

--- a/Ex quest.xlsx
+++ b/Ex quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="346" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{88CA01FC-BB03-4881-A754-3D6A7FDA10DE}"/>
+  <xr:revisionPtr revIDLastSave="368" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0FEF5026-B06E-48D9-99E5-9A7EA161DCDF}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="514">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1588,6 +1588,9 @@
   </si>
   <si>
     <t>Name (formatted) - list last updated 15/11/2019</t>
+  </si>
+  <si>
+    <t>ファントム オブ アルケミスト9 [EX]</t>
   </si>
 </sst>
 </file>
@@ -1752,133 +1755,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -2234,8 +2111,8 @@
   <dimension ref="A1:M259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2271,27 +2148,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1007)</f>
-        <v>火 130</v>
+        <v>火 136</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1007)</f>
-        <v>水 128</v>
+        <v>水 135</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1007)</f>
-        <v>風 113</v>
+        <v>風 120</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1007)</f>
-        <v>雷 110</v>
+        <v>雷 119</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1007)</f>
-        <v>光 127</v>
+        <v>光 135</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1007)</f>
-        <v>暗 111</v>
+        <v>暗 122</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>346</v>
@@ -2415,18 +2292,27 @@
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G5" s="6">
+        <v>133</v>
+      </c>
       <c r="H5" s="7">
         <v>125</v>
       </c>
       <c r="I5" s="8">
         <v>110</v>
       </c>
+      <c r="J5" s="9">
+        <v>113</v>
+      </c>
       <c r="K5" s="10">
         <v>123</v>
       </c>
+      <c r="L5" s="11">
+        <v>115</v>
+      </c>
       <c r="M5" s="12">
         <f>AVERAGE(G5:L5)</f>
-        <v>119.33333333333333</v>
+        <v>119.83333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2445,9 +2331,12 @@
       <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="12" t="e">
+      <c r="L6" s="11">
+        <v>116</v>
+      </c>
+      <c r="M6" s="12">
         <f>AVERAGE(G6:L6)</f>
-        <v>#DIV/0!</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2470,7 +2359,7 @@
         <v>55</v>
       </c>
       <c r="M7" s="12">
-        <f>IF(ISNUMBER(AVERAGE(G7:L7)),AVERAGE(G7:L7),"")</f>
+        <f t="shared" ref="M7:M29" si="0">IF(ISNUMBER(AVERAGE(G7:L7)),AVERAGE(G7:L7),"")</f>
         <v>55</v>
       </c>
     </row>
@@ -2509,7 +2398,7 @@
         <v>33</v>
       </c>
       <c r="M8" s="12">
-        <f>IF(ISNUMBER(AVERAGE(G8:L8)),AVERAGE(G8:L8),"")</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
@@ -2530,7 +2419,7 @@
         <v>4</v>
       </c>
       <c r="M9" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G9:L9)),AVERAGE(G9:L9),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2551,7 +2440,7 @@
         <v>4</v>
       </c>
       <c r="M10" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G10:L10)),AVERAGE(G10:L10),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2572,7 +2461,7 @@
         <v>4</v>
       </c>
       <c r="M11" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G11:L11)),AVERAGE(G11:L11),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2593,7 +2482,7 @@
         <v>4</v>
       </c>
       <c r="M12" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G12:L12)),AVERAGE(G12:L12),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2614,7 +2503,7 @@
         <v>4</v>
       </c>
       <c r="M13" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G13:L13)),AVERAGE(G13:L13),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2635,7 +2524,7 @@
         <v>4</v>
       </c>
       <c r="M14" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G14:L14)),AVERAGE(G14:L14),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2656,7 +2545,7 @@
         <v>4</v>
       </c>
       <c r="M15" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G15:L15)),AVERAGE(G15:L15),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2677,7 +2566,7 @@
         <v>4</v>
       </c>
       <c r="M16" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G16:L16)),AVERAGE(G16:L16),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2698,7 +2587,7 @@
         <v>4</v>
       </c>
       <c r="M17" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G17:L17)),AVERAGE(G17:L17),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2719,7 +2608,7 @@
         <v>4</v>
       </c>
       <c r="M18" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G18:L18)),AVERAGE(G18:L18),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2740,7 +2629,7 @@
         <v>4</v>
       </c>
       <c r="M19" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G19:L19)),AVERAGE(G19:L19),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2761,7 +2650,7 @@
         <v>4</v>
       </c>
       <c r="M20" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G20:L20)),AVERAGE(G20:L20),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2782,7 +2671,7 @@
         <v>4</v>
       </c>
       <c r="M21" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G21:L21)),AVERAGE(G21:L21),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2803,7 +2692,7 @@
         <v>4</v>
       </c>
       <c r="M22" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G22:L22)),AVERAGE(G22:L22),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2824,7 +2713,7 @@
         <v>4</v>
       </c>
       <c r="M23" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G23:L23)),AVERAGE(G23:L23),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2845,7 +2734,7 @@
         <v>4</v>
       </c>
       <c r="M24" s="12" t="str">
-        <f>IF(ISNUMBER(AVERAGE(G24:L24)),AVERAGE(G24:L24),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2884,7 +2773,7 @@
         <v>35</v>
       </c>
       <c r="M25" s="12">
-        <f>IF(ISNUMBER(AVERAGE(G25:L25)),AVERAGE(G25:L25),"")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
     </row>
@@ -2908,7 +2797,7 @@
         <v>42</v>
       </c>
       <c r="M26" s="12">
-        <f>IF(ISNUMBER(AVERAGE(G26:L26)),AVERAGE(G26:L26),"")</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
@@ -2947,7 +2836,7 @@
         <v>42</v>
       </c>
       <c r="M27" s="12">
-        <f>IF(ISNUMBER(AVERAGE(G27:L27)),AVERAGE(G27:L27),"")</f>
+        <f t="shared" si="0"/>
         <v>44.5</v>
       </c>
     </row>
@@ -2971,7 +2860,7 @@
         <v>44</v>
       </c>
       <c r="M28" s="12">
-        <f>IF(ISNUMBER(AVERAGE(G28:L28)),AVERAGE(G28:L28),"")</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
@@ -2998,7 +2887,7 @@
         <v>45</v>
       </c>
       <c r="M29" s="12">
-        <f>IF(ISNUMBER(AVERAGE(G29:L29)),AVERAGE(G29:L29),"")</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
@@ -3163,7 +3052,7 @@
         <v>85</v>
       </c>
       <c r="M36" s="12">
-        <f>AVERAGE(G36:L36)</f>
+        <f t="shared" ref="M36:M99" si="1">AVERAGE(G36:L36)</f>
         <v>80.166666666666671</v>
       </c>
     </row>
@@ -3202,7 +3091,7 @@
         <v>87</v>
       </c>
       <c r="M37" s="12">
-        <f>AVERAGE(G37:L37)</f>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
@@ -3238,7 +3127,7 @@
         <v>89</v>
       </c>
       <c r="M38" s="12">
-        <f>AVERAGE(G38:L38)</f>
+        <f t="shared" si="1"/>
         <v>97.8</v>
       </c>
     </row>
@@ -3277,7 +3166,7 @@
         <v>88</v>
       </c>
       <c r="M39" s="12">
-        <f>AVERAGE(G39:L39)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
     </row>
@@ -3316,7 +3205,7 @@
         <v>36</v>
       </c>
       <c r="M40" s="12">
-        <f>AVERAGE(G40:L40)</f>
+        <f t="shared" si="1"/>
         <v>37.666666666666664</v>
       </c>
     </row>
@@ -3355,7 +3244,7 @@
         <v>37</v>
       </c>
       <c r="M41" s="12">
-        <f>AVERAGE(G41:L41)</f>
+        <f t="shared" si="1"/>
         <v>38.666666666666664</v>
       </c>
     </row>
@@ -3379,7 +3268,7 @@
         <v>76</v>
       </c>
       <c r="M42" s="12">
-        <f>AVERAGE(G42:L42)</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
@@ -3418,7 +3307,7 @@
         <v>58</v>
       </c>
       <c r="M43" s="12">
-        <f>AVERAGE(G43:L43)</f>
+        <f t="shared" si="1"/>
         <v>105.33333333333333</v>
       </c>
     </row>
@@ -3457,7 +3346,7 @@
         <v>108</v>
       </c>
       <c r="M44" s="12">
-        <f>AVERAGE(G44:L44)</f>
+        <f t="shared" si="1"/>
         <v>104.5</v>
       </c>
     </row>
@@ -3484,7 +3373,7 @@
         <v>68</v>
       </c>
       <c r="M45" s="12">
-        <f>AVERAGE(G45:L45)</f>
+        <f t="shared" si="1"/>
         <v>76.5</v>
       </c>
     </row>
@@ -3511,7 +3400,7 @@
         <v>69</v>
       </c>
       <c r="M46" s="12">
-        <f>AVERAGE(G46:L46)</f>
+        <f t="shared" si="1"/>
         <v>77.5</v>
       </c>
     </row>
@@ -3535,7 +3424,7 @@
         <v>52</v>
       </c>
       <c r="M47" s="12">
-        <f>AVERAGE(G47:L47)</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
     </row>
@@ -3559,7 +3448,7 @@
         <v>65</v>
       </c>
       <c r="M48" s="12">
-        <f>AVERAGE(G48:L48)</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
     </row>
@@ -3583,7 +3472,7 @@
         <v>53</v>
       </c>
       <c r="M49" s="12">
-        <f>AVERAGE(G49:L49)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
     </row>
@@ -3622,7 +3511,7 @@
         <v>34</v>
       </c>
       <c r="M50" s="12">
-        <f>AVERAGE(G50:L50)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
     </row>
@@ -3643,7 +3532,7 @@
         <v>4</v>
       </c>
       <c r="M51" s="12" t="e">
-        <f>AVERAGE(G51:L51)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3664,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="M52" s="12" t="e">
-        <f>AVERAGE(G52:L52)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3685,7 +3574,7 @@
         <v>4</v>
       </c>
       <c r="M53" s="12" t="e">
-        <f>AVERAGE(G53:L53)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3706,7 +3595,7 @@
         <v>4</v>
       </c>
       <c r="M54" s="12" t="e">
-        <f>AVERAGE(G54:L54)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3727,7 +3616,7 @@
         <v>4</v>
       </c>
       <c r="M55" s="12" t="e">
-        <f>AVERAGE(G55:L55)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3748,7 +3637,7 @@
         <v>4</v>
       </c>
       <c r="M56" s="12" t="e">
-        <f>AVERAGE(G56:L56)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3769,7 +3658,7 @@
         <v>4</v>
       </c>
       <c r="M57" s="12" t="e">
-        <f>AVERAGE(G57:L57)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3793,7 +3682,7 @@
         <v>84</v>
       </c>
       <c r="M58" s="12">
-        <f>AVERAGE(G58:L58)</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
     </row>
@@ -3814,7 +3703,7 @@
         <v>4</v>
       </c>
       <c r="M59" s="12" t="e">
-        <f>AVERAGE(G59:L59)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3850,7 +3739,7 @@
         <v>67</v>
       </c>
       <c r="M60" s="12">
-        <f>AVERAGE(G60:L60)</f>
+        <f t="shared" si="1"/>
         <v>76.8</v>
       </c>
     </row>
@@ -3871,7 +3760,7 @@
         <v>4</v>
       </c>
       <c r="M61" s="12" t="e">
-        <f>AVERAGE(G61:L61)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3892,7 +3781,7 @@
         <v>4</v>
       </c>
       <c r="M62" s="12" t="e">
-        <f>AVERAGE(G62:L62)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3913,7 +3802,7 @@
         <v>4</v>
       </c>
       <c r="M63" s="12" t="e">
-        <f>AVERAGE(G63:L63)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3952,7 +3841,7 @@
         <v>47</v>
       </c>
       <c r="M64" s="12">
-        <f>AVERAGE(G64:L64)</f>
+        <f t="shared" si="1"/>
         <v>50.166666666666664</v>
       </c>
     </row>
@@ -3991,7 +3880,7 @@
         <v>52</v>
       </c>
       <c r="M65" s="12">
-        <f>AVERAGE(G65:L65)</f>
+        <f t="shared" si="1"/>
         <v>75.166666666666671</v>
       </c>
     </row>
@@ -4030,7 +3919,7 @@
         <v>84</v>
       </c>
       <c r="M66" s="12">
-        <f>AVERAGE(G66:L66)</f>
+        <f t="shared" si="1"/>
         <v>85.5</v>
       </c>
     </row>
@@ -4051,7 +3940,7 @@
         <v>4</v>
       </c>
       <c r="M67" s="12" t="e">
-        <f>AVERAGE(G67:L67)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4090,7 +3979,7 @@
         <v>24</v>
       </c>
       <c r="M68" s="12">
-        <f>AVERAGE(G68:L68)</f>
+        <f t="shared" si="1"/>
         <v>24.333333333333332</v>
       </c>
     </row>
@@ -4129,7 +4018,7 @@
         <v>46</v>
       </c>
       <c r="M69" s="12">
-        <f>AVERAGE(G69:L69)</f>
+        <f t="shared" si="1"/>
         <v>48.833333333333336</v>
       </c>
     </row>
@@ -4168,7 +4057,7 @@
         <v>38</v>
       </c>
       <c r="M70" s="12">
-        <f>AVERAGE(G70:L70)</f>
+        <f t="shared" si="1"/>
         <v>33.333333333333336</v>
       </c>
     </row>
@@ -4195,7 +4084,7 @@
         <v>50</v>
       </c>
       <c r="M71" s="12">
-        <f>AVERAGE(G71:L71)</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
     </row>
@@ -4216,7 +4105,7 @@
         <v>4</v>
       </c>
       <c r="M72" s="12" t="e">
-        <f>AVERAGE(G72:L72)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4237,7 +4126,7 @@
         <v>4</v>
       </c>
       <c r="M73" s="12" t="e">
-        <f>AVERAGE(G73:L73)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4258,7 +4147,7 @@
         <v>4</v>
       </c>
       <c r="M74" s="12" t="e">
-        <f>AVERAGE(G74:L74)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4279,7 +4168,7 @@
         <v>4</v>
       </c>
       <c r="M75" s="12" t="e">
-        <f>AVERAGE(G75:L75)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4300,7 +4189,7 @@
         <v>4</v>
       </c>
       <c r="M76" s="12" t="e">
-        <f>AVERAGE(G76:L76)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4321,7 +4210,7 @@
         <v>4</v>
       </c>
       <c r="M77" s="12" t="e">
-        <f>AVERAGE(G77:L77)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4360,7 +4249,7 @@
         <v>20</v>
       </c>
       <c r="M78" s="12">
-        <f>AVERAGE(G78:L78)</f>
+        <f t="shared" si="1"/>
         <v>20.166666666666668</v>
       </c>
     </row>
@@ -4399,7 +4288,7 @@
         <v>103</v>
       </c>
       <c r="M79" s="12">
-        <f>AVERAGE(G79:L79)</f>
+        <f t="shared" si="1"/>
         <v>108.33333333333333</v>
       </c>
     </row>
@@ -4438,7 +4327,7 @@
         <v>104</v>
       </c>
       <c r="M80" s="12">
-        <f>AVERAGE(G80:L80)</f>
+        <f t="shared" si="1"/>
         <v>109.33333333333333</v>
       </c>
     </row>
@@ -4477,7 +4366,7 @@
         <v>105</v>
       </c>
       <c r="M81" s="12">
-        <f>AVERAGE(G81:L81)</f>
+        <f t="shared" si="1"/>
         <v>110.66666666666667</v>
       </c>
     </row>
@@ -4516,7 +4405,7 @@
         <v>53</v>
       </c>
       <c r="M82" s="12">
-        <f>AVERAGE(G82:L82)</f>
+        <f t="shared" si="1"/>
         <v>73.833333333333329</v>
       </c>
     </row>
@@ -4555,7 +4444,7 @@
         <v>59</v>
       </c>
       <c r="M83" s="12">
-        <f>AVERAGE(G83:L83)</f>
+        <f t="shared" si="1"/>
         <v>109.66666666666667</v>
       </c>
     </row>
@@ -4576,7 +4465,7 @@
         <v>4</v>
       </c>
       <c r="M84" s="12" t="e">
-        <f>AVERAGE(G84:L84)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4615,7 +4504,7 @@
         <v>111</v>
       </c>
       <c r="M85" s="12">
-        <f>AVERAGE(G85:L85)</f>
+        <f t="shared" si="1"/>
         <v>119.16666666666667</v>
       </c>
     </row>
@@ -4647,9 +4536,15 @@
       <c r="J86" s="9">
         <v>110</v>
       </c>
+      <c r="K86" s="10">
+        <v>128</v>
+      </c>
+      <c r="L86" s="11">
+        <v>112</v>
+      </c>
       <c r="M86" s="12">
-        <f>AVERAGE(G86:L86)</f>
-        <v>120.25</v>
+        <f t="shared" si="1"/>
+        <v>120.16666666666667</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4671,9 +4566,24 @@
       <c r="G87" s="6">
         <v>36</v>
       </c>
+      <c r="H87" s="7">
+        <v>129</v>
+      </c>
+      <c r="I87" s="8">
+        <v>114</v>
+      </c>
+      <c r="J87" s="9">
+        <v>111</v>
+      </c>
+      <c r="K87" s="10">
+        <v>129</v>
+      </c>
+      <c r="L87" s="11">
+        <v>113</v>
+      </c>
       <c r="M87" s="12">
-        <f>AVERAGE(G87:L87)</f>
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>105.33333333333333</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -4692,9 +4602,27 @@
       <c r="E88" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M88" s="12" t="e">
-        <f>AVERAGE(G88:L88)</f>
-        <v>#DIV/0!</v>
+      <c r="G88" s="6">
+        <v>131</v>
+      </c>
+      <c r="H88" s="7">
+        <v>130</v>
+      </c>
+      <c r="I88" s="8">
+        <v>115</v>
+      </c>
+      <c r="J88" s="9">
+        <v>112</v>
+      </c>
+      <c r="K88" s="10">
+        <v>130</v>
+      </c>
+      <c r="L88" s="11">
+        <v>114</v>
+      </c>
+      <c r="M88" s="12">
+        <f t="shared" si="1"/>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -4713,9 +4641,27 @@
       <c r="E89" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M89" s="12" t="e">
+      <c r="G89" s="6">
+        <v>132</v>
+      </c>
+      <c r="H89" s="7">
+        <v>131</v>
+      </c>
+      <c r="I89" s="8">
+        <v>116</v>
+      </c>
+      <c r="J89" s="9">
+        <v>114</v>
+      </c>
+      <c r="K89" s="10">
+        <v>132</v>
+      </c>
+      <c r="L89" s="11">
+        <v>118</v>
+      </c>
+      <c r="M89" s="12">
         <f>AVERAGE(G89:L89)</f>
-        <v>#DIV/0!</v>
+        <v>123.83333333333333</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4753,7 +4699,7 @@
         <v>32</v>
       </c>
       <c r="M90" s="12">
-        <f>AVERAGE(G90:L90)</f>
+        <f t="shared" si="1"/>
         <v>32.666666666666664</v>
       </c>
     </row>
@@ -4776,12 +4722,24 @@
       <c r="G91" s="6">
         <v>127</v>
       </c>
+      <c r="H91" s="7">
+        <v>133</v>
+      </c>
+      <c r="I91" s="8">
+        <v>118</v>
+      </c>
+      <c r="J91" s="9">
+        <v>116</v>
+      </c>
       <c r="K91" s="10">
         <v>34</v>
       </c>
+      <c r="L91" s="11">
+        <v>119</v>
+      </c>
       <c r="M91" s="12">
-        <f>AVERAGE(G91:L91)</f>
-        <v>80.5</v>
+        <f t="shared" si="1"/>
+        <v>107.83333333333333</v>
       </c>
     </row>
     <row r="92" spans="1:13">
@@ -4819,7 +4777,7 @@
         <v>43</v>
       </c>
       <c r="M92" s="12">
-        <f>AVERAGE(G92:L92)</f>
+        <f t="shared" si="1"/>
         <v>45.666666666666664</v>
       </c>
     </row>
@@ -4858,7 +4816,7 @@
         <v>45</v>
       </c>
       <c r="M93" s="12">
-        <f>AVERAGE(G93:L93)</f>
+        <f t="shared" si="1"/>
         <v>47.833333333333336</v>
       </c>
     </row>
@@ -4878,12 +4836,27 @@
       <c r="E94" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G94" s="6">
+        <v>135</v>
+      </c>
+      <c r="H94" s="7">
+        <v>134</v>
+      </c>
       <c r="I94" s="8">
         <v>54</v>
       </c>
+      <c r="J94" s="9">
+        <v>117</v>
+      </c>
+      <c r="K94" s="10">
+        <v>133</v>
+      </c>
+      <c r="L94" s="11">
+        <v>120</v>
+      </c>
       <c r="M94" s="12">
-        <f>AVERAGE(G94:L94)</f>
-        <v>54</v>
+        <f t="shared" si="1"/>
+        <v>115.5</v>
       </c>
     </row>
     <row r="95" spans="1:13">
@@ -4902,12 +4875,27 @@
       <c r="E95" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G95" s="6">
+        <v>136</v>
+      </c>
       <c r="H95" s="7">
         <v>64</v>
       </c>
+      <c r="I95" s="8">
+        <v>119</v>
+      </c>
+      <c r="J95" s="9">
+        <v>118</v>
+      </c>
+      <c r="K95" s="10">
+        <v>134</v>
+      </c>
+      <c r="L95" s="11">
+        <v>121</v>
+      </c>
       <c r="M95" s="12">
-        <f>AVERAGE(G95:L95)</f>
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>115.33333333333333</v>
       </c>
     </row>
     <row r="96" spans="1:13">
@@ -4929,9 +4917,24 @@
       <c r="G96" s="6">
         <v>72</v>
       </c>
+      <c r="H96" s="7">
+        <v>135</v>
+      </c>
+      <c r="I96" s="8">
+        <v>120</v>
+      </c>
+      <c r="J96" s="9">
+        <v>119</v>
+      </c>
+      <c r="K96" s="10">
+        <v>135</v>
+      </c>
+      <c r="L96" s="11">
+        <v>122</v>
+      </c>
       <c r="M96" s="12">
-        <f>AVERAGE(G96:L96)</f>
-        <v>72</v>
+        <f t="shared" si="1"/>
+        <v>117.16666666666667</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4954,7 +4957,7 @@
         <v>73</v>
       </c>
       <c r="M97" s="12">
-        <f>AVERAGE(G97:L97)</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
@@ -4984,7 +4987,7 @@
         <v>78</v>
       </c>
       <c r="M98" s="12">
-        <f>AVERAGE(G98:L98)</f>
+        <f t="shared" si="1"/>
         <v>68.333333333333329</v>
       </c>
     </row>
@@ -5023,7 +5026,7 @@
         <v>109</v>
       </c>
       <c r="M99" s="12">
-        <f>AVERAGE(G99:L99)</f>
+        <f t="shared" si="1"/>
         <v>115.33333333333333</v>
       </c>
     </row>
@@ -5032,7 +5035,7 @@
         <v>504</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C100" s="2">
         <v>40</v>
@@ -5043,9 +5046,27 @@
       <c r="E100" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="12" t="e">
-        <f>AVERAGE(G100:L100)</f>
-        <v>#DIV/0!</v>
+      <c r="G100" s="6">
+        <v>134</v>
+      </c>
+      <c r="H100" s="7">
+        <v>132</v>
+      </c>
+      <c r="I100" s="8">
+        <v>117</v>
+      </c>
+      <c r="J100" s="9">
+        <v>115</v>
+      </c>
+      <c r="K100" s="10">
+        <v>131</v>
+      </c>
+      <c r="L100" s="11">
+        <v>117</v>
+      </c>
+      <c r="M100" s="12">
+        <f t="shared" ref="M100:M163" si="2">AVERAGE(G100:L100)</f>
+        <v>124.33333333333333</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -5083,7 +5104,7 @@
         <v>65</v>
       </c>
       <c r="M101" s="12">
-        <f>AVERAGE(G101:L101)</f>
+        <f t="shared" si="2"/>
         <v>99.5</v>
       </c>
     </row>
@@ -5104,7 +5125,7 @@
         <v>4</v>
       </c>
       <c r="M102" s="12" t="e">
-        <f>AVERAGE(G102:L102)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5125,7 +5146,7 @@
         <v>4</v>
       </c>
       <c r="M103" s="12" t="e">
-        <f>AVERAGE(G103:L103)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5146,7 +5167,7 @@
         <v>4</v>
       </c>
       <c r="M104" s="12" t="e">
-        <f>AVERAGE(G104:L104)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5167,7 +5188,7 @@
         <v>4</v>
       </c>
       <c r="M105" s="12" t="e">
-        <f>AVERAGE(G105:L105)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5197,7 +5218,7 @@
         <v>62</v>
       </c>
       <c r="M106" s="12">
-        <f>AVERAGE(G106:L106)</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
     </row>
@@ -5236,7 +5257,7 @@
         <v>76</v>
       </c>
       <c r="M107" s="12">
-        <f>AVERAGE(G107:L107)</f>
+        <f t="shared" si="2"/>
         <v>73.166666666666671</v>
       </c>
     </row>
@@ -5275,7 +5296,7 @@
         <v>77</v>
       </c>
       <c r="M108" s="12">
-        <f>AVERAGE(G108:L108)</f>
+        <f t="shared" si="2"/>
         <v>79.666666666666671</v>
       </c>
     </row>
@@ -5314,7 +5335,7 @@
         <v>91</v>
       </c>
       <c r="M109" s="12">
-        <f>AVERAGE(G109:L109)</f>
+        <f t="shared" si="2"/>
         <v>91.666666666666671</v>
       </c>
     </row>
@@ -5353,7 +5374,7 @@
         <v>92</v>
       </c>
       <c r="M110" s="12">
-        <f>AVERAGE(G110:L110)</f>
+        <f t="shared" si="2"/>
         <v>92.666666666666671</v>
       </c>
     </row>
@@ -5392,7 +5413,7 @@
         <v>93</v>
       </c>
       <c r="M111" s="12">
-        <f>AVERAGE(G111:L111)</f>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
     </row>
@@ -5431,7 +5452,7 @@
         <v>94</v>
       </c>
       <c r="M112" s="12">
-        <f>AVERAGE(G112:L112)</f>
+        <f t="shared" si="2"/>
         <v>94.5</v>
       </c>
     </row>
@@ -5470,7 +5491,7 @@
         <v>95</v>
       </c>
       <c r="M113" s="12">
-        <f>AVERAGE(G113:L113)</f>
+        <f t="shared" si="2"/>
         <v>95.5</v>
       </c>
     </row>
@@ -5509,7 +5530,7 @@
         <v>96</v>
       </c>
       <c r="M114" s="12">
-        <f>AVERAGE(G114:L114)</f>
+        <f t="shared" si="2"/>
         <v>100.66666666666667</v>
       </c>
     </row>
@@ -5548,7 +5569,7 @@
         <v>97</v>
       </c>
       <c r="M115" s="12">
-        <f>AVERAGE(G115:L115)</f>
+        <f t="shared" si="2"/>
         <v>102.5</v>
       </c>
     </row>
@@ -5587,7 +5608,7 @@
         <v>106</v>
       </c>
       <c r="M116" s="12">
-        <f>AVERAGE(G116:L116)</f>
+        <f t="shared" si="2"/>
         <v>111.5</v>
       </c>
     </row>
@@ -5626,7 +5647,7 @@
         <v>61</v>
       </c>
       <c r="M117" s="12">
-        <f>AVERAGE(G117:L117)</f>
+        <f t="shared" si="2"/>
         <v>69.166666666666671</v>
       </c>
     </row>
@@ -5665,7 +5686,7 @@
         <v>100</v>
       </c>
       <c r="M118" s="12">
-        <f>AVERAGE(G118:L118)</f>
+        <f t="shared" si="2"/>
         <v>106.33333333333333</v>
       </c>
     </row>
@@ -5704,7 +5725,7 @@
         <v>107</v>
       </c>
       <c r="M119" s="12">
-        <f>AVERAGE(G119:L119)</f>
+        <f t="shared" si="2"/>
         <v>112.5</v>
       </c>
     </row>
@@ -5743,7 +5764,7 @@
         <v>110</v>
       </c>
       <c r="M120" s="12">
-        <f>AVERAGE(G120:L120)</f>
+        <f t="shared" si="2"/>
         <v>116.33333333333333</v>
       </c>
     </row>
@@ -5767,7 +5788,7 @@
         <v>102</v>
       </c>
       <c r="M121" s="12">
-        <f>AVERAGE(G121:L121)</f>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
     </row>
@@ -5806,7 +5827,7 @@
         <v>1</v>
       </c>
       <c r="M122" s="12">
-        <f>AVERAGE(G122:L122)</f>
+        <f t="shared" si="2"/>
         <v>1.1666666666666667</v>
       </c>
     </row>
@@ -5845,7 +5866,7 @@
         <v>2</v>
       </c>
       <c r="M123" s="12">
-        <f>AVERAGE(G123:L123)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -5884,7 +5905,7 @@
         <v>3</v>
       </c>
       <c r="M124" s="12">
-        <f>AVERAGE(G124:L124)</f>
+        <f t="shared" si="2"/>
         <v>2.8333333333333335</v>
       </c>
     </row>
@@ -5923,7 +5944,7 @@
         <v>4</v>
       </c>
       <c r="M125" s="12">
-        <f>AVERAGE(G125:L125)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -5947,7 +5968,7 @@
         <v>56</v>
       </c>
       <c r="M126" s="12">
-        <f>AVERAGE(G126:L126)</f>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
     </row>
@@ -5971,7 +5992,7 @@
         <v>57</v>
       </c>
       <c r="M127" s="12">
-        <f>AVERAGE(G127:L127)</f>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
     </row>
@@ -5995,7 +6016,7 @@
         <v>80</v>
       </c>
       <c r="M128" s="12">
-        <f>AVERAGE(G128:L128)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
     </row>
@@ -6016,7 +6037,7 @@
         <v>4</v>
       </c>
       <c r="M129" s="12" t="e">
-        <f>AVERAGE(G129:L129)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6055,7 +6076,7 @@
         <v>81</v>
       </c>
       <c r="M130" s="12">
-        <f>AVERAGE(G130:L130)</f>
+        <f t="shared" si="2"/>
         <v>87.333333333333329</v>
       </c>
     </row>
@@ -6088,7 +6109,7 @@
         <v>51</v>
       </c>
       <c r="M131" s="12">
-        <f>AVERAGE(G131:L131)</f>
+        <f t="shared" si="2"/>
         <v>52.25</v>
       </c>
     </row>
@@ -6118,7 +6139,7 @@
         <v>79</v>
       </c>
       <c r="M132" s="12">
-        <f>AVERAGE(G132:L132)</f>
+        <f t="shared" si="2"/>
         <v>71.666666666666671</v>
       </c>
     </row>
@@ -6148,7 +6169,7 @@
         <v>82</v>
       </c>
       <c r="M133" s="12">
-        <f>AVERAGE(G133:L133)</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
     </row>
@@ -6187,7 +6208,7 @@
         <v>22</v>
       </c>
       <c r="M134" s="12">
-        <f>AVERAGE(G134:L134)</f>
+        <f t="shared" si="2"/>
         <v>22.333333333333332</v>
       </c>
     </row>
@@ -6226,7 +6247,7 @@
         <v>23</v>
       </c>
       <c r="M135" s="12">
-        <f>AVERAGE(G135:L135)</f>
+        <f t="shared" si="2"/>
         <v>23.333333333333332</v>
       </c>
     </row>
@@ -6265,7 +6286,7 @@
         <v>18</v>
       </c>
       <c r="M136" s="12">
-        <f>AVERAGE(G136:L136)</f>
+        <f t="shared" si="2"/>
         <v>18.166666666666668</v>
       </c>
     </row>
@@ -6304,7 +6325,7 @@
         <v>19</v>
       </c>
       <c r="M137" s="12">
-        <f>AVERAGE(G137:L137)</f>
+        <f t="shared" si="2"/>
         <v>19.166666666666668</v>
       </c>
     </row>
@@ -6325,7 +6346,7 @@
         <v>4</v>
       </c>
       <c r="M138" s="12" t="e">
-        <f>AVERAGE(G138:L138)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6349,7 +6370,7 @@
         <v>69</v>
       </c>
       <c r="M139" s="12">
-        <f>AVERAGE(G139:L139)</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -6370,7 +6391,7 @@
         <v>4</v>
       </c>
       <c r="M140" s="12" t="e">
-        <f>AVERAGE(G140:L140)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6391,7 +6412,7 @@
         <v>4</v>
       </c>
       <c r="M141" s="12" t="e">
-        <f>AVERAGE(G141:L141)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6415,7 +6436,7 @@
         <v>68</v>
       </c>
       <c r="M142" s="12">
-        <f>AVERAGE(G142:L142)</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
     </row>
@@ -6442,7 +6463,7 @@
         <v>49</v>
       </c>
       <c r="M143" s="12">
-        <f>AVERAGE(G143:L143)</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
     </row>
@@ -6481,7 +6502,7 @@
         <v>5</v>
       </c>
       <c r="M144" s="12">
-        <f>AVERAGE(G144:L144)</f>
+        <f t="shared" si="2"/>
         <v>5.333333333333333</v>
       </c>
     </row>
@@ -6505,7 +6526,7 @@
         <v>69</v>
       </c>
       <c r="M145" s="12">
-        <f>AVERAGE(G145:L145)</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -6544,7 +6565,7 @@
         <v>9</v>
       </c>
       <c r="M146" s="12">
-        <f>AVERAGE(G146:L146)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
@@ -6565,7 +6586,7 @@
         <v>4</v>
       </c>
       <c r="M147" s="12" t="e">
-        <f>AVERAGE(G147:L147)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6589,7 +6610,7 @@
         <v>50</v>
       </c>
       <c r="M148" s="12">
-        <f>AVERAGE(G148:L148)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
@@ -6628,7 +6649,7 @@
         <v>90</v>
       </c>
       <c r="M149" s="12">
-        <f>AVERAGE(G149:L149)</f>
+        <f t="shared" si="2"/>
         <v>84.166666666666671</v>
       </c>
     </row>
@@ -6667,7 +6688,7 @@
         <v>82</v>
       </c>
       <c r="M150" s="12">
-        <f>AVERAGE(G150:L150)</f>
+        <f t="shared" si="2"/>
         <v>88.333333333333329</v>
       </c>
     </row>
@@ -6691,7 +6712,7 @@
         <v>81</v>
       </c>
       <c r="M151" s="12">
-        <f>AVERAGE(G151:L151)</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
     </row>
@@ -6715,7 +6736,7 @@
         <v>65</v>
       </c>
       <c r="M152" s="12">
-        <f>AVERAGE(G152:L152)</f>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
     </row>
@@ -6739,7 +6760,7 @@
         <v>66</v>
       </c>
       <c r="M153" s="12">
-        <f>AVERAGE(G153:L153)</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
     </row>
@@ -6778,7 +6799,7 @@
         <v>8</v>
       </c>
       <c r="M154" s="12">
-        <f>AVERAGE(G154:L154)</f>
+        <f t="shared" si="2"/>
         <v>8.6666666666666661</v>
       </c>
     </row>
@@ -6817,7 +6838,7 @@
         <v>83</v>
       </c>
       <c r="M155" s="12">
-        <f>AVERAGE(G155:L155)</f>
+        <f t="shared" si="2"/>
         <v>84.833333333333329</v>
       </c>
     </row>
@@ -6856,7 +6877,7 @@
         <v>57</v>
       </c>
       <c r="M156" s="12">
-        <f>AVERAGE(G156:L156)</f>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
     </row>
@@ -6877,7 +6898,7 @@
         <v>4</v>
       </c>
       <c r="M157" s="12" t="e">
-        <f>AVERAGE(G157:L157)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6916,7 +6937,7 @@
         <v>31</v>
       </c>
       <c r="M158" s="12">
-        <f>AVERAGE(G158:L158)</f>
+        <f t="shared" si="2"/>
         <v>31.666666666666668</v>
       </c>
     </row>
@@ -6937,7 +6958,7 @@
         <v>4</v>
       </c>
       <c r="M159" s="12" t="e">
-        <f>AVERAGE(G159:L159)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6958,7 +6979,7 @@
         <v>4</v>
       </c>
       <c r="M160" s="12" t="e">
-        <f>AVERAGE(G160:L160)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6985,7 +7006,7 @@
       <c r="J161" s="1"/>
       <c r="L161" s="1"/>
       <c r="M161" s="12" t="e">
-        <f>AVERAGE(G161:L161)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7012,7 +7033,7 @@
       <c r="J162" s="1"/>
       <c r="L162" s="1"/>
       <c r="M162" s="12" t="e">
-        <f>AVERAGE(G162:L162)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7051,7 +7072,7 @@
         <v>17</v>
       </c>
       <c r="M163" s="12">
-        <f>AVERAGE(G163:L163)</f>
+        <f t="shared" si="2"/>
         <v>17.166666666666668</v>
       </c>
     </row>
@@ -7090,7 +7111,7 @@
         <v>70</v>
       </c>
       <c r="M164" s="12">
-        <f>AVERAGE(G164:L164)</f>
+        <f t="shared" ref="M164:M227" si="3">AVERAGE(G164:L164)</f>
         <v>77</v>
       </c>
     </row>
@@ -7129,7 +7150,7 @@
         <v>72</v>
       </c>
       <c r="M165" s="12">
-        <f>AVERAGE(G165:L165)</f>
+        <f t="shared" si="3"/>
         <v>80.666666666666671</v>
       </c>
     </row>
@@ -7165,7 +7186,7 @@
         <v>71</v>
       </c>
       <c r="M166" s="12">
-        <f>AVERAGE(G166:L166)</f>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
     </row>
@@ -7204,7 +7225,7 @@
         <v>13</v>
       </c>
       <c r="M167" s="12">
-        <f>AVERAGE(G167:L167)</f>
+        <f t="shared" si="3"/>
         <v>13.166666666666666</v>
       </c>
     </row>
@@ -7243,7 +7264,7 @@
         <v>86</v>
       </c>
       <c r="M168" s="12">
-        <f>AVERAGE(G168:L168)</f>
+        <f t="shared" si="3"/>
         <v>86.5</v>
       </c>
     </row>
@@ -7267,7 +7288,7 @@
         <v>55</v>
       </c>
       <c r="M169" s="12">
-        <f>AVERAGE(G169:L169)</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
     </row>
@@ -7294,7 +7315,7 @@
         <v>56</v>
       </c>
       <c r="M170" s="12">
-        <f>AVERAGE(G170:L170)</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
     </row>
@@ -7318,7 +7339,7 @@
         <v>86</v>
       </c>
       <c r="M171" s="12">
-        <f>AVERAGE(G171:L171)</f>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
     </row>
@@ -7342,7 +7363,7 @@
         <v>67</v>
       </c>
       <c r="M172" s="12">
-        <f>AVERAGE(G172:L172)</f>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
     </row>
@@ -7369,7 +7390,7 @@
         <v>14</v>
       </c>
       <c r="M173" s="12">
-        <f>AVERAGE(G173:L173)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
@@ -7396,7 +7417,7 @@
         <v>14</v>
       </c>
       <c r="M174" s="12">
-        <f>AVERAGE(G174:L174)</f>
+        <f t="shared" si="3"/>
         <v>14.5</v>
       </c>
     </row>
@@ -7423,7 +7444,7 @@
         <v>14</v>
       </c>
       <c r="M175" s="12">
-        <f>AVERAGE(G175:L175)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
@@ -7450,7 +7471,7 @@
         <v>51</v>
       </c>
       <c r="M176" s="12">
-        <f>AVERAGE(G176:L176)</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
     </row>
@@ -7477,7 +7498,7 @@
         <v>52</v>
       </c>
       <c r="M177" s="12">
-        <f>AVERAGE(G177:L177)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
@@ -7504,7 +7525,7 @@
         <v>62</v>
       </c>
       <c r="M178" s="12">
-        <f>AVERAGE(G178:L178)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
@@ -7528,7 +7549,7 @@
         <v>76</v>
       </c>
       <c r="M179" s="12">
-        <f>AVERAGE(G179:L179)</f>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
     </row>
@@ -7555,7 +7576,7 @@
         <v>49</v>
       </c>
       <c r="M180" s="12">
-        <f>AVERAGE(G180:L180)</f>
+        <f t="shared" si="3"/>
         <v>51.5</v>
       </c>
     </row>
@@ -7582,7 +7603,7 @@
         <v>49</v>
       </c>
       <c r="M181" s="12">
-        <f>AVERAGE(G181:L181)</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
     </row>
@@ -7603,7 +7624,7 @@
         <v>4</v>
       </c>
       <c r="M182" s="12" t="e">
-        <f>AVERAGE(G182:L182)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7627,7 +7648,7 @@
         <v>61</v>
       </c>
       <c r="M183" s="12">
-        <f>AVERAGE(G183:L183)</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
     </row>
@@ -7666,7 +7687,7 @@
         <v>15</v>
       </c>
       <c r="M184" s="12">
-        <f>AVERAGE(G184:L184)</f>
+        <f t="shared" si="3"/>
         <v>15.166666666666666</v>
       </c>
     </row>
@@ -7705,7 +7726,7 @@
         <v>16</v>
       </c>
       <c r="M185" s="12">
-        <f>AVERAGE(G185:L185)</f>
+        <f t="shared" si="3"/>
         <v>16.166666666666668</v>
       </c>
     </row>
@@ -7729,7 +7750,7 @@
         <v>77</v>
       </c>
       <c r="M186" s="12">
-        <f>AVERAGE(G186:L186)</f>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
     </row>
@@ -7768,7 +7789,7 @@
         <v>10</v>
       </c>
       <c r="M187" s="12">
-        <f>AVERAGE(G187:L187)</f>
+        <f t="shared" si="3"/>
         <v>10.166666666666666</v>
       </c>
     </row>
@@ -7792,7 +7813,7 @@
         <v>56</v>
       </c>
       <c r="M188" s="12">
-        <f>AVERAGE(G188:L188)</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
     </row>
@@ -7831,7 +7852,7 @@
         <v>101</v>
       </c>
       <c r="M189" s="12">
-        <f>AVERAGE(G189:L189)</f>
+        <f t="shared" si="3"/>
         <v>101.16666666666667</v>
       </c>
     </row>
@@ -7870,7 +7891,7 @@
         <v>98</v>
       </c>
       <c r="M190" s="12">
-        <f>AVERAGE(G190:L190)</f>
+        <f t="shared" si="3"/>
         <v>98.666666666666671</v>
       </c>
     </row>
@@ -7891,7 +7912,7 @@
         <v>4</v>
       </c>
       <c r="M191" s="12" t="e">
-        <f>AVERAGE(G191:L191)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -7915,7 +7936,7 @@
         <v>70</v>
       </c>
       <c r="M192" s="12">
-        <f>AVERAGE(G192:L192)</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
@@ -7939,7 +7960,7 @@
         <v>71</v>
       </c>
       <c r="M193" s="12">
-        <f>AVERAGE(G193:L193)</f>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
     </row>
@@ -7963,7 +7984,7 @@
         <v>61</v>
       </c>
       <c r="M194" s="12">
-        <f>AVERAGE(G194:L194)</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
     </row>
@@ -7990,7 +8011,7 @@
         <v>56</v>
       </c>
       <c r="M195" s="12">
-        <f>AVERAGE(G195:L195)</f>
+        <f t="shared" si="3"/>
         <v>56.5</v>
       </c>
     </row>
@@ -8014,7 +8035,7 @@
         <v>54</v>
       </c>
       <c r="M196" s="12">
-        <f>AVERAGE(G196:L196)</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
     </row>
@@ -8035,7 +8056,7 @@
         <v>4</v>
       </c>
       <c r="M197" s="12" t="e">
-        <f>AVERAGE(G197:L197)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8065,7 +8086,7 @@
         <v>55</v>
       </c>
       <c r="M198" s="12">
-        <f>AVERAGE(G198:L198)</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
     </row>
@@ -8089,7 +8110,7 @@
         <v>57</v>
       </c>
       <c r="M199" s="12">
-        <f>AVERAGE(G199:L199)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
@@ -8113,7 +8134,7 @@
         <v>59</v>
       </c>
       <c r="M200" s="12">
-        <f>AVERAGE(G200:L200)</f>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
     </row>
@@ -8137,7 +8158,7 @@
         <v>58</v>
       </c>
       <c r="M201" s="12">
-        <f>AVERAGE(G201:L201)</f>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
     </row>
@@ -8176,7 +8197,7 @@
         <v>39</v>
       </c>
       <c r="M202" s="12">
-        <f>AVERAGE(G202:L202)</f>
+        <f t="shared" si="3"/>
         <v>37.333333333333336</v>
       </c>
     </row>
@@ -8200,7 +8221,7 @@
         <v>74</v>
       </c>
       <c r="M203" s="12">
-        <f>AVERAGE(G203:L203)</f>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
     </row>
@@ -8221,7 +8242,7 @@
         <v>4</v>
       </c>
       <c r="M204" s="12" t="e">
-        <f>AVERAGE(G204:L204)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8245,7 +8266,7 @@
         <v>75</v>
       </c>
       <c r="M205" s="12">
-        <f>AVERAGE(G205:L205)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
     </row>
@@ -8284,7 +8305,7 @@
         <v>73</v>
       </c>
       <c r="M206" s="12">
-        <f>AVERAGE(G206:L206)</f>
+        <f t="shared" si="3"/>
         <v>79.666666666666671</v>
       </c>
     </row>
@@ -8323,7 +8344,7 @@
         <v>74</v>
       </c>
       <c r="M207" s="12">
-        <f>AVERAGE(G207:L207)</f>
+        <f t="shared" si="3"/>
         <v>81.166666666666671</v>
       </c>
     </row>
@@ -8362,7 +8383,7 @@
         <v>75</v>
       </c>
       <c r="M208" s="12">
-        <f>AVERAGE(G208:L208)</f>
+        <f t="shared" si="3"/>
         <v>82.5</v>
       </c>
     </row>
@@ -8401,7 +8422,7 @@
         <v>11</v>
       </c>
       <c r="M209" s="12">
-        <f>AVERAGE(G209:L209)</f>
+        <f t="shared" si="3"/>
         <v>11.166666666666666</v>
       </c>
     </row>
@@ -8431,7 +8452,7 @@
         <v>63</v>
       </c>
       <c r="M210" s="12">
-        <f>AVERAGE(G210:L210)</f>
+        <f t="shared" si="3"/>
         <v>56.333333333333336</v>
       </c>
     </row>
@@ -8470,7 +8491,7 @@
         <v>12</v>
       </c>
       <c r="M211" s="12">
-        <f>AVERAGE(G211:L211)</f>
+        <f t="shared" si="3"/>
         <v>12.166666666666666</v>
       </c>
     </row>
@@ -8494,7 +8515,7 @@
         <v>62</v>
       </c>
       <c r="M212" s="12">
-        <f>AVERAGE(G212:L212)</f>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
     </row>
@@ -8533,7 +8554,7 @@
         <v>6</v>
       </c>
       <c r="M213" s="12">
-        <f>AVERAGE(G213:L213)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -8554,7 +8575,7 @@
         <v>4</v>
       </c>
       <c r="M214" s="12" t="e">
-        <f>AVERAGE(G214:L214)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8575,7 +8596,7 @@
         <v>4</v>
       </c>
       <c r="M215" s="12" t="e">
-        <f>AVERAGE(G215:L215)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8596,7 +8617,7 @@
         <v>4</v>
       </c>
       <c r="M216" s="12" t="e">
-        <f>AVERAGE(G216:L216)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8635,7 +8656,7 @@
         <v>44</v>
       </c>
       <c r="M217" s="12">
-        <f>AVERAGE(G217:L217)</f>
+        <f t="shared" si="3"/>
         <v>46.833333333333336</v>
       </c>
     </row>
@@ -8656,7 +8677,7 @@
         <v>4</v>
       </c>
       <c r="M218" s="12" t="e">
-        <f>AVERAGE(G218:L218)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -8680,7 +8701,7 @@
         <v>63</v>
       </c>
       <c r="M219" s="12">
-        <f>AVERAGE(G219:L219)</f>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
     </row>
@@ -8707,7 +8728,7 @@
         <v>64</v>
       </c>
       <c r="M220" s="12">
-        <f>AVERAGE(G220:L220)</f>
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
     </row>
@@ -8731,7 +8752,7 @@
         <v>32</v>
       </c>
       <c r="M221" s="12">
-        <f>AVERAGE(G221:L221)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
@@ -8771,7 +8792,7 @@
         <v>30</v>
       </c>
       <c r="M222" s="12">
-        <f>AVERAGE(G222:L222)</f>
+        <f t="shared" si="3"/>
         <v>30.166666666666668</v>
       </c>
     </row>
@@ -8805,7 +8826,7 @@
       <c r="K223" s="10"/>
       <c r="L223" s="11"/>
       <c r="M223" s="12">
-        <f>AVERAGE(G223:L223)</f>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
     </row>
@@ -8829,7 +8850,7 @@
         <v>61</v>
       </c>
       <c r="M224" s="12">
-        <f>AVERAGE(G224:L224)</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
     </row>
@@ -8868,7 +8889,7 @@
         <v>29</v>
       </c>
       <c r="M225" s="12">
-        <f>AVERAGE(G225:L225)</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
     </row>
@@ -8892,7 +8913,7 @@
         <v>31</v>
       </c>
       <c r="M226" s="12">
-        <f>AVERAGE(G226:L226)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
     </row>
@@ -8931,7 +8952,7 @@
         <v>26</v>
       </c>
       <c r="M227" s="12">
-        <f>AVERAGE(G227:L227)</f>
+        <f t="shared" si="3"/>
         <v>27.166666666666668</v>
       </c>
     </row>
@@ -8958,7 +8979,7 @@
         <v>68</v>
       </c>
       <c r="M228" s="12">
-        <f>AVERAGE(G228:L228)</f>
+        <f t="shared" ref="M228:M291" si="4">AVERAGE(G228:L228)</f>
         <v>72</v>
       </c>
     </row>
@@ -8982,7 +9003,7 @@
         <v>77</v>
       </c>
       <c r="M229" s="12">
-        <f>AVERAGE(G229:L229)</f>
+        <f t="shared" si="4"/>
         <v>77</v>
       </c>
     </row>
@@ -9021,7 +9042,7 @@
         <v>25</v>
       </c>
       <c r="M230" s="12">
-        <f>AVERAGE(G230:L230)</f>
+        <f t="shared" si="4"/>
         <v>25.333333333333332</v>
       </c>
     </row>
@@ -9060,7 +9081,7 @@
         <v>27</v>
       </c>
       <c r="M231" s="12">
-        <f>AVERAGE(G231:L231)</f>
+        <f t="shared" si="4"/>
         <v>26.666666666666668</v>
       </c>
     </row>
@@ -9099,7 +9120,7 @@
         <v>28</v>
       </c>
       <c r="M232" s="12">
-        <f>AVERAGE(G232:L232)</f>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
     </row>
@@ -9126,7 +9147,7 @@
         <v>70</v>
       </c>
       <c r="M233" s="12">
-        <f>AVERAGE(G233:L233)</f>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
     </row>
@@ -9150,7 +9171,7 @@
         <v>79</v>
       </c>
       <c r="M234" s="12">
-        <f>AVERAGE(G234:L234)</f>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
     </row>
@@ -9174,7 +9195,7 @@
         <v>80</v>
       </c>
       <c r="M235" s="12">
-        <f>AVERAGE(G235:L235)</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
     </row>
@@ -9198,7 +9219,7 @@
         <v>78</v>
       </c>
       <c r="M236" s="12">
-        <f>AVERAGE(G236:L236)</f>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
     </row>
@@ -9222,7 +9243,7 @@
         <v>81</v>
       </c>
       <c r="M237" s="12">
-        <f>AVERAGE(G237:L237)</f>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
     </row>
@@ -9246,7 +9267,7 @@
         <v>125</v>
       </c>
       <c r="M238" s="12">
-        <f>AVERAGE(G238:L238)</f>
+        <f t="shared" si="4"/>
         <v>125</v>
       </c>
     </row>
@@ -9270,7 +9291,7 @@
         <v>124</v>
       </c>
       <c r="M239" s="12">
-        <f>AVERAGE(G239:L239)</f>
+        <f t="shared" si="4"/>
         <v>124</v>
       </c>
     </row>
@@ -9294,7 +9315,7 @@
         <v>60</v>
       </c>
       <c r="M240" s="12">
-        <f>AVERAGE(G240:L240)</f>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
@@ -9321,7 +9342,7 @@
         <v>60</v>
       </c>
       <c r="M241" s="12">
-        <f>AVERAGE(G241:L241)</f>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
     </row>
@@ -9345,7 +9366,7 @@
         <v>59</v>
       </c>
       <c r="M242" s="12">
-        <f>AVERAGE(G242:L242)</f>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
     </row>
@@ -9384,7 +9405,7 @@
         <v>48</v>
       </c>
       <c r="M243" s="12">
-        <f>AVERAGE(G243:L243)</f>
+        <f t="shared" si="4"/>
         <v>50.5</v>
       </c>
     </row>
@@ -9408,7 +9429,7 @@
         <v>59</v>
       </c>
       <c r="M244" s="12">
-        <f>AVERAGE(G244:L244)</f>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
     </row>
@@ -9432,7 +9453,7 @@
         <v>60</v>
       </c>
       <c r="M245" s="12">
-        <f>AVERAGE(G245:L245)</f>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
     </row>
@@ -9471,7 +9492,7 @@
         <v>7</v>
       </c>
       <c r="M246" s="12">
-        <f>AVERAGE(G246:L246)</f>
+        <f t="shared" si="4"/>
         <v>7.666666666666667</v>
       </c>
     </row>
@@ -9510,7 +9531,7 @@
         <v>78</v>
       </c>
       <c r="M247" s="12">
-        <f>AVERAGE(G247:L247)</f>
+        <f t="shared" si="4"/>
         <v>79.5</v>
       </c>
     </row>
@@ -9549,7 +9570,7 @@
         <v>79</v>
       </c>
       <c r="M248" s="12">
-        <f>AVERAGE(G248:L248)</f>
+        <f t="shared" si="4"/>
         <v>78.333333333333329</v>
       </c>
     </row>
@@ -9588,7 +9609,7 @@
         <v>80</v>
       </c>
       <c r="M249" s="12">
-        <f>AVERAGE(G249:L249)</f>
+        <f t="shared" si="4"/>
         <v>80.5</v>
       </c>
     </row>
@@ -9612,7 +9633,7 @@
         <v>66</v>
       </c>
       <c r="M250" s="12">
-        <f>AVERAGE(G250:L250)</f>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
     </row>
@@ -9636,7 +9657,7 @@
         <v>67</v>
       </c>
       <c r="M251" s="12">
-        <f>AVERAGE(G251:L251)</f>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
     </row>
@@ -9675,7 +9696,7 @@
         <v>21</v>
       </c>
       <c r="M252" s="12">
-        <f>AVERAGE(G252:L252)</f>
+        <f t="shared" si="4"/>
         <v>21.166666666666668</v>
       </c>
     </row>
@@ -9699,7 +9720,7 @@
         <v>22</v>
       </c>
       <c r="M253" s="12">
-        <f>AVERAGE(G253:L253)</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
     </row>
@@ -9738,7 +9759,7 @@
         <v>40</v>
       </c>
       <c r="M254" s="12">
-        <f>AVERAGE(G254:L254)</f>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
     </row>
@@ -9777,7 +9798,7 @@
         <v>41</v>
       </c>
       <c r="M255" s="12">
-        <f>AVERAGE(G255:L255)</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
     </row>
@@ -9804,7 +9825,7 @@
         <v>83</v>
       </c>
       <c r="M256" s="12">
-        <f>AVERAGE(G256:L256)</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
     </row>
@@ -9828,7 +9849,7 @@
         <v>83</v>
       </c>
       <c r="M257" s="12">
-        <f>AVERAGE(G257:L257)</f>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
     </row>
@@ -9849,7 +9870,7 @@
         <v>4</v>
       </c>
       <c r="M258" s="12" t="e">
-        <f>AVERAGE(G258:L258)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -9870,7 +9891,7 @@
         <v>4</v>
       </c>
       <c r="M259" s="12" t="e">
-        <f>AVERAGE(G259:L259)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/Ex quest.xlsx
+++ b/Ex quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="368" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0FEF5026-B06E-48D9-99E5-9A7EA161DCDF}"/>
+  <xr:revisionPtr revIDLastSave="379" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E35DA8EF-5EF6-4937-A701-622CA5982345}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2111,8 +2111,8 @@
   <dimension ref="A1:M259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2148,27 +2148,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1007)</f>
-        <v>火 136</v>
+        <v>火 137</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1007)</f>
-        <v>水 135</v>
+        <v>水 137</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1007)</f>
-        <v>風 120</v>
+        <v>風 122</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1007)</f>
-        <v>雷 119</v>
+        <v>雷 121</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1007)</f>
-        <v>光 135</v>
+        <v>光 137</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1007)</f>
-        <v>暗 122</v>
+        <v>暗 124</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>346</v>
@@ -3759,9 +3759,27 @@
       <c r="E61" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M61" s="12" t="e">
+      <c r="G61" s="6">
+        <v>137</v>
+      </c>
+      <c r="H61" s="7">
+        <v>137</v>
+      </c>
+      <c r="I61" s="8">
+        <v>122</v>
+      </c>
+      <c r="J61" s="9">
+        <v>120</v>
+      </c>
+      <c r="K61" s="10">
+        <v>136</v>
+      </c>
+      <c r="L61" s="11">
+        <v>123</v>
+      </c>
+      <c r="M61" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>129.16666666666666</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -4956,9 +4974,24 @@
       <c r="G97" s="6">
         <v>73</v>
       </c>
+      <c r="H97" s="7">
+        <v>136</v>
+      </c>
+      <c r="I97" s="8">
+        <v>121</v>
+      </c>
+      <c r="J97" s="9">
+        <v>121</v>
+      </c>
+      <c r="K97" s="10">
+        <v>137</v>
+      </c>
+      <c r="L97" s="11">
+        <v>124</v>
+      </c>
       <c r="M97" s="12">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>118.66666666666667</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -8979,7 +9012,7 @@
         <v>68</v>
       </c>
       <c r="M228" s="12">
-        <f t="shared" ref="M228:M291" si="4">AVERAGE(G228:L228)</f>
+        <f t="shared" ref="M228:M259" si="4">AVERAGE(G228:L228)</f>
         <v>72</v>
       </c>
     </row>

--- a/Ex quest.xlsx
+++ b/Ex quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="393" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{685C867E-F06D-4E92-A5AF-144D19910A86}"/>
+  <xr:revisionPtr revIDLastSave="398" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{690AAFD2-2695-4C0F-B250-6A97A8DBBCE0}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2118,8 +2118,8 @@
   <dimension ref="A1:M260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2159,23 +2159,23 @@
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1007)</f>
-        <v>水 140</v>
+        <v>水 141</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1007)</f>
-        <v>風 124</v>
+        <v>風 125</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1007)</f>
-        <v>雷 123</v>
+        <v>雷 124</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1007)</f>
-        <v>光 140</v>
+        <v>光 141</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1007)</f>
-        <v>暗 126</v>
+        <v>暗 127</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>346</v>
@@ -2380,9 +2380,24 @@
       <c r="G7" s="6">
         <v>140</v>
       </c>
+      <c r="H7" s="7">
+        <v>141</v>
+      </c>
+      <c r="I7" s="8">
+        <v>125</v>
+      </c>
+      <c r="J7" s="9">
+        <v>124</v>
+      </c>
+      <c r="K7" s="10">
+        <v>141</v>
+      </c>
+      <c r="L7" s="11">
+        <v>127</v>
+      </c>
       <c r="M7" s="12">
         <f>AVERAGE(G7:L7)</f>
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -9090,7 +9105,7 @@
         <v>68</v>
       </c>
       <c r="M229" s="12">
-        <f t="shared" ref="M229:M292" si="4">AVERAGE(G229:L229)</f>
+        <f t="shared" ref="M229:M260" si="4">AVERAGE(G229:L229)</f>
         <v>72</v>
       </c>
     </row>

--- a/Ex quest.xlsx
+++ b/Ex quest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kklau\OneDrive\Tagatame\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="398" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{690AAFD2-2695-4C0F-B250-6A97A8DBBCE0}"/>
+  <xr:revisionPtr revIDLastSave="417" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9C6EA4A0-B270-4E5B-B7B4-5949F7975632}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="522">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1597,6 +1597,24 @@
   </si>
   <si>
     <t>5th Anniversary クエスト3</t>
+  </si>
+  <si>
+    <t>【地獄級】コンティニュー不可 【地獄級】よいこのためのクリスマス計画</t>
+  </si>
+  <si>
+    <t>超高難易度クエスト 【EX極】よいこのためのクリスマス計画</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 【EX】よいこのためのクリスマス計画</t>
+  </si>
+  <si>
+    <t>よいこのためのクリスマス計画 [地獄級]</t>
+  </si>
+  <si>
+    <t>よいこのためのクリスマス計画 [EX極]</t>
+  </si>
+  <si>
+    <t>よいこのためのクリスマス計画</t>
   </si>
 </sst>
 </file>
@@ -2115,11 +2133,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M260"/>
+  <dimension ref="A1:M263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G262" sqref="G262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2155,19 +2173,19 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1007)</f>
-        <v>火 141</v>
+        <v>火 143</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1007)</f>
-        <v>水 141</v>
+        <v>水 142</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1007)</f>
-        <v>風 125</v>
+        <v>風 126</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1007)</f>
-        <v>雷 124</v>
+        <v>雷 125</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1007)</f>
@@ -2175,7 +2193,7 @@
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1007)</f>
-        <v>暗 127</v>
+        <v>暗 128</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>346</v>
@@ -6133,12 +6151,27 @@
       <c r="E129" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G129" s="6">
+        <v>142</v>
+      </c>
+      <c r="H129" s="7">
+        <v>142</v>
+      </c>
+      <c r="I129" s="8">
+        <v>126</v>
+      </c>
+      <c r="J129" s="9">
+        <v>125</v>
+      </c>
       <c r="K129" s="10">
         <v>80</v>
       </c>
+      <c r="L129" s="11">
+        <v>128</v>
+      </c>
       <c r="M129" s="12">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>123.83333333333333</v>
       </c>
     </row>
     <row r="130" spans="1:13">
@@ -9105,7 +9138,7 @@
         <v>68</v>
       </c>
       <c r="M229" s="12">
-        <f t="shared" ref="M229:M260" si="4">AVERAGE(G229:L229)</f>
+        <f t="shared" ref="M229:M263" si="4">AVERAGE(G229:L229)</f>
         <v>72</v>
       </c>
     </row>
@@ -10019,6 +10052,72 @@
       <c r="M260" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13">
+      <c r="A261" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C261" s="2">
+        <v>50</v>
+      </c>
+      <c r="D261" s="2">
+        <v>500</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M261" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13">
+      <c r="A262" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C262" s="2">
+        <v>50</v>
+      </c>
+      <c r="D262" s="2">
+        <v>500</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M262" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13">
+      <c r="A263" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C263" s="2">
+        <v>40</v>
+      </c>
+      <c r="D263" s="2">
+        <v>400</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G263" s="6">
+        <v>143</v>
+      </c>
+      <c r="M263" s="12">
+        <f t="shared" si="4"/>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -10068,16 +10167,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E33" sqref="A33:E33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E36" sqref="A34:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="63.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="1" max="1" width="69.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -10635,6 +10734,57 @@
         <v>500</v>
       </c>
       <c r="E33" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="B34" t="s">
+        <v>519</v>
+      </c>
+      <c r="C34" s="14">
+        <v>50</v>
+      </c>
+      <c r="D34" s="14">
+        <v>500</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="B35" t="s">
+        <v>520</v>
+      </c>
+      <c r="C35" s="14">
+        <v>50</v>
+      </c>
+      <c r="D35" s="14">
+        <v>500</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="B36" t="s">
+        <v>521</v>
+      </c>
+      <c r="C36" s="14">
+        <v>40</v>
+      </c>
+      <c r="D36" s="14">
+        <v>400</v>
+      </c>
+      <c r="E36" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10653,8 +10803,11 @@
     <hyperlink ref="A31" r:id="rId9" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-geraldnatalie-ex-sp" xr:uid="{B758C359-10FE-4072-BF8E-A288FB6E07E8}"/>
     <hyperlink ref="A32" r:id="rId10" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-geraldnatalie-ex" xr:uid="{14B070A3-125F-4AC8-8296-E58BC10030AE}"/>
     <hyperlink ref="A33" r:id="rId11" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-pok-5th-anniv-03" xr:uid="{B84BD32A-E660-41B4-B3C9-DF81E9BCA871}"/>
+    <hyperlink ref="A34" r:id="rId12" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-xmas-2019-ex-sp2" xr:uid="{7AF1AA9E-6F13-49E2-9C97-2D7059E50EC4}"/>
+    <hyperlink ref="A35" r:id="rId13" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-xmas-2019-ex-sp" xr:uid="{318C7714-432F-4E5B-8219-2D87CA99C951}"/>
+    <hyperlink ref="A36" r:id="rId14" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-xmas-2019-ex" xr:uid="{39933232-9BB0-4D2A-AE76-675117EBAEB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/Ex quest.xlsx
+++ b/Ex quest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kklau\OneDrive\Tagatame\Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="417" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9C6EA4A0-B270-4E5B-B7B4-5949F7975632}"/>
+  <xr:revisionPtr revIDLastSave="434" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5869BA1F-005D-4354-8BE3-7AA47264AB95}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="532">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1062,14 +1062,6 @@
   </si>
   <si>
     <t>鐘鳴る好機に雪解け甘く (時計仕掛けカンパネラ)</t>
-  </si>
-  <si>
-    <t>『ザ・ハードボイルドへの道』 [地獄級]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>『スノーウィッチへの道』 [地獄級]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ラジアントヒストリア コラボ [EX極] 輪眼獲得 ***佔2行***</t>
@@ -1615,6 +1607,42 @@
   </si>
   <si>
     <t>よいこのためのクリスマス計画</t>
+  </si>
+  <si>
+    <t>【地獄級】 蒼失の反旗</t>
+  </si>
+  <si>
+    <t>蒼失の反旗 [地獄級]</t>
+  </si>
+  <si>
+    <t>超高難易度クエスト 『転スラ』コラボ　EX極</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 『転スラ』コラボ　EX3[ベニマル武具獲得]</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 『転スラ』コラボ　EX2[ミリム武具獲得]</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 『転スラ』コラボ　EX1[リムル武具獲得]</t>
+  </si>
+  <si>
+    <t>転スラ コラボ [EX極]</t>
+  </si>
+  <si>
+    <t>スノーウィッチへの道 [地獄級]</t>
+  </si>
+  <si>
+    <t>ザ・ハードボイルドへの道 [地獄級]</t>
+  </si>
+  <si>
+    <t>転スラ コラボ EX3 [ベニマル武具獲得]</t>
+  </si>
+  <si>
+    <t>転スラ コラボ EX2[ミリム武具獲得]</t>
+  </si>
+  <si>
+    <t>転スラ コラボ EX1[リムル武具獲得]</t>
   </si>
 </sst>
 </file>
@@ -2133,18 +2161,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M263"/>
+  <dimension ref="A1:M268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G262" sqref="G262"/>
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B264" sqref="B264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="76.09765625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="8.796875" style="2" customWidth="1"/>
+    <col min="3" max="5" width="8.796875" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.796875" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.8984375" style="6" customWidth="1"/>
     <col min="8" max="8" width="8.8984375" style="7" customWidth="1"/>
     <col min="9" max="9" width="8.8984375" style="8" customWidth="1"/>
@@ -2160,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -2173,30 +2202,30 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1007)</f>
-        <v>火 143</v>
+        <v>火 145</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1007)</f>
-        <v>水 142</v>
+        <v>水 145</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1007)</f>
-        <v>風 126</v>
+        <v>風 128</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1007)</f>
-        <v>雷 125</v>
+        <v>雷 128</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1007)</f>
-        <v>光 141</v>
+        <v>光 143</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1007)</f>
-        <v>暗 128</v>
+        <v>暗 130</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1">
@@ -2204,7 +2233,7 @@
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>343</v>
+        <v>528</v>
       </c>
       <c r="C2" s="2">
         <v>50</v>
@@ -2242,7 +2271,7 @@
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>344</v>
+        <v>527</v>
       </c>
       <c r="C3" s="2">
         <v>50</v>
@@ -2303,10 +2332,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C5" s="2">
         <v>50</v>
@@ -2342,10 +2371,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C6" s="2">
         <v>50</v>
@@ -2381,10 +2410,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C7" s="2">
         <v>50</v>
@@ -2420,10 +2449,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C8" s="2">
         <v>40</v>
@@ -2444,7 +2473,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>150</v>
@@ -2819,10 +2848,10 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C26" s="2">
         <v>40</v>
@@ -2882,7 +2911,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>202</v>
@@ -2945,7 +2974,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>190</v>
@@ -2972,7 +3001,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>190</v>
@@ -2993,7 +3022,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>190</v>
@@ -3014,7 +3043,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>190</v>
@@ -3035,7 +3064,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>190</v>
@@ -3056,7 +3085,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>190</v>
@@ -3077,7 +3106,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>190</v>
@@ -3137,10 +3166,10 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C38" s="2">
         <v>40</v>
@@ -3176,10 +3205,10 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C39" s="2">
         <v>50</v>
@@ -3212,10 +3241,10 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C40" s="2">
         <v>50</v>
@@ -3251,7 +3280,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>152</v>
@@ -3290,10 +3319,10 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C42" s="2">
         <v>50</v>
@@ -3557,10 +3586,10 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C51" s="2">
         <v>40</v>
@@ -3824,10 +3853,10 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C62" s="2">
         <v>40</v>
@@ -3863,10 +3892,10 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C63" s="2">
         <v>50</v>
@@ -3902,10 +3931,10 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C64" s="2">
         <v>50</v>
@@ -3923,10 +3952,10 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C65" s="2">
         <v>50</v>
@@ -4061,10 +4090,10 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C69" s="2">
         <v>40</v>
@@ -4100,10 +4129,10 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C70" s="2">
         <v>40</v>
@@ -4139,10 +4168,10 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C71" s="2">
         <v>40</v>
@@ -4331,10 +4360,10 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C79" s="2">
         <v>40</v>
@@ -4370,10 +4399,10 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C80" s="2">
         <v>40</v>
@@ -4409,10 +4438,10 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C81" s="2">
         <v>50</v>
@@ -4448,10 +4477,10 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C82" s="2">
         <v>50</v>
@@ -4781,10 +4810,10 @@
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C91" s="2">
         <v>40</v>
@@ -4859,10 +4888,10 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C93" s="2">
         <v>40</v>
@@ -4898,10 +4927,10 @@
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C94" s="2">
         <v>40</v>
@@ -4937,10 +4966,10 @@
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C95" s="2">
         <v>40</v>
@@ -5132,10 +5161,10 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="C100" s="2">
         <v>40</v>
@@ -5171,10 +5200,10 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C101" s="2">
         <v>40</v>
@@ -5336,7 +5365,7 @@
         <v>22</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C107" s="2">
         <v>50</v>
@@ -5441,7 +5470,7 @@
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>273</v>
@@ -5480,7 +5509,7 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>274</v>
@@ -5519,7 +5548,7 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>275</v>
@@ -5558,7 +5587,7 @@
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>276</v>
@@ -5597,7 +5626,7 @@
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>277</v>
@@ -5636,10 +5665,10 @@
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C115" s="2">
         <v>40</v>
@@ -5675,10 +5704,10 @@
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C116" s="2">
         <v>40</v>
@@ -5714,10 +5743,10 @@
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>491</v>
       </c>
       <c r="C117" s="2">
         <v>40</v>
@@ -5792,10 +5821,10 @@
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C119" s="2">
         <v>50</v>
@@ -5831,10 +5860,10 @@
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="C120" s="2">
         <v>50</v>
@@ -5870,10 +5899,10 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="C121" s="2">
         <v>50</v>
@@ -5909,10 +5938,10 @@
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C122" s="2">
         <v>40</v>
@@ -5933,10 +5962,10 @@
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C123" s="2">
         <v>40</v>
@@ -5972,10 +6001,10 @@
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C124" s="2">
         <v>50</v>
@@ -6011,10 +6040,10 @@
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C125" s="2">
         <v>40</v>
@@ -6050,10 +6079,10 @@
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C126" s="2">
         <v>50</v>
@@ -6176,10 +6205,10 @@
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C130" s="2">
         <v>40</v>
@@ -6197,10 +6226,10 @@
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C131" s="2">
         <v>40</v>
@@ -6236,10 +6265,10 @@
     </row>
     <row r="132" spans="1:13">
       <c r="A132" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C132" s="2">
         <v>50</v>
@@ -6329,10 +6358,10 @@
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C135" s="2">
         <v>30</v>
@@ -6368,10 +6397,10 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C136" s="2">
         <v>60</v>
@@ -6407,10 +6436,10 @@
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C137" s="2">
         <v>40</v>
@@ -6446,10 +6475,10 @@
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C138" s="2">
         <v>50</v>
@@ -6596,10 +6625,10 @@
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C144" s="2">
         <v>40</v>
@@ -6623,10 +6652,10 @@
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C145" s="2">
         <v>40</v>
@@ -6686,10 +6715,10 @@
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C147" s="2">
         <v>50</v>
@@ -6920,10 +6949,10 @@
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C155" s="2">
         <v>40</v>
@@ -7058,10 +7087,10 @@
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C159" s="2">
         <v>40</v>
@@ -7193,10 +7222,10 @@
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C164" s="2">
         <v>40</v>
@@ -7346,10 +7375,10 @@
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C168" s="2">
         <v>40</v>
@@ -7427,7 +7456,7 @@
         <v>113</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C170" s="2">
         <v>40</v>
@@ -7550,10 +7579,10 @@
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C175" s="2">
         <v>40</v>
@@ -7631,10 +7660,10 @@
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C178" s="2">
         <v>50</v>
@@ -7685,10 +7714,10 @@
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C180" s="2">
         <v>50</v>
@@ -7808,10 +7837,10 @@
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C185" s="2">
         <v>40</v>
@@ -7847,10 +7876,10 @@
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C186" s="2">
         <v>50</v>
@@ -7910,10 +7939,10 @@
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C188" s="2">
         <v>40</v>
@@ -8249,7 +8278,7 @@
         <v>6</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C200" s="2">
         <v>40</v>
@@ -8318,10 +8347,10 @@
     </row>
     <row r="203" spans="1:13">
       <c r="A203" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C203" s="2">
         <v>50</v>
@@ -8543,10 +8572,10 @@
     </row>
     <row r="210" spans="1:13">
       <c r="A210" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C210" s="2">
         <v>40</v>
@@ -8582,10 +8611,10 @@
     </row>
     <row r="211" spans="1:13">
       <c r="A211" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C211" s="2">
         <v>60</v>
@@ -8612,10 +8641,10 @@
     </row>
     <row r="212" spans="1:13">
       <c r="A212" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C212" s="2">
         <v>60</v>
@@ -8678,10 +8707,10 @@
     </row>
     <row r="214" spans="1:13">
       <c r="A214" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C214" s="2">
         <v>40</v>
@@ -8780,10 +8809,10 @@
     </row>
     <row r="218" spans="1:13">
       <c r="A218" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C218" s="2">
         <v>40</v>
@@ -8921,10 +8950,10 @@
     </row>
     <row r="223" spans="1:13" s="1" customFormat="1">
       <c r="A223" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C223" s="2">
         <v>40</v>
@@ -9015,10 +9044,10 @@
     </row>
     <row r="226" spans="1:13">
       <c r="A226" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C226" s="2">
         <v>40</v>
@@ -9078,10 +9107,10 @@
     </row>
     <row r="228" spans="1:13">
       <c r="A228" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C228" s="2">
         <v>40</v>
@@ -9168,10 +9197,10 @@
     </row>
     <row r="231" spans="1:13">
       <c r="A231" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C231" s="2">
         <v>40</v>
@@ -9207,10 +9236,10 @@
     </row>
     <row r="232" spans="1:13">
       <c r="A232" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C232" s="2">
         <v>50</v>
@@ -9246,10 +9275,10 @@
     </row>
     <row r="233" spans="1:13">
       <c r="A233" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C233" s="2">
         <v>40</v>
@@ -9408,10 +9437,10 @@
     </row>
     <row r="239" spans="1:13">
       <c r="A239" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="C239" s="2">
         <v>40</v>
@@ -9432,10 +9461,10 @@
     </row>
     <row r="240" spans="1:13">
       <c r="A240" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="C240" s="2">
         <v>40</v>
@@ -9531,10 +9560,10 @@
     </row>
     <row r="244" spans="1:13">
       <c r="A244" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C244" s="2">
         <v>40</v>
@@ -9618,10 +9647,10 @@
     </row>
     <row r="247" spans="1:13">
       <c r="A247" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C247" s="2">
         <v>40</v>
@@ -9822,10 +9851,10 @@
     </row>
     <row r="253" spans="1:13">
       <c r="A253" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C253" s="2">
         <v>40</v>
@@ -9861,10 +9890,10 @@
     </row>
     <row r="254" spans="1:13">
       <c r="A254" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C254" s="2">
         <v>50</v>
@@ -9885,10 +9914,10 @@
     </row>
     <row r="255" spans="1:13">
       <c r="A255" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C255" s="2">
         <v>50</v>
@@ -9924,10 +9953,10 @@
     </row>
     <row r="256" spans="1:13">
       <c r="A256" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C256" s="2">
         <v>60</v>
@@ -10056,10 +10085,10 @@
     </row>
     <row r="261" spans="1:13">
       <c r="A261" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C261" s="2">
         <v>50</v>
@@ -10070,17 +10099,26 @@
       <c r="E261" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M261" s="12" t="e">
+      <c r="G261" s="6">
+        <v>145</v>
+      </c>
+      <c r="H261" s="7">
+        <v>145</v>
+      </c>
+      <c r="J261" s="9">
+        <v>128</v>
+      </c>
+      <c r="M261" s="12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>139.33333333333334</v>
       </c>
     </row>
     <row r="262" spans="1:13">
       <c r="A262" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C262" s="2">
         <v>50</v>
@@ -10091,17 +10129,35 @@
       <c r="E262" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M262" s="12" t="e">
+      <c r="G262" s="6">
+        <v>144</v>
+      </c>
+      <c r="H262" s="7">
+        <v>144</v>
+      </c>
+      <c r="I262" s="8">
+        <v>128</v>
+      </c>
+      <c r="J262" s="9">
+        <v>127</v>
+      </c>
+      <c r="K262" s="10">
+        <v>143</v>
+      </c>
+      <c r="L262" s="11">
+        <v>130</v>
+      </c>
+      <c r="M262" s="12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>136</v>
       </c>
     </row>
     <row r="263" spans="1:13">
       <c r="A263" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C263" s="2">
         <v>40</v>
@@ -10115,9 +10171,109 @@
       <c r="G263" s="6">
         <v>143</v>
       </c>
+      <c r="H263" s="7">
+        <v>143</v>
+      </c>
+      <c r="I263" s="8">
+        <v>127</v>
+      </c>
+      <c r="J263" s="9">
+        <v>126</v>
+      </c>
+      <c r="K263" s="10">
+        <v>142</v>
+      </c>
+      <c r="L263" s="11">
+        <v>129</v>
+      </c>
       <c r="M263" s="12">
         <f t="shared" si="4"/>
-        <v>143</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13">
+      <c r="A264" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C264" s="2">
+        <v>50</v>
+      </c>
+      <c r="D264" s="2">
+        <v>500</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13">
+      <c r="A265" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C265" s="2">
+        <v>50</v>
+      </c>
+      <c r="D265" s="2">
+        <v>14000</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13">
+      <c r="A266" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C266" s="2">
+        <v>40</v>
+      </c>
+      <c r="D266" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13">
+      <c r="A267" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C267" s="2">
+        <v>40</v>
+      </c>
+      <c r="D267" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13">
+      <c r="A268" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C268" s="2">
+        <v>40</v>
+      </c>
+      <c r="D268" s="2">
+        <v>11000</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -10167,10 +10323,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E36" sqref="A34:E36"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E41" sqref="A37:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10195,7 +10351,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B2" t="s">
         <v>190</v>
@@ -10212,7 +10368,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B3" t="s">
         <v>190</v>
@@ -10229,7 +10385,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s">
         <v>190</v>
@@ -10246,7 +10402,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B5" t="s">
         <v>190</v>
@@ -10263,7 +10419,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B6" t="s">
         <v>190</v>
@@ -10280,7 +10436,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B7" t="s">
         <v>190</v>
@@ -10297,7 +10453,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B8" t="s">
         <v>190</v>
@@ -10314,10 +10470,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C9" s="14">
         <v>40</v>
@@ -10331,10 +10487,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C10" s="14">
         <v>40</v>
@@ -10348,10 +10504,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C11">
         <v>40</v>
@@ -10365,10 +10521,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B12" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -10382,10 +10538,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C13">
         <v>50</v>
@@ -10399,10 +10555,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B14" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C14">
         <v>40</v>
@@ -10416,10 +10572,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C15">
         <v>40</v>
@@ -10433,10 +10589,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C16">
         <v>40</v>
@@ -10450,10 +10606,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B17" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -10467,10 +10623,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B18" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C18">
         <v>50</v>
@@ -10484,10 +10640,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B19" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C19">
         <v>50</v>
@@ -10501,10 +10657,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B20" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C20">
         <v>40</v>
@@ -10518,10 +10674,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>486</v>
+      </c>
+      <c r="B21" t="s">
         <v>488</v>
-      </c>
-      <c r="B21" t="s">
-        <v>490</v>
       </c>
       <c r="C21">
         <v>50</v>
@@ -10535,10 +10691,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
+        <v>487</v>
+      </c>
+      <c r="B22" t="s">
         <v>489</v>
-      </c>
-      <c r="B22" t="s">
-        <v>491</v>
       </c>
       <c r="C22">
         <v>40</v>
@@ -10552,10 +10708,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="B23" t="s">
         <v>492</v>
-      </c>
-      <c r="B23" t="s">
-        <v>494</v>
       </c>
       <c r="C23" s="14">
         <v>50</v>
@@ -10569,10 +10725,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="B24" t="s">
         <v>493</v>
-      </c>
-      <c r="B24" t="s">
-        <v>495</v>
       </c>
       <c r="C24" s="14">
         <v>40</v>
@@ -10586,10 +10742,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="15" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B25" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C25" s="14">
         <v>50</v>
@@ -10603,10 +10759,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="B26" t="s">
         <v>498</v>
-      </c>
-      <c r="B26" t="s">
-        <v>500</v>
       </c>
       <c r="C26" s="14">
         <v>40</v>
@@ -10620,10 +10776,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="B27" t="s">
         <v>499</v>
-      </c>
-      <c r="B27" t="s">
-        <v>501</v>
       </c>
       <c r="C27" s="14">
         <v>40</v>
@@ -10637,10 +10793,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="15" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B28" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C28" s="14">
         <v>50</v>
@@ -10654,10 +10810,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="15" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B29" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C29" s="14">
         <v>40</v>
@@ -10671,10 +10827,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="15" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B30" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C30" s="14">
         <v>50</v>
@@ -10688,10 +10844,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="15" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B31" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C31" s="14">
         <v>50</v>
@@ -10705,10 +10861,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="15" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B32" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C32" s="14">
         <v>40</v>
@@ -10722,10 +10878,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="16" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B33" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C33" s="14">
         <v>50</v>
@@ -10739,10 +10895,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="15" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B34" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C34" s="14">
         <v>50</v>
@@ -10756,10 +10912,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="15" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B35" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C35" s="14">
         <v>50</v>
@@ -10773,18 +10929,103 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="15" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B36" t="s">
+        <v>519</v>
+      </c>
+      <c r="C36" s="14">
+        <v>40</v>
+      </c>
+      <c r="D36" s="14">
+        <v>400</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="B37" t="s">
         <v>521</v>
       </c>
-      <c r="C36" s="14">
-        <v>40</v>
-      </c>
-      <c r="D36" s="14">
-        <v>400</v>
-      </c>
-      <c r="E36" s="14" t="s">
+      <c r="C37" s="14">
+        <v>50</v>
+      </c>
+      <c r="D37" s="14">
+        <v>500</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="B38" t="s">
+        <v>526</v>
+      </c>
+      <c r="C38" s="14">
+        <v>50</v>
+      </c>
+      <c r="D38" s="14">
+        <v>14000</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="B39" t="s">
+        <v>529</v>
+      </c>
+      <c r="C39" s="14">
+        <v>40</v>
+      </c>
+      <c r="D39" s="14">
+        <v>11000</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="B40" t="s">
+        <v>530</v>
+      </c>
+      <c r="C40" s="14">
+        <v>40</v>
+      </c>
+      <c r="D40" s="14">
+        <v>11000</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="B41" t="s">
+        <v>531</v>
+      </c>
+      <c r="C41" s="14">
+        <v>40</v>
+      </c>
+      <c r="D41" s="14">
+        <v>11000</v>
+      </c>
+      <c r="E41" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10806,8 +11047,13 @@
     <hyperlink ref="A34" r:id="rId12" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-xmas-2019-ex-sp2" xr:uid="{7AF1AA9E-6F13-49E2-9C97-2D7059E50EC4}"/>
     <hyperlink ref="A35" r:id="rId13" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-xmas-2019-ex-sp" xr:uid="{318C7714-432F-4E5B-8219-2D87CA99C951}"/>
     <hyperlink ref="A36" r:id="rId14" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-xmas-2019-ex" xr:uid="{39933232-9BB0-4D2A-AE76-675117EBAEB9}"/>
+    <hyperlink ref="A37" r:id="rId15" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-ten-command" xr:uid="{6277BDC4-E948-4D49-B2CC-899AC86D5EF4}"/>
+    <hyperlink ref="A38" r:id="rId16" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-tsp-ex-sp-01" xr:uid="{0FB5B36F-7EA6-459A-82C7-6A4659365997}"/>
+    <hyperlink ref="A39" r:id="rId17" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-tsp-ex-03" xr:uid="{B9C3308F-B9B7-4717-8943-9614C455DAB6}"/>
+    <hyperlink ref="A40" r:id="rId18" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-tsp-ex-02" xr:uid="{1E990301-D4D6-4D01-B9CD-838A2E32D073}"/>
+    <hyperlink ref="A41" r:id="rId19" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-tsp-ex-01" xr:uid="{A963883E-E679-48FD-88BD-5D46475AA562}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/Ex quest.xlsx
+++ b/Ex quest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="434" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5869BA1F-005D-4354-8BE3-7AA47264AB95}"/>
+  <xr:revisionPtr revIDLastSave="474" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{816BCC9C-19A9-4E41-A240-A6E6F72CE90A}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="533">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1643,6 +1643,9 @@
   </si>
   <si>
     <t>転スラ コラボ EX1[リムル武具獲得]</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 憤怒再臨</t>
   </si>
 </sst>
 </file>
@@ -2161,11 +2164,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M268"/>
+  <dimension ref="A1:M269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B264" sqref="B264"/>
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B263" sqref="B263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2202,27 +2205,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1007)</f>
-        <v>火 145</v>
+        <v>火 150</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1007)</f>
-        <v>水 145</v>
+        <v>水 151</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1007)</f>
-        <v>風 128</v>
+        <v>風 133</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1007)</f>
-        <v>雷 128</v>
+        <v>雷 133</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1007)</f>
-        <v>光 143</v>
+        <v>光 147</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1007)</f>
-        <v>暗 130</v>
+        <v>暗 135</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>344</v>
@@ -3228,6 +3231,9 @@
       <c r="I39" s="8">
         <v>87</v>
       </c>
+      <c r="J39" s="9">
+        <v>129</v>
+      </c>
       <c r="K39" s="10">
         <v>104</v>
       </c>
@@ -3236,7 +3242,7 @@
       </c>
       <c r="M39" s="12">
         <f t="shared" si="1"/>
-        <v>97.8</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -3372,12 +3378,18 @@
       <c r="E43" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G43" s="6">
+        <v>146</v>
+      </c>
+      <c r="H43" s="7">
+        <v>146</v>
+      </c>
       <c r="K43" s="10">
         <v>76</v>
       </c>
       <c r="M43" s="12">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>122.66666666666667</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3810,9 +3822,12 @@
       <c r="E60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M60" s="12" t="e">
+      <c r="H60" s="7">
+        <v>148</v>
+      </c>
+      <c r="M60" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -9167,7 +9182,7 @@
         <v>68</v>
       </c>
       <c r="M229" s="12">
-        <f t="shared" ref="M229:M263" si="4">AVERAGE(G229:L229)</f>
+        <f t="shared" ref="M229:M268" si="4">AVERAGE(G229:L229)</f>
         <v>72</v>
       </c>
     </row>
@@ -9844,9 +9859,12 @@
       <c r="H252" s="7">
         <v>67</v>
       </c>
+      <c r="I252" s="8">
+        <v>129</v>
+      </c>
       <c r="M252" s="12">
         <f t="shared" si="4"/>
-        <v>67</v>
+        <v>98</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -10207,6 +10225,13 @@
       <c r="E264" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="L264" s="11">
+        <v>132</v>
+      </c>
+      <c r="M264" s="12">
+        <f t="shared" si="4"/>
+        <v>132</v>
+      </c>
     </row>
     <row r="265" spans="1:13">
       <c r="A265" s="1" t="s">
@@ -10224,6 +10249,28 @@
       <c r="E265" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G265" s="6">
+        <v>150</v>
+      </c>
+      <c r="H265" s="7">
+        <v>151</v>
+      </c>
+      <c r="I265" s="8">
+        <v>133</v>
+      </c>
+      <c r="J265" s="9">
+        <v>133</v>
+      </c>
+      <c r="K265" s="10">
+        <v>147</v>
+      </c>
+      <c r="L265" s="11">
+        <v>135</v>
+      </c>
+      <c r="M265" s="12">
+        <f t="shared" si="4"/>
+        <v>141.5</v>
+      </c>
     </row>
     <row r="266" spans="1:13">
       <c r="A266" s="1" t="s">
@@ -10241,6 +10288,28 @@
       <c r="E266" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G266" s="6">
+        <v>148</v>
+      </c>
+      <c r="H266" s="7">
+        <v>149</v>
+      </c>
+      <c r="I266" s="8">
+        <v>132</v>
+      </c>
+      <c r="J266" s="9">
+        <v>132</v>
+      </c>
+      <c r="K266" s="10">
+        <v>146</v>
+      </c>
+      <c r="L266" s="11">
+        <v>134</v>
+      </c>
+      <c r="M266" s="12">
+        <f t="shared" si="4"/>
+        <v>140.16666666666666</v>
+      </c>
     </row>
     <row r="267" spans="1:13">
       <c r="A267" s="1" t="s">
@@ -10258,6 +10327,28 @@
       <c r="E267" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G267" s="6">
+        <v>149</v>
+      </c>
+      <c r="H267" s="7">
+        <v>150</v>
+      </c>
+      <c r="I267" s="8">
+        <v>131</v>
+      </c>
+      <c r="J267" s="9">
+        <v>131</v>
+      </c>
+      <c r="K267" s="10">
+        <v>145</v>
+      </c>
+      <c r="L267" s="11">
+        <v>133</v>
+      </c>
+      <c r="M267" s="12">
+        <f t="shared" si="4"/>
+        <v>139.83333333333334</v>
+      </c>
     </row>
     <row r="268" spans="1:13">
       <c r="A268" s="1" t="s">
@@ -10273,6 +10364,45 @@
         <v>11000</v>
       </c>
       <c r="E268" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G268" s="6">
+        <v>147</v>
+      </c>
+      <c r="H268" s="7">
+        <v>147</v>
+      </c>
+      <c r="I268" s="8">
+        <v>130</v>
+      </c>
+      <c r="J268" s="9">
+        <v>130</v>
+      </c>
+      <c r="K268" s="10">
+        <v>144</v>
+      </c>
+      <c r="L268" s="11">
+        <v>131</v>
+      </c>
+      <c r="M268" s="12">
+        <f t="shared" si="4"/>
+        <v>138.16666666666666</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13">
+      <c r="A269" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C269" s="2">
+        <v>30</v>
+      </c>
+      <c r="D269" s="2">
+        <v>300</v>
+      </c>
+      <c r="E269" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10323,10 +10453,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E41" sqref="A37:E41"/>
+      <selection activeCell="E42" sqref="A42:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11026,6 +11156,23 @@
         <v>11000</v>
       </c>
       <c r="E41" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="B42" t="s">
+        <v>532</v>
+      </c>
+      <c r="C42" s="14">
+        <v>30</v>
+      </c>
+      <c r="D42" s="14">
+        <v>300</v>
+      </c>
+      <c r="E42" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -11052,8 +11199,9 @@
     <hyperlink ref="A39" r:id="rId17" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-tsp-ex-03" xr:uid="{B9C3308F-B9B7-4717-8943-9614C455DAB6}"/>
     <hyperlink ref="A40" r:id="rId18" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-tsp-ex-02" xr:uid="{1E990301-D4D6-4D01-B9CD-838A2E32D073}"/>
     <hyperlink ref="A41" r:id="rId19" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-tsp-ex-01" xr:uid="{A963883E-E679-48FD-88BD-5D46475AA562}"/>
+    <hyperlink ref="A42" r:id="rId20" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-return-wrath-ex" xr:uid="{17083EBB-4111-40E5-AE85-64BCD981C96C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/Ex quest.xlsx
+++ b/Ex quest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kklau\OneDrive\Tagatame\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="474" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{816BCC9C-19A9-4E41-A240-A6E6F72CE90A}"/>
+  <xr:revisionPtr revIDLastSave="475" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{82C8964E-8343-496D-8A62-CAFCAE15B4E9}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="541">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1646,6 +1646,30 @@
   </si>
   <si>
     <t>高難易度クエスト 憤怒再臨</t>
+  </si>
+  <si>
+    <t>【地獄級】コンティニュー不可 【地獄級】天翔ける焔竜王</t>
+  </si>
+  <si>
+    <t>超高難易度クエスト 【EX極】天翔ける焔竜王</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 【EX】天翔ける焔竜王</t>
+  </si>
+  <si>
+    <t>【超高難易度】コンティニュー不可 ロギ第３ジョブ開放クエスト</t>
+  </si>
+  <si>
+    <t>天翔ける焔竜王 [地獄級]</t>
+  </si>
+  <si>
+    <t>天翔ける焔竜王 [EX極]</t>
+  </si>
+  <si>
+    <t>天翔ける焔竜王</t>
+  </si>
+  <si>
+    <t>第３ジョブ開放クエスト[ロギ]</t>
   </si>
 </sst>
 </file>
@@ -2164,11 +2188,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M269"/>
+  <dimension ref="A1:M274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B263" sqref="B263"/>
+      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M273" sqref="M273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -9182,7 +9206,7 @@
         <v>68</v>
       </c>
       <c r="M229" s="12">
-        <f t="shared" ref="M229:M268" si="4">AVERAGE(G229:L229)</f>
+        <f t="shared" ref="M229:M274" si="4">AVERAGE(G229:L229)</f>
         <v>72</v>
       </c>
     </row>
@@ -10405,6 +10429,97 @@
       <c r="E269" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="M269" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13">
+      <c r="A270" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C270" s="2">
+        <v>50</v>
+      </c>
+      <c r="D270" s="2">
+        <v>500</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M270" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13">
+      <c r="A271" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C271" s="2">
+        <v>50</v>
+      </c>
+      <c r="D271" s="2">
+        <v>500</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M271" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13">
+      <c r="A272" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C272" s="2">
+        <v>40</v>
+      </c>
+      <c r="D272" s="2">
+        <v>400</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M272" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13">
+      <c r="A273" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C273" s="2">
+        <v>50</v>
+      </c>
+      <c r="D273" s="2">
+        <v>500</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M273" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13">
+      <c r="M274" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{E6A05FEB-E022-483C-B74F-E4F502393947}">
@@ -10453,10 +10568,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E42" sqref="A42:E42"/>
+      <selection activeCell="E46" sqref="A43:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11173,6 +11288,74 @@
         <v>300</v>
       </c>
       <c r="E42" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="B43" t="s">
+        <v>537</v>
+      </c>
+      <c r="C43" s="14">
+        <v>50</v>
+      </c>
+      <c r="D43" s="14">
+        <v>500</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="B44" t="s">
+        <v>538</v>
+      </c>
+      <c r="C44" s="14">
+        <v>50</v>
+      </c>
+      <c r="D44" s="14">
+        <v>500</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="B45" t="s">
+        <v>539</v>
+      </c>
+      <c r="C45" s="14">
+        <v>40</v>
+      </c>
+      <c r="D45" s="14">
+        <v>400</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="B46" t="s">
+        <v>540</v>
+      </c>
+      <c r="C46" s="14">
+        <v>50</v>
+      </c>
+      <c r="D46" s="14">
+        <v>500</v>
+      </c>
+      <c r="E46" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -11200,8 +11383,12 @@
     <hyperlink ref="A40" r:id="rId18" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-tsp-ex-02" xr:uid="{1E990301-D4D6-4D01-B9CD-838A2E32D073}"/>
     <hyperlink ref="A41" r:id="rId19" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-tsp-ex-01" xr:uid="{A963883E-E679-48FD-88BD-5D46475AA562}"/>
     <hyperlink ref="A42" r:id="rId20" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-return-wrath-ex" xr:uid="{17083EBB-4111-40E5-AE85-64BCD981C96C}"/>
+    <hyperlink ref="A43" r:id="rId21" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-cadaquest-05" xr:uid="{55A75544-DCDA-46D5-9972-692FA2FBF6DE}"/>
+    <hyperlink ref="A44" r:id="rId22" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-cadaquest-04" xr:uid="{DFAF5049-EC7F-425B-BDE7-F0D0AFB00814}"/>
+    <hyperlink ref="A45" r:id="rId23" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-cadaquest-03" xr:uid="{2C44BC1A-D8BC-4DAE-897D-1446EF96686C}"/>
+    <hyperlink ref="A46" r:id="rId24" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-logi-job3-ex-sp" xr:uid="{96354190-0066-42F1-908B-1ADD4A7686BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
--- a/Ex quest.xlsx
+++ b/Ex quest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kklau\OneDrive\Tagatame\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="475" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{82C8964E-8343-496D-8A62-CAFCAE15B4E9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B708709-8DBA-49BD-850D-C0909F4B77EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="557">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -1670,6 +1670,54 @@
   </si>
   <si>
     <t>第３ジョブ開放クエスト[ロギ]</t>
+  </si>
+  <si>
+    <t>【地獄級】 最終試練【ロギ】</t>
+  </si>
+  <si>
+    <t>【地獄級】コンティニュー不可 『蒼義剣士への道』</t>
+  </si>
+  <si>
+    <t>【EX極】ファントム オブ アルケミスト2 ファントム オブ アルケミスト2[EX極2]</t>
+  </si>
+  <si>
+    <t>【EX極】ファントム オブ アルケミスト2 ファントム オブ アルケミスト2[EX極1]</t>
+  </si>
+  <si>
+    <t>【獣嚇槍『カシウス』登場】 ファントム オブ アルケミスト10[EX]</t>
+  </si>
+  <si>
+    <t>【地獄級】コンティニュー不可 【地獄級】チョコレート・ハートミックス</t>
+  </si>
+  <si>
+    <t>超高難易度クエスト 【EX極】チョコレート・ハートミックス</t>
+  </si>
+  <si>
+    <t>高難易度クエスト 【EX】チョコレート・ハートミックス</t>
+  </si>
+  <si>
+    <t>最終試練 [ロギ] [地獄級]</t>
+  </si>
+  <si>
+    <t>『蒼義剣士への道』 [地獄級]</t>
+  </si>
+  <si>
+    <t>ファントム オブ アルケミスト10 [EX]</t>
+  </si>
+  <si>
+    <t>ファントム オブ アルケミスト2 [EX極1]</t>
+  </si>
+  <si>
+    <t>ファントム オブ アルケミスト2 [EX極2]</t>
+  </si>
+  <si>
+    <t>チョコレート・ハートミックス [地獄級]</t>
+  </si>
+  <si>
+    <t>チョコレート・ハートミックス [EX極]</t>
+  </si>
+  <si>
+    <t>チョコレート・ハートミックス</t>
   </si>
 </sst>
 </file>
@@ -2188,11 +2236,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M274"/>
+  <dimension ref="A1:M281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M273" sqref="M273"/>
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K279" sqref="K279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2229,27 +2277,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1007)</f>
-        <v>火 150</v>
+        <v>火 152</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1007)</f>
-        <v>水 151</v>
+        <v>水 152</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1007)</f>
-        <v>風 133</v>
+        <v>風 134</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1007)</f>
-        <v>雷 133</v>
+        <v>雷 134</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1007)</f>
-        <v>光 147</v>
+        <v>光 149</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1007)</f>
-        <v>暗 135</v>
+        <v>暗 136</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>344</v>
@@ -9206,7 +9254,7 @@
         <v>68</v>
       </c>
       <c r="M229" s="12">
-        <f t="shared" ref="M229:M274" si="4">AVERAGE(G229:L229)</f>
+        <f t="shared" ref="M229:M281" si="4">AVERAGE(G229:L229)</f>
         <v>72</v>
       </c>
     </row>
@@ -10450,9 +10498,12 @@
       <c r="E270" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M270" s="12" t="e">
+      <c r="G270" s="6">
+        <v>152</v>
+      </c>
+      <c r="M270" s="12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>152</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -10513,13 +10564,199 @@
       <c r="E273" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M273" s="12" t="e">
+      <c r="G273" s="6">
+        <v>151</v>
+      </c>
+      <c r="H273" s="7">
+        <v>152</v>
+      </c>
+      <c r="I273" s="8">
+        <v>134</v>
+      </c>
+      <c r="J273" s="9">
+        <v>134</v>
+      </c>
+      <c r="K273" s="10">
+        <v>148</v>
+      </c>
+      <c r="L273" s="11">
+        <v>136</v>
+      </c>
+      <c r="M273" s="12">
+        <f t="shared" si="4"/>
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13">
+      <c r="A274" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C274" s="2">
+        <v>10</v>
+      </c>
+      <c r="D274" s="2">
+        <v>500</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M274" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
-      <c r="M274" s="12"/>
+    <row r="275" spans="1:13">
+      <c r="A275" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C275" s="2">
+        <v>50</v>
+      </c>
+      <c r="D275" s="2">
+        <v>500</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M275" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13">
+      <c r="A276" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C276" s="2">
+        <v>50</v>
+      </c>
+      <c r="D276" s="2">
+        <v>500</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M276" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13">
+      <c r="A277" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C277" s="2">
+        <v>50</v>
+      </c>
+      <c r="D277" s="2">
+        <v>500</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M277" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13">
+      <c r="A278" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C278" s="2">
+        <v>40</v>
+      </c>
+      <c r="D278" s="2">
+        <v>400</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K278" s="10">
+        <v>149</v>
+      </c>
+      <c r="M278" s="12">
+        <f t="shared" si="4"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13">
+      <c r="A279" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C279" s="2">
+        <v>50</v>
+      </c>
+      <c r="D279" s="2">
+        <v>500</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M279" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13">
+      <c r="A280" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C280" s="2">
+        <v>50</v>
+      </c>
+      <c r="D280" s="2">
+        <v>500</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M280" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13">
+      <c r="A281" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C281" s="2">
+        <v>40</v>
+      </c>
+      <c r="D281" s="2">
+        <v>400</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M281" s="12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{E6A05FEB-E022-483C-B74F-E4F502393947}">
@@ -10568,10 +10805,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADB07B-0D9C-40D4-9D41-B48716D70AB4}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E46" sqref="A43:E46"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E54" sqref="A47:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11356,6 +11593,142 @@
         <v>500</v>
       </c>
       <c r="E46" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="B47" t="s">
+        <v>549</v>
+      </c>
+      <c r="C47" s="14">
+        <v>10</v>
+      </c>
+      <c r="D47" s="14">
+        <v>500</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="B48" t="s">
+        <v>550</v>
+      </c>
+      <c r="C48" s="14">
+        <v>50</v>
+      </c>
+      <c r="D48" s="14">
+        <v>500</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="28.8">
+      <c r="A49" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="B49" t="s">
+        <v>553</v>
+      </c>
+      <c r="C49" s="14">
+        <v>50</v>
+      </c>
+      <c r="D49" s="14">
+        <v>500</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="28.8">
+      <c r="A50" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="B50" t="s">
+        <v>552</v>
+      </c>
+      <c r="C50" s="14">
+        <v>50</v>
+      </c>
+      <c r="D50" s="14">
+        <v>500</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="B51" t="s">
+        <v>551</v>
+      </c>
+      <c r="C51" s="14">
+        <v>40</v>
+      </c>
+      <c r="D51" s="14">
+        <v>400</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="B52" t="s">
+        <v>554</v>
+      </c>
+      <c r="C52" s="14">
+        <v>50</v>
+      </c>
+      <c r="D52" s="14">
+        <v>500</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>555</v>
+      </c>
+      <c r="C53" s="14">
+        <v>50</v>
+      </c>
+      <c r="D53" s="14">
+        <v>500</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="B54" t="s">
+        <v>556</v>
+      </c>
+      <c r="C54" s="14">
+        <v>40</v>
+      </c>
+      <c r="D54" s="14">
+        <v>400</v>
+      </c>
+      <c r="E54" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -11387,8 +11760,16 @@
     <hyperlink ref="A44" r:id="rId22" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-cadaquest-04" xr:uid="{DFAF5049-EC7F-425B-BDE7-F0D0AFB00814}"/>
     <hyperlink ref="A45" r:id="rId23" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-cadaquest-03" xr:uid="{2C44BC1A-D8BC-4DAE-897D-1446EF96686C}"/>
     <hyperlink ref="A46" r:id="rId24" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-logi-job3-ex-sp" xr:uid="{96354190-0066-42F1-908B-1ADD4A7686BD}"/>
+    <hyperlink ref="A47" r:id="rId25" display="http://www.alchemistcodedb.com/jp/quest/qe-key-quest-logi-job3-ex-sp3" xr:uid="{A4D45652-B34E-4E29-AA2B-E8481626C800}"/>
+    <hyperlink ref="A48" r:id="rId26" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-logi-job3-ex-sp2" xr:uid="{2D83AD37-3E4E-4031-B525-F6BFD850C7A1}"/>
+    <hyperlink ref="A49" r:id="rId27" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-pok-kakusei-ex-sp-2" xr:uid="{07064C06-340E-4523-81F3-0C08ABC3B103}"/>
+    <hyperlink ref="A50" r:id="rId28" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-pok-kakusei-ex-sp-1" xr:uid="{1BFAE389-B89C-442D-B823-EFC5E9CBB01B}"/>
+    <hyperlink ref="A51" r:id="rId29" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-pok12-ex" xr:uid="{2393CD56-7F08-4B82-B03D-984B4031531A}"/>
+    <hyperlink ref="A52" r:id="rId30" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-valentine2020-ex-sp2" xr:uid="{6720EE80-5272-49CA-8BD3-B003BB9D3ECF}"/>
+    <hyperlink ref="A53" r:id="rId31" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-valentine2020-ex-sp" xr:uid="{98EE27C7-17B3-4365-9916-58DBF094291B}"/>
+    <hyperlink ref="A54" r:id="rId32" display="http://www.alchemistcodedb.com/jp/quest/qe-ev-valentine2020-ex" xr:uid="{E3D8F7C2-4056-441F-B3B0-747AE235E768}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/Ex quest.xlsx
+++ b/Ex quest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kklau\OneDrive\Tagatame\Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B708709-8DBA-49BD-850D-C0909F4B77EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="14_{798B45A4-3944-44E4-B148-31E9B7A3BEA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F958170B-A9C6-44C1-B37D-28F312A8D781}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2239,8 +2239,8 @@
   <dimension ref="A1:M281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K279" sqref="K279"/>
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G281" sqref="G281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="14.4"/>
@@ -2277,27 +2277,27 @@
       </c>
       <c r="G1" s="3" t="str">
         <f>"火 "&amp;COUNT(G2:G1007)</f>
-        <v>火 152</v>
+        <v>火 158</v>
       </c>
       <c r="H1" s="3" t="str">
         <f>"水 "&amp;COUNT(H2:H1007)</f>
-        <v>水 152</v>
+        <v>水 157</v>
       </c>
       <c r="I1" s="3" t="str">
         <f>"風 "&amp;COUNT(I2:I1007)</f>
-        <v>風 134</v>
+        <v>風 137</v>
       </c>
       <c r="J1" s="3" t="str">
         <f>"雷 "&amp;COUNT(J2:J1007)</f>
-        <v>雷 134</v>
+        <v>雷 137</v>
       </c>
       <c r="K1" s="4" t="str">
         <f>"光 "&amp;COUNT(K2:K1007)</f>
-        <v>光 149</v>
+        <v>光 154</v>
       </c>
       <c r="L1" s="3" t="str">
         <f>"暗 "&amp;COUNT(L2:L1007)</f>
-        <v>暗 136</v>
+        <v>暗 142</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>344</v>
@@ -10499,11 +10499,14 @@
         <v>4</v>
       </c>
       <c r="G270" s="6">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="L270" s="11">
+        <v>139</v>
       </c>
       <c r="M270" s="12">
         <f t="shared" si="4"/>
-        <v>152</v>
+        <v>146.5</v>
       </c>
     </row>
     <row r="271" spans="1:13">
@@ -10522,9 +10525,21 @@
       <c r="E271" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M271" s="12" t="e">
+      <c r="G271" s="6">
+        <v>153</v>
+      </c>
+      <c r="H271" s="7">
+        <v>154</v>
+      </c>
+      <c r="K271" s="10">
+        <v>151</v>
+      </c>
+      <c r="L271" s="11">
+        <v>138</v>
+      </c>
+      <c r="M271" s="12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>149</v>
       </c>
     </row>
     <row r="272" spans="1:13">
@@ -10543,9 +10558,21 @@
       <c r="E272" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M272" s="12" t="e">
+      <c r="G272" s="6">
+        <v>152</v>
+      </c>
+      <c r="H272" s="7">
+        <v>153</v>
+      </c>
+      <c r="K272" s="10">
+        <v>149</v>
+      </c>
+      <c r="L272" s="11">
+        <v>137</v>
+      </c>
+      <c r="M272" s="12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>147.75</v>
       </c>
     </row>
     <row r="273" spans="1:13">
@@ -10624,9 +10651,12 @@
       <c r="E275" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M275" s="12" t="e">
+      <c r="K275" s="10">
+        <v>150</v>
+      </c>
+      <c r="M275" s="12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>150</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -10666,9 +10696,12 @@
       <c r="E277" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M277" s="12" t="e">
+      <c r="G277" s="6">
+        <v>155</v>
+      </c>
+      <c r="M277" s="12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>155</v>
       </c>
     </row>
     <row r="278" spans="1:13">
@@ -10687,12 +10720,27 @@
       <c r="E278" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G278" s="6">
+        <v>156</v>
+      </c>
+      <c r="H278" s="7">
+        <v>155</v>
+      </c>
+      <c r="I278" s="8">
+        <v>135</v>
+      </c>
+      <c r="J278" s="9">
+        <v>135</v>
+      </c>
       <c r="K278" s="10">
-        <v>149</v>
+        <v>152</v>
+      </c>
+      <c r="L278" s="11">
+        <v>140</v>
       </c>
       <c r="M278" s="12">
         <f t="shared" si="4"/>
-        <v>149</v>
+        <v>145.5</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -10732,9 +10780,27 @@
       <c r="E280" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M280" s="12" t="e">
+      <c r="G280" s="6">
+        <v>158</v>
+      </c>
+      <c r="H280" s="7">
+        <v>157</v>
+      </c>
+      <c r="I280" s="8">
+        <v>137</v>
+      </c>
+      <c r="J280" s="9">
+        <v>137</v>
+      </c>
+      <c r="K280" s="10">
+        <v>154</v>
+      </c>
+      <c r="L280" s="11">
+        <v>142</v>
+      </c>
+      <c r="M280" s="12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>147.5</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -10753,9 +10819,27 @@
       <c r="E281" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M281" s="12" t="e">
+      <c r="G281" s="6">
+        <v>157</v>
+      </c>
+      <c r="H281" s="7">
+        <v>156</v>
+      </c>
+      <c r="I281" s="8">
+        <v>136</v>
+      </c>
+      <c r="J281" s="9">
+        <v>136</v>
+      </c>
+      <c r="K281" s="10">
+        <v>153</v>
+      </c>
+      <c r="L281" s="11">
+        <v>141</v>
+      </c>
+      <c r="M281" s="12">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>146.5</v>
       </c>
     </row>
   </sheetData>
